--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="112">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,8 +978,7 @@
     <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -1145,7 +1144,9 @@
       <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -1160,12 +1161,12 @@
         <v>3</v>
       </c>
       <c r="AD2" s="7">
-        <f>3</f>
-        <v>3</v>
+        <f>3+2</f>
+        <v>5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>224.5</v>
+        <v>226.5</v>
       </c>
       <c r="AF2" s="7">
         <f>SUM(F3:AB3)</f>
@@ -1330,7 +1331,9 @@
       <c r="R4" s="7">
         <v>2</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -1515,7 +1518,9 @@
       <c r="R6" s="7">
         <v>3</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -1530,16 +1535,16 @@
         <v>2</v>
       </c>
       <c r="AD6" s="7">
-        <f>1</f>
-        <v>1</v>
+        <f>1+3</f>
+        <v>4</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AF6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1602,7 +1607,7 @@
       </c>
       <c r="S7" s="8">
         <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
@@ -1700,7 +1705,9 @@
       <c r="R8" s="7">
         <v>10</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7">
+        <v>2</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -1718,11 +1725,11 @@
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AF8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1785,7 +1792,7 @@
       </c>
       <c r="S9" s="8">
         <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
@@ -1883,7 +1890,9 @@
       <c r="R10" s="7">
         <v>8</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7">
+        <v>5</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -1901,11 +1910,11 @@
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="AF10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1968,7 +1977,7 @@
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
@@ -2066,7 +2075,9 @@
       <c r="R12" s="7">
         <v>5</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>4</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -2084,11 +2095,11 @@
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AF12" s="7">
         <f>SUM(F13:AB13)</f>
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2151,7 +2162,7 @@
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
@@ -2249,7 +2260,9 @@
       <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>6</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -2267,11 +2280,11 @@
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>89.5</v>
+        <v>97.5</v>
       </c>
       <c r="AF14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>89.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2334,7 +2347,7 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
@@ -2379,60 +2392,62 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
-        <v>6</v>
-      </c>
-      <c r="K16" s="7">
-        <v>3</v>
-      </c>
-      <c r="L16" s="7">
-        <v>7</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9</v>
-      </c>
       <c r="O16" s="7">
+        <v>5</v>
+      </c>
+      <c r="P16" s="7">
         <v>11</v>
       </c>
-      <c r="P16" s="7">
-        <v>5</v>
-      </c>
       <c r="Q16" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R16" s="7">
-        <v>4</v>
-      </c>
-      <c r="S16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -2447,15 +2462,16 @@
         <v>1</v>
       </c>
       <c r="AD16" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AF16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2466,31 +2482,31 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="8">
         <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
@@ -2498,27 +2514,27 @@
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,25,IF(Q16=2,18,IF(Q16=3,15,IF(Q16=4,12,IF(Q16=5,10,IF(Q16=6,8,IF(Q16=7,6,IF(Q16=8,4,IF(Q16=9,2,IF(Q16=10,1,0))))))))))/2</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
@@ -2563,60 +2579,62 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="L18" s="7">
         <v>7</v>
       </c>
-      <c r="G18" s="7">
+      <c r="M18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9</v>
+      </c>
+      <c r="O18" s="7">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7">
-        <v>12</v>
-      </c>
-      <c r="K18" s="7">
-        <v>9</v>
-      </c>
-      <c r="L18" s="7">
-        <v>6</v>
-      </c>
-      <c r="M18" s="7">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7">
-        <v>7</v>
-      </c>
-      <c r="O18" s="7">
-        <v>5</v>
-      </c>
-      <c r="P18" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="7">
         <v>4</v>
       </c>
-      <c r="R18" s="7">
-        <v>11</v>
-      </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -2627,18 +2645,19 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD18" s="7">
         <v>0</v>
       </c>
       <c r="AE18" s="7">
         <f>SUM(F19:AB19)+AC18+AD18</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AF18" s="7">
         <f>SUM(F19:AB19)</f>
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
@@ -2649,31 +2668,31 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8">
         <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8">
         <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="8">
         <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J19" s="8">
         <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19" s="8">
         <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L19" s="8">
         <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M19" s="8">
         <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
@@ -2681,23 +2700,23 @@
       </c>
       <c r="N19" s="8">
         <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O19" s="8">
         <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P19" s="8">
         <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="8">
         <f>IF(Q18=1,25,IF(Q18=2,18,IF(Q18=3,15,IF(Q18=4,12,IF(Q18=5,10,IF(Q18=6,8,IF(Q18=7,6,IF(Q18=8,4,IF(Q18=9,2,IF(Q18=10,1,0))))))))))/2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R19" s="8">
         <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S19" s="8">
         <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
@@ -2799,7 +2818,9 @@
       <c r="R20" s="7">
         <v>6</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="7">
+        <v>8</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -2817,11 +2838,11 @@
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AB21)+AC20+AD20</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="7">
         <f>SUM(F21:AB21)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2884,7 +2905,7 @@
       </c>
       <c r="S21" s="8">
         <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T21" s="8">
         <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
@@ -2982,7 +3003,9 @@
       <c r="R22" s="7">
         <v>9</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7">
+        <v>10</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -3000,11 +3023,11 @@
       </c>
       <c r="AE22" s="7">
         <f>SUM(F23:AB23)+AC22+AD22</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF22" s="7">
         <f>SUM(F23:AB23)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -3067,7 +3090,7 @@
       </c>
       <c r="S23" s="8">
         <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="8">
         <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
@@ -3165,7 +3188,9 @@
       <c r="R24" s="7">
         <v>13</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>12</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -3348,7 +3373,9 @@
       <c r="R26" s="7">
         <v>12</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7">
+        <v>7</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -3366,11 +3393,11 @@
       </c>
       <c r="AE26" s="7">
         <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AF26" s="7">
         <f>SUM(F27:AB27)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
@@ -3433,7 +3460,7 @@
       </c>
       <c r="S27" s="8">
         <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T27" s="8">
         <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
@@ -3531,7 +3558,9 @@
       <c r="R28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="S28" s="7"/>
+      <c r="S28" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -3714,7 +3743,9 @@
       <c r="R30" s="7">
         <v>17</v>
       </c>
-      <c r="S30" s="7"/>
+      <c r="S30" s="7">
+        <v>9</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -3732,11 +3763,11 @@
       </c>
       <c r="AE30" s="7">
         <f>SUM(F31:AB31)+AC30+AD30</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" s="7">
         <f>SUM(F31:AB31)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3799,7 +3830,7 @@
       </c>
       <c r="S31" s="8">
         <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" s="8">
         <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
@@ -3897,7 +3928,9 @@
       <c r="R32" s="7">
         <v>16</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>11</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -4261,7 +4294,9 @@
       <c r="R36" s="7">
         <v>14</v>
       </c>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7">
+        <v>13</v>
+      </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -4444,7 +4479,9 @@
       <c r="R38" s="7">
         <v>18</v>
       </c>
-      <c r="S38" s="7"/>
+      <c r="S38" s="7">
+        <v>15</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -4627,7 +4664,9 @@
       <c r="R40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -4786,7 +4825,9 @@
       <c r="R42" s="7">
         <v>16</v>
       </c>
-      <c r="S42" s="7"/>
+      <c r="S42" s="7">
+        <v>14</v>
+      </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -4819,7 +4860,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
-        <f t="shared" ref="F41:Q43" si="0">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
+        <f t="shared" ref="G43:Q43" si="0">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
@@ -4867,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="R41:AC43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
+        <f t="shared" ref="S43:AC43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
@@ -4947,8 +4988,7 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -5102,7 +5142,9 @@
       <c r="R2" s="7">
         <v>2</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -5272,7 +5314,9 @@
       <c r="R4" s="7">
         <v>1</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -5442,7 +5486,9 @@
       <c r="R6" s="7">
         <v>3</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -5454,7 +5500,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5517,7 +5563,7 @@
       </c>
       <c r="S7" s="8">
         <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
@@ -5612,7 +5658,9 @@
       <c r="R8" s="7">
         <v>10</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="7">
+        <v>2</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -5624,7 +5672,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5687,7 +5735,7 @@
       </c>
       <c r="S9" s="8">
         <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
@@ -5782,7 +5830,9 @@
       <c r="R10" s="7">
         <v>8</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="7">
+        <v>5</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -5794,7 +5844,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -5857,7 +5907,7 @@
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
@@ -5952,7 +6002,9 @@
       <c r="R12" s="7">
         <v>5</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>4</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -5964,7 +6016,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7">
         <f>SUM(F13:AB13)</f>
-        <v>36.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -6027,7 +6079,7 @@
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
@@ -6122,7 +6174,9 @@
       <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>6</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -6134,7 +6188,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -6197,7 +6251,7 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
@@ -6239,60 +6293,62 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
-        <v>6</v>
-      </c>
-      <c r="K16" s="7">
-        <v>3</v>
-      </c>
-      <c r="L16" s="7">
-        <v>7</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9</v>
-      </c>
       <c r="O16" s="7">
+        <v>5</v>
+      </c>
+      <c r="P16" s="7">
         <v>11</v>
       </c>
-      <c r="P16" s="7">
-        <v>5</v>
-      </c>
       <c r="Q16" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R16" s="7">
-        <v>4</v>
-      </c>
-      <c r="S16" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -6304,7 +6360,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -6315,11 +6371,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8">
         <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
@@ -6327,19 +6383,19 @@
       </c>
       <c r="I17" s="8">
         <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
@@ -6347,27 +6403,27 @@
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,8,IF(Q16=3,6,IF(Q16=4,5,IF(Q16=5,4,IF(Q16=6,3,IF(Q16=7,2,IF(Q16=8,1,0))))))))/2</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
@@ -6409,60 +6465,62 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="L18" s="7">
         <v>7</v>
       </c>
-      <c r="G18" s="7">
+      <c r="M18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="7">
+        <v>9</v>
+      </c>
+      <c r="O18" s="7">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6</v>
-      </c>
-      <c r="J18" s="7">
-        <v>12</v>
-      </c>
-      <c r="K18" s="7">
-        <v>9</v>
-      </c>
-      <c r="L18" s="7">
-        <v>6</v>
-      </c>
-      <c r="M18" s="7">
-        <v>13</v>
-      </c>
-      <c r="N18" s="7">
-        <v>7</v>
-      </c>
-      <c r="O18" s="7">
-        <v>5</v>
-      </c>
-      <c r="P18" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="R18" s="7">
         <v>4</v>
       </c>
-      <c r="R18" s="7">
-        <v>11</v>
-      </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -6474,7 +6532,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7">
         <f>SUM(F19:AB19)</f>
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -6485,11 +6543,11 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8">
         <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="8">
         <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
@@ -6497,19 +6555,19 @@
       </c>
       <c r="I19" s="8">
         <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="8">
         <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="8">
         <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L19" s="8">
         <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" s="8">
         <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
@@ -6517,23 +6575,23 @@
       </c>
       <c r="N19" s="8">
         <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="8">
         <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P19" s="8">
         <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="8">
         <f>IF(Q18=1,10,IF(Q18=2,8,IF(Q18=3,6,IF(Q18=4,5,IF(Q18=5,4,IF(Q18=6,3,IF(Q18=7,2,IF(Q18=8,1,0))))))))/2</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R19" s="8">
         <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="8">
         <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
@@ -6632,7 +6690,9 @@
       <c r="R20" s="7">
         <v>6</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="7">
+        <v>8</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -6644,7 +6704,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7">
         <f>SUM(F21:AB21)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -6707,7 +6767,7 @@
       </c>
       <c r="S21" s="8">
         <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="8">
         <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
@@ -6802,7 +6862,9 @@
       <c r="R22" s="7">
         <v>13</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7">
+        <v>12</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -6972,7 +7034,9 @@
       <c r="R24" s="7">
         <v>9</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>10</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -7089,60 +7153,62 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B26" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
+        <v>11</v>
+      </c>
+      <c r="J26" s="7">
+        <v>8</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="7">
+        <v>10</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13</v>
+      </c>
+      <c r="O26" s="7">
+        <v>8</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>18</v>
+      </c>
+      <c r="R26" s="7">
         <v>12</v>
       </c>
-      <c r="H26" s="7">
-        <v>15</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="7">
-        <v>16</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="S26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="7">
-        <v>13</v>
-      </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12</v>
-      </c>
-      <c r="O26" s="7">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>15</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -7154,7 +7220,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7">
         <f>SUM(F27:AB27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -7169,7 +7235,7 @@
       </c>
       <c r="G27" s="8">
         <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="8">
         <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
@@ -7181,11 +7247,11 @@
       </c>
       <c r="J27" s="8">
         <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="8">
         <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="8">
         <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
@@ -7193,7 +7259,7 @@
       </c>
       <c r="M27" s="8">
         <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="8">
         <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
@@ -7201,11 +7267,11 @@
       </c>
       <c r="O27" s="8">
         <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="8">
         <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="8">
         <f>IF(Q26=1,10,IF(Q26=2,8,IF(Q26=3,6,IF(Q26=4,5,IF(Q26=5,4,IF(Q26=6,3,IF(Q26=7,2,IF(Q26=8,1,0))))))))/2</f>
@@ -7217,7 +7283,7 @@
       </c>
       <c r="S27" s="8">
         <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="8">
         <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
@@ -7259,60 +7325,62 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="7">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F28" s="7">
-        <v>14</v>
-      </c>
-      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7">
+        <v>15</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="7">
+      <c r="J28" s="7">
         <v>16</v>
       </c>
-      <c r="I28" s="7">
-        <v>14</v>
-      </c>
-      <c r="J28" s="7">
-        <v>14</v>
-      </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="7">
+        <v>7</v>
+      </c>
+      <c r="L28" s="7">
+        <v>13</v>
+      </c>
+      <c r="M28" s="7">
+        <v>10</v>
+      </c>
+      <c r="N28" s="7">
+        <v>12</v>
+      </c>
+      <c r="O28" s="7">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>15</v>
+      </c>
+      <c r="R28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L28" s="7">
-        <v>12</v>
-      </c>
-      <c r="M28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N28" s="7">
-        <v>11</v>
-      </c>
-      <c r="O28" s="7">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>2</v>
-      </c>
-      <c r="R28" s="7">
-        <v>17</v>
-      </c>
-      <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -7355,7 +7423,7 @@
       </c>
       <c r="K29" s="8">
         <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="8">
         <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
@@ -7375,11 +7443,11 @@
       </c>
       <c r="P29" s="8">
         <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="8">
         <f>IF(Q28=1,10,IF(Q28=2,8,IF(Q28=3,6,IF(Q28=4,5,IF(Q28=5,4,IF(Q28=6,3,IF(Q28=7,2,IF(Q28=8,1,0))))))))/2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R29" s="8">
         <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
@@ -7429,60 +7497,62 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="7">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="H30" s="7">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
         <v>14</v>
       </c>
-      <c r="I30" s="7">
-        <v>11</v>
-      </c>
       <c r="J30" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>104</v>
       </c>
       <c r="L30" s="7">
-        <v>10</v>
-      </c>
-      <c r="M30" s="7">
+        <v>12</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="7">
+        <v>11</v>
+      </c>
+      <c r="O30" s="7">
+        <v>12</v>
+      </c>
+      <c r="P30" s="7">
         <v>8</v>
       </c>
-      <c r="N30" s="7">
-        <v>13</v>
-      </c>
-      <c r="O30" s="7">
-        <v>8</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="Q30" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R30" s="7">
-        <v>12</v>
-      </c>
-      <c r="S30" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="S30" s="7">
+        <v>9</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -7494,7 +7564,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7">
         <f>SUM(F31:AB31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -7509,7 +7579,7 @@
       </c>
       <c r="G31" s="8">
         <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="8">
         <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
@@ -7521,7 +7591,7 @@
       </c>
       <c r="J31" s="8">
         <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="8">
         <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
@@ -7533,7 +7603,7 @@
       </c>
       <c r="M31" s="8">
         <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8">
         <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
@@ -7541,15 +7611,15 @@
       </c>
       <c r="O31" s="8">
         <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="8">
         <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="8">
         <f>IF(Q30=1,10,IF(Q30=2,8,IF(Q30=3,6,IF(Q30=4,5,IF(Q30=5,4,IF(Q30=6,3,IF(Q30=7,2,IF(Q30=8,1,0))))))))/2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R31" s="8">
         <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
@@ -7652,7 +7722,9 @@
       <c r="R32" s="7">
         <v>16</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>11</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -7990,7 +8062,9 @@
       <c r="R36" s="7">
         <v>14</v>
       </c>
-      <c r="S36" s="7"/>
+      <c r="S36" s="7">
+        <v>13</v>
+      </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -8160,7 +8234,9 @@
       <c r="R38" s="7">
         <v>18</v>
       </c>
-      <c r="S38" s="7"/>
+      <c r="S38" s="7">
+        <v>15</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -8330,7 +8406,9 @@
       <c r="R40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -8476,7 +8554,9 @@
       <c r="R42" s="7">
         <v>16</v>
       </c>
-      <c r="S42" s="7"/>
+      <c r="S42" s="7">
+        <v>14</v>
+      </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -8502,43 +8582,43 @@
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G41:G43" si="0">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
+        <f t="shared" ref="G43" si="0">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H41:H43" si="1">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
+        <f t="shared" ref="H43" si="1">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" ref="I41:I43" si="2">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
+        <f t="shared" ref="I43" si="2">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J41:J43" si="3">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
+        <f t="shared" ref="J43" si="3">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" ref="K41:K43" si="4">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
+        <f t="shared" ref="K43" si="4">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" ref="L41:L43" si="5">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
+        <f t="shared" ref="L43" si="5">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" ref="M41:M43" si="6">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
+        <f t="shared" ref="M43" si="6">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N41:N43" si="7">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
+        <f t="shared" ref="N43" si="7">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" ref="O41:O43" si="8">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
+        <f t="shared" ref="O43" si="8">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P41:P43" si="9">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
+        <f t="shared" ref="P43" si="9">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
@@ -8546,47 +8626,47 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R41:R43" si="10">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
+        <f t="shared" ref="R43" si="10">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S41:S43" si="11">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
+        <f t="shared" ref="S43" si="11">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" ref="T41:T43" si="12">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
+        <f t="shared" ref="T43" si="12">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U41:U43" si="13">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
+        <f t="shared" ref="U43" si="13">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" ref="V41:V43" si="14">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
+        <f t="shared" ref="V43" si="14">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W41:W43" si="15">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
+        <f t="shared" ref="W43" si="15">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" ref="X41:X43" si="16">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
+        <f t="shared" ref="X43" si="16">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" ref="Y41:Y43" si="17">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
+        <f t="shared" ref="Y43" si="17">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" ref="Z41:Z43" si="18">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
+        <f t="shared" ref="Z43" si="18">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" ref="AA41:AA43" si="19">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
+        <f t="shared" ref="AA43" si="19">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" ref="AB41:AB43" si="20">IF(AB42=1,10,IF(AB42=2,8,IF(AB42=3,6,IF(AB42=4,5,IF(AB42=5,4,IF(AB42=6,3,IF(AB42=7,2,IF(AB42=8,1,0))))))))</f>
+        <f t="shared" ref="AB43" si="20">IF(AB42=1,10,IF(AB42=2,8,IF(AB42=3,6,IF(AB42=4,5,IF(AB42=5,4,IF(AB42=6,3,IF(AB42=7,2,IF(AB42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AC43" s="8"/>
@@ -8623,8 +8703,7 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -8786,7 +8865,9 @@
       <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
@@ -8966,7 +9047,9 @@
       <c r="R4" s="7">
         <v>2</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
@@ -9146,7 +9229,9 @@
       <c r="R6" s="7">
         <v>3</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="7">
+        <v>3</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
@@ -9162,11 +9247,11 @@
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AB7)+AC6</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9229,7 +9314,7 @@
       </c>
       <c r="S7" s="8">
         <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
@@ -9273,60 +9358,62 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7">
         <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6</v>
-      </c>
-      <c r="O8" s="7">
-        <v>16</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>104</v>
       </c>
       <c r="Q8" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R8" s="7">
-        <v>8</v>
-      </c>
-      <c r="S8" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -9337,16 +9424,15 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AB9)+AC8</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -9357,43 +9443,43 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="8">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="8">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L9" s="8">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="8">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="8">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O9" s="8">
         <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="8">
         <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
@@ -9409,7 +9495,7 @@
       </c>
       <c r="S9" s="8">
         <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
@@ -9453,60 +9539,62 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B10" s="7">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5</v>
-      </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O10" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>104</v>
       </c>
       <c r="Q10" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R10" s="7">
-        <v>10</v>
-      </c>
-      <c r="S10" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5</v>
+      </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
@@ -9517,15 +9605,16 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AB11)+AC10</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -9536,43 +9625,43 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="8">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="8">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="8">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L11" s="8">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" s="8">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="8">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O11" s="8">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="8">
         <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
@@ -9588,7 +9677,7 @@
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
@@ -9685,7 +9774,9 @@
       <c r="R12" s="7">
         <v>5</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="7">
+        <v>4</v>
+      </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
@@ -9700,11 +9791,11 @@
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AB13)+AC12</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AB13)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -9767,7 +9858,7 @@
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
@@ -9811,60 +9902,62 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7</v>
+      </c>
+      <c r="O14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="P14" s="7">
         <v>11</v>
       </c>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="Q14" s="7">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7</v>
-      </c>
-      <c r="S14" s="7"/>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -9875,15 +9968,16 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AB15)+AC14</f>
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -9898,7 +9992,7 @@
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -9906,11 +10000,11 @@
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
@@ -9918,27 +10012,27 @@
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -9946,7 +10040,7 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
@@ -9990,60 +10084,62 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7">
-        <v>17</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="R16" s="7">
         <v>7</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="S16" s="7">
         <v>6</v>
       </c>
-      <c r="K16" s="7">
-        <v>3</v>
-      </c>
-      <c r="L16" s="7">
-        <v>7</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9</v>
-      </c>
-      <c r="O16" s="7">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>6</v>
-      </c>
-      <c r="R16" s="7">
-        <v>4</v>
-      </c>
-      <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -10054,16 +10150,15 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AB17)+AC16</f>
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>10.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -10078,7 +10173,7 @@
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -10090,11 +10185,11 @@
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
@@ -10102,31 +10197,31 @@
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))/2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
@@ -10170,60 +10265,62 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="7">
         <v>9</v>
       </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9</v>
-      </c>
-      <c r="J18" s="7">
-        <v>9</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="O18" s="7">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>6</v>
+      </c>
+      <c r="R18" s="7">
+        <v>4</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="7">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>14</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" s="7">
-        <v>9</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>7</v>
-      </c>
-      <c r="R18" s="7">
-        <v>9</v>
-      </c>
-      <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -10234,15 +10331,16 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AB19)+AC18</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" s="7">
         <f>SUM(F19:AB19)</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -10269,11 +10367,11 @@
       </c>
       <c r="J19" s="8">
         <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="8">
         <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="8">
         <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
@@ -10293,15 +10391,15 @@
       </c>
       <c r="P19" s="8">
         <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="8">
         <f>IF(Q18=1,10,IF(Q18=2,6,IF(Q18=3,4,IF(Q18=4,3,IF(Q18=5,2,IF(Q18=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="8">
         <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" s="8">
         <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
@@ -10349,60 +10447,62 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B20" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7">
-        <v>15</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7">
+        <v>9</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>9</v>
+      </c>
+      <c r="J20" s="7">
+        <v>9</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7">
-        <v>5</v>
-      </c>
-      <c r="K20" s="7">
-        <v>2</v>
-      </c>
       <c r="L20" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>83</v>
+      <c r="O20" s="7">
+        <v>9</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
       </c>
       <c r="Q20" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R20" s="7">
-        <v>13</v>
-      </c>
-      <c r="S20" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="S20" s="7">
+        <v>10</v>
+      </c>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -10417,11 +10517,11 @@
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AB21)+AC20</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AB21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -10448,11 +10548,11 @@
       </c>
       <c r="J21" s="8">
         <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="8">
         <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" s="8">
         <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
@@ -10472,11 +10572,11 @@
       </c>
       <c r="P21" s="8">
         <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="8">
         <f>IF(Q20=1,10,IF(Q20=2,6,IF(Q20=3,4,IF(Q20=4,3,IF(Q20=5,2,IF(Q20=6,1,0))))))/2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8">
         <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
@@ -10528,60 +10628,62 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="7">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="H22" s="7">
+        <v>13</v>
+      </c>
+      <c r="I22" s="7">
+        <v>13</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
         <v>9</v>
       </c>
-      <c r="I22" s="7">
-        <v>6</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="M22" s="7">
         <v>12</v>
       </c>
-      <c r="K22" s="7">
-        <v>9</v>
-      </c>
-      <c r="L22" s="7">
-        <v>6</v>
-      </c>
-      <c r="M22" s="7">
+      <c r="N22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>5</v>
+      </c>
+      <c r="R22" s="7">
         <v>13</v>
       </c>
-      <c r="N22" s="7">
-        <v>7</v>
-      </c>
-      <c r="O22" s="7">
-        <v>5</v>
-      </c>
-      <c r="P22" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>4</v>
-      </c>
-      <c r="R22" s="7">
-        <v>11</v>
-      </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="7">
+        <v>12</v>
+      </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -10596,11 +10698,11 @@
       </c>
       <c r="AD22" s="7">
         <f>SUM(F23:AB23)+AC22</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE22" s="7">
         <f>SUM(F23:AB23)</f>
-        <v>6.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -10615,7 +10717,7 @@
       </c>
       <c r="G23" s="8">
         <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
         <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
@@ -10623,19 +10725,19 @@
       </c>
       <c r="I23" s="8">
         <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="8">
         <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="8">
         <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L23" s="8">
         <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="8">
         <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
@@ -10647,7 +10749,7 @@
       </c>
       <c r="O23" s="8">
         <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="8">
         <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
@@ -10655,7 +10757,7 @@
       </c>
       <c r="Q23" s="8">
         <f>IF(Q22=1,10,IF(Q22=2,6,IF(Q22=3,4,IF(Q22=4,3,IF(Q22=5,2,IF(Q22=6,1,0))))))/2</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8">
         <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
@@ -10760,7 +10862,9 @@
       <c r="R24" s="7">
         <v>6</v>
       </c>
-      <c r="S24" s="7"/>
+      <c r="S24" s="7">
+        <v>8</v>
+      </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -10939,7 +11043,9 @@
       <c r="R26" s="7">
         <v>17</v>
       </c>
-      <c r="S26" s="7"/>
+      <c r="S26" s="7">
+        <v>9</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -11118,7 +11224,9 @@
       <c r="R28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="S28" s="7"/>
+      <c r="S28" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
@@ -11297,7 +11405,9 @@
       <c r="R30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="7"/>
+      <c r="S30" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
@@ -11477,7 +11587,9 @@
       <c r="R32" s="7">
         <v>12</v>
       </c>
-      <c r="S32" s="7"/>
+      <c r="S32" s="7">
+        <v>7</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
@@ -11656,7 +11768,9 @@
       <c r="R34" s="7">
         <v>16</v>
       </c>
-      <c r="S34" s="7"/>
+      <c r="S34" s="7">
+        <v>11</v>
+      </c>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
@@ -12012,7 +12126,9 @@
       <c r="R38" s="7">
         <v>14</v>
       </c>
-      <c r="S38" s="7"/>
+      <c r="S38" s="7">
+        <v>13</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -12191,7 +12307,9 @@
       <c r="R40" s="7">
         <v>18</v>
       </c>
-      <c r="S40" s="7"/>
+      <c r="S40" s="7">
+        <v>15</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -12346,7 +12464,9 @@
       <c r="R42" s="7">
         <v>16</v>
       </c>
-      <c r="S42" s="7"/>
+      <c r="S42" s="7">
+        <v>14</v>
+      </c>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
@@ -12527,11 +12647,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>344.5</v>
+        <v>362.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AF4+'2021 Driver Ranking'!AF6</f>
-        <v>335.5</v>
+        <v>350.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12546,49 +12666,49 @@
       </c>
       <c r="D3" s="10">
         <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE10</f>
-        <v>332.5</v>
+        <v>344.5</v>
       </c>
       <c r="E3" s="10">
         <f>'2021 Driver Ranking'!AF2+'2021 Driver Ranking'!AF10</f>
-        <v>326.5</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'2021 Driver Ranking'!AE8+'2021 Driver Ranking'!AE16</f>
+        <v>215</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'2021 Driver Ranking'!AF8+'2021 Driver Ranking'!AF16</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>181.5</v>
-      </c>
-      <c r="E4" s="12">
+        <v>201.5</v>
+      </c>
+      <c r="E5" s="12">
         <f>'2021 Driver Ranking'!AF12+'2021 Driver Ranking'!AF14</f>
-        <v>181.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="11">
-        <f>'2021 Driver Ranking'!AE8+'2021 Driver Ranking'!AE18</f>
-        <v>170</v>
-      </c>
-      <c r="E5" s="11">
-        <f>'2021 Driver Ranking'!AF8+'2021 Driver Ranking'!AF18</f>
-        <v>170</v>
+        <v>201.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12603,11 +12723,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AF20+'2021 Driver Ranking'!AF22</f>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12621,11 +12741,11 @@
         <v>93</v>
       </c>
       <c r="D7" s="15">
-        <f>'2021 Driver Ranking'!AE16+'2021 Driver Ranking'!AE28</f>
+        <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
         <v>84</v>
       </c>
       <c r="E7" s="15">
-        <f>'2021 Driver Ranking'!AF16+'2021 Driver Ranking'!AF28</f>
+        <f>'2021 Driver Ranking'!AF18+'2021 Driver Ranking'!AF28</f>
         <v>83</v>
       </c>
     </row>
@@ -12641,11 +12761,11 @@
       </c>
       <c r="D8" s="13">
         <f>'2021 Driver Ranking'!AE24+'2021 Driver Ranking'!AE26</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" s="13">
         <f>'2021 Driver Ranking'!AF24+'2021 Driver Ranking'!AF26</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,11 +12780,11 @@
       </c>
       <c r="D9" s="10">
         <f>'2021 Driver Ranking'!AE30+'2021 Driver Ranking'!AE32</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10">
         <f>'2021 Driver Ranking'!AF30+'2021 Driver Ranking'!AF32</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12758,7 +12878,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC6</f>
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12773,67 +12893,67 @@
       </c>
       <c r="D3" s="10">
         <f>'2003-2009 Driver Ranking'!AC4+'2003-2009 Driver Ranking'!AC10</f>
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC16</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <f>'2003-2009 Driver Ranking'!AC12+'2003-2009 Driver Ranking'!AC14</f>
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="11">
-        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC18</f>
-        <v>64.5</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC24</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="15">
-        <f>'2003-2009 Driver Ranking'!AC16+'2003-2009 Driver Ranking'!AC26</f>
+      <c r="D7" s="15">
+        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC28</f>
         <v>28.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="6">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC24</f>
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12847,8 +12967,8 @@
         <v>100</v>
       </c>
       <c r="D8" s="13">
-        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC30</f>
-        <v>18</v>
+        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC26</f>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,7 +12982,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AC28+'2003-2009 Driver Ranking'!AC32</f>
+        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC32</f>
         <v>7</v>
       </c>
     </row>
@@ -12951,12 +13071,12 @@
         <v>95</v>
       </c>
       <c r="D2" s="10">
-        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>116</v>
+        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD10</f>
+        <v>118</v>
       </c>
       <c r="E2" s="10">
-        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE8</f>
-        <v>111</v>
+        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE10</f>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12971,49 +13091,49 @@
       </c>
       <c r="D3" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" s="8">
         <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE6</f>
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD14</f>
+        <v>49.5</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE14</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="12">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
-        <v>35</v>
-      </c>
-      <c r="E4" s="12">
-        <f>'1991-2002 Driver Ranking'!AE12+'1991-2002 Driver Ranking'!AE14</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="11">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD22</f>
-        <v>32.5</v>
-      </c>
-      <c r="E5" s="11">
-        <f>'1991-2002 Driver Ranking'!AE10+'1991-2002 Driver Ranking'!AE22</f>
-        <v>32.5</v>
+      <c r="D5" s="12">
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
+        <v>39</v>
+      </c>
+      <c r="E5" s="12">
+        <f>'1991-2002 Driver Ranking'!AE12+'1991-2002 Driver Ranking'!AE16</f>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13027,11 +13147,11 @@
         <v>96</v>
       </c>
       <c r="D6" s="6">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD24</f>
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
         <v>15</v>
       </c>
       <c r="E6" s="6">
-        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE24</f>
+        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE24</f>
         <v>15</v>
       </c>
     </row>
@@ -13046,11 +13166,11 @@
         <v>93</v>
       </c>
       <c r="D7" s="15">
-        <f>'1991-2002 Driver Ranking'!AD16+'1991-2002 Driver Ranking'!AD28</f>
+        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
         <v>12.5</v>
       </c>
       <c r="E7" s="15">
-        <f>'1991-2002 Driver Ranking'!AE16+'1991-2002 Driver Ranking'!AE28</f>
+        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE28</f>
         <v>11.5</v>
       </c>
     </row>
@@ -13065,11 +13185,11 @@
         <v>100</v>
       </c>
       <c r="D8" s="13">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD32</f>
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD32</f>
         <v>9</v>
       </c>
       <c r="E8" s="13">
-        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE32</f>
+        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE32</f>
         <v>9</v>
       </c>
     </row>
@@ -13122,11 +13242,11 @@
         <v>98</v>
       </c>
       <c r="D11" s="16">
-        <f>'1991-2002 Driver Ranking'!AD36+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD42</f>
+        <f>+'1991-2002 Driver Ranking'!AD36+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD42</f>
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <f>'1991-2002 Driver Ranking'!AE36+'1991-2002 Driver Ranking'!AE38+'1991-2002 Driver Ranking'!AE42</f>
+        <f>+'1991-2002 Driver Ranking'!AE36+'1991-2002 Driver Ranking'!AE38+'1991-2002 Driver Ranking'!AE42</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="112">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,8 +978,8 @@
     <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -1091,63 +1091,65 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="M2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
+      <c r="N2" s="7">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="P2" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -1157,20 +1159,20 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AD2" s="7">
-        <f>3+2</f>
-        <v>5</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>226.5</v>
+        <v>246.5</v>
       </c>
       <c r="AF2" s="7">
         <f>SUM(F3:AB3)</f>
-        <v>218.5</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1181,23 +1183,23 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8">
         <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8">
         <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8">
         <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I3" s="8">
         <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3" s="8">
         <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K3" s="8">
         <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
@@ -1205,31 +1207,31 @@
       </c>
       <c r="L3" s="8">
         <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N3" s="8">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O3" s="8">
         <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P3" s="8">
         <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="8">
         <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))/2</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="R3" s="8">
         <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S3" s="8">
         <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
@@ -1237,7 +1239,7 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
@@ -1278,63 +1280,65 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>4</v>
-      </c>
-      <c r="O4" s="7">
         <v>1</v>
       </c>
+      <c r="O4" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="P4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>2</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -1344,20 +1348,20 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>1+1+1</f>
+        <v>3</v>
       </c>
       <c r="AD4" s="7">
-        <f>2</f>
-        <v>2</v>
+        <f>3+2</f>
+        <v>5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>221.5</v>
+        <v>244.5</v>
       </c>
       <c r="AF4" s="7">
         <f>SUM(F5:AB5)</f>
-        <v>215.5</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1368,23 +1372,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="8">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="8">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I5" s="8">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J5" s="8">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K5" s="8">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
@@ -1392,31 +1396,31 @@
       </c>
       <c r="L5" s="8">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M5" s="8">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N5" s="8">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O5" s="8">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P5" s="8">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))/2</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="R5" s="8">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S5" s="8">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
@@ -1521,7 +1525,9 @@
       <c r="S6" s="7">
         <v>3</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>5</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -1540,11 +1546,11 @@
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AF6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1611,7 +1617,7 @@
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
@@ -1708,7 +1714,9 @@
       <c r="S8" s="7">
         <v>2</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>7</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -1718,18 +1726,19 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD8" s="7">
         <v>0</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AF8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1796,7 +1805,7 @@
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9" s="8">
         <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
@@ -1893,7 +1902,9 @@
       <c r="S10" s="7">
         <v>5</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>9</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -1910,11 +1921,11 @@
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF10" s="7">
         <f>SUM(F11:AB11)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1981,7 +1992,7 @@
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="8">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
@@ -2022,13 +2033,13 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
@@ -2037,48 +2048,50 @@
         <v>33</v>
       </c>
       <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7">
         <v>6</v>
       </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7">
         <v>6</v>
       </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="P12" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>10</v>
+      </c>
+      <c r="R12" s="7">
         <v>7</v>
       </c>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>8</v>
-      </c>
-      <c r="R12" s="7">
-        <v>5</v>
-      </c>
       <c r="S12" s="7">
-        <v>4</v>
-      </c>
-      <c r="T12" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="T12" s="7">
+        <v>3</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -2095,11 +2108,11 @@
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>104</v>
+        <v>112.5</v>
       </c>
       <c r="AF12" s="7">
         <f>SUM(F13:AB13)</f>
-        <v>104</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2110,27 +2123,27 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="8">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J13" s="8">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K13" s="8">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L13" s="8">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
@@ -2138,35 +2151,35 @@
       </c>
       <c r="M13" s="8">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" s="8">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O13" s="8">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P13" s="8">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))/2</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R13" s="8">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
@@ -2207,13 +2220,13 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>33</v>
@@ -2222,48 +2235,50 @@
         <v>33</v>
       </c>
       <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7">
+        <v>16</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="7">
+      <c r="O14" s="7">
+        <v>2</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>8</v>
+      </c>
+      <c r="R14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7</v>
-      </c>
       <c r="S14" s="7">
-        <v>6</v>
-      </c>
-      <c r="T14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="7">
+        <v>15</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -2280,11 +2295,11 @@
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>97.5</v>
+        <v>104</v>
       </c>
       <c r="AF14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>97.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2295,27 +2310,27 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
@@ -2323,31 +2338,31 @@
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))/2</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
@@ -2448,7 +2463,9 @@
       <c r="S16" s="7">
         <v>1</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>4</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -2467,11 +2484,11 @@
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AF16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -2538,7 +2555,7 @@
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U17" s="8">
         <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
@@ -2635,7 +2652,9 @@
       <c r="S18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7">
+        <v>13</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -2821,7 +2840,9 @@
       <c r="S20" s="7">
         <v>8</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>6</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -2838,11 +2859,11 @@
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AB21)+AC20+AD20</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AF20" s="7">
         <f>SUM(F21:AB21)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2909,7 +2930,7 @@
       </c>
       <c r="T21" s="8">
         <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U21" s="8">
         <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
@@ -3006,7 +3027,9 @@
       <c r="S22" s="7">
         <v>10</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>14</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -3191,7 +3214,9 @@
       <c r="S24" s="7">
         <v>12</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>12</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -3376,7 +3401,9 @@
       <c r="S26" s="7">
         <v>7</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="7">
+        <v>11</v>
+      </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -3561,7 +3588,9 @@
       <c r="S28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>17</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -3746,7 +3775,9 @@
       <c r="S30" s="7">
         <v>9</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7">
+        <v>10</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -3763,11 +3794,11 @@
       </c>
       <c r="AE30" s="7">
         <f>SUM(F31:AB31)+AC30+AD30</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" s="7">
         <f>SUM(F31:AB31)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
@@ -3834,7 +3865,7 @@
       </c>
       <c r="T31" s="8">
         <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8">
         <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
@@ -3931,7 +3962,9 @@
       <c r="S32" s="7">
         <v>11</v>
       </c>
-      <c r="T32" s="7"/>
+      <c r="T32" s="7">
+        <v>19</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -4112,7 +4145,9 @@
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7">
+        <v>8</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -4129,11 +4164,11 @@
       </c>
       <c r="AE34" s="7">
         <f>SUM(F35:AB35)+AC34+AD34</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AF34" s="7">
         <f>SUM(F35:AB35)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -4200,7 +4235,7 @@
       </c>
       <c r="T35" s="8">
         <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U35" s="8">
         <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
@@ -4297,7 +4332,9 @@
       <c r="S36" s="7">
         <v>13</v>
       </c>
-      <c r="T36" s="7"/>
+      <c r="T36" s="7">
+        <v>16</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -4482,7 +4519,9 @@
       <c r="S38" s="7">
         <v>15</v>
       </c>
-      <c r="T38" s="7"/>
+      <c r="T38" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -4667,7 +4706,9 @@
       <c r="S40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T40" s="7"/>
+      <c r="T40" s="7">
+        <v>18</v>
+      </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -4988,8 +5029,8 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -5145,7 +5186,9 @@
       <c r="S2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -5156,7 +5199,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7">
         <f>SUM(F3:AB3)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -5223,7 +5266,7 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
@@ -5317,7 +5360,9 @@
       <c r="S4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>2</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -5328,7 +5373,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7">
         <f>SUM(F5:AB5)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -5395,7 +5440,7 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
@@ -5489,7 +5534,9 @@
       <c r="S6" s="7">
         <v>3</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>5</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -5500,7 +5547,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5567,7 +5614,7 @@
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
@@ -5661,7 +5708,9 @@
       <c r="S8" s="7">
         <v>2</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>7</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -5672,7 +5721,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7">
         <f>SUM(F9:AB9)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5739,7 +5788,7 @@
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="8">
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
@@ -5833,7 +5882,9 @@
       <c r="S10" s="7">
         <v>5</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>9</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -5949,13 +6000,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
@@ -5964,48 +6015,50 @@
         <v>33</v>
       </c>
       <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>8</v>
+      </c>
+      <c r="L12" s="7">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7">
         <v>6</v>
       </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7">
         <v>6</v>
       </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="P12" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>10</v>
+      </c>
+      <c r="R12" s="7">
         <v>7</v>
       </c>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>8</v>
-      </c>
-      <c r="R12" s="7">
-        <v>5</v>
-      </c>
       <c r="S12" s="7">
-        <v>4</v>
-      </c>
-      <c r="T12" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="T12" s="7">
+        <v>3</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -6016,7 +6069,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7">
         <f>SUM(F13:AB13)</f>
-        <v>41.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -6027,27 +6080,27 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="8">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" s="8">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="8">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
@@ -6055,35 +6108,35 @@
       </c>
       <c r="M13" s="8">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="8">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O13" s="8">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P13" s="8">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))/2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
@@ -6121,13 +6174,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>33</v>
@@ -6136,48 +6189,50 @@
         <v>33</v>
       </c>
       <c r="F14" s="7">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7">
+        <v>16</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7</v>
+      </c>
+      <c r="N14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="7">
+      <c r="O14" s="7">
+        <v>2</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>8</v>
+      </c>
+      <c r="R14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7">
-        <v>11</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5</v>
-      </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7</v>
-      </c>
       <c r="S14" s="7">
-        <v>6</v>
-      </c>
-      <c r="T14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="7">
+        <v>15</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -6188,7 +6243,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>37</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -6199,27 +6254,27 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
@@ -6227,31 +6282,31 @@
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
@@ -6349,7 +6404,9 @@
       <c r="S16" s="7">
         <v>1</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>4</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -6360,7 +6417,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>29.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -6427,7 +6484,7 @@
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U17" s="8">
         <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
@@ -6521,7 +6578,9 @@
       <c r="S18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7">
+        <v>13</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -6693,7 +6752,9 @@
       <c r="S20" s="7">
         <v>8</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>6</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -6704,7 +6765,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7">
         <f>SUM(F21:AB21)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -6771,7 +6832,7 @@
       </c>
       <c r="T21" s="8">
         <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U21" s="8">
         <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
@@ -6865,7 +6926,9 @@
       <c r="S22" s="7">
         <v>12</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>12</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -7037,7 +7100,9 @@
       <c r="S24" s="7">
         <v>10</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>14</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -7209,7 +7274,9 @@
       <c r="S26" s="7">
         <v>7</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="7">
+        <v>11</v>
+      </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -7381,7 +7448,9 @@
       <c r="S28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>17</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -7553,7 +7622,9 @@
       <c r="S30" s="7">
         <v>9</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7">
+        <v>10</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -7725,7 +7796,9 @@
       <c r="S32" s="7">
         <v>11</v>
       </c>
-      <c r="T32" s="7"/>
+      <c r="T32" s="7">
+        <v>19</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -7893,7 +7966,9 @@
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7">
+        <v>8</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -7904,7 +7979,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7">
         <f>SUM(F35:AB35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -7971,7 +8046,7 @@
       </c>
       <c r="T35" s="8">
         <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="8">
         <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
@@ -8065,7 +8140,9 @@
       <c r="S36" s="7">
         <v>13</v>
       </c>
-      <c r="T36" s="7"/>
+      <c r="T36" s="7">
+        <v>16</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -8237,7 +8314,9 @@
       <c r="S38" s="7">
         <v>15</v>
       </c>
-      <c r="T38" s="7"/>
+      <c r="T38" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -8409,7 +8488,9 @@
       <c r="S40" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T40" s="7"/>
+      <c r="T40" s="7">
+        <v>18</v>
+      </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -8703,8 +8784,8 @@
     <col min="15" max="15" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -8868,7 +8949,9 @@
       <c r="S2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -8883,11 +8966,11 @@
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AB3)+AC2</f>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AB3)</f>
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -8954,7 +9037,7 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
@@ -9050,7 +9133,9 @@
       <c r="S4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -9065,11 +9150,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AB5)+AC4</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AB5)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -9136,7 +9221,7 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
@@ -9232,7 +9317,9 @@
       <c r="S6" s="7">
         <v>3</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>5</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
@@ -9247,11 +9334,11 @@
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AB7)+AC6</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AB7)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -9318,7 +9405,7 @@
       </c>
       <c r="T7" s="8">
         <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
@@ -9414,7 +9501,9 @@
       <c r="S8" s="7">
         <v>2</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>7</v>
+      </c>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -9424,11 +9513,12 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AB9)+AC8</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AB9)</f>
@@ -9595,7 +9685,9 @@
       <c r="S10" s="7">
         <v>5</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>9</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -9777,7 +9869,9 @@
       <c r="S12" s="7">
         <v>4</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7">
+        <v>15</v>
+      </c>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -9902,63 +9996,65 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6</v>
+      </c>
+      <c r="P14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="Q14" s="7">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="S14" s="7">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6</v>
-      </c>
-      <c r="J14" s="7">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7">
-        <v>9</v>
-      </c>
-      <c r="L14" s="7">
-        <v>6</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7</v>
-      </c>
-      <c r="O14" s="7">
-        <v>5</v>
-      </c>
-      <c r="P14" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>4</v>
-      </c>
-      <c r="R14" s="7">
-        <v>11</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -9968,16 +10064,15 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AB15)+AC14</f>
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AB15)</f>
-        <v>16.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -9992,7 +10087,7 @@
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -10000,11 +10095,11 @@
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
@@ -10012,27 +10107,27 @@
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))/2</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -10040,11 +10135,11 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U15" s="8">
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
@@ -10084,63 +10179,65 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7</v>
+      </c>
+      <c r="O16" s="7">
         <v>5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="P16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="7">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>8</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="Q16" s="7">
+        <v>4</v>
+      </c>
+      <c r="R16" s="7">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5</v>
-      </c>
-      <c r="O16" s="7">
-        <v>6</v>
-      </c>
-      <c r="P16" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>10</v>
-      </c>
-      <c r="R16" s="7">
-        <v>7</v>
-      </c>
       <c r="S16" s="7">
-        <v>6</v>
-      </c>
-      <c r="T16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>4</v>
+      </c>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
@@ -10150,15 +10247,16 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AB17)+AC16</f>
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AB17)</f>
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -10173,7 +10271,7 @@
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -10181,11 +10279,11 @@
       </c>
       <c r="I17" s="8">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
@@ -10193,27 +10291,27 @@
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
@@ -10221,11 +10319,11 @@
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="8">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
@@ -10321,7 +10419,9 @@
       <c r="S18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="7"/>
+      <c r="T18" s="7">
+        <v>13</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
@@ -10503,7 +10603,9 @@
       <c r="S20" s="7">
         <v>10</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>14</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -10684,7 +10786,9 @@
       <c r="S22" s="7">
         <v>12</v>
       </c>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>12</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -10865,7 +10969,9 @@
       <c r="S24" s="7">
         <v>8</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>6</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -10879,11 +10985,11 @@
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AB25)+AC24</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE24" s="7">
         <f>SUM(F25:AB25)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -10950,7 +11056,7 @@
       </c>
       <c r="T25" s="8">
         <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="8">
         <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
@@ -11046,7 +11152,9 @@
       <c r="S26" s="7">
         <v>9</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="7">
+        <v>10</v>
+      </c>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
@@ -11227,7 +11335,9 @@
       <c r="S28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>17</v>
+      </c>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
@@ -11408,7 +11518,9 @@
       <c r="S30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7">
+        <v>18</v>
+      </c>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
@@ -11590,7 +11702,9 @@
       <c r="S32" s="7">
         <v>7</v>
       </c>
-      <c r="T32" s="7"/>
+      <c r="T32" s="7">
+        <v>11</v>
+      </c>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
@@ -11771,7 +11885,9 @@
       <c r="S34" s="7">
         <v>11</v>
       </c>
-      <c r="T34" s="7"/>
+      <c r="T34" s="7">
+        <v>19</v>
+      </c>
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
@@ -11948,7 +12064,9 @@
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
+      <c r="T36" s="7">
+        <v>8</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -12129,7 +12247,9 @@
       <c r="S38" s="7">
         <v>13</v>
       </c>
-      <c r="T38" s="7"/>
+      <c r="T38" s="7">
+        <v>16</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -12310,7 +12430,9 @@
       <c r="S40" s="7">
         <v>15</v>
       </c>
-      <c r="T40" s="7"/>
+      <c r="T40" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -12646,12 +12768,12 @@
         <v>92</v>
       </c>
       <c r="D2" s="8">
-        <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>362.5</v>
+        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE6</f>
+        <v>397.5</v>
       </c>
       <c r="E2" s="8">
-        <f>'2021 Driver Ranking'!AF4+'2021 Driver Ranking'!AF6</f>
-        <v>350.5</v>
+        <f>'2021 Driver Ranking'!AF2+'2021 Driver Ranking'!AF6</f>
+        <v>385.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12665,12 +12787,12 @@
         <v>95</v>
       </c>
       <c r="D3" s="10">
-        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE10</f>
-        <v>344.5</v>
+        <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE10</f>
+        <v>364.5</v>
       </c>
       <c r="E3" s="10">
-        <f>'2021 Driver Ranking'!AF2+'2021 Driver Ranking'!AF10</f>
-        <v>336.5</v>
+        <f>'2021 Driver Ranking'!AF4+'2021 Driver Ranking'!AF10</f>
+        <v>356.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12685,11 +12807,11 @@
       </c>
       <c r="D4" s="11">
         <f>'2021 Driver Ranking'!AE8+'2021 Driver Ranking'!AE16</f>
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="E4" s="11">
         <f>'2021 Driver Ranking'!AF8+'2021 Driver Ranking'!AF16</f>
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12704,11 +12826,11 @@
       </c>
       <c r="D5" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>201.5</v>
+        <v>216.5</v>
       </c>
       <c r="E5" s="12">
         <f>'2021 Driver Ranking'!AF12+'2021 Driver Ranking'!AF14</f>
-        <v>201.5</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12723,11 +12845,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AF20+'2021 Driver Ranking'!AF22</f>
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12780,11 +12902,11 @@
       </c>
       <c r="D9" s="10">
         <f>'2021 Driver Ranking'!AE30+'2021 Driver Ranking'!AE32</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10">
         <f>'2021 Driver Ranking'!AF30+'2021 Driver Ranking'!AF32</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12799,11 +12921,11 @@
       </c>
       <c r="D10" s="16">
         <f>'2021 Driver Ranking'!AE34+'2021 Driver Ranking'!AE36+'2021 Driver Ranking'!AE42</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10" s="16">
         <f>'2021 Driver Ranking'!AF34+'2021 Driver Ranking'!AF36+'2021 Driver Ranking'!AF42</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12878,7 +13000,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC6</f>
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12893,7 +13015,7 @@
       </c>
       <c r="D3" s="10">
         <f>'2003-2009 Driver Ranking'!AC4+'2003-2009 Driver Ranking'!AC10</f>
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12908,7 +13030,7 @@
       </c>
       <c r="D4" s="11">
         <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC16</f>
-        <v>82.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12923,7 +13045,7 @@
       </c>
       <c r="D5" s="12">
         <f>'2003-2009 Driver Ranking'!AC12+'2003-2009 Driver Ranking'!AC14</f>
-        <v>78.5</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12938,7 +13060,7 @@
       </c>
       <c r="D6" s="6">
         <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC24</f>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12998,7 +13120,7 @@
       </c>
       <c r="D10" s="16">
         <f>'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC36+'2003-2009 Driver Ranking'!AC42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13061,41 +13183,41 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
+        <v>130</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE6</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D3" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD10</f>
-        <v>118</v>
-      </c>
-      <c r="E2" s="10">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10">
         <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE10</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="8">
-        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>118</v>
-      </c>
-      <c r="E3" s="8">
-        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE6</f>
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13109,12 +13231,12 @@
         <v>100</v>
       </c>
       <c r="D4" s="11">
-        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD14</f>
-        <v>49.5</v>
+        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD16</f>
+        <v>53.5</v>
       </c>
       <c r="E4" s="11">
-        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE14</f>
-        <v>48.5</v>
+        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE16</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13128,12 +13250,12 @@
         <v>94</v>
       </c>
       <c r="D5" s="12">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
-        <v>39</v>
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
+        <v>43</v>
       </c>
       <c r="E5" s="12">
-        <f>'1991-2002 Driver Ranking'!AE12+'1991-2002 Driver Ranking'!AE16</f>
-        <v>39</v>
+        <f>'1991-2002 Driver Ranking'!AE12+'1991-2002 Driver Ranking'!AE14</f>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13148,11 +13270,11 @@
       </c>
       <c r="D6" s="6">
         <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6">
         <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE24</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13242,11 +13364,11 @@
         <v>98</v>
       </c>
       <c r="D11" s="16">
-        <f>+'1991-2002 Driver Ranking'!AD36+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD42</f>
+        <f>'1991-2002 Driver Ranking'!AD36+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD42</f>
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <f>+'1991-2002 Driver Ranking'!AE36+'1991-2002 Driver Ranking'!AE38+'1991-2002 Driver Ranking'!AE42</f>
+        <f>'1991-2002 Driver Ranking'!AE36+'1991-2002 Driver Ranking'!AE38+'1991-2002 Driver Ranking'!AE42</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -16,11 +16,11 @@
     <sheet name="Ranking System Notes" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AE$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1991-2002 Driver Ranking'!$A$1:$AD$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1991-2002 Team Ranking'!$A$1:$E$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AC$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2003-2009 Driver Ranking'!$A$1:$AB$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2003-2009 Team Ranking'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021 Driver Ranking'!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021 Driver Ranking'!$A$1:$AE$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021 Team Ranking'!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="111">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mexico</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +115,6 @@
   </si>
   <si>
     <t>Saudi Arabia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qatar/Sakhir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,6 +459,14 @@
   </si>
   <si>
     <t>Netherlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -980,23 +976,24 @@
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="44.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="44.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -1035,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
@@ -1044,7 +1041,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -1056,126 +1053,124 @@
         <v>17</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AE1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="7">
         <v>2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="7">
-        <v>4</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>3</v>
-      </c>
-      <c r="R2" s="7">
-        <v>2</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
+      <c r="AB2" s="7">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
       <c r="AC2" s="7">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>3+2</f>
+        <v>5</v>
       </c>
       <c r="AD2" s="7">
-        <f>2</f>
-        <v>2</v>
+        <f>SUM(F3:AA3)+AB2+AC2</f>
+        <v>262.5</v>
       </c>
       <c r="AE2" s="7">
-        <f>SUM(F3:AB3)+AC2+AD2</f>
-        <v>246.5</v>
-      </c>
-      <c r="AF2" s="7">
-        <f>SUM(F3:AB3)</f>
-        <v>240.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F3:AA3)</f>
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1183,23 +1178,23 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8">
         <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8">
         <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="8">
         <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" s="8">
         <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J3" s="8">
         <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K3" s="8">
         <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
@@ -1207,31 +1202,31 @@
       </c>
       <c r="L3" s="8">
         <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3" s="8">
         <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3" s="8">
         <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="O3" s="8">
         <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P3" s="8">
         <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="8">
         <f>IF(Q2=1,25,IF(Q2=2,18,IF(Q2=3,15,IF(Q2=4,12,IF(Q2=5,10,IF(Q2=6,8,IF(Q2=7,6,IF(Q2=8,4,IF(Q2=9,2,IF(Q2=10,1,0))))))))))/2</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="R3" s="8">
         <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S3" s="8">
         <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
@@ -1239,11 +1234,11 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V3" s="8">
         <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
@@ -1269,102 +1264,99 @@
         <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="8">
-        <f>IF(AB2=1,25,IF(AB2=2,18,IF(AB2=3,15,IF(AB2=4,12,IF(AB2=5,10,IF(AB2=6,8,IF(AB2=7,6,IF(AB2=8,4,IF(AB2=9,2,IF(AB2=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="M4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="N4" s="7">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>2</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="7">
-        <v>2</v>
-      </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+      <c r="AB4" s="7">
+        <f>1+1+1+1</f>
+        <v>4</v>
+      </c>
       <c r="AC4" s="7">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>2</f>
+        <v>2</v>
       </c>
       <c r="AD4" s="7">
-        <f>3+2</f>
-        <v>5</v>
+        <f>SUM(F5:AA5)+AB4+AC4</f>
+        <v>256.5</v>
       </c>
       <c r="AE4" s="7">
-        <f>SUM(F5:AB5)+AC4+AD4</f>
-        <v>244.5</v>
-      </c>
-      <c r="AF4" s="7">
-        <f>SUM(F5:AB5)</f>
-        <v>236.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F5:AA5)</f>
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1372,23 +1364,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8">
         <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="8">
         <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8">
         <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I5" s="8">
         <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J5" s="8">
         <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K5" s="8">
         <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
@@ -1396,31 +1388,31 @@
       </c>
       <c r="L5" s="8">
         <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M5" s="8">
         <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N5" s="8">
         <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O5" s="8">
         <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P5" s="8">
         <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(Q4=1,25,IF(Q4=2,18,IF(Q4=3,15,IF(Q4=4,12,IF(Q4=5,10,IF(Q4=6,8,IF(Q4=7,6,IF(Q4=8,4,IF(Q4=9,2,IF(Q4=10,1,0))))))))))/2</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="R5" s="8">
         <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S5" s="8">
         <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
@@ -1428,11 +1420,11 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V5" s="8">
         <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
@@ -1458,36 +1450,32 @@
         <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
-        <f>IF(AB4=1,25,IF(AB4=2,18,IF(AB4=3,15,IF(AB4=4,12,IF(AB4=5,10,IF(AB4=6,8,IF(AB4=7,6,IF(AB4=8,4,IF(AB4=9,2,IF(AB4=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7">
         <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1496,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7">
         <v>12</v>
@@ -1514,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="7">
         <v>12</v>
@@ -1528,32 +1516,33 @@
       <c r="T6" s="7">
         <v>5</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="7">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
       <c r="AC6" s="7">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="AD6" s="7">
         <f>1+3</f>
         <v>4</v>
       </c>
+      <c r="AD6" s="7">
+        <f>SUM(F7:AA7)+AB6+AC6</f>
+        <v>177</v>
+      </c>
       <c r="AE6" s="7">
-        <f>SUM(F7:AB7)+AC6+AD6</f>
-        <v>151</v>
-      </c>
-      <c r="AF6" s="7">
-        <f>SUM(F7:AB7)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F7:AA7)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1621,7 +1610,7 @@
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V7" s="8">
         <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
@@ -1647,30 +1636,26 @@
         <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
-        <f>IF(AB6=1,25,IF(AB6=2,18,IF(AB6=3,15,IF(AB6=4,12,IF(AB6=5,10,IF(AB6=6,8,IF(AB6=7,6,IF(AB6=8,4,IF(AB6=9,2,IF(AB6=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7">
         <v>4</v>
@@ -1703,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7">
         <v>14</v>
@@ -1717,31 +1702,32 @@
       <c r="T8" s="7">
         <v>7</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7">
+        <v>7</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
+      <c r="AB8" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
       <c r="AD8" s="7">
-        <v>0</v>
+        <f>SUM(F9:AA9)+AB8+AC8</f>
+        <v>145</v>
       </c>
       <c r="AE8" s="7">
-        <f>SUM(F9:AB9)+AC8+AD8</f>
-        <v>139</v>
-      </c>
-      <c r="AF8" s="7">
-        <f>SUM(F9:AB9)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F9:AA9)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1809,7 +1795,7 @@
       </c>
       <c r="U9" s="8">
         <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V9" s="8">
         <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
@@ -1835,30 +1821,26 @@
         <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="8">
-        <f>IF(AB8=1,25,IF(AB8=2,18,IF(AB8=3,15,IF(AB8=4,12,IF(AB8=5,10,IF(AB8=6,8,IF(AB8=7,6,IF(AB8=8,4,IF(AB8=9,2,IF(AB8=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7">
         <v>5</v>
@@ -1891,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7">
         <v>20</v>
@@ -1905,30 +1887,31 @@
       <c r="T10" s="7">
         <v>9</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="7">
+        <v>3</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
       <c r="AC10" s="7">
         <v>0</v>
       </c>
       <c r="AD10" s="7">
-        <v>0</v>
+        <f>SUM(F11:AA11)+AB10+AC10</f>
+        <v>135</v>
       </c>
       <c r="AE10" s="7">
-        <f>SUM(F11:AB11)+AC10+AD10</f>
-        <v>120</v>
-      </c>
-      <c r="AF10" s="7">
-        <f>SUM(F11:AB11)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F11:AA11)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1996,7 +1979,7 @@
       </c>
       <c r="U11" s="8">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V11" s="8">
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
@@ -2022,30 +2005,26 @@
         <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="8">
-        <f>IF(AB10=1,25,IF(AB10=2,18,IF(AB10=3,15,IF(AB10=4,12,IF(AB10=5,10,IF(AB10=6,8,IF(AB10=7,6,IF(AB10=8,4,IF(AB10=9,2,IF(AB10=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7">
         <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7">
         <v>8</v>
@@ -2092,30 +2071,31 @@
       <c r="T12" s="7">
         <v>3</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="7">
+        <v>8</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
       <c r="AC12" s="7">
         <v>0</v>
       </c>
       <c r="AD12" s="7">
-        <v>0</v>
+        <f>SUM(F13:AA13)+AB12+AC12</f>
+        <v>116.5</v>
       </c>
       <c r="AE12" s="7">
-        <f>SUM(F13:AB13)+AC12+AD12</f>
-        <v>112.5</v>
-      </c>
-      <c r="AF12" s="7">
-        <f>SUM(F13:AB13)</f>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F13:AA13)</f>
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2183,7 +2163,7 @@
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" s="8">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
@@ -2209,30 +2189,26 @@
         <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="8">
-        <f>IF(AB12=1,25,IF(AB12=2,18,IF(AB12=3,15,IF(AB12=4,12,IF(AB12=5,10,IF(AB12=6,8,IF(AB12=7,6,IF(AB12=8,4,IF(AB12=9,2,IF(AB12=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7">
         <v>6</v>
@@ -2247,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7">
         <v>4</v>
@@ -2265,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7">
         <v>8</v>
@@ -2279,30 +2255,31 @@
       <c r="T14" s="7">
         <v>15</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7">
+        <v>4</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
       <c r="AC14" s="7">
         <v>0</v>
       </c>
       <c r="AD14" s="7">
-        <v>0</v>
+        <f>SUM(F15:AA15)+AB14+AC14</f>
+        <v>116</v>
       </c>
       <c r="AE14" s="7">
-        <f>SUM(F15:AB15)+AC14+AD14</f>
-        <v>104</v>
-      </c>
-      <c r="AF14" s="7">
-        <f>SUM(F15:AB15)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F15:AA15)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2370,7 +2347,7 @@
       </c>
       <c r="U15" s="8">
         <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V15" s="8">
         <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
@@ -2396,30 +2373,26 @@
         <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="8">
-        <f>IF(AB14=1,25,IF(AB14=2,18,IF(AB14=3,15,IF(AB14=4,12,IF(AB14=5,10,IF(AB14=6,8,IF(AB14=7,6,IF(AB14=8,4,IF(AB14=9,2,IF(AB14=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7">
         <v>7</v>
@@ -2466,32 +2439,33 @@
       <c r="T16" s="7">
         <v>4</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>13</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="AB16" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="AC16" s="7">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="AD16" s="7">
-        <f>1</f>
-        <v>1</v>
+        <f>SUM(F17:AA17)+AB16+AC16</f>
+        <v>95</v>
       </c>
       <c r="AE16" s="7">
-        <f>SUM(F17:AB17)+AC16+AD16</f>
-        <v>95</v>
-      </c>
-      <c r="AF16" s="7">
-        <f>SUM(F17:AB17)</f>
+        <f>SUM(F17:AA17)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2585,30 +2559,26 @@
         <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="8">
-        <f>IF(AB16=1,25,IF(AB16=2,18,IF(AB16=3,15,IF(AB16=4,12,IF(AB16=5,10,IF(AB16=6,8,IF(AB16=7,6,IF(AB16=8,4,IF(AB16=9,2,IF(AB16=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7">
         <v>17</v>
@@ -2632,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
         <v>9</v>
@@ -2650,36 +2620,37 @@
         <v>4</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T18" s="7">
         <v>13</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>6</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7">
+      <c r="AB18" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
       <c r="AD18" s="7">
-        <v>0</v>
+        <f>SUM(F19:AA19)+AB18+AC18</f>
+        <v>74</v>
       </c>
       <c r="AE18" s="7">
-        <f>SUM(F19:AB19)+AC18+AD18</f>
-        <v>66</v>
-      </c>
-      <c r="AF18" s="7">
-        <f>SUM(F19:AB19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F19:AA19)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2747,7 +2718,7 @@
       </c>
       <c r="U19" s="8">
         <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V19" s="8">
         <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
@@ -2773,33 +2744,29 @@
         <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="8">
-        <f>IF(AB18=1,25,IF(AB18=2,18,IF(AB18=3,15,IF(AB18=4,12,IF(AB18=5,10,IF(AB18=6,8,IF(AB18=7,6,IF(AB18=8,4,IF(AB18=9,2,IF(AB18=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7">
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7">
         <v>10</v>
@@ -2843,30 +2810,31 @@
       <c r="T20" s="7">
         <v>6</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>16</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="7">
+        <v>0</v>
+      </c>
       <c r="AC20" s="7">
         <v>0</v>
       </c>
       <c r="AD20" s="7">
-        <v>0</v>
+        <f>SUM(F21:AA21)+AB20+AC20</f>
+        <v>58</v>
       </c>
       <c r="AE20" s="7">
-        <f>SUM(F21:AB21)+AC20+AD20</f>
+        <f>SUM(F21:AA21)</f>
         <v>58</v>
       </c>
-      <c r="AF20" s="7">
-        <f>SUM(F21:AB21)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2960,30 +2928,26 @@
         <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="8">
-        <f>IF(AB20=1,25,IF(AB20=2,18,IF(AB20=3,15,IF(AB20=4,12,IF(AB20=5,10,IF(AB20=6,8,IF(AB20=7,6,IF(AB20=8,4,IF(AB20=9,2,IF(AB20=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7">
         <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7">
         <v>13</v>
@@ -3001,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7">
         <v>14</v>
@@ -3010,7 +2974,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O22" s="7">
         <v>9</v>
@@ -3030,30 +2994,31 @@
       <c r="T22" s="7">
         <v>14</v>
       </c>
-      <c r="U22" s="7"/>
+      <c r="U22" s="7">
+        <v>10</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="AB22" s="7">
+        <v>0</v>
+      </c>
       <c r="AC22" s="7">
         <v>0</v>
       </c>
       <c r="AD22" s="7">
-        <v>0</v>
+        <f>SUM(F23:AA23)+AB22+AC22</f>
+        <v>46</v>
       </c>
       <c r="AE22" s="7">
-        <f>SUM(F23:AB23)+AC22+AD22</f>
-        <v>45</v>
-      </c>
-      <c r="AF22" s="7">
-        <f>SUM(F23:AB23)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F23:AA23)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3121,7 +3086,7 @@
       </c>
       <c r="U23" s="8">
         <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="8">
         <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
@@ -3147,36 +3112,32 @@
         <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="8">
-        <f>IF(AB22=1,25,IF(AB22=2,18,IF(AB22=3,15,IF(AB22=4,12,IF(AB22=5,10,IF(AB22=6,8,IF(AB22=7,6,IF(AB22=8,4,IF(AB22=9,2,IF(AB22=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="7">
         <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -3197,13 +3158,13 @@
         <v>12</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="7">
         <v>5</v>
@@ -3217,30 +3178,31 @@
       <c r="T24" s="7">
         <v>12</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>18</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
       <c r="AC24" s="7">
         <v>0</v>
       </c>
       <c r="AD24" s="7">
-        <v>0</v>
+        <f>SUM(F25:AA25)+AB24+AC24</f>
+        <v>35</v>
       </c>
       <c r="AE24" s="7">
-        <f>SUM(F25:AB25)+AC24+AD24</f>
+        <f>SUM(F25:AA25)</f>
         <v>35</v>
       </c>
-      <c r="AF24" s="7">
-        <f>SUM(F25:AB25)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3334,30 +3296,26 @@
         <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="8">
-        <f>IF(AB24=1,25,IF(AB24=2,18,IF(AB24=3,15,IF(AB24=4,12,IF(AB24=5,10,IF(AB24=6,8,IF(AB24=7,6,IF(AB24=8,4,IF(AB24=9,2,IF(AB24=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="7">
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="7">
         <v>10</v>
@@ -3375,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7">
         <v>10</v>
@@ -3390,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7">
         <v>18</v>
@@ -3404,30 +3362,31 @@
       <c r="T26" s="7">
         <v>11</v>
       </c>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7">
+        <v>9</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
       <c r="AC26" s="7">
         <v>0</v>
       </c>
       <c r="AD26" s="7">
-        <v>0</v>
+        <f>SUM(F27:AA27)+AB26+AC26</f>
+        <v>26</v>
       </c>
       <c r="AE26" s="7">
-        <f>SUM(F27:AB27)+AC26+AD26</f>
-        <v>24</v>
-      </c>
-      <c r="AF26" s="7">
-        <f>SUM(F27:AB27)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F27:AA27)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3495,7 +3454,7 @@
       </c>
       <c r="U27" s="8">
         <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="8">
         <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
@@ -3521,30 +3480,26 @@
         <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="8">
-        <f>IF(AB26=1,25,IF(AB26=2,18,IF(AB26=3,15,IF(AB26=4,12,IF(AB26=5,10,IF(AB26=6,8,IF(AB26=7,6,IF(AB26=8,4,IF(AB26=9,2,IF(AB26=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7">
         <v>9</v>
@@ -3556,7 +3511,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J28" s="7">
         <v>16</v>
@@ -3583,38 +3538,39 @@
         <v>15</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T28" s="7">
         <v>17</v>
       </c>
-      <c r="U28" s="7"/>
+      <c r="U28" s="7">
+        <v>14</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
       <c r="AC28" s="7">
         <v>0</v>
       </c>
       <c r="AD28" s="7">
-        <v>0</v>
+        <f>SUM(F29:AA29)+AB28+AC28</f>
+        <v>18</v>
       </c>
       <c r="AE28" s="7">
-        <f>SUM(F29:AB29)+AC28+AD28</f>
+        <f>SUM(F29:AA29)</f>
         <v>18</v>
       </c>
-      <c r="AF28" s="7">
-        <f>SUM(F29:AB29)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3708,36 +3664,32 @@
         <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="8">
-        <f>IF(AB28=1,25,IF(AB28=2,18,IF(AB28=3,15,IF(AB28=4,12,IF(AB28=5,10,IF(AB28=6,8,IF(AB28=7,6,IF(AB28=8,4,IF(AB28=9,2,IF(AB28=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7">
         <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7">
         <v>14</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -3749,13 +3701,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L30" s="7">
         <v>12</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N30" s="7">
         <v>11</v>
@@ -3778,30 +3730,31 @@
       <c r="T30" s="7">
         <v>10</v>
       </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7">
+        <v>15</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
       <c r="AC30" s="7">
         <v>0</v>
       </c>
       <c r="AD30" s="7">
-        <v>0</v>
+        <f>SUM(F31:AA31)+AB30+AC30</f>
+        <v>16</v>
       </c>
       <c r="AE30" s="7">
-        <f>SUM(F31:AB31)+AC30+AD30</f>
+        <f>SUM(F31:AA31)</f>
         <v>16</v>
       </c>
-      <c r="AF30" s="7">
-        <f>SUM(F31:AB31)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3895,36 +3848,32 @@
         <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="8">
-        <f>IF(AB30=1,25,IF(AB30=2,18,IF(AB30=3,15,IF(AB30=4,12,IF(AB30=5,10,IF(AB30=6,8,IF(AB30=7,6,IF(AB30=8,4,IF(AB30=9,2,IF(AB30=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7">
         <v>18</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -3965,30 +3914,31 @@
       <c r="T32" s="7">
         <v>19</v>
       </c>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>17</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
       <c r="AC32" s="7">
         <v>0</v>
       </c>
       <c r="AD32" s="7">
-        <v>0</v>
+        <f>SUM(F33:AA33)+AB32+AC32</f>
+        <v>7</v>
       </c>
       <c r="AE32" s="7">
-        <f>SUM(F33:AB33)+AC32+AD32</f>
+        <f>SUM(F33:AA33)</f>
         <v>7</v>
       </c>
-      <c r="AF32" s="7">
-        <f>SUM(F33:AB33)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4082,30 +4032,26 @@
         <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="8">
-        <f>IF(AB32=1,25,IF(AB32=2,18,IF(AB32=3,15,IF(AB32=4,12,IF(AB32=5,10,IF(AB32=6,8,IF(AB32=7,6,IF(AB32=8,4,IF(AB32=9,2,IF(AB32=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" s="7">
         <v>7</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="7">
         <v>11</v>
@@ -4114,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="7">
         <v>12</v>
@@ -4148,30 +4094,31 @@
       <c r="T34" s="7">
         <v>8</v>
       </c>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>12</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
       <c r="AC34" s="7">
         <v>0</v>
       </c>
       <c r="AD34" s="7">
-        <v>0</v>
+        <f>SUM(F35:AA35)+AB34+AC34</f>
+        <v>6</v>
       </c>
       <c r="AE34" s="7">
-        <f>SUM(F35:AB35)+AC34+AD34</f>
+        <f>SUM(F35:AA35)</f>
         <v>6</v>
       </c>
-      <c r="AF34" s="7">
-        <f>SUM(F35:AB35)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4265,30 +4212,26 @@
         <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="8">
-        <f>IF(AB34=1,25,IF(AB34=2,18,IF(AB34=3,15,IF(AB34=4,12,IF(AB34=5,10,IF(AB34=6,8,IF(AB34=7,6,IF(AB34=8,4,IF(AB34=9,2,IF(AB34=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" s="7">
         <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -4335,30 +4278,31 @@
       <c r="T36" s="7">
         <v>16</v>
       </c>
-      <c r="U36" s="7"/>
+      <c r="U36" s="7">
+        <v>11</v>
+      </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
       <c r="AC36" s="7">
         <v>0</v>
       </c>
       <c r="AD36" s="7">
-        <v>0</v>
+        <f>SUM(F37:AA37)+AB36+AC36</f>
+        <v>1</v>
       </c>
       <c r="AE36" s="7">
-        <f>SUM(F37:AB37)+AC36+AD36</f>
+        <f>SUM(F37:AA37)</f>
         <v>1</v>
       </c>
-      <c r="AF36" s="7">
-        <f>SUM(F37:AB37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4452,30 +4396,26 @@
         <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="8">
-        <f>IF(AB36=1,25,IF(AB36=2,18,IF(AB36=3,15,IF(AB36=4,12,IF(AB36=5,10,IF(AB36=6,8,IF(AB36=7,6,IF(AB36=8,4,IF(AB36=9,2,IF(AB36=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7">
         <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7">
         <v>16</v>
@@ -4520,32 +4460,33 @@
         <v>15</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U38" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="U38" s="7">
+        <v>19</v>
+      </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
       <c r="AC38" s="7">
         <v>0</v>
       </c>
       <c r="AD38" s="7">
+        <f>SUM(F39:AA39)+AB38+AC38</f>
         <v>0</v>
       </c>
       <c r="AE38" s="7">
-        <f>SUM(F39:AB39)+AC38+AD38</f>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="7">
-        <f>SUM(F39:AB39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F39:AA39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4639,33 +4580,29 @@
         <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="8">
-        <f>IF(AB38=1,25,IF(AB38=2,18,IF(AB38=3,15,IF(AB38=4,12,IF(AB38=5,10,IF(AB38=6,8,IF(AB38=7,6,IF(AB38=8,4,IF(AB38=9,2,IF(AB38=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7">
         <v>9</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G40" s="7">
         <v>17</v>
@@ -4695,44 +4632,45 @@
         <v>17</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q40" s="7">
         <v>17</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T40" s="7">
         <v>18</v>
       </c>
-      <c r="U40" s="7"/>
+      <c r="U40" s="7">
+        <v>20</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
       <c r="AC40" s="7">
         <v>0</v>
       </c>
       <c r="AD40" s="7">
+        <f>SUM(F41:AA41)+AB40+AC40</f>
         <v>0</v>
       </c>
       <c r="AE40" s="7">
-        <f>SUM(F41:AB41)+AC40+AD40</f>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="7">
-        <f>SUM(F41:AB41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F41:AA41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4826,30 +4764,26 @@
         <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="8">
-        <f>IF(AB40=1,25,IF(AB40=2,18,IF(AB40=3,15,IF(AB40=4,12,IF(AB40=5,10,IF(AB40=6,8,IF(AB40=7,6,IF(AB40=8,4,IF(AB40=9,2,IF(AB40=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="7">
         <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -4877,23 +4811,22 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
       <c r="AC42" s="7">
         <v>0</v>
       </c>
       <c r="AD42" s="7">
+        <f>SUM(E43:Z43)</f>
         <v>0</v>
       </c>
       <c r="AE42" s="7">
-        <f>SUM(E43:AA43)</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="7">
-        <f>SUM(F43:AB43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4949,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:AC43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
+        <f t="shared" ref="S43:AB43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
@@ -4988,18 +4921,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF43">
-    <sortState ref="A2:AF42">
-      <sortCondition descending="1" ref="AE1:AE43"/>
+  <autoFilter ref="A1:AE43">
+    <sortState ref="A2:AE42">
+      <sortCondition descending="1" ref="AD1:AD43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5010,7 +4939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5031,20 +4960,21 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -5083,7 +5013,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
@@ -5092,7 +5022,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -5104,105 +5034,103 @@
         <v>17</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="7">
         <v>2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="N2" s="7">
-        <v>4</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>3</v>
-      </c>
-      <c r="R2" s="7">
-        <v>2</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7">
-        <f>SUM(F3:AB3)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB2" s="7">
+        <f>SUM(F3:AA3)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5210,23 +5138,23 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8">
         <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8">
         <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="8">
         <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="8">
         <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8">
         <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8">
         <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
@@ -5234,31 +5162,31 @@
       </c>
       <c r="L3" s="8">
         <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3" s="8">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N3" s="8">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O3" s="8">
         <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P3" s="8">
         <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="8">
         <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))/2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" s="8">
         <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S3" s="8">
         <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
@@ -5266,11 +5194,11 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V3" s="8">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
@@ -5296,87 +5224,84 @@
         <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="8">
-        <f>IF(AB2=1,10,IF(AB2=2,8,IF(AB2=3,6,IF(AB2=4,5,IF(AB2=5,4,IF(AB2=6,3,IF(AB2=7,2,IF(AB2=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB3" s="8"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="M4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="N4" s="7">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3</v>
+      </c>
+      <c r="R4" s="7">
+        <v>2</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="7">
-        <v>2</v>
-      </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7">
-        <f>SUM(F5:AB5)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB4" s="7">
+        <f>SUM(F5:AA5)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5384,23 +5309,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8">
         <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8">
         <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="8">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="8">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K5" s="8">
         <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
@@ -5408,31 +5333,31 @@
       </c>
       <c r="L5" s="8">
         <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5" s="8">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N5" s="8">
         <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O5" s="8">
         <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5" s="8">
         <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))/2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" s="8">
         <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S5" s="8">
         <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
@@ -5440,11 +5365,11 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="8">
         <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
@@ -5470,33 +5395,29 @@
         <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
-        <f>IF(AB4=1,10,IF(AB4=2,8,IF(AB4=3,6,IF(AB4=4,5,IF(AB4=5,4,IF(AB4=6,3,IF(AB4=7,2,IF(AB4=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB5" s="8"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7">
         <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5505,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7">
         <v>12</v>
@@ -5523,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="7">
         <v>12</v>
@@ -5537,20 +5458,21 @@
       <c r="T6" s="7">
         <v>5</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7">
-        <f>SUM(F7:AB7)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB6" s="7">
+        <f>SUM(F7:AA7)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5618,7 +5540,7 @@
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7" s="8">
         <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
@@ -5644,27 +5566,23 @@
         <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
-        <f>IF(AB6=1,10,IF(AB6=2,8,IF(AB6=3,6,IF(AB6=4,5,IF(AB6=5,4,IF(AB6=6,3,IF(AB6=7,2,IF(AB6=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7">
         <v>4</v>
@@ -5697,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7">
         <v>14</v>
@@ -5711,20 +5629,21 @@
       <c r="T8" s="7">
         <v>7</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7">
+        <v>7</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
-        <f>SUM(F9:AB9)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB8" s="7">
+        <f>SUM(F9:AA9)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -5792,7 +5711,7 @@
       </c>
       <c r="U9" s="8">
         <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" s="8">
         <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
@@ -5818,27 +5737,23 @@
         <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="8">
-        <f>IF(AB8=1,10,IF(AB8=2,8,IF(AB8=3,6,IF(AB8=4,5,IF(AB8=5,4,IF(AB8=6,3,IF(AB8=7,2,IF(AB8=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7">
         <v>5</v>
@@ -5871,7 +5786,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7">
         <v>20</v>
@@ -5885,20 +5800,21 @@
       <c r="T10" s="7">
         <v>9</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="7">
+        <v>3</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7">
-        <f>SUM(F11:AB11)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB10" s="7">
+        <f>SUM(F11:AA11)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5966,7 +5882,7 @@
       </c>
       <c r="U11" s="8">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V11" s="8">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
@@ -5992,87 +5908,84 @@
         <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="8">
-        <f>IF(AB10=1,10,IF(AB10=2,8,IF(AB10=3,6,IF(AB10=4,5,IF(AB10=5,4,IF(AB10=6,3,IF(AB10=7,2,IF(AB10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>16</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
         <v>8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="O12" s="7">
+        <v>2</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>8</v>
+      </c>
+      <c r="R12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>8</v>
-      </c>
-      <c r="L12" s="7">
-        <v>11</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5</v>
-      </c>
-      <c r="O12" s="7">
-        <v>6</v>
-      </c>
-      <c r="P12" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>10</v>
-      </c>
-      <c r="R12" s="7">
-        <v>7</v>
-      </c>
       <c r="S12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T12" s="7">
-        <v>3</v>
-      </c>
-      <c r="U12" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="U12" s="7">
+        <v>4</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7">
-        <f>SUM(F13:AB13)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB12" s="7">
+        <f>SUM(F13:AA13)</f>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6080,27 +5993,27 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="8">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="8">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="8">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="8">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" s="8">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
@@ -6108,39 +6021,39 @@
       </c>
       <c r="M13" s="8">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="8">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O13" s="8">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P13" s="8">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R13" s="8">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V13" s="8">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
@@ -6166,87 +6079,84 @@
         <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="8">
-        <f>IF(AB12=1,10,IF(AB12=2,8,IF(AB12=3,6,IF(AB12=4,5,IF(AB12=5,4,IF(AB12=6,3,IF(AB12=7,2,IF(AB12=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="7">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
         <v>6</v>
       </c>
-      <c r="I14" s="7">
-        <v>4</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7">
-        <v>4</v>
-      </c>
-      <c r="L14" s="7">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="N14" s="7">
+      <c r="S14" s="7">
+        <v>6</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
+      <c r="U14" s="7">
         <v>8</v>
       </c>
-      <c r="O14" s="7">
-        <v>2</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>8</v>
-      </c>
-      <c r="R14" s="7">
-        <v>5</v>
-      </c>
-      <c r="S14" s="7">
-        <v>4</v>
-      </c>
-      <c r="T14" s="7">
-        <v>15</v>
-      </c>
-      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7">
-        <f>SUM(F15:AB15)</f>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB14" s="7">
+        <f>SUM(F15:AA15)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6254,27 +6164,27 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8">
         <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
@@ -6282,39 +6192,39 @@
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,8,IF(Q14=3,6,IF(Q14=4,5,IF(Q14=5,4,IF(Q14=6,3,IF(Q14=7,2,IF(Q14=8,1,0))))))))/2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U15" s="8">
         <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="8">
         <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
@@ -6340,27 +6250,23 @@
         <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="8">
-        <f>IF(AB14=1,10,IF(AB14=2,8,IF(AB14=3,6,IF(AB14=4,5,IF(AB14=5,4,IF(AB14=6,3,IF(AB14=7,2,IF(AB14=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7">
         <v>7</v>
@@ -6407,20 +6313,21 @@
       <c r="T16" s="7">
         <v>4</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>13</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7">
-        <f>SUM(F17:AB17)</f>
+      <c r="AB16" s="7">
+        <f>SUM(F17:AA17)</f>
         <v>34.5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6514,27 +6421,23 @@
         <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="8">
-        <f>IF(AB16=1,10,IF(AB16=2,8,IF(AB16=3,6,IF(AB16=4,5,IF(AB16=5,4,IF(AB16=6,3,IF(AB16=7,2,IF(AB16=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7">
         <v>17</v>
@@ -6558,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
         <v>9</v>
@@ -6576,25 +6479,26 @@
         <v>4</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T18" s="7">
         <v>13</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>6</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7">
-        <f>SUM(F19:AB19)</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB18" s="7">
+        <f>SUM(F19:AA19)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6662,7 +6566,7 @@
       </c>
       <c r="U19" s="8">
         <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V19" s="8">
         <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
@@ -6688,30 +6592,26 @@
         <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="8">
-        <f>IF(AB18=1,10,IF(AB18=2,8,IF(AB18=3,6,IF(AB18=4,5,IF(AB18=5,4,IF(AB18=6,3,IF(AB18=7,2,IF(AB18=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="8"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7">
         <v>14</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7">
         <v>10</v>
@@ -6755,20 +6655,21 @@
       <c r="T20" s="7">
         <v>6</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>16</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7">
-        <f>SUM(F21:AB21)</f>
+      <c r="AB20" s="7">
+        <f>SUM(F21:AA21)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6862,33 +6763,29 @@
         <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="8">
-        <f>IF(AB20=1,10,IF(AB20=2,8,IF(AB20=3,6,IF(AB20=4,5,IF(AB20=5,4,IF(AB20=6,3,IF(AB20=7,2,IF(AB20=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7">
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7">
         <v>15</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -6909,13 +6806,13 @@
         <v>12</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="7">
         <v>5</v>
@@ -6929,20 +6826,21 @@
       <c r="T22" s="7">
         <v>12</v>
       </c>
-      <c r="U22" s="7"/>
+      <c r="U22" s="7">
+        <v>18</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7">
-        <f>SUM(F23:AB23)</f>
+      <c r="AB22" s="7">
+        <f>SUM(F23:AA23)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -7036,27 +6934,23 @@
         <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="8">
-        <f>IF(AB22=1,10,IF(AB22=2,8,IF(AB22=3,6,IF(AB22=4,5,IF(AB22=5,4,IF(AB22=6,3,IF(AB22=7,2,IF(AB22=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB23" s="8"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="7">
         <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="7">
         <v>13</v>
@@ -7074,7 +6968,7 @@
         <v>9</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L24" s="7">
         <v>14</v>
@@ -7083,7 +6977,7 @@
         <v>14</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O24" s="7">
         <v>9</v>
@@ -7103,20 +6997,21 @@
       <c r="T24" s="7">
         <v>14</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>10</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7">
-        <f>SUM(F25:AB25)</f>
+      <c r="AB24" s="7">
+        <f>SUM(F25:AA25)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7210,27 +7105,23 @@
         <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="8">
-        <f>IF(AB24=1,10,IF(AB24=2,8,IF(AB24=3,6,IF(AB24=4,5,IF(AB24=5,4,IF(AB24=6,3,IF(AB24=7,2,IF(AB24=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB25" s="8"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="7">
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="7">
         <v>10</v>
@@ -7248,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7">
         <v>10</v>
@@ -7263,7 +7154,7 @@
         <v>8</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7">
         <v>18</v>
@@ -7277,20 +7168,21 @@
       <c r="T26" s="7">
         <v>11</v>
       </c>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7">
+        <v>9</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7">
-        <f>SUM(F27:AB27)</f>
+      <c r="AB26" s="7">
+        <f>SUM(F27:AA27)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -7384,27 +7276,23 @@
         <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="8">
-        <f>IF(AB26=1,10,IF(AB26=2,8,IF(AB26=3,6,IF(AB26=4,5,IF(AB26=5,4,IF(AB26=6,3,IF(AB26=7,2,IF(AB26=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="8"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7">
         <v>9</v>
@@ -7416,7 +7304,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J28" s="7">
         <v>16</v>
@@ -7443,28 +7331,29 @@
         <v>15</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T28" s="7">
         <v>17</v>
       </c>
-      <c r="U28" s="7"/>
+      <c r="U28" s="7">
+        <v>14</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7">
-        <f>SUM(F29:AB29)</f>
+      <c r="AB28" s="7">
+        <f>SUM(F29:AA29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -7558,33 +7447,29 @@
         <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="8">
-        <f>IF(AB28=1,10,IF(AB28=2,8,IF(AB28=3,6,IF(AB28=4,5,IF(AB28=5,4,IF(AB28=6,3,IF(AB28=7,2,IF(AB28=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7">
         <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="7">
         <v>14</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -7596,13 +7481,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L30" s="7">
         <v>12</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N30" s="7">
         <v>11</v>
@@ -7625,20 +7510,21 @@
       <c r="T30" s="7">
         <v>10</v>
       </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7">
+        <v>15</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7">
-        <f>SUM(F31:AB31)</f>
+      <c r="AB30" s="7">
+        <f>SUM(F31:AA31)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -7732,33 +7618,29 @@
         <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="8">
-        <f>IF(AB30=1,10,IF(AB30=2,8,IF(AB30=3,6,IF(AB30=4,5,IF(AB30=5,4,IF(AB30=6,3,IF(AB30=7,2,IF(AB30=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7">
         <v>18</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -7799,20 +7681,21 @@
       <c r="T32" s="7">
         <v>19</v>
       </c>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>17</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7">
-        <f>SUM(F33:AB33)</f>
+      <c r="AB32" s="7">
+        <f>SUM(F33:AA33)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -7906,27 +7789,23 @@
         <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="8">
-        <f>IF(AB32=1,10,IF(AB32=2,8,IF(AB32=3,6,IF(AB32=4,5,IF(AB32=5,4,IF(AB32=6,3,IF(AB32=7,2,IF(AB32=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="8"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" s="7">
         <v>7</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F34" s="7">
         <v>11</v>
@@ -7935,7 +7814,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="7">
         <v>12</v>
@@ -7969,20 +7848,21 @@
       <c r="T34" s="7">
         <v>8</v>
       </c>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>12</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7">
-        <f>SUM(F35:AB35)</f>
+      <c r="AB34" s="7">
+        <f>SUM(F35:AA35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8076,27 +7956,23 @@
         <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="8">
-        <f>IF(AB34=1,10,IF(AB34=2,8,IF(AB34=3,6,IF(AB34=4,5,IF(AB34=5,4,IF(AB34=6,3,IF(AB34=7,2,IF(AB34=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="8"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" s="7">
         <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" s="7">
         <v>12</v>
@@ -8143,20 +8019,21 @@
       <c r="T36" s="7">
         <v>16</v>
       </c>
-      <c r="U36" s="7"/>
+      <c r="U36" s="7">
+        <v>11</v>
+      </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7">
-        <f>SUM(F37:AB37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB36" s="7">
+        <f>SUM(F37:AA37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8250,27 +8127,23 @@
         <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="8">
-        <f>IF(AB36=1,10,IF(AB36=2,8,IF(AB36=3,6,IF(AB36=4,5,IF(AB36=5,4,IF(AB36=6,3,IF(AB36=7,2,IF(AB36=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="8"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7">
         <v>47</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7">
         <v>16</v>
@@ -8315,22 +8188,23 @@
         <v>15</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U38" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="U38" s="7">
+        <v>19</v>
+      </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7">
-        <f>SUM(F39:AB39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB38" s="7">
+        <f>SUM(F39:AA39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8424,30 +8298,26 @@
         <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="8">
-        <f>IF(AB38=1,10,IF(AB38=2,8,IF(AB38=3,6,IF(AB38=4,5,IF(AB38=5,4,IF(AB38=6,3,IF(AB38=7,2,IF(AB38=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="8"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7">
         <v>9</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G40" s="7">
         <v>17</v>
@@ -8477,34 +8347,35 @@
         <v>17</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q40" s="7">
         <v>17</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T40" s="7">
         <v>18</v>
       </c>
-      <c r="U40" s="7"/>
+      <c r="U40" s="7">
+        <v>20</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7">
-        <f>SUM(F41:AB41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB40" s="7">
+        <f>SUM(F41:AA41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8598,27 +8469,23 @@
         <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="8">
-        <f>IF(AB40=1,10,IF(AB40=2,8,IF(AB40=3,6,IF(AB40=4,5,IF(AB40=5,4,IF(AB40=6,3,IF(AB40=7,2,IF(AB40=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="8"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB41" s="8"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="7">
         <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="7"/>
@@ -8646,13 +8513,12 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7">
-        <f>SUM(F43:AB43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB42" s="7">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8746,16 +8612,12 @@
         <f t="shared" ref="AA43" si="19">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
         <v>0</v>
       </c>
-      <c r="AB43" s="8">
-        <f t="shared" ref="AB43" si="20">IF(AB42=1,10,IF(AB42=2,8,IF(AB42=3,6,IF(AB42=4,5,IF(AB42=5,4,IF(AB42=6,3,IF(AB42=7,2,IF(AB42=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="8"/>
+      <c r="AB43" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC43">
-    <sortState ref="A2:AC42">
-      <sortCondition descending="1" ref="AC1:AC43"/>
+  <autoFilter ref="A1:AB43">
+    <sortState ref="A2:AB42">
+      <sortCondition descending="1" ref="AB1:AB43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8765,7 +8627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8786,22 +8648,23 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
@@ -8840,7 +8703,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
@@ -8849,7 +8712,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>15</v>
@@ -8861,51 +8724,48 @@
         <v>17</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -8923,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -8935,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P2" s="7">
         <v>9</v>
@@ -8947,33 +8807,34 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T2" s="7">
         <v>2</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="7">
+        <v>2</v>
+      </c>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7">
+      <c r="AB2" s="7">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
+      <c r="AC2" s="7">
+        <f>SUM(F3:AA3)+AB2</f>
+        <v>99</v>
+      </c>
       <c r="AD2" s="7">
-        <f>SUM(F3:AB3)+AC2</f>
-        <v>93</v>
-      </c>
-      <c r="AE2" s="7">
-        <f>SUM(F3:AB3)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F3:AA3)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -9041,7 +8902,7 @@
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3" s="8">
         <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
@@ -9067,29 +8928,25 @@
         <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="8">
-        <f>IF(AB2=1,10,IF(AB2=2,6,IF(AB2=3,4,IF(AB2=4,3,IF(AB2=5,2,IF(AB2=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
         <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -9131,33 +8988,34 @@
         <v>2</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T4" s="7">
         <v>1</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="7">
+        <v>5</v>
+      </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7">
+      <c r="AB4" s="7">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
+      <c r="AC4" s="7">
+        <f>SUM(F5:AA5)+AB4</f>
+        <v>91</v>
+      </c>
       <c r="AD4" s="7">
-        <f>SUM(F5:AB5)+AC4</f>
-        <v>89</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>SUM(F5:AB5)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F5:AA5)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -9225,7 +9083,7 @@
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="8">
         <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
@@ -9251,35 +9109,31 @@
         <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
-        <f>IF(AB4=1,10,IF(AB4=2,6,IF(AB4=3,4,IF(AB4=4,3,IF(AB4=5,2,IF(AB4=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7">
         <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7">
         <v>3</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -9288,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="7">
         <v>12</v>
@@ -9306,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="7">
         <v>12</v>
@@ -9320,28 +9174,29 @@
       <c r="T6" s="7">
         <v>5</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="7">
+        <v>1</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="7">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
       <c r="AC6" s="7">
-        <f>1+1</f>
-        <v>2</v>
+        <f>SUM(F7:AA7)+AB6</f>
+        <v>52</v>
       </c>
       <c r="AD6" s="7">
-        <f>SUM(F7:AB7)+AC6</f>
-        <v>41</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>SUM(F7:AB7)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F7:AA7)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -9409,7 +9264,7 @@
       </c>
       <c r="U7" s="8">
         <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V7" s="8">
         <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
@@ -9435,97 +9290,94 @@
         <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
-        <f>IF(AB6=1,10,IF(AB6=2,6,IF(AB6=3,4,IF(AB6=4,3,IF(AB6=5,2,IF(AB6=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>6</v>
+      </c>
+      <c r="O8" s="7">
+        <v>16</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>20</v>
+      </c>
+      <c r="R8" s="7">
+        <v>8</v>
+      </c>
+      <c r="S8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="T8" s="7">
+        <v>9</v>
+      </c>
+      <c r="U8" s="7">
         <v>3</v>
       </c>
-      <c r="K8" s="7">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3</v>
-      </c>
-      <c r="O8" s="7">
-        <v>4</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>14</v>
-      </c>
-      <c r="R8" s="7">
-        <v>10</v>
-      </c>
-      <c r="S8" s="7">
-        <v>2</v>
-      </c>
-      <c r="T8" s="7">
-        <v>7</v>
-      </c>
-      <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7">
+      <c r="AB8" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC8" s="7">
+        <f>SUM(F9:AA9)+AB8</f>
+        <v>35</v>
+      </c>
       <c r="AD8" s="7">
-        <f>SUM(F9:AB9)+AC8</f>
-        <v>33</v>
-      </c>
-      <c r="AE8" s="7">
-        <f>SUM(F9:AB9)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F9:AA9)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -9533,43 +9385,43 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8">
         <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
         <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="8">
         <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="8">
         <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="8">
         <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L9" s="8">
         <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9" s="8">
         <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="8">
         <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O9" s="8">
         <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
         <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
@@ -9585,7 +9437,7 @@
       </c>
       <c r="S9" s="8">
         <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T9" s="8">
         <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
@@ -9593,7 +9445,7 @@
       </c>
       <c r="U9" s="8">
         <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="8">
         <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
@@ -9619,97 +9471,94 @@
         <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="8">
-        <f>IF(AB8=1,10,IF(AB8=2,6,IF(AB8=3,4,IF(AB8=4,3,IF(AB8=5,2,IF(AB8=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="O10" s="7">
         <v>4</v>
       </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6</v>
-      </c>
-      <c r="O10" s="7">
-        <v>16</v>
-      </c>
       <c r="P10" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" s="7">
-        <v>9</v>
-      </c>
-      <c r="U10" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="U10" s="7">
+        <v>7</v>
+      </c>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7">
+      <c r="AB10" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC10" s="7">
+        <f>SUM(F11:AA11)+AB10</f>
+        <v>33</v>
+      </c>
       <c r="AD10" s="7">
-        <f>SUM(F11:AB11)+AC10</f>
-        <v>31</v>
-      </c>
-      <c r="AE10" s="7">
-        <f>SUM(F11:AB11)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F11:AA11)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -9717,43 +9566,43 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="8">
         <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="8">
         <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="8">
         <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="8">
         <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L11" s="8">
         <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="8">
         <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="8">
         <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O11" s="8">
         <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" s="8">
         <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
@@ -9769,7 +9618,7 @@
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
@@ -9803,29 +9652,25 @@
         <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="8">
-        <f>IF(AB10=1,10,IF(AB10=2,6,IF(AB10=3,4,IF(AB10=4,3,IF(AB10=5,2,IF(AB10=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7">
         <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7">
         <v>6</v>
@@ -9840,7 +9685,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7">
         <v>4</v>
@@ -9858,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="7">
         <v>8</v>
@@ -9872,27 +9717,28 @@
       <c r="T12" s="7">
         <v>15</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="7">
+        <v>4</v>
+      </c>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
       <c r="AC12" s="7">
-        <v>0</v>
+        <f>SUM(F13:AA13)+AB12</f>
+        <v>25</v>
       </c>
       <c r="AD12" s="7">
-        <f>SUM(F13:AB13)+AC12</f>
-        <v>22</v>
-      </c>
-      <c r="AE12" s="7">
-        <f>SUM(F13:AB13)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F13:AA13)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -9960,7 +9806,7 @@
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13" s="8">
         <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
@@ -9986,29 +9832,25 @@
         <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="8">
-        <f>IF(AB12=1,10,IF(AB12=2,6,IF(AB12=3,4,IF(AB12=4,3,IF(AB12=5,2,IF(AB12=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7">
         <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7">
         <v>8</v>
@@ -10055,27 +9897,28 @@
       <c r="T14" s="7">
         <v>3</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7">
+        <v>8</v>
+      </c>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
       <c r="AC14" s="7">
-        <v>0</v>
+        <f>SUM(F15:AA15)+AB14</f>
+        <v>21</v>
       </c>
       <c r="AD14" s="7">
-        <f>SUM(F15:AB15)+AC14</f>
+        <f>SUM(F15:AA15)</f>
         <v>21</v>
       </c>
-      <c r="AE14" s="7">
-        <f>SUM(F15:AB15)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -10169,29 +10012,25 @@
         <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="8">
-        <f>IF(AB14=1,10,IF(AB14=2,6,IF(AB14=3,4,IF(AB14=4,3,IF(AB14=5,2,IF(AB14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7">
         <v>7</v>
@@ -10238,28 +10077,29 @@
       <c r="T16" s="7">
         <v>4</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>13</v>
+      </c>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7">
+      <c r="AB16" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC16" s="7">
+        <f>SUM(F17:AA17)+AB16</f>
+        <v>20.5</v>
+      </c>
       <c r="AD16" s="7">
-        <f>SUM(F17:AB17)+AC16</f>
-        <v>20.5</v>
-      </c>
-      <c r="AE16" s="7">
-        <f>SUM(F17:AB17)</f>
+        <f>SUM(F17:AA17)</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -10353,29 +10193,25 @@
         <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="8">
-        <f>IF(AB16=1,10,IF(AB16=2,6,IF(AB16=3,4,IF(AB16=4,3,IF(AB16=5,2,IF(AB16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7">
         <v>17</v>
@@ -10399,7 +10235,7 @@
         <v>7</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N18" s="7">
         <v>9</v>
@@ -10417,33 +10253,34 @@
         <v>4</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T18" s="7">
         <v>13</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="7">
+        <v>6</v>
+      </c>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7">
+      <c r="AB18" s="7">
         <f>1</f>
         <v>1</v>
       </c>
+      <c r="AC18" s="7">
+        <f>SUM(F19:AA19)+AB18</f>
+        <v>12.5</v>
+      </c>
       <c r="AD18" s="7">
-        <f>SUM(F19:AB19)+AC18</f>
+        <f>SUM(F19:AA19)</f>
         <v>11.5</v>
       </c>
-      <c r="AE18" s="7">
-        <f>SUM(F19:AB19)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -10511,7 +10348,7 @@
       </c>
       <c r="U19" s="8">
         <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="8">
         <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
@@ -10537,29 +10374,25 @@
         <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="8">
-        <f>IF(AB18=1,10,IF(AB18=2,6,IF(AB18=3,4,IF(AB18=4,3,IF(AB18=5,2,IF(AB18=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" s="7">
         <v>31</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7">
         <v>13</v>
@@ -10577,7 +10410,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7">
         <v>14</v>
@@ -10586,7 +10419,7 @@
         <v>14</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O20" s="7">
         <v>9</v>
@@ -10606,27 +10439,28 @@
       <c r="T20" s="7">
         <v>14</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7">
+        <v>10</v>
+      </c>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="7">
+        <v>0</v>
+      </c>
       <c r="AC20" s="7">
-        <v>0</v>
+        <f>SUM(F21:AA21)+AB20</f>
+        <v>10</v>
       </c>
       <c r="AD20" s="7">
-        <f>SUM(F21:AB21)+AC20</f>
+        <f>SUM(F21:AA21)</f>
         <v>10</v>
       </c>
-      <c r="AE20" s="7">
-        <f>SUM(F21:AB21)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -10720,35 +10554,31 @@
         <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="8">
-        <f>IF(AB20=1,10,IF(AB20=2,6,IF(AB20=3,4,IF(AB20=4,3,IF(AB20=5,2,IF(AB20=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7">
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7">
         <v>15</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -10769,13 +10599,13 @@
         <v>12</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="7">
         <v>5</v>
@@ -10789,27 +10619,28 @@
       <c r="T22" s="7">
         <v>12</v>
       </c>
-      <c r="U22" s="7"/>
+      <c r="U22" s="7">
+        <v>18</v>
+      </c>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="AB22" s="7">
+        <v>0</v>
+      </c>
       <c r="AC22" s="7">
-        <v>0</v>
+        <f>SUM(F23:AA23)+AB22</f>
+        <v>9</v>
       </c>
       <c r="AD22" s="7">
-        <f>SUM(F23:AB23)+AC22</f>
+        <f>SUM(F23:AA23)</f>
         <v>9</v>
       </c>
-      <c r="AE22" s="7">
-        <f>SUM(F23:AB23)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -10903,32 +10734,28 @@
         <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="8">
-        <f>IF(AB22=1,10,IF(AB22=2,6,IF(AB22=3,4,IF(AB22=4,3,IF(AB22=5,2,IF(AB22=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7">
         <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7">
         <v>10</v>
@@ -10972,27 +10799,28 @@
       <c r="T24" s="7">
         <v>6</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>16</v>
+      </c>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+      <c r="AB24" s="7">
+        <v>0</v>
+      </c>
       <c r="AC24" s="7">
-        <v>0</v>
+        <f>SUM(F25:AA25)+AB24</f>
+        <v>6</v>
       </c>
       <c r="AD24" s="7">
-        <f>SUM(F25:AB25)+AC24</f>
+        <f>SUM(F25:AA25)</f>
         <v>6</v>
       </c>
-      <c r="AE24" s="7">
-        <f>SUM(F25:AB25)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -11086,35 +10914,31 @@
         <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="8">
-        <f>IF(AB24=1,10,IF(AB24=2,6,IF(AB24=3,4,IF(AB24=4,3,IF(AB24=5,2,IF(AB24=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="7">
         <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F26" s="7">
         <v>14</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -11126,13 +10950,13 @@
         <v>14</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7">
         <v>12</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N26" s="7">
         <v>11</v>
@@ -11155,27 +10979,28 @@
       <c r="T26" s="7">
         <v>10</v>
       </c>
-      <c r="U26" s="7"/>
+      <c r="U26" s="7">
+        <v>15</v>
+      </c>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
       <c r="AC26" s="7">
-        <v>0</v>
+        <f>SUM(F27:AA27)+AB26</f>
+        <v>3</v>
       </c>
       <c r="AD26" s="7">
-        <f>SUM(F27:AB27)+AC26</f>
+        <f>SUM(F27:AA27)</f>
         <v>3</v>
       </c>
-      <c r="AE26" s="7">
-        <f>SUM(F27:AB27)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -11269,29 +11094,25 @@
         <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="8">
-        <f>IF(AB26=1,10,IF(AB26=2,6,IF(AB26=3,4,IF(AB26=4,3,IF(AB26=5,2,IF(AB26=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>22</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7">
         <v>9</v>
@@ -11303,7 +11124,7 @@
         <v>15</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J28" s="7">
         <v>16</v>
@@ -11330,35 +11151,36 @@
         <v>15</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T28" s="7">
         <v>17</v>
       </c>
-      <c r="U28" s="7"/>
+      <c r="U28" s="7">
+        <v>14</v>
+      </c>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
       <c r="AC28" s="7">
-        <v>0</v>
+        <f>SUM(F29:AA29)+AB28</f>
+        <v>1</v>
       </c>
       <c r="AD28" s="7">
-        <f>SUM(F29:AB29)+AC28</f>
+        <f>SUM(F29:AA29)</f>
         <v>1</v>
       </c>
-      <c r="AE28" s="7">
-        <f>SUM(F29:AB29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -11452,32 +11274,28 @@
         <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="8">
-        <f>IF(AB28=1,10,IF(AB28=2,6,IF(AB28=3,4,IF(AB28=4,3,IF(AB28=5,2,IF(AB28=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7">
         <v>9</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G30" s="7">
         <v>17</v>
@@ -11507,42 +11325,43 @@
         <v>17</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7">
         <v>17</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T30" s="7">
         <v>18</v>
       </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="7">
+        <v>20</v>
+      </c>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7">
+      <c r="AB30" s="7">
         <f>(1)/2</f>
         <v>0.5</v>
       </c>
+      <c r="AC30" s="7">
+        <f>SUM(F31:AA31)+AB30</f>
+        <v>0.5</v>
+      </c>
       <c r="AD30" s="7">
-        <f>SUM(F31:AB31)+AC30</f>
-        <v>0.5</v>
-      </c>
-      <c r="AE30" s="7">
-        <f>SUM(F31:AB31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F31:AA31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -11636,29 +11455,25 @@
         <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="8">
-        <f>IF(AB30=1,10,IF(AB30=2,6,IF(AB30=3,4,IF(AB30=4,3,IF(AB30=5,2,IF(AB30=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" s="7">
         <v>18</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F32" s="7">
         <v>10</v>
@@ -11676,7 +11491,7 @@
         <v>8</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L32" s="7">
         <v>10</v>
@@ -11691,7 +11506,7 @@
         <v>8</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q32" s="7">
         <v>18</v>
@@ -11705,27 +11520,28 @@
       <c r="T32" s="7">
         <v>11</v>
       </c>
-      <c r="U32" s="7"/>
+      <c r="U32" s="7">
+        <v>9</v>
+      </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+      <c r="AB32" s="7">
+        <v>0</v>
+      </c>
       <c r="AC32" s="7">
+        <f>SUM(F33:AA33)+AB32</f>
         <v>0</v>
       </c>
       <c r="AD32" s="7">
-        <f>SUM(F33:AB33)+AC32</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="7">
-        <f>SUM(F33:AB33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F33:AA33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -11819,35 +11635,31 @@
         <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="8">
-        <f>IF(AB32=1,10,IF(AB32=2,6,IF(AB32=3,4,IF(AB32=4,3,IF(AB32=5,2,IF(AB32=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7">
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="7">
         <v>18</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -11888,27 +11700,28 @@
       <c r="T34" s="7">
         <v>19</v>
       </c>
-      <c r="U34" s="7"/>
+      <c r="U34" s="7">
+        <v>17</v>
+      </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+      <c r="AB34" s="7">
+        <v>0</v>
+      </c>
       <c r="AC34" s="7">
+        <f>SUM(F35:AA35)+AB34</f>
         <v>0</v>
       </c>
       <c r="AD34" s="7">
-        <f>SUM(F35:AB35)+AC34</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="7">
-        <f>SUM(F35:AB35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F35:AA35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -12002,29 +11815,25 @@
         <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="8">
-        <f>IF(AB34=1,10,IF(AB34=2,6,IF(AB34=3,4,IF(AB34=4,3,IF(AB34=5,2,IF(AB34=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="7">
         <v>7</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F36" s="7">
         <v>11</v>
@@ -12033,7 +11842,7 @@
         <v>13</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I36" s="7">
         <v>12</v>
@@ -12067,27 +11876,28 @@
       <c r="T36" s="7">
         <v>8</v>
       </c>
-      <c r="U36" s="7"/>
+      <c r="U36" s="7">
+        <v>12</v>
+      </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
+      <c r="AB36" s="7">
+        <v>0</v>
+      </c>
       <c r="AC36" s="7">
+        <f>SUM(F37:AA37)+AB36</f>
         <v>0</v>
       </c>
       <c r="AD36" s="7">
-        <f>SUM(F37:AB37)+AC36</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="7">
-        <f>SUM(F37:AB37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F37:AA37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -12181,29 +11991,25 @@
         <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="8">
-        <f>IF(AB36=1,10,IF(AB36=2,6,IF(AB36=3,4,IF(AB36=4,3,IF(AB36=5,2,IF(AB36=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="7">
         <v>99</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7">
         <v>12</v>
@@ -12250,27 +12056,28 @@
       <c r="T38" s="7">
         <v>16</v>
       </c>
-      <c r="U38" s="7"/>
+      <c r="U38" s="7">
+        <v>11</v>
+      </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="AB38" s="7">
+        <v>0</v>
+      </c>
       <c r="AC38" s="7">
+        <f>SUM(F39:AA39)+AB38</f>
         <v>0</v>
       </c>
       <c r="AD38" s="7">
-        <f>SUM(F39:AB39)+AC38</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="7">
-        <f>SUM(F39:AB39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F39:AA39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -12364,29 +12171,25 @@
         <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="8">
-        <f>IF(AB38=1,10,IF(AB38=2,6,IF(AB38=3,4,IF(AB38=4,3,IF(AB38=5,2,IF(AB38=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7">
         <v>47</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="7">
         <v>16</v>
@@ -12431,29 +12234,30 @@
         <v>15</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U40" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="U40" s="7">
+        <v>19</v>
+      </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
       <c r="AC40" s="7">
+        <f>SUM(F41:AA41)+AB40</f>
         <v>0</v>
       </c>
       <c r="AD40" s="7">
-        <f>SUM(F41:AB41)+AC40</f>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="7">
-        <f>SUM(F41:AB41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F41:AA41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -12547,29 +12351,25 @@
         <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="8">
-        <f>IF(AB40=1,10,IF(AB40=2,6,IF(AB40=3,4,IF(AB40=4,3,IF(AB40=5,2,IF(AB40=6,1,0))))))</f>
-        <v>0</v>
-      </c>
+      <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="7">
         <v>88</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -12597,20 +12397,19 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
       <c r="AC42" s="7">
+        <f>SUM(F43:AA43)+AB42</f>
         <v>0</v>
       </c>
       <c r="AD42" s="7">
-        <f>SUM(F43:AB43)+AC42</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="7">
-        <f>SUM(F43:AB43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(F43:AA43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -12665,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43:AB43" si="1">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <f t="shared" ref="R43:AA43" si="1">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
@@ -12704,18 +12503,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE43">
-    <sortState ref="A2:AE42">
-      <sortCondition descending="1" ref="AD1:AD43"/>
+  <autoFilter ref="A1:AD43">
+    <sortState ref="A2:AD42">
+      <sortCondition descending="1" ref="AC1:AC43"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12742,208 +12537,208 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="8">
-        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE6</f>
-        <v>397.5</v>
+        <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
+        <v>433.5</v>
       </c>
       <c r="E2" s="8">
-        <f>'2021 Driver Ranking'!AF2+'2021 Driver Ranking'!AF6</f>
-        <v>385.5</v>
+        <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
+        <v>420.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE10</f>
-        <v>364.5</v>
+        <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD10</f>
+        <v>397.5</v>
       </c>
       <c r="E3" s="10">
-        <f>'2021 Driver Ranking'!AF4+'2021 Driver Ranking'!AF10</f>
-        <v>356.5</v>
+        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE10</f>
+        <v>389.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11">
+        <f>'2021 Driver Ranking'!AD8+'2021 Driver Ranking'!AD16</f>
+        <v>240</v>
+      </c>
+      <c r="E4" s="11">
         <f>'2021 Driver Ranking'!AE8+'2021 Driver Ranking'!AE16</f>
-        <v>234</v>
-      </c>
-      <c r="E4" s="11">
-        <f>'2021 Driver Ranking'!AF8+'2021 Driver Ranking'!AF16</f>
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="12">
+        <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
+        <v>232.5</v>
+      </c>
+      <c r="E5" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>216.5</v>
-      </c>
-      <c r="E5" s="12">
-        <f>'2021 Driver Ranking'!AF12+'2021 Driver Ranking'!AF14</f>
-        <v>216.5</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6">
+        <f>'2021 Driver Ranking'!AD20+'2021 Driver Ranking'!AD22</f>
+        <v>104</v>
+      </c>
+      <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>103</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'2021 Driver Ranking'!AF20+'2021 Driver Ranking'!AF22</f>
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="15">
+        <f>'2021 Driver Ranking'!AD18+'2021 Driver Ranking'!AD28</f>
+        <v>92</v>
+      </c>
+      <c r="E7" s="15">
         <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
-        <v>84</v>
-      </c>
-      <c r="E7" s="15">
-        <f>'2021 Driver Ranking'!AF18+'2021 Driver Ranking'!AF28</f>
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="13">
+        <f>'2021 Driver Ranking'!AD24+'2021 Driver Ranking'!AD26</f>
+        <v>61</v>
+      </c>
+      <c r="E8" s="13">
         <f>'2021 Driver Ranking'!AE24+'2021 Driver Ranking'!AE26</f>
-        <v>59</v>
-      </c>
-      <c r="E8" s="13">
-        <f>'2021 Driver Ranking'!AF24+'2021 Driver Ranking'!AF26</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10">
+        <f>'2021 Driver Ranking'!AD30+'2021 Driver Ranking'!AD32</f>
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
         <f>'2021 Driver Ranking'!AE30+'2021 Driver Ranking'!AE32</f>
         <v>23</v>
       </c>
-      <c r="E9" s="10">
-        <f>'2021 Driver Ranking'!AF30+'2021 Driver Ranking'!AF32</f>
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16">
+        <f>'2021 Driver Ranking'!AD34+'2021 Driver Ranking'!AD36+'2021 Driver Ranking'!AD42</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="16">
         <f>'2021 Driver Ranking'!AE34+'2021 Driver Ranking'!AE36+'2021 Driver Ranking'!AE42</f>
         <v>7</v>
       </c>
-      <c r="E10" s="16">
-        <f>'2021 Driver Ranking'!AF34+'2021 Driver Ranking'!AF36+'2021 Driver Ranking'!AF42</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
+        <f>'2021 Driver Ranking'!AD38+'2021 Driver Ranking'!AD40</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
         <f>'2021 Driver Ranking'!AE38+'2021 Driver Ranking'!AE40</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <f>'2021 Driver Ranking'!AF38+'2021 Driver Ranking'!AF40</f>
         <v>0</v>
       </c>
     </row>
@@ -12976,165 +12771,165 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="8">
-        <f>'2003-2009 Driver Ranking'!AC2+'2003-2009 Driver Ranking'!AC6</f>
-        <v>159</v>
+        <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'2003-2009 Driver Ranking'!AC4+'2003-2009 Driver Ranking'!AC10</f>
-        <v>144</v>
+        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB10</f>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11">
-        <f>'2003-2009 Driver Ranking'!AC8+'2003-2009 Driver Ranking'!AC16</f>
-        <v>89.5</v>
+        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB16</f>
+        <v>91.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="12">
-        <f>'2003-2009 Driver Ranking'!AC12+'2003-2009 Driver Ranking'!AC14</f>
-        <v>84.5</v>
+        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
+        <v>90.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6">
-        <f>'2003-2009 Driver Ranking'!AC20+'2003-2009 Driver Ranking'!AC24</f>
+        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB24</f>
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="15">
-        <f>'2003-2009 Driver Ranking'!AC18+'2003-2009 Driver Ranking'!AC28</f>
-        <v>28.5</v>
+        <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
+        <v>31.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="13">
-        <f>'2003-2009 Driver Ranking'!AC22+'2003-2009 Driver Ranking'!AC26</f>
+        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB26</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10">
-        <f>'2003-2009 Driver Ranking'!AC30+'2003-2009 Driver Ranking'!AC32</f>
+        <f>'2003-2009 Driver Ranking'!AB30+'2003-2009 Driver Ranking'!AB32</f>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16">
-        <f>'2003-2009 Driver Ranking'!AC34+'2003-2009 Driver Ranking'!AC36+'2003-2009 Driver Ranking'!AC42</f>
+        <f>'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB42</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
-        <f>'2003-2009 Driver Ranking'!AC38+'2003-2009 Driver Ranking'!AC40</f>
+        <f>'2003-2009 Driver Ranking'!AB38+'2003-2009 Driver Ranking'!AB40</f>
         <v>0</v>
       </c>
     </row>
@@ -13167,208 +12962,208 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="8">
+        <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
+        <v>143</v>
+      </c>
+      <c r="E2" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>130</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'1991-2002 Driver Ranking'!AE4+'1991-2002 Driver Ranking'!AE6</f>
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD10</f>
-        <v>124</v>
+        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
+        <v>134</v>
       </c>
       <c r="E3" s="10">
-        <f>'1991-2002 Driver Ranking'!AE2+'1991-2002 Driver Ranking'!AE10</f>
-        <v>119</v>
+        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11">
-        <f>'1991-2002 Driver Ranking'!AD8+'1991-2002 Driver Ranking'!AD16</f>
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC16</f>
         <v>53.5</v>
       </c>
       <c r="E4" s="11">
-        <f>'1991-2002 Driver Ranking'!AE8+'1991-2002 Driver Ranking'!AE16</f>
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD16</f>
         <v>51.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="D5" s="12">
+        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC14</f>
+        <v>46</v>
+      </c>
+      <c r="E5" s="12">
         <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
-        <v>43</v>
-      </c>
-      <c r="E5" s="12">
-        <f>'1991-2002 Driver Ranking'!AE12+'1991-2002 Driver Ranking'!AE14</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="6">
+        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
         <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
         <v>16</v>
       </c>
-      <c r="E6" s="6">
-        <f>'1991-2002 Driver Ranking'!AE20+'1991-2002 Driver Ranking'!AE24</f>
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="15">
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
+        <v>13.5</v>
+      </c>
+      <c r="E7" s="15">
         <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
         <v>12.5</v>
       </c>
-      <c r="E7" s="15">
-        <f>'1991-2002 Driver Ranking'!AE18+'1991-2002 Driver Ranking'!AE28</f>
-        <v>11.5</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="13">
+        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC32</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="13">
         <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD32</f>
         <v>9</v>
       </c>
-      <c r="E8" s="13">
-        <f>'1991-2002 Driver Ranking'!AE22+'1991-2002 Driver Ranking'!AE32</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10">
+        <f>'1991-2002 Driver Ranking'!AC26+'1991-2002 Driver Ranking'!AC34</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
         <f>'1991-2002 Driver Ranking'!AD26+'1991-2002 Driver Ranking'!AD34</f>
         <v>3</v>
       </c>
-      <c r="E9" s="10">
-        <f>'1991-2002 Driver Ranking'!AE26+'1991-2002 Driver Ranking'!AE34</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
+        <f>'1991-2002 Driver Ranking'!AC30+'1991-2002 Driver Ranking'!AC40</f>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="7">
         <f>'1991-2002 Driver Ranking'!AD30+'1991-2002 Driver Ranking'!AD40</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="7">
-        <f>'1991-2002 Driver Ranking'!AE30+'1991-2002 Driver Ranking'!AE40</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="16">
+        <f>'1991-2002 Driver Ranking'!AC36+'1991-2002 Driver Ranking'!AC38+'1991-2002 Driver Ranking'!AC42</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <f>'1991-2002 Driver Ranking'!AD36+'1991-2002 Driver Ranking'!AD38+'1991-2002 Driver Ranking'!AD42</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <f>'1991-2002 Driver Ranking'!AE36+'1991-2002 Driver Ranking'!AE38+'1991-2002 Driver Ranking'!AE42</f>
         <v>0</v>
       </c>
     </row>
@@ -13397,26 +13192,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="111">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -976,7 +976,7 @@
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -1147,7 +1147,9 @@
       <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -1163,11 +1165,11 @@
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>262.5</v>
+        <v>287.5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>254.5</v>
+        <v>279.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1177,47 +1179,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
+        <f t="shared" ref="F3:P3" si="0">IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="G3" s="8">
-        <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H3" s="8">
-        <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I3" s="8">
-        <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J3" s="8">
-        <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K3" s="8">
-        <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="M3" s="8">
-        <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N3" s="8">
-        <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="O3" s="8">
-        <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q3" s="8">
@@ -1225,43 +1227,43 @@
         <v>12.5</v>
       </c>
       <c r="R3" s="8">
-        <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
+        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="S3" s="8">
-        <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="U3" s="8">
-        <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="V3" s="8">
-        <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="W3" s="8">
-        <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -1333,15 +1335,17 @@
       <c r="U4" s="7">
         <v>5</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>2</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>1+1+1+1+1</f>
+        <v>5</v>
       </c>
       <c r="AC4" s="7">
         <f>2</f>
@@ -1349,11 +1353,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>256.5</v>
+        <v>275.5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>250.5</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1363,47 +1367,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
+        <f t="shared" ref="F5:P5" si="2">IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="G5" s="8">
-        <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H5" s="8">
-        <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J5" s="8">
-        <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="N5" s="8">
-        <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q5" s="8">
@@ -1411,43 +1415,43 @@
         <v>7.5</v>
       </c>
       <c r="R5" s="8">
-        <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
+        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="S5" s="8">
-        <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="U5" s="8">
-        <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V5" s="8">
-        <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="W5" s="8">
-        <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -1519,7 +1523,9 @@
       <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7">
+        <v>6</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -1535,11 +1541,11 @@
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1549,47 +1555,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
+        <f t="shared" ref="F7:P7" si="4">IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="G7" s="8">
-        <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J7" s="8">
-        <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N7" s="8">
-        <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="O7" s="8">
-        <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="P7" s="8">
-        <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -1597,43 +1603,43 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
+        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="S7" s="8">
-        <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T7" s="8">
-        <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="U7" s="8">
-        <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="V7" s="8">
-        <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="W7" s="8">
-        <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
@@ -1643,88 +1649,89 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="7">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q8" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R8" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U8" s="7">
-        <v>7</v>
-      </c>
-      <c r="V8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="V8" s="7">
+        <v>3</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <v>0</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1734,47 +1741,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
+        <f t="shared" ref="F9:P9" si="6">IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="G9" s="8">
-        <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="H9" s="8">
-        <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="8">
-        <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="J9" s="8">
-        <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
-        <v>15</v>
-      </c>
-      <c r="K9" s="8">
-        <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="L9" s="8">
-        <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
       <c r="M9" s="8">
-        <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="N9" s="8">
-        <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="O9" s="8">
-        <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -1782,43 +1789,43 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
-        <v>1</v>
+        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
+        <v>4</v>
       </c>
       <c r="S9" s="8">
-        <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="T9" s="8">
-        <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="U9" s="8">
-        <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="V9" s="8">
-        <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="W9" s="8">
-        <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f>IF(Z8=1,25,IF(Z8=2,18,IF(Z8=3,15,IF(Z8=4,12,IF(Z8=5,10,IF(Z8=6,8,IF(Z8=7,6,IF(Z8=8,4,IF(Z8=9,2,IF(Z8=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
@@ -1828,87 +1835,90 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="O10" s="7">
         <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6</v>
-      </c>
-      <c r="O10" s="7">
-        <v>16</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R10" s="7">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>7</v>
+      </c>
+      <c r="U10" s="7">
+        <v>7</v>
+      </c>
+      <c r="V10" s="7">
         <v>8</v>
       </c>
-      <c r="S10" s="7">
-        <v>5</v>
-      </c>
-      <c r="T10" s="7">
-        <v>9</v>
-      </c>
-      <c r="U10" s="7">
-        <v>3</v>
-      </c>
-      <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC10" s="7">
         <v>0</v>
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1918,47 +1928,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
+        <f t="shared" ref="F11:P11" si="8">IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G11" s="8">
-        <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
+      <c r="I11" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="I11" s="8">
-        <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="8">
-        <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>12</v>
-      </c>
-      <c r="K11" s="8">
-        <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>25</v>
-      </c>
-      <c r="L11" s="8">
-        <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>15</v>
-      </c>
-      <c r="M11" s="8">
-        <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>12</v>
-      </c>
-      <c r="N11" s="8">
-        <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>8</v>
-      </c>
-      <c r="O11" s="8">
-        <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
       <c r="P11" s="8">
-        <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -1966,43 +1976,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
+        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="S11" s="8">
-        <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="T11" s="8">
-        <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="U11" s="8">
-        <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
-        <v>15</v>
-      </c>
-      <c r="V11" s="8">
-        <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
       <c r="W11" s="8">
-        <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -2012,13 +2022,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>30</v>
@@ -2027,54 +2037,56 @@
         <v>30</v>
       </c>
       <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>16</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
+      <c r="N12" s="7">
         <v>8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="O12" s="7">
+        <v>2</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>8</v>
+      </c>
+      <c r="R12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7">
-        <v>8</v>
-      </c>
-      <c r="L12" s="7">
-        <v>11</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5</v>
-      </c>
-      <c r="O12" s="7">
-        <v>6</v>
-      </c>
-      <c r="P12" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>10</v>
-      </c>
-      <c r="R12" s="7">
-        <v>7</v>
-      </c>
       <c r="S12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T12" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U12" s="7">
-        <v>8</v>
-      </c>
-      <c r="V12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="V12" s="7">
+        <v>4</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -2088,11 +2100,11 @@
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>116.5</v>
+        <v>128</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>116.5</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2102,91 +2114,91 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
+        <f t="shared" ref="F13:P13" si="10">IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="G13" s="8">
-        <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="8">
-        <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>6</v>
-      </c>
-      <c r="J13" s="8">
-        <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
+      <c r="O13" s="8">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="K13" s="8">
-        <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="L13" s="8">
-        <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>8</v>
-      </c>
-      <c r="N13" s="8">
-        <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="O13" s="8">
-        <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>8</v>
-      </c>
       <c r="P13" s="8">
-        <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))/2</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R13" s="8">
-        <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>6</v>
+        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
+        <v>10</v>
       </c>
       <c r="S13" s="8">
-        <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="T13" s="8">
-        <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="V13" s="8">
-        <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="W13" s="8">
-        <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -2196,13 +2208,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>30</v>
@@ -2211,54 +2223,56 @@
         <v>30</v>
       </c>
       <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7">
         <v>6</v>
       </c>
-      <c r="G14" s="7">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
         <v>6</v>
       </c>
-      <c r="I14" s="7">
-        <v>4</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7">
-        <v>4</v>
-      </c>
-      <c r="L14" s="7">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="P14" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="N14" s="7">
+      <c r="S14" s="7">
+        <v>6</v>
+      </c>
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
+      <c r="U14" s="7">
         <v>8</v>
       </c>
-      <c r="O14" s="7">
-        <v>2</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>8</v>
-      </c>
-      <c r="R14" s="7">
-        <v>5</v>
-      </c>
-      <c r="S14" s="7">
-        <v>4</v>
-      </c>
-      <c r="T14" s="7">
-        <v>15</v>
-      </c>
-      <c r="U14" s="7">
-        <v>4</v>
-      </c>
-      <c r="V14" s="7"/>
+      <c r="V14" s="7">
+        <v>7</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -2272,11 +2286,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>116</v>
+        <v>122.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>116</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2286,91 +2300,91 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
+        <f t="shared" ref="F15:P15" si="12">IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="G15" s="8">
-        <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
-        <v>12</v>
-      </c>
-      <c r="H15" s="8">
-        <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
+      <c r="N15" s="8">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="I15" s="8">
-        <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
-        <v>12</v>
-      </c>
-      <c r="J15" s="8">
-        <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="8">
-        <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
-        <v>6</v>
-      </c>
-      <c r="N15" s="8">
-        <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="O15" s="8">
-        <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
-        <v>18</v>
-      </c>
       <c r="P15" s="8">
-        <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,25,IF(Q14=2,18,IF(Q14=3,15,IF(Q14=4,12,IF(Q14=5,10,IF(Q14=6,8,IF(Q14=7,6,IF(Q14=8,4,IF(Q14=9,2,IF(Q14=10,1,0))))))))))/2</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R15" s="8">
-        <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
-        <v>10</v>
+        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
+        <v>6</v>
       </c>
       <c r="S15" s="8">
-        <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="T15" s="8">
-        <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="U15" s="8">
-        <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="V15" s="8">
-        <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="W15" s="8">
-        <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -2442,7 +2456,9 @@
       <c r="U16" s="7">
         <v>13</v>
       </c>
-      <c r="V16" s="7"/>
+      <c r="V16" s="7">
+        <v>5</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -2458,11 +2474,11 @@
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)+AB16+AC16</f>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2472,47 +2488,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
+        <f t="shared" ref="F17:P17" si="14">IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="G17" s="8">
-        <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H17" s="8">
-        <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="J17" s="8">
-        <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L17" s="8">
-        <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="M17" s="8">
-        <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="O17" s="8">
-        <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="P17" s="8">
-        <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q17" s="8">
@@ -2520,43 +2536,43 @@
         <v>6</v>
       </c>
       <c r="R17" s="8">
-        <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
+        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="T17" s="8">
-        <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="U17" s="8">
-        <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="W17" s="8">
-        <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X17" s="8">
-        <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f>IF(Y16=1,25,IF(Y16=2,18,IF(Y16=3,15,IF(Y16=4,12,IF(Y16=5,10,IF(Y16=6,8,IF(Y16=7,6,IF(Y16=8,4,IF(Y16=9,2,IF(Y16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f>IF(Z16=1,25,IF(Z16=2,18,IF(Z16=3,15,IF(Z16=4,12,IF(Z16=5,10,IF(Z16=6,8,IF(Z16=7,6,IF(Z16=8,4,IF(Z16=9,2,IF(Z16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -2628,7 +2644,9 @@
       <c r="U18" s="7">
         <v>6</v>
       </c>
-      <c r="V18" s="7"/>
+      <c r="V18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -2657,47 +2675,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
+        <f t="shared" ref="F19:P19" si="16">IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H19" s="8">
-        <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="L19" s="8">
-        <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O19" s="8">
-        <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="Q19" s="8">
@@ -2705,43 +2723,43 @@
         <v>4</v>
       </c>
       <c r="R19" s="8">
-        <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
+        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="S19" s="8">
-        <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="V19" s="8">
-        <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X19" s="8">
-        <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f>IF(Z18=1,25,IF(Z18=2,18,IF(Z18=3,15,IF(Z18=4,12,IF(Z18=5,10,IF(Z18=6,8,IF(Z18=7,6,IF(Z18=8,4,IF(Z18=9,2,IF(Z18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -2813,7 +2831,9 @@
       <c r="U20" s="7">
         <v>16</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -2841,47 +2861,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
+        <f t="shared" ref="F21:P21" si="18">IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="H21" s="8">
-        <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L21" s="8">
-        <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="M21" s="8">
-        <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="N21" s="8">
-        <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O21" s="8">
-        <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="P21" s="8">
-        <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="Q21" s="8">
@@ -2889,43 +2909,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
+        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="S21" s="8">
-        <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="T21" s="8">
-        <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="U21" s="8">
-        <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X21" s="8">
-        <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f>IF(Z20=1,25,IF(Z20=2,18,IF(Z20=3,15,IF(Z20=4,12,IF(Z20=5,10,IF(Z20=6,8,IF(Z20=7,6,IF(Z20=8,4,IF(Z20=9,2,IF(Z20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -2997,7 +3017,9 @@
       <c r="U22" s="7">
         <v>10</v>
       </c>
-      <c r="V22" s="7"/>
+      <c r="V22" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -3025,47 +3047,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
+        <f t="shared" ref="F23:P23" si="20">IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="H23" s="8">
-        <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="J23" s="8">
-        <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="P23" s="8">
-        <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="Q23" s="8">
@@ -3073,43 +3095,43 @@
         <v>3</v>
       </c>
       <c r="R23" s="8">
-        <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
+        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="S23" s="8">
-        <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="T23" s="8">
-        <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V23" s="8">
-        <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -3181,7 +3203,9 @@
       <c r="U24" s="7">
         <v>18</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7">
+        <v>10</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -3195,11 +3219,11 @@
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3209,47 +3233,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
+        <f t="shared" ref="F25:P25" si="22">IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="L25" s="8">
-        <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="M25" s="8">
-        <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q25" s="8">
@@ -3257,43 +3281,43 @@
         <v>5</v>
       </c>
       <c r="R25" s="8">
-        <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
+        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U25" s="8">
-        <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="W25" s="8">
-        <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X25" s="8">
-        <f>IF(X24=1,25,IF(X24=2,18,IF(X24=3,15,IF(X24=4,12,IF(X24=5,10,IF(X24=6,8,IF(X24=7,6,IF(X24=8,4,IF(X24=9,2,IF(X24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f>IF(Y24=1,25,IF(Y24=2,18,IF(Y24=3,15,IF(Y24=4,12,IF(Y24=5,10,IF(Y24=6,8,IF(Y24=7,6,IF(Y24=8,4,IF(Y24=9,2,IF(Y24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f>IF(Z24=1,25,IF(Z24=2,18,IF(Z24=3,15,IF(Z24=4,12,IF(Z24=5,10,IF(Z24=6,8,IF(Z24=7,6,IF(Z24=8,4,IF(Z24=9,2,IF(Z24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -3365,7 +3389,9 @@
       <c r="U26" s="7">
         <v>9</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7">
+        <v>12</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -3393,47 +3419,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
+        <f t="shared" ref="F27:P27" si="24">IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="G27" s="8">
-        <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="H27" s="8">
-        <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="K27" s="8">
-        <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M27" s="8">
-        <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="N27" s="8">
-        <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="P27" s="8">
-        <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -3441,43 +3467,43 @@
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
+        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="T27" s="8">
-        <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="V27" s="8">
-        <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f>IF(Z26=1,25,IF(Z26=2,18,IF(Z26=3,15,IF(Z26=4,12,IF(Z26=5,10,IF(Z26=6,8,IF(Z26=7,6,IF(Z26=8,4,IF(Z26=9,2,IF(Z26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -3549,7 +3575,9 @@
       <c r="U28" s="7">
         <v>14</v>
       </c>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7">
+        <v>9</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -3563,11 +3591,11 @@
       </c>
       <c r="AD28" s="7">
         <f>SUM(F29:AA29)+AB28+AC28</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE28" s="7">
         <f>SUM(F29:AA29)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -3577,47 +3605,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
+        <f t="shared" ref="F29:P29" si="26">IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="G29" s="8">
-        <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f>IF(K28=1,25,IF(K28=2,18,IF(K28=3,15,IF(K28=4,12,IF(K28=5,10,IF(K28=6,8,IF(K28=7,6,IF(K28=8,4,IF(K28=9,2,IF(K28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="L29" s="8">
-        <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="N29" s="8">
-        <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="P29" s="8">
-        <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="Q29" s="8">
@@ -3625,43 +3653,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f>IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
+        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="W29" s="8">
-        <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f>IF(X28=1,25,IF(X28=2,18,IF(X28=3,15,IF(X28=4,12,IF(X28=5,10,IF(X28=6,8,IF(X28=7,6,IF(X28=8,4,IF(X28=9,2,IF(X28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f>IF(Y28=1,25,IF(Y28=2,18,IF(Y28=3,15,IF(Y28=4,12,IF(Y28=5,10,IF(Y28=6,8,IF(Y28=7,6,IF(Y28=8,4,IF(Y28=9,2,IF(Y28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f>IF(Z28=1,25,IF(Z28=2,18,IF(Z28=3,15,IF(Z28=4,12,IF(Z28=5,10,IF(Z28=6,8,IF(Z28=7,6,IF(Z28=8,4,IF(Z28=9,2,IF(Z28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -3733,7 +3761,9 @@
       <c r="U30" s="7">
         <v>15</v>
       </c>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7">
+        <v>14</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -3761,47 +3791,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
+        <f t="shared" ref="F31:P31" si="28">IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="Q31" s="8">
@@ -3809,43 +3839,43 @@
         <v>9</v>
       </c>
       <c r="R31" s="8">
-        <f>IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
+        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="T31" s="8">
-        <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="U31" s="8">
-        <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f>IF(X30=1,25,IF(X30=2,18,IF(X30=3,15,IF(X30=4,12,IF(X30=5,10,IF(X30=6,8,IF(X30=7,6,IF(X30=8,4,IF(X30=9,2,IF(X30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f>IF(Y30=1,25,IF(Y30=2,18,IF(Y30=3,15,IF(Y30=4,12,IF(Y30=5,10,IF(Y30=6,8,IF(Y30=7,6,IF(Y30=8,4,IF(Y30=9,2,IF(Y30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f>IF(Z30=1,25,IF(Z30=2,18,IF(Z30=3,15,IF(Z30=4,12,IF(Z30=5,10,IF(Z30=6,8,IF(Z30=7,6,IF(Z30=8,4,IF(Z30=9,2,IF(Z30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -3917,7 +3947,9 @@
       <c r="U32" s="7">
         <v>17</v>
       </c>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7">
+        <v>15</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -3945,47 +3977,47 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
+        <f t="shared" ref="F33:P33" si="30">IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f>IF(N32=1,25,IF(N32=2,18,IF(N32=3,15,IF(N32=4,12,IF(N32=5,10,IF(N32=6,8,IF(N32=7,6,IF(N32=8,4,IF(N32=9,2,IF(N32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f>IF(O32=1,25,IF(O32=2,18,IF(O32=3,15,IF(O32=4,12,IF(O32=5,10,IF(O32=6,8,IF(O32=7,6,IF(O32=8,4,IF(O32=9,2,IF(O32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f>IF(P32=1,25,IF(P32=2,18,IF(P32=3,15,IF(P32=4,12,IF(P32=5,10,IF(P32=6,8,IF(P32=7,6,IF(P32=8,4,IF(P32=9,2,IF(P32=10,1,0))))))))))</f>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="Q33" s="8">
@@ -3993,43 +4025,43 @@
         <v>1</v>
       </c>
       <c r="R33" s="8">
-        <f>IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
+        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f>IF(S32=1,25,IF(S32=2,18,IF(S32=3,15,IF(S32=4,12,IF(S32=5,10,IF(S32=6,8,IF(S32=7,6,IF(S32=8,4,IF(S32=9,2,IF(S32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f>IF(T32=1,25,IF(T32=2,18,IF(T32=3,15,IF(T32=4,12,IF(T32=5,10,IF(T32=6,8,IF(T32=7,6,IF(T32=8,4,IF(T32=9,2,IF(T32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f>IF(U32=1,25,IF(U32=2,18,IF(U32=3,15,IF(U32=4,12,IF(U32=5,10,IF(U32=6,8,IF(U32=7,6,IF(U32=8,4,IF(U32=9,2,IF(U32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X33" s="8">
-        <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f>IF(Y32=1,25,IF(Y32=2,18,IF(Y32=3,15,IF(Y32=4,12,IF(Y32=5,10,IF(Y32=6,8,IF(Y32=7,6,IF(Y32=8,4,IF(Y32=9,2,IF(Y32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f>IF(Z32=1,25,IF(Z32=2,18,IF(Z32=3,15,IF(Z32=4,12,IF(Z32=5,10,IF(Z32=6,8,IF(Z32=7,6,IF(Z32=8,4,IF(Z32=9,2,IF(Z32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -4097,7 +4129,9 @@
       <c r="U34" s="7">
         <v>12</v>
       </c>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7">
+        <v>13</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -4125,47 +4159,47 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
+        <f t="shared" ref="F35:P35" si="32">IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="L35" s="8">
-        <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f>IF(M34=1,25,IF(M34=2,18,IF(M34=3,15,IF(M34=4,12,IF(M34=5,10,IF(M34=6,8,IF(M34=7,6,IF(M34=8,4,IF(M34=9,2,IF(M34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f>IF(P34=1,25,IF(P34=2,18,IF(P34=3,15,IF(P34=4,12,IF(P34=5,10,IF(P34=6,8,IF(P34=7,6,IF(P34=8,4,IF(P34=9,2,IF(P34=10,1,0))))))))))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q35" s="8">
@@ -4173,43 +4207,43 @@
         <v>0</v>
       </c>
       <c r="R35" s="8">
-        <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
+        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f>IF(S34=1,25,IF(S34=2,18,IF(S34=3,15,IF(S34=4,12,IF(S34=5,10,IF(S34=6,8,IF(S34=7,6,IF(S34=8,4,IF(S34=9,2,IF(S34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="U35" s="8">
-        <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X35" s="8">
-        <f>IF(X34=1,25,IF(X34=2,18,IF(X34=3,15,IF(X34=4,12,IF(X34=5,10,IF(X34=6,8,IF(X34=7,6,IF(X34=8,4,IF(X34=9,2,IF(X34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f>IF(Y34=1,25,IF(Y34=2,18,IF(Y34=3,15,IF(Y34=4,12,IF(Y34=5,10,IF(Y34=6,8,IF(Y34=7,6,IF(Y34=8,4,IF(Y34=9,2,IF(Y34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f>IF(Z34=1,25,IF(Z34=2,18,IF(Z34=3,15,IF(Z34=4,12,IF(Z34=5,10,IF(Z34=6,8,IF(Z34=7,6,IF(Z34=8,4,IF(Z34=9,2,IF(Z34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -4281,7 +4315,9 @@
       <c r="U36" s="7">
         <v>11</v>
       </c>
-      <c r="V36" s="7"/>
+      <c r="V36" s="7">
+        <v>11</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -4309,47 +4345,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
+        <f t="shared" ref="F37:P37" si="34">IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="K37" s="8">
-        <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f>IF(L36=1,25,IF(L36=2,18,IF(L36=3,15,IF(L36=4,12,IF(L36=5,10,IF(L36=6,8,IF(L36=7,6,IF(L36=8,4,IF(L36=9,2,IF(L36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f>IF(M36=1,25,IF(M36=2,18,IF(M36=3,15,IF(M36=4,12,IF(M36=5,10,IF(M36=6,8,IF(M36=7,6,IF(M36=8,4,IF(M36=9,2,IF(M36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f>IF(P36=1,25,IF(P36=2,18,IF(P36=3,15,IF(P36=4,12,IF(P36=5,10,IF(P36=6,8,IF(P36=7,6,IF(P36=8,4,IF(P36=9,2,IF(P36=10,1,0))))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -4357,43 +4393,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
+        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f>IF(S36=1,25,IF(S36=2,18,IF(S36=3,15,IF(S36=4,12,IF(S36=5,10,IF(S36=6,8,IF(S36=7,6,IF(S36=8,4,IF(S36=9,2,IF(S36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f>IF(X36=1,25,IF(X36=2,18,IF(X36=3,15,IF(X36=4,12,IF(X36=5,10,IF(X36=6,8,IF(X36=7,6,IF(X36=8,4,IF(X36=9,2,IF(X36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f>IF(Y36=1,25,IF(Y36=2,18,IF(Y36=3,15,IF(Y36=4,12,IF(Y36=5,10,IF(Y36=6,8,IF(Y36=7,6,IF(Y36=8,4,IF(Y36=9,2,IF(Y36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f>IF(Z36=1,25,IF(Z36=2,18,IF(Z36=3,15,IF(Z36=4,12,IF(Z36=5,10,IF(Z36=6,8,IF(Z36=7,6,IF(Z36=8,4,IF(Z36=9,2,IF(Z36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -4465,7 +4501,9 @@
       <c r="U38" s="7">
         <v>19</v>
       </c>
-      <c r="V38" s="7"/>
+      <c r="V38" s="7">
+        <v>16</v>
+      </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -4493,47 +4531,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f>IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
+        <f t="shared" ref="F39:P39" si="36">IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f>IF(G38=1,25,IF(G38=2,18,IF(G38=3,15,IF(G38=4,12,IF(G38=5,10,IF(G38=6,8,IF(G38=7,6,IF(G38=8,4,IF(G38=9,2,IF(G38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f>IF(H38=1,25,IF(H38=2,18,IF(H38=3,15,IF(H38=4,12,IF(H38=5,10,IF(H38=6,8,IF(H38=7,6,IF(H38=8,4,IF(H38=9,2,IF(H38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>IF(I38=1,25,IF(I38=2,18,IF(I38=3,15,IF(I38=4,12,IF(I38=5,10,IF(I38=6,8,IF(I38=7,6,IF(I38=8,4,IF(I38=9,2,IF(I38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f>IF(J38=1,25,IF(J38=2,18,IF(J38=3,15,IF(J38=4,12,IF(J38=5,10,IF(J38=6,8,IF(J38=7,6,IF(J38=8,4,IF(J38=9,2,IF(J38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f>IF(K38=1,25,IF(K38=2,18,IF(K38=3,15,IF(K38=4,12,IF(K38=5,10,IF(K38=6,8,IF(K38=7,6,IF(K38=8,4,IF(K38=9,2,IF(K38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f>IF(L38=1,25,IF(L38=2,18,IF(L38=3,15,IF(L38=4,12,IF(L38=5,10,IF(L38=6,8,IF(L38=7,6,IF(L38=8,4,IF(L38=9,2,IF(L38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f>IF(M38=1,25,IF(M38=2,18,IF(M38=3,15,IF(M38=4,12,IF(M38=5,10,IF(M38=6,8,IF(M38=7,6,IF(M38=8,4,IF(M38=9,2,IF(M38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f>IF(N38=1,25,IF(N38=2,18,IF(N38=3,15,IF(N38=4,12,IF(N38=5,10,IF(N38=6,8,IF(N38=7,6,IF(N38=8,4,IF(N38=9,2,IF(N38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f>IF(O38=1,25,IF(O38=2,18,IF(O38=3,15,IF(O38=4,12,IF(O38=5,10,IF(O38=6,8,IF(O38=7,6,IF(O38=8,4,IF(O38=9,2,IF(O38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f>IF(P38=1,25,IF(P38=2,18,IF(P38=3,15,IF(P38=4,12,IF(P38=5,10,IF(P38=6,8,IF(P38=7,6,IF(P38=8,4,IF(P38=9,2,IF(P38=10,1,0))))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -4541,43 +4579,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f>IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
+        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f>IF(U38=1,25,IF(U38=2,18,IF(U38=3,15,IF(U38=4,12,IF(U38=5,10,IF(U38=6,8,IF(U38=7,6,IF(U38=8,4,IF(U38=9,2,IF(U38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f>IF(X38=1,25,IF(X38=2,18,IF(X38=3,15,IF(X38=4,12,IF(X38=5,10,IF(X38=6,8,IF(X38=7,6,IF(X38=8,4,IF(X38=9,2,IF(X38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f>IF(Y38=1,25,IF(Y38=2,18,IF(Y38=3,15,IF(Y38=4,12,IF(Y38=5,10,IF(Y38=6,8,IF(Y38=7,6,IF(Y38=8,4,IF(Y38=9,2,IF(Y38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f>IF(Z38=1,25,IF(Z38=2,18,IF(Z38=3,15,IF(Z38=4,12,IF(Z38=5,10,IF(Z38=6,8,IF(Z38=7,6,IF(Z38=8,4,IF(Z38=9,2,IF(Z38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -4649,7 +4687,9 @@
       <c r="U40" s="7">
         <v>20</v>
       </c>
-      <c r="V40" s="7"/>
+      <c r="V40" s="7">
+        <v>17</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -4677,47 +4717,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f>IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f t="shared" ref="F41:P41" si="38">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f>IF(G40=1,25,IF(G40=2,18,IF(G40=3,15,IF(G40=4,12,IF(G40=5,10,IF(G40=6,8,IF(G40=7,6,IF(G40=8,4,IF(G40=9,2,IF(G40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f>IF(H40=1,25,IF(H40=2,18,IF(H40=3,15,IF(H40=4,12,IF(H40=5,10,IF(H40=6,8,IF(H40=7,6,IF(H40=8,4,IF(H40=9,2,IF(H40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>IF(I40=1,25,IF(I40=2,18,IF(I40=3,15,IF(I40=4,12,IF(I40=5,10,IF(I40=6,8,IF(I40=7,6,IF(I40=8,4,IF(I40=9,2,IF(I40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f>IF(J40=1,25,IF(J40=2,18,IF(J40=3,15,IF(J40=4,12,IF(J40=5,10,IF(J40=6,8,IF(J40=7,6,IF(J40=8,4,IF(J40=9,2,IF(J40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f>IF(K40=1,25,IF(K40=2,18,IF(K40=3,15,IF(K40=4,12,IF(K40=5,10,IF(K40=6,8,IF(K40=7,6,IF(K40=8,4,IF(K40=9,2,IF(K40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f>IF(L40=1,25,IF(L40=2,18,IF(L40=3,15,IF(L40=4,12,IF(L40=5,10,IF(L40=6,8,IF(L40=7,6,IF(L40=8,4,IF(L40=9,2,IF(L40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f>IF(M40=1,25,IF(M40=2,18,IF(M40=3,15,IF(M40=4,12,IF(M40=5,10,IF(M40=6,8,IF(M40=7,6,IF(M40=8,4,IF(M40=9,2,IF(M40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f>IF(N40=1,25,IF(N40=2,18,IF(N40=3,15,IF(N40=4,12,IF(N40=5,10,IF(N40=6,8,IF(N40=7,6,IF(N40=8,4,IF(N40=9,2,IF(N40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f>IF(O40=1,25,IF(O40=2,18,IF(O40=3,15,IF(O40=4,12,IF(O40=5,10,IF(O40=6,8,IF(O40=7,6,IF(O40=8,4,IF(O40=9,2,IF(O40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f>IF(P40=1,25,IF(P40=2,18,IF(P40=3,15,IF(P40=4,12,IF(P40=5,10,IF(P40=6,8,IF(P40=7,6,IF(P40=8,4,IF(P40=9,2,IF(P40=10,1,0))))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -4725,43 +4765,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f>IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
+        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f>IF(S40=1,25,IF(S40=2,18,IF(S40=3,15,IF(S40=4,12,IF(S40=5,10,IF(S40=6,8,IF(S40=7,6,IF(S40=8,4,IF(S40=9,2,IF(S40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f>IF(T40=1,25,IF(T40=2,18,IF(T40=3,15,IF(T40=4,12,IF(T40=5,10,IF(T40=6,8,IF(T40=7,6,IF(T40=8,4,IF(T40=9,2,IF(T40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f>IF(V40=1,25,IF(V40=2,18,IF(V40=3,15,IF(V40=4,12,IF(V40=5,10,IF(V40=6,8,IF(V40=7,6,IF(V40=8,4,IF(V40=9,2,IF(V40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f>IF(Y40=1,25,IF(Y40=2,18,IF(Y40=3,15,IF(Y40=4,12,IF(Y40=5,10,IF(Y40=6,8,IF(Y40=7,6,IF(Y40=8,4,IF(Y40=9,2,IF(Y40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f>IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -4834,47 +4874,47 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
-        <f t="shared" ref="G43:Q43" si="0">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
+        <f t="shared" ref="G43:Q43" si="40">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R43" s="8">
@@ -4882,43 +4922,43 @@
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:AB43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
+        <f t="shared" ref="S43:AB43" si="41">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AC43" s="8"/>
@@ -4960,7 +5000,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -5119,7 +5159,9 @@
       <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -5127,7 +5169,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5137,47 +5179,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f t="shared" ref="F3:P3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G3" s="8">
-        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H3" s="8">
-        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I3" s="8">
-        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J3" s="8">
-        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K3" s="8">
-        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N3" s="8">
-        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O3" s="8">
-        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
@@ -5185,43 +5227,43 @@
         <v>5</v>
       </c>
       <c r="R3" s="8">
-        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
+        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="S3" s="8">
-        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="U3" s="8">
-        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="V3" s="8">
-        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="W3" s="8">
-        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -5290,7 +5332,9 @@
       <c r="U4" s="7">
         <v>5</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>2</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
@@ -5298,7 +5342,7 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5308,47 +5352,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f t="shared" ref="F5:P5" si="2">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H5" s="8">
-        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N5" s="8">
-        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P5" s="8">
-        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q5" s="8">
@@ -5356,43 +5400,43 @@
         <v>3</v>
       </c>
       <c r="R5" s="8">
-        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
+        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="S5" s="8">
-        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="U5" s="8">
-        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="V5" s="8">
-        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="W5" s="8">
-        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -5461,7 +5505,9 @@
       <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7">
+        <v>6</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -5469,7 +5515,7 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5479,47 +5525,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f t="shared" ref="F7:P7" si="4">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G7" s="8">
-        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J7" s="8">
-        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="N7" s="8">
-        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O7" s="8">
-        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="P7" s="8">
-        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -5527,112 +5573,114 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
+        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="S7" s="8">
-        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T7" s="8">
-        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="U7" s="8">
-        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="V7" s="8">
-        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="W7" s="8">
-        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="7">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q8" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R8" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U8" s="7">
-        <v>7</v>
-      </c>
-      <c r="V8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="V8" s="7">
+        <v>3</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -5640,7 +5688,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5650,47 +5698,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f t="shared" ref="F9:P9" si="6">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G9" s="8">
-        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="H9" s="8">
-        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="8">
-        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
-        <v>6</v>
-      </c>
-      <c r="K9" s="8">
-        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="L9" s="8">
-        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
       <c r="M9" s="8">
-        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="N9" s="8">
-        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="O9" s="8">
-        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -5698,112 +5746,114 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="S9" s="8">
-        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="T9" s="8">
-        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="U9" s="8">
-        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="V9" s="8">
-        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="W9" s="8">
-        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3</v>
+      </c>
+      <c r="O10" s="7">
         <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>6</v>
-      </c>
-      <c r="O10" s="7">
-        <v>16</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R10" s="7">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>7</v>
+      </c>
+      <c r="U10" s="7">
+        <v>7</v>
+      </c>
+      <c r="V10" s="7">
         <v>8</v>
       </c>
-      <c r="S10" s="7">
-        <v>5</v>
-      </c>
-      <c r="T10" s="7">
-        <v>9</v>
-      </c>
-      <c r="U10" s="7">
-        <v>3</v>
-      </c>
-      <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -5811,7 +5861,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5821,47 +5871,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f t="shared" ref="F11:P11" si="8">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G11" s="8">
-        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
+      <c r="I11" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="I11" s="8">
-        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="J11" s="8">
-        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>5</v>
-      </c>
-      <c r="K11" s="8">
-        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>10</v>
-      </c>
-      <c r="L11" s="8">
-        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>6</v>
-      </c>
-      <c r="M11" s="8">
-        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="8">
-        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>3</v>
-      </c>
-      <c r="O11" s="8">
-        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
       <c r="P11" s="8">
-        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -5869,43 +5919,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
+        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S11" s="8">
-        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>4</v>
-      </c>
-      <c r="T11" s="8">
-        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>6</v>
-      </c>
-      <c r="V11" s="8">
-        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
-        <v>0</v>
-      </c>
       <c r="W11" s="8">
-        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -5974,7 +6024,9 @@
       <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7">
+        <v>4</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -5982,7 +6034,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>46.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5992,47 +6044,47 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f t="shared" ref="F13:P13" si="10">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G13" s="8">
-        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H13" s="8">
-        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="J13" s="8">
-        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L13" s="8">
-        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N13" s="8">
-        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O13" s="8">
-        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="P13" s="8">
-        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
@@ -6040,43 +6092,43 @@
         <v>0.5</v>
       </c>
       <c r="R13" s="8">
-        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
+        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="S13" s="8">
-        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="T13" s="8">
-        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="V13" s="8">
-        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="W13" s="8">
-        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -6145,7 +6197,9 @@
       <c r="U14" s="7">
         <v>8</v>
       </c>
-      <c r="V14" s="7"/>
+      <c r="V14" s="7">
+        <v>7</v>
+      </c>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
@@ -6153,7 +6207,7 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6163,47 +6217,47 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f t="shared" ref="F15:P15" si="12">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H15" s="8">
-        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J15" s="8">
-        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K15" s="8">
-        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L15" s="8">
-        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N15" s="8">
-        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="O15" s="8">
-        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="P15" s="8">
-        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Q15" s="8">
@@ -6211,43 +6265,43 @@
         <v>0</v>
       </c>
       <c r="R15" s="8">
-        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
+        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="S15" s="8">
-        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="T15" s="8">
-        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="U15" s="8">
-        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V15" s="8">
-        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="W15" s="8">
-        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -6316,7 +6370,9 @@
       <c r="U16" s="7">
         <v>13</v>
       </c>
-      <c r="V16" s="7"/>
+      <c r="V16" s="7">
+        <v>5</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -6324,7 +6380,7 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6334,47 +6390,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f t="shared" ref="F17:P17" si="14">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G17" s="8">
-        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H17" s="8">
-        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="J17" s="8">
-        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="M17" s="8">
-        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O17" s="8">
-        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="P17" s="8">
-        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q17" s="8">
@@ -6382,43 +6438,43 @@
         <v>2.5</v>
       </c>
       <c r="R17" s="8">
-        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
+        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="T17" s="8">
-        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="U17" s="8">
-        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="W17" s="8">
-        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X17" s="8">
-        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -6487,7 +6543,9 @@
       <c r="U18" s="7">
         <v>6</v>
       </c>
-      <c r="V18" s="7"/>
+      <c r="V18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -6505,47 +6563,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f t="shared" ref="F19:P19" si="16">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H19" s="8">
-        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="L19" s="8">
-        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="Q19" s="8">
@@ -6553,43 +6611,43 @@
         <v>1.5</v>
       </c>
       <c r="R19" s="8">
-        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
+        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="S19" s="8">
-        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="V19" s="8">
-        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X19" s="8">
-        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -6658,7 +6716,9 @@
       <c r="U20" s="7">
         <v>16</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -6676,47 +6736,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f t="shared" ref="F21:P21" si="18">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="L21" s="8">
-        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="M21" s="8">
-        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="P21" s="8">
-        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="Q21" s="8">
@@ -6724,43 +6784,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
+        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="S21" s="8">
-        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T21" s="8">
-        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="U21" s="8">
-        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X21" s="8">
-        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -6829,7 +6889,9 @@
       <c r="U22" s="7">
         <v>18</v>
       </c>
-      <c r="V22" s="7"/>
+      <c r="V22" s="7">
+        <v>10</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -6847,47 +6909,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f t="shared" ref="F23:P23" si="20">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="L23" s="8">
-        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
@@ -6895,43 +6957,43 @@
         <v>2</v>
       </c>
       <c r="R23" s="8">
-        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
+        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -7000,7 +7062,9 @@
       <c r="U24" s="7">
         <v>10</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -7018,47 +7082,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f t="shared" ref="F25:P25" si="22">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L25" s="8">
-        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="Q25" s="8">
@@ -7066,43 +7130,43 @@
         <v>1</v>
       </c>
       <c r="R25" s="8">
-        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
+        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U25" s="8">
-        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W25" s="8">
-        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X25" s="8">
-        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -7171,7 +7235,9 @@
       <c r="U26" s="7">
         <v>9</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7">
+        <v>12</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -7189,47 +7255,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f t="shared" ref="F27:P27" si="24">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H27" s="8">
-        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K27" s="8">
-        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="N27" s="8">
-        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P27" s="8">
-        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -7237,43 +7303,43 @@
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
+        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="T27" s="8">
-        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V27" s="8">
-        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -7342,7 +7408,9 @@
       <c r="U28" s="7">
         <v>14</v>
       </c>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7">
+        <v>9</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -7360,47 +7428,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f t="shared" ref="F29:P29" si="26">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="L29" s="8">
-        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N29" s="8">
-        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P29" s="8">
-        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Q29" s="8">
@@ -7408,43 +7476,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
+        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W29" s="8">
-        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -7513,7 +7581,9 @@
       <c r="U30" s="7">
         <v>15</v>
       </c>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7">
+        <v>14</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -7531,47 +7601,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f t="shared" ref="F31:P31" si="28">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Q31" s="8">
@@ -7579,43 +7649,43 @@
         <v>4</v>
       </c>
       <c r="R31" s="8">
-        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
+        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T31" s="8">
-        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U31" s="8">
-        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -7684,7 +7754,9 @@
       <c r="U32" s="7">
         <v>17</v>
       </c>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7">
+        <v>15</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -7702,47 +7774,47 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f t="shared" ref="F33:P33" si="30">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q33" s="8">
@@ -7750,43 +7822,43 @@
         <v>0</v>
       </c>
       <c r="R33" s="8">
-        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
+        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X33" s="8">
-        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -7851,7 +7923,9 @@
       <c r="U34" s="7">
         <v>12</v>
       </c>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7">
+        <v>13</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -7869,47 +7943,47 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f t="shared" ref="F35:P35" si="32">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L35" s="8">
-        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q35" s="8">
@@ -7917,43 +7991,43 @@
         <v>0</v>
       </c>
       <c r="R35" s="8">
-        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
+        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="U35" s="8">
-        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X35" s="8">
-        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -8022,7 +8096,9 @@
       <c r="U36" s="7">
         <v>11</v>
       </c>
-      <c r="V36" s="7"/>
+      <c r="V36" s="7">
+        <v>11</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -8040,47 +8116,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f t="shared" ref="F37:P37" si="34">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -8088,43 +8164,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
+        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -8193,7 +8269,9 @@
       <c r="U38" s="7">
         <v>19</v>
       </c>
-      <c r="V38" s="7"/>
+      <c r="V38" s="7">
+        <v>16</v>
+      </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -8211,47 +8289,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f t="shared" ref="F39:P39" si="36">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -8259,43 +8337,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
+        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -8364,7 +8442,9 @@
       <c r="U40" s="7">
         <v>20</v>
       </c>
-      <c r="V40" s="7"/>
+      <c r="V40" s="7">
+        <v>17</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -8382,47 +8462,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f>IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f t="shared" ref="F41:P41" si="38">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f>IF(G40=1,10,IF(G40=2,8,IF(G40=3,6,IF(G40=4,5,IF(G40=5,4,IF(G40=6,3,IF(G40=7,2,IF(G40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f>IF(H40=1,10,IF(H40=2,8,IF(H40=3,6,IF(H40=4,5,IF(H40=5,4,IF(H40=6,3,IF(H40=7,2,IF(H40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>IF(I40=1,10,IF(I40=2,8,IF(I40=3,6,IF(I40=4,5,IF(I40=5,4,IF(I40=6,3,IF(I40=7,2,IF(I40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f>IF(J40=1,10,IF(J40=2,8,IF(J40=3,6,IF(J40=4,5,IF(J40=5,4,IF(J40=6,3,IF(J40=7,2,IF(J40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f>IF(K40=1,10,IF(K40=2,8,IF(K40=3,6,IF(K40=4,5,IF(K40=5,4,IF(K40=6,3,IF(K40=7,2,IF(K40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f>IF(L40=1,10,IF(L40=2,8,IF(L40=3,6,IF(L40=4,5,IF(L40=5,4,IF(L40=6,3,IF(L40=7,2,IF(L40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f>IF(M40=1,10,IF(M40=2,8,IF(M40=3,6,IF(M40=4,5,IF(M40=5,4,IF(M40=6,3,IF(M40=7,2,IF(M40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f>IF(N40=1,10,IF(N40=2,8,IF(N40=3,6,IF(N40=4,5,IF(N40=5,4,IF(N40=6,3,IF(N40=7,2,IF(N40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f>IF(O40=1,10,IF(O40=2,8,IF(O40=3,6,IF(O40=4,5,IF(O40=5,4,IF(O40=6,3,IF(O40=7,2,IF(O40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f>IF(P40=1,10,IF(P40=2,8,IF(P40=3,6,IF(P40=4,5,IF(P40=5,4,IF(P40=6,3,IF(P40=7,2,IF(P40=8,1,0))))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -8430,43 +8510,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f>IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
+        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f>IF(S40=1,10,IF(S40=2,8,IF(S40=3,6,IF(S40=4,5,IF(S40=5,4,IF(S40=6,3,IF(S40=7,2,IF(S40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f>IF(T40=1,10,IF(T40=2,8,IF(T40=3,6,IF(T40=4,5,IF(T40=5,4,IF(T40=6,3,IF(T40=7,2,IF(T40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f>IF(Y40=1,10,IF(Y40=2,8,IF(Y40=3,6,IF(Y40=4,5,IF(Y40=5,4,IF(Y40=6,3,IF(Y40=7,2,IF(Y40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f>IF(Z40=1,10,IF(Z40=2,8,IF(Z40=3,6,IF(Z40=4,5,IF(Z40=5,4,IF(Z40=6,3,IF(Z40=7,2,IF(Z40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -8529,43 +8609,43 @@
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="0">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
+        <f t="shared" ref="G43" si="40">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43" si="1">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
+        <f t="shared" ref="H43" si="41">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" ref="I43" si="2">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
+        <f t="shared" ref="I43" si="42">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43" si="3">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
+        <f t="shared" ref="J43" si="43">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" ref="K43" si="4">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
+        <f t="shared" ref="K43" si="44">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" ref="L43" si="5">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
+        <f t="shared" ref="L43" si="45">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" ref="M43" si="6">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
+        <f t="shared" ref="M43" si="46">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N43" si="7">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
+        <f t="shared" ref="N43" si="47">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" ref="O43" si="8">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
+        <f t="shared" ref="O43" si="48">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P43" si="9">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
+        <f t="shared" ref="P43" si="49">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
@@ -8573,43 +8653,43 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43" si="10">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
+        <f t="shared" ref="R43" si="50">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43" si="11">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
+        <f t="shared" ref="S43" si="51">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" ref="T43" si="12">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
+        <f t="shared" ref="T43" si="52">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U43" si="13">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
+        <f t="shared" ref="U43" si="53">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" ref="V43" si="14">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
+        <f t="shared" ref="V43" si="54">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="15">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
+        <f t="shared" ref="W43" si="55">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" ref="X43" si="16">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
+        <f t="shared" ref="X43" si="56">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" ref="Y43" si="17">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
+        <f t="shared" ref="Y43" si="57">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" ref="Z43" si="18">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
+        <f t="shared" ref="Z43" si="58">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" ref="AA43" si="19">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
+        <f t="shared" ref="AA43" si="59">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="8"/>
@@ -8648,7 +8728,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -8815,7 +8895,9 @@
       <c r="U2" s="7">
         <v>2</v>
       </c>
-      <c r="V2" s="7"/>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -8827,11 +8909,11 @@
       </c>
       <c r="AC2" s="7">
         <f>SUM(F3:AA3)+AB2</f>
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -8841,47 +8923,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
+        <f t="shared" ref="F3:P3" si="0">IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="G3" s="8">
-        <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H3" s="8">
-        <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I3" s="8">
-        <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K3" s="8">
-        <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N3" s="8">
-        <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O3" s="8">
-        <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
@@ -8889,43 +8971,43 @@
         <v>5</v>
       </c>
       <c r="R3" s="8">
-        <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
+        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="S3" s="8">
-        <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="U3" s="8">
-        <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V3" s="8">
-        <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="W3" s="8">
-        <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -8996,23 +9078,25 @@
       <c r="U4" s="7">
         <v>5</v>
       </c>
-      <c r="V4" s="7"/>
+      <c r="V4" s="7">
+        <v>2</v>
+      </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>1+1+1+1+1</f>
+        <v>5</v>
       </c>
       <c r="AC4" s="7">
         <f>SUM(F5:AA5)+AB4</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9022,47 +9106,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
+        <f t="shared" ref="F5:P5" si="2">IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H5" s="8">
-        <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I5" s="8">
-        <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M5" s="8">
-        <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N5" s="8">
-        <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O5" s="8">
-        <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P5" s="8">
-        <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q5" s="8">
@@ -9070,43 +9154,43 @@
         <v>2</v>
       </c>
       <c r="R5" s="8">
-        <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
+        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="S5" s="8">
-        <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="U5" s="8">
-        <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V5" s="8">
-        <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="W5" s="8">
-        <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -9177,7 +9261,9 @@
       <c r="U6" s="7">
         <v>1</v>
       </c>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7">
+        <v>6</v>
+      </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
@@ -9189,11 +9275,11 @@
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:AA7)+AB6</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9203,47 +9289,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
+        <f t="shared" ref="F7:P7" si="4">IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="G7" s="8">
-        <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I7" s="8">
-        <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J7" s="8">
-        <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M7" s="8">
-        <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N7" s="8">
-        <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O7" s="8">
-        <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P7" s="8">
-        <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -9251,43 +9337,43 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
+        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="S7" s="8">
-        <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T7" s="8">
-        <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="U7" s="8">
-        <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="V7" s="8">
-        <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W7" s="8">
-        <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
@@ -9358,7 +9444,9 @@
       <c r="U8" s="7">
         <v>3</v>
       </c>
-      <c r="V8" s="7"/>
+      <c r="V8" s="7">
+        <v>3</v>
+      </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -9370,11 +9458,11 @@
       </c>
       <c r="AC8" s="7">
         <f>SUM(F9:AA9)+AB8</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -9384,47 +9472,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
+        <f t="shared" ref="F9:P9" si="6">IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8">
-        <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I9" s="8">
-        <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J9" s="8">
-        <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K9" s="8">
-        <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="L9" s="8">
-        <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M9" s="8">
-        <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N9" s="8">
-        <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O9" s="8">
-        <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -9432,43 +9520,43 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
+        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S9" s="8">
-        <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="T9" s="8">
-        <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U9" s="8">
-        <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V9" s="8">
-        <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="W9" s="8">
-        <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
@@ -9539,7 +9627,9 @@
       <c r="U10" s="7">
         <v>7</v>
       </c>
-      <c r="V10" s="7"/>
+      <c r="V10" s="7">
+        <v>8</v>
+      </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -9565,47 +9655,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
+        <f t="shared" ref="F11:P11" si="8">IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H11" s="8">
-        <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I11" s="8">
-        <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K11" s="8">
-        <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L11" s="8">
-        <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M11" s="8">
-        <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="N11" s="8">
-        <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O11" s="8">
-        <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="P11" s="8">
-        <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -9613,43 +9703,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
+        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S11" s="8">
-        <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="T11" s="8">
-        <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U11" s="8">
-        <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V11" s="8">
-        <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W11" s="8">
-        <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -9720,7 +9810,9 @@
       <c r="U12" s="7">
         <v>4</v>
       </c>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7">
+        <v>4</v>
+      </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -9731,11 +9823,11 @@
       </c>
       <c r="AC12" s="7">
         <f>SUM(F13:AA13)+AB12</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -9745,47 +9837,47 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
+        <f t="shared" ref="F13:P13" si="10">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="G13" s="8">
-        <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H13" s="8">
-        <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J13" s="8">
-        <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="L13" s="8">
-        <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="P13" s="8">
-        <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
@@ -9793,43 +9885,43 @@
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
+        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="S13" s="8">
-        <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="T13" s="8">
-        <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="V13" s="8">
-        <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="W13" s="8">
-        <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -9838,84 +9930,87 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7</v>
+      </c>
+      <c r="O14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="P14" s="7">
         <v>11</v>
       </c>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="Q14" s="7">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>4</v>
+      </c>
+      <c r="U14" s="7">
+        <v>13</v>
+      </c>
+      <c r="V14" s="7">
         <v>5</v>
       </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7</v>
-      </c>
-      <c r="S14" s="7">
-        <v>6</v>
-      </c>
-      <c r="T14" s="7">
-        <v>3</v>
-      </c>
-      <c r="U14" s="7">
-        <v>8</v>
-      </c>
-      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC14" s="7">
         <f>SUM(F15:AA15)+AB14</f>
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>21</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -9925,91 +10020,91 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <f t="shared" ref="F15:P15" si="12">IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="H15" s="8">
-        <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>6</v>
-      </c>
-      <c r="K15" s="8">
-        <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="8">
-        <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>2</v>
-      </c>
-      <c r="O15" s="8">
-        <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>1</v>
-      </c>
       <c r="P15" s="8">
-        <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R15" s="8">
-        <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
+        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S15" s="8">
-        <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="T15" s="8">
-        <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="U15" s="8">
-        <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V15" s="8">
-        <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="W15" s="8">
-        <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -10018,85 +10113,86 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6</v>
+      </c>
+      <c r="P16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="Q16" s="7">
+        <v>10</v>
+      </c>
+      <c r="R16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="7">
+      <c r="S16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7">
-        <v>9</v>
-      </c>
-      <c r="L16" s="7">
-        <v>6</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="T16" s="7">
+        <v>3</v>
+      </c>
+      <c r="U16" s="7">
+        <v>8</v>
+      </c>
+      <c r="V16" s="7">
         <v>7</v>
       </c>
-      <c r="O16" s="7">
-        <v>5</v>
-      </c>
-      <c r="P16" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>4</v>
-      </c>
-      <c r="R16" s="7">
-        <v>11</v>
-      </c>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7">
-        <v>4</v>
-      </c>
-      <c r="U16" s="7">
-        <v>13</v>
-      </c>
-      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="7">
         <f>SUM(F17:AA17)+AB16</f>
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -10106,91 +10202,91 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
+        <f t="shared" ref="F17:P17" si="14">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H17" s="8">
-        <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
+      <c r="N17" s="8">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="J17" s="8">
-        <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>2</v>
-      </c>
       <c r="P17" s="8">
-        <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))/2</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8">
-        <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
+        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="T17" s="8">
-        <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="U17" s="8">
-        <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W17" s="8">
-        <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X17" s="8">
-        <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -10261,7 +10357,9 @@
       <c r="U18" s="7">
         <v>6</v>
       </c>
-      <c r="V18" s="7"/>
+      <c r="V18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
@@ -10287,47 +10385,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
+        <f t="shared" ref="F19:P19" si="16">IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="L19" s="8">
-        <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f>IF(N18=1,10,IF(N18=2,6,IF(N18=3,4,IF(N18=4,3,IF(N18=5,2,IF(N18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Q19" s="8">
@@ -10335,43 +10433,43 @@
         <v>0.5</v>
       </c>
       <c r="R19" s="8">
-        <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
+        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="S19" s="8">
-        <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V19" s="8">
-        <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X19" s="8">
-        <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -10442,7 +10540,9 @@
       <c r="U20" s="7">
         <v>10</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
@@ -10467,47 +10567,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
+        <f t="shared" ref="F21:P21" si="18">IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L21" s="8">
-        <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M21" s="8">
-        <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="Q21" s="8">
@@ -10515,43 +10615,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
+        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f>IF(S20=1,10,IF(S20=2,6,IF(S20=3,4,IF(S20=4,3,IF(S20=5,2,IF(S20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T21" s="8">
-        <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U21" s="8">
-        <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X21" s="8">
-        <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -10622,7 +10722,9 @@
       <c r="U22" s="7">
         <v>18</v>
       </c>
-      <c r="V22" s="7"/>
+      <c r="V22" s="7">
+        <v>10</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -10647,47 +10749,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
+        <f t="shared" ref="F23:P23" si="20">IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="L23" s="8">
-        <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f>IF(N22=1,10,IF(N22=2,6,IF(N22=3,4,IF(N22=4,3,IF(N22=5,2,IF(N22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
@@ -10695,43 +10797,43 @@
         <v>1</v>
       </c>
       <c r="R23" s="8">
-        <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
+        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -10802,7 +10904,9 @@
       <c r="U24" s="7">
         <v>16</v>
       </c>
-      <c r="V24" s="7"/>
+      <c r="V24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
@@ -10827,47 +10931,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
+        <f t="shared" ref="F25:P25" si="22">IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L25" s="8">
-        <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f>IF(O24=1,10,IF(O24=2,6,IF(O24=3,4,IF(O24=4,3,IF(O24=5,2,IF(O24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="Q25" s="8">
@@ -10875,43 +10979,43 @@
         <v>0</v>
       </c>
       <c r="R25" s="8">
-        <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
+        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="S25" s="8">
-        <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="U25" s="8">
-        <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W25" s="8">
-        <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X25" s="8">
-        <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -10982,7 +11086,9 @@
       <c r="U26" s="7">
         <v>15</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7">
+        <v>14</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -11007,47 +11113,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f>IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
+        <f t="shared" ref="F27:P27" si="24">IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f>IF(G26=1,10,IF(G26=2,6,IF(G26=3,4,IF(G26=4,3,IF(G26=5,2,IF(G26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f>IF(J26=1,10,IF(J26=2,6,IF(J26=3,4,IF(J26=4,3,IF(J26=5,2,IF(J26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f>IF(K26=1,10,IF(K26=2,6,IF(K26=3,4,IF(K26=4,3,IF(K26=5,2,IF(K26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f>IF(L26=1,10,IF(L26=2,6,IF(L26=3,4,IF(L26=4,3,IF(L26=5,2,IF(L26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f>IF(O26=1,10,IF(O26=2,6,IF(O26=3,4,IF(O26=4,3,IF(O26=5,2,IF(O26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P27" s="8">
-        <f>IF(P26=1,10,IF(P26=2,6,IF(P26=3,4,IF(P26=4,3,IF(P26=5,2,IF(P26=6,1,0))))))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -11055,43 +11161,43 @@
         <v>3</v>
       </c>
       <c r="R27" s="8">
-        <f>IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
+        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>IF(S26=1,10,IF(S26=2,6,IF(S26=3,4,IF(S26=4,3,IF(S26=5,2,IF(S26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V27" s="8">
-        <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -11162,7 +11268,9 @@
       <c r="U28" s="7">
         <v>14</v>
       </c>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7">
+        <v>9</v>
+      </c>
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
@@ -11187,47 +11295,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f>IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
+        <f t="shared" ref="F29:P29" si="26">IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f>IF(G28=1,10,IF(G28=2,6,IF(G28=3,4,IF(G28=4,3,IF(G28=5,2,IF(G28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f>IF(H28=1,10,IF(H28=2,6,IF(H28=3,4,IF(H28=4,3,IF(H28=5,2,IF(H28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>IF(I28=1,10,IF(I28=2,6,IF(I28=3,4,IF(I28=4,3,IF(I28=5,2,IF(I28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f>IF(J28=1,10,IF(J28=2,6,IF(J28=3,4,IF(J28=4,3,IF(J28=5,2,IF(J28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f>IF(K28=1,10,IF(K28=2,6,IF(K28=3,4,IF(K28=4,3,IF(K28=5,2,IF(K28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L29" s="8">
-        <f>IF(L28=1,10,IF(L28=2,6,IF(L28=3,4,IF(L28=4,3,IF(L28=5,2,IF(L28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N29" s="8">
-        <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f>IF(O28=1,10,IF(O28=2,6,IF(O28=3,4,IF(O28=4,3,IF(O28=5,2,IF(O28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P29" s="8">
-        <f>IF(P28=1,10,IF(P28=2,6,IF(P28=3,4,IF(P28=4,3,IF(P28=5,2,IF(P28=6,1,0))))))</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q29" s="8">
@@ -11235,43 +11343,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f>IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
+        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f>IF(S28=1,10,IF(S28=2,6,IF(S28=3,4,IF(S28=4,3,IF(S28=5,2,IF(S28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W29" s="8">
-        <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -11342,7 +11450,9 @@
       <c r="U30" s="7">
         <v>20</v>
       </c>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7">
+        <v>17</v>
+      </c>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
@@ -11368,47 +11478,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f>IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
+        <f t="shared" ref="F31:P31" si="28">IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f>IF(G30=1,10,IF(G30=2,6,IF(G30=3,4,IF(G30=4,3,IF(G30=5,2,IF(G30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f>IF(H30=1,10,IF(H30=2,6,IF(H30=3,4,IF(H30=4,3,IF(H30=5,2,IF(H30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>IF(I30=1,10,IF(I30=2,6,IF(I30=3,4,IF(I30=4,3,IF(I30=5,2,IF(I30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f>IF(J30=1,10,IF(J30=2,6,IF(J30=3,4,IF(J30=4,3,IF(J30=5,2,IF(J30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f>IF(K30=1,10,IF(K30=2,6,IF(K30=3,4,IF(K30=4,3,IF(K30=5,2,IF(K30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f>IF(L30=1,10,IF(L30=2,6,IF(L30=3,4,IF(L30=4,3,IF(L30=5,2,IF(L30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f>IF(M30=1,10,IF(M30=2,6,IF(M30=3,4,IF(M30=4,3,IF(M30=5,2,IF(M30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f>IF(N30=1,10,IF(N30=2,6,IF(N30=3,4,IF(N30=4,3,IF(N30=5,2,IF(N30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f>IF(O30=1,10,IF(O30=2,6,IF(O30=3,4,IF(O30=4,3,IF(O30=5,2,IF(O30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q31" s="8">
@@ -11416,43 +11526,43 @@
         <v>0</v>
       </c>
       <c r="R31" s="8">
-        <f>IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
+        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f>IF(S30=1,10,IF(S30=2,6,IF(S30=3,4,IF(S30=4,3,IF(S30=5,2,IF(S30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T31" s="8">
-        <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U31" s="8">
-        <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -11523,7 +11633,9 @@
       <c r="U32" s="7">
         <v>9</v>
       </c>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7">
+        <v>12</v>
+      </c>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
@@ -11548,47 +11660,47 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f>IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
+        <f t="shared" ref="F33:P33" si="30">IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f>IF(G32=1,10,IF(G32=2,6,IF(G32=3,4,IF(G32=4,3,IF(G32=5,2,IF(G32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f>IF(H32=1,10,IF(H32=2,6,IF(H32=3,4,IF(H32=4,3,IF(H32=5,2,IF(H32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f>IF(I32=1,10,IF(I32=2,6,IF(I32=3,4,IF(I32=4,3,IF(I32=5,2,IF(I32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f>IF(J32=1,10,IF(J32=2,6,IF(J32=3,4,IF(J32=4,3,IF(J32=5,2,IF(J32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>IF(K32=1,10,IF(K32=2,6,IF(K32=3,4,IF(K32=4,3,IF(K32=5,2,IF(K32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f>IF(L32=1,10,IF(L32=2,6,IF(L32=3,4,IF(L32=4,3,IF(L32=5,2,IF(L32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f>IF(M32=1,10,IF(M32=2,6,IF(M32=3,4,IF(M32=4,3,IF(M32=5,2,IF(M32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f>IF(N32=1,10,IF(N32=2,6,IF(N32=3,4,IF(N32=4,3,IF(N32=5,2,IF(N32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f>IF(O32=1,10,IF(O32=2,6,IF(O32=3,4,IF(O32=4,3,IF(O32=5,2,IF(O32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f>IF(P32=1,10,IF(P32=2,6,IF(P32=3,4,IF(P32=4,3,IF(P32=5,2,IF(P32=6,1,0))))))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q33" s="8">
@@ -11596,43 +11708,43 @@
         <v>0</v>
       </c>
       <c r="R33" s="8">
-        <f>IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
+        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f>IF(S32=1,10,IF(S32=2,6,IF(S32=3,4,IF(S32=4,3,IF(S32=5,2,IF(S32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X33" s="8">
-        <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -11703,7 +11815,9 @@
       <c r="U34" s="7">
         <v>17</v>
       </c>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7">
+        <v>15</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -11728,47 +11842,47 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f>IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
+        <f t="shared" ref="F35:P35" si="32">IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f>IF(G34=1,10,IF(G34=2,6,IF(G34=3,4,IF(G34=4,3,IF(G34=5,2,IF(G34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f>IF(H34=1,10,IF(H34=2,6,IF(H34=3,4,IF(H34=4,3,IF(H34=5,2,IF(H34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f>IF(I34=1,10,IF(I34=2,6,IF(I34=3,4,IF(I34=4,3,IF(I34=5,2,IF(I34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f>IF(J34=1,10,IF(J34=2,6,IF(J34=3,4,IF(J34=4,3,IF(J34=5,2,IF(J34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f>IF(K34=1,10,IF(K34=2,6,IF(K34=3,4,IF(K34=4,3,IF(K34=5,2,IF(K34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L35" s="8">
-        <f>IF(L34=1,10,IF(L34=2,6,IF(L34=3,4,IF(L34=4,3,IF(L34=5,2,IF(L34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f>IF(M34=1,10,IF(M34=2,6,IF(M34=3,4,IF(M34=4,3,IF(M34=5,2,IF(M34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f>IF(N34=1,10,IF(N34=2,6,IF(N34=3,4,IF(N34=4,3,IF(N34=5,2,IF(N34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f>IF(O34=1,10,IF(O34=2,6,IF(O34=3,4,IF(O34=4,3,IF(O34=5,2,IF(O34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f>IF(P34=1,10,IF(P34=2,6,IF(P34=3,4,IF(P34=4,3,IF(P34=5,2,IF(P34=6,1,0))))))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q35" s="8">
@@ -11776,43 +11890,43 @@
         <v>0</v>
       </c>
       <c r="R35" s="8">
-        <f>IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
+        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f>IF(S34=1,10,IF(S34=2,6,IF(S34=3,4,IF(S34=4,3,IF(S34=5,2,IF(S34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U35" s="8">
-        <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X35" s="8">
-        <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -11879,7 +11993,9 @@
       <c r="U36" s="7">
         <v>12</v>
       </c>
-      <c r="V36" s="7"/>
+      <c r="V36" s="7">
+        <v>13</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
@@ -11904,47 +12020,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f>IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
+        <f t="shared" ref="F37:P37" si="34">IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f>IF(G36=1,10,IF(G36=2,6,IF(G36=3,4,IF(G36=4,3,IF(G36=5,2,IF(G36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f>IF(H36=1,10,IF(H36=2,6,IF(H36=3,4,IF(H36=4,3,IF(H36=5,2,IF(H36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f>IF(I36=1,10,IF(I36=2,6,IF(I36=3,4,IF(I36=4,3,IF(I36=5,2,IF(I36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f>IF(J36=1,10,IF(J36=2,6,IF(J36=3,4,IF(J36=4,3,IF(J36=5,2,IF(J36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f>IF(K36=1,10,IF(K36=2,6,IF(K36=3,4,IF(K36=4,3,IF(K36=5,2,IF(K36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f>IF(L36=1,10,IF(L36=2,6,IF(L36=3,4,IF(L36=4,3,IF(L36=5,2,IF(L36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f>IF(M36=1,10,IF(M36=2,6,IF(M36=3,4,IF(M36=4,3,IF(M36=5,2,IF(M36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f>IF(N36=1,10,IF(N36=2,6,IF(N36=3,4,IF(N36=4,3,IF(N36=5,2,IF(N36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f>IF(O36=1,10,IF(O36=2,6,IF(O36=3,4,IF(O36=4,3,IF(O36=5,2,IF(O36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f>IF(P36=1,10,IF(P36=2,6,IF(P36=3,4,IF(P36=4,3,IF(P36=5,2,IF(P36=6,1,0))))))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -11952,43 +12068,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f>IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
+        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f>IF(S36=1,10,IF(S36=2,6,IF(S36=3,4,IF(S36=4,3,IF(S36=5,2,IF(S36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -12059,7 +12175,9 @@
       <c r="U38" s="7">
         <v>11</v>
       </c>
-      <c r="V38" s="7"/>
+      <c r="V38" s="7">
+        <v>11</v>
+      </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
@@ -12084,47 +12202,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f>IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
+        <f t="shared" ref="F39:P39" si="36">IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f>IF(G38=1,10,IF(G38=2,6,IF(G38=3,4,IF(G38=4,3,IF(G38=5,2,IF(G38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f>IF(H38=1,10,IF(H38=2,6,IF(H38=3,4,IF(H38=4,3,IF(H38=5,2,IF(H38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>IF(I38=1,10,IF(I38=2,6,IF(I38=3,4,IF(I38=4,3,IF(I38=5,2,IF(I38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f>IF(J38=1,10,IF(J38=2,6,IF(J38=3,4,IF(J38=4,3,IF(J38=5,2,IF(J38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f>IF(K38=1,10,IF(K38=2,6,IF(K38=3,4,IF(K38=4,3,IF(K38=5,2,IF(K38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f>IF(L38=1,10,IF(L38=2,6,IF(L38=3,4,IF(L38=4,3,IF(L38=5,2,IF(L38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f>IF(M38=1,10,IF(M38=2,6,IF(M38=3,4,IF(M38=4,3,IF(M38=5,2,IF(M38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f>IF(N38=1,10,IF(N38=2,6,IF(N38=3,4,IF(N38=4,3,IF(N38=5,2,IF(N38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f>IF(O38=1,10,IF(O38=2,6,IF(O38=3,4,IF(O38=4,3,IF(O38=5,2,IF(O38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f>IF(P38=1,10,IF(P38=2,6,IF(P38=3,4,IF(P38=4,3,IF(P38=5,2,IF(P38=6,1,0))))))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -12132,43 +12250,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f>IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
+        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f>IF(S38=1,10,IF(S38=2,6,IF(S38=3,4,IF(S38=4,3,IF(S38=5,2,IF(S38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -12239,7 +12357,9 @@
       <c r="U40" s="7">
         <v>19</v>
       </c>
-      <c r="V40" s="7"/>
+      <c r="V40" s="7">
+        <v>16</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -12264,47 +12384,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f>IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f t="shared" ref="F41:P41" si="38">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f>IF(G40=1,10,IF(G40=2,6,IF(G40=3,4,IF(G40=4,3,IF(G40=5,2,IF(G40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f>IF(H40=1,10,IF(H40=2,6,IF(H40=3,4,IF(H40=4,3,IF(H40=5,2,IF(H40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f>IF(I40=1,10,IF(I40=2,6,IF(I40=3,4,IF(I40=4,3,IF(I40=5,2,IF(I40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f>IF(J40=1,10,IF(J40=2,6,IF(J40=3,4,IF(J40=4,3,IF(J40=5,2,IF(J40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f>IF(K40=1,10,IF(K40=2,6,IF(K40=3,4,IF(K40=4,3,IF(K40=5,2,IF(K40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f>IF(L40=1,10,IF(L40=2,6,IF(L40=3,4,IF(L40=4,3,IF(L40=5,2,IF(L40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f>IF(M40=1,10,IF(M40=2,6,IF(M40=3,4,IF(M40=4,3,IF(M40=5,2,IF(M40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f>IF(N40=1,10,IF(N40=2,6,IF(N40=3,4,IF(N40=4,3,IF(N40=5,2,IF(N40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f>IF(O40=1,10,IF(O40=2,6,IF(O40=3,4,IF(O40=4,3,IF(O40=5,2,IF(O40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f>IF(P40=1,10,IF(P40=2,6,IF(P40=3,4,IF(P40=4,3,IF(P40=5,2,IF(P40=6,1,0))))))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -12312,43 +12432,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f>IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
+        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f>IF(S40=1,10,IF(S40=2,6,IF(S40=3,4,IF(S40=4,3,IF(S40=5,2,IF(S40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f>IF(T40=1,10,IF(T40=2,6,IF(T40=3,4,IF(T40=4,3,IF(T40=5,2,IF(T40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f>IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f>IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f>IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f>IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f>IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f>IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -12416,47 +12536,47 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43:P43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <f t="shared" ref="F43:P43" si="40">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
@@ -12464,43 +12584,43 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43:AA43" si="1">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <f t="shared" ref="R43:AA43" si="41">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8"/>
@@ -12564,11 +12684,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
-        <v>433.5</v>
+        <v>460.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>420.5</v>
+        <v>446.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12582,12 +12702,12 @@
         <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD10</f>
-        <v>397.5</v>
+        <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD8</f>
+        <v>437.5</v>
       </c>
       <c r="E3" s="10">
-        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE10</f>
-        <v>389.5</v>
+        <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE8</f>
+        <v>429.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12601,12 +12721,12 @@
         <v>97</v>
       </c>
       <c r="D4" s="11">
-        <f>'2021 Driver Ranking'!AD8+'2021 Driver Ranking'!AD16</f>
-        <v>240</v>
+        <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD16</f>
+        <v>254</v>
       </c>
       <c r="E4" s="11">
-        <f>'2021 Driver Ranking'!AE8+'2021 Driver Ranking'!AE16</f>
-        <v>237</v>
+        <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE16</f>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12621,11 +12741,11 @@
       </c>
       <c r="D5" s="12">
         <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
-        <v>232.5</v>
+        <v>250.5</v>
       </c>
       <c r="E5" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>232.5</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12659,11 +12779,11 @@
       </c>
       <c r="D7" s="15">
         <f>'2021 Driver Ranking'!AD18+'2021 Driver Ranking'!AD28</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="15">
         <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12678,11 +12798,11 @@
       </c>
       <c r="D8" s="13">
         <f>'2021 Driver Ranking'!AD24+'2021 Driver Ranking'!AD26</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="13">
         <f>'2021 Driver Ranking'!AE24+'2021 Driver Ranking'!AE26</f>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12795,7 +12915,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12809,38 +12929,38 @@
         <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB10</f>
-        <v>158</v>
+        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB8</f>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="11">
-        <f>'2003-2009 Driver Ranking'!AB8+'2003-2009 Driver Ranking'!AB16</f>
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12">
-        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>90.5</v>
+      <c r="D5" s="11">
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB16</f>
+        <v>96.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12989,11 +13109,11 @@
       </c>
       <c r="D2" s="8">
         <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13008,11 +13128,11 @@
       </c>
       <c r="D3" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E3" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13026,12 +13146,12 @@
         <v>97</v>
       </c>
       <c r="D4" s="11">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC16</f>
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC14</f>
+        <v>55.5</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD14</f>
         <v>53.5</v>
-      </c>
-      <c r="E4" s="11">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD16</f>
-        <v>51.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13045,12 +13165,12 @@
         <v>91</v>
       </c>
       <c r="D5" s="12">
-        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC14</f>
-        <v>46</v>
+        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC16</f>
+        <v>49</v>
       </c>
       <c r="E5" s="12">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
-        <v>46</v>
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="113">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did Not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did Not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +984,8 @@
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1150,7 +1158,9 @@
       <c r="V2" s="7">
         <v>1</v>
       </c>
-      <c r="W2" s="7"/>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -1165,11 +1175,11 @@
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>287.5</v>
+        <v>312.5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>279.5</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1179,47 +1189,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:P3" si="0">IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
+        <f>IF(F2=1,25,IF(F2=2,18,IF(F2=3,15,IF(F2=4,12,IF(F2=5,10,IF(F2=6,8,IF(F2=7,6,IF(F2=8,4,IF(F2=9,2,IF(F2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,25,IF(G2=2,18,IF(G2=3,15,IF(G2=4,12,IF(G2=5,10,IF(G2=6,8,IF(G2=7,6,IF(G2=8,4,IF(G2=9,2,IF(G2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,25,IF(H2=2,18,IF(H2=3,15,IF(H2=4,12,IF(H2=5,10,IF(H2=6,8,IF(H2=7,6,IF(H2=8,4,IF(H2=9,2,IF(H2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,25,IF(I2=2,18,IF(I2=3,15,IF(I2=4,12,IF(I2=5,10,IF(I2=6,8,IF(I2=7,6,IF(I2=8,4,IF(I2=9,2,IF(I2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,25,IF(J2=2,18,IF(J2=3,15,IF(J2=4,12,IF(J2=5,10,IF(J2=6,8,IF(J2=7,6,IF(J2=8,4,IF(J2=9,2,IF(J2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,25,IF(K2=2,18,IF(K2=3,15,IF(K2=4,12,IF(K2=5,10,IF(K2=6,8,IF(K2=7,6,IF(K2=8,4,IF(K2=9,2,IF(K2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,25,IF(L2=2,18,IF(L2=3,15,IF(L2=4,12,IF(L2=5,10,IF(L2=6,8,IF(L2=7,6,IF(L2=8,4,IF(L2=9,2,IF(L2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,25,IF(M2=2,18,IF(M2=3,15,IF(M2=4,12,IF(M2=5,10,IF(M2=6,8,IF(M2=7,6,IF(M2=8,4,IF(M2=9,2,IF(M2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,25,IF(N2=2,18,IF(N2=3,15,IF(N2=4,12,IF(N2=5,10,IF(N2=6,8,IF(N2=7,6,IF(N2=8,4,IF(N2=9,2,IF(N2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,25,IF(O2=2,18,IF(O2=3,15,IF(O2=4,12,IF(O2=5,10,IF(O2=6,8,IF(O2=7,6,IF(O2=8,4,IF(O2=9,2,IF(O2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(P2=1,25,IF(P2=2,18,IF(P2=3,15,IF(P2=4,12,IF(P2=5,10,IF(P2=6,8,IF(P2=7,6,IF(P2=8,4,IF(P2=9,2,IF(P2=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="Q3" s="8">
@@ -1227,43 +1237,43 @@
         <v>12.5</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
+        <f>IF(R2=1,25,IF(R2=2,18,IF(R2=3,15,IF(R2=4,12,IF(R2=5,10,IF(R2=6,8,IF(R2=7,6,IF(R2=8,4,IF(R2=9,2,IF(R2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="S3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(S2=1,25,IF(S2=2,18,IF(S2=3,15,IF(S2=4,12,IF(S2=5,10,IF(S2=6,8,IF(S2=7,6,IF(S2=8,4,IF(S2=9,2,IF(S2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(T2=1,25,IF(T2=2,18,IF(T2=3,15,IF(T2=4,12,IF(T2=5,10,IF(T2=6,8,IF(T2=7,6,IF(T2=8,4,IF(T2=9,2,IF(T2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="U3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(U2=1,25,IF(U2=2,18,IF(U2=3,15,IF(U2=4,12,IF(U2=5,10,IF(U2=6,8,IF(U2=7,6,IF(U2=8,4,IF(U2=9,2,IF(U2=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="V3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(V2=1,25,IF(V2=2,18,IF(V2=3,15,IF(V2=4,12,IF(V2=5,10,IF(V2=6,8,IF(V2=7,6,IF(V2=8,4,IF(V2=9,2,IF(V2=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="W3" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(W2=1,25,IF(W2=2,18,IF(W2=3,15,IF(W2=4,12,IF(W2=5,10,IF(W2=6,8,IF(W2=7,6,IF(W2=8,4,IF(W2=9,2,IF(W2=10,1,0))))))))))</f>
+        <v>25</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -1338,7 +1348,9 @@
       <c r="V4" s="7">
         <v>2</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>2</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -1353,11 +1365,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>275.5</v>
+        <v>293.5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>268.5</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1367,47 +1379,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:P5" si="2">IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
+        <f>IF(F4=1,25,IF(F4=2,18,IF(F4=3,15,IF(F4=4,12,IF(F4=5,10,IF(F4=6,8,IF(F4=7,6,IF(F4=8,4,IF(F4=9,2,IF(F4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(G4=1,25,IF(G4=2,18,IF(G4=3,15,IF(G4=4,12,IF(G4=5,10,IF(G4=6,8,IF(G4=7,6,IF(G4=8,4,IF(G4=9,2,IF(G4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(H4=1,25,IF(H4=2,18,IF(H4=3,15,IF(H4=4,12,IF(H4=5,10,IF(H4=6,8,IF(H4=7,6,IF(H4=8,4,IF(H4=9,2,IF(H4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(I4=1,25,IF(I4=2,18,IF(I4=3,15,IF(I4=4,12,IF(I4=5,10,IF(I4=6,8,IF(I4=7,6,IF(I4=8,4,IF(I4=9,2,IF(I4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J4=1,25,IF(J4=2,18,IF(J4=3,15,IF(J4=4,12,IF(J4=5,10,IF(J4=6,8,IF(J4=7,6,IF(J4=8,4,IF(J4=9,2,IF(J4=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(K4=1,25,IF(K4=2,18,IF(K4=3,15,IF(K4=4,12,IF(K4=5,10,IF(K4=6,8,IF(K4=7,6,IF(K4=8,4,IF(K4=9,2,IF(K4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(L4=1,25,IF(L4=2,18,IF(L4=3,15,IF(L4=4,12,IF(L4=5,10,IF(L4=6,8,IF(L4=7,6,IF(L4=8,4,IF(L4=9,2,IF(L4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(M4=1,25,IF(M4=2,18,IF(M4=3,15,IF(M4=4,12,IF(M4=5,10,IF(M4=6,8,IF(M4=7,6,IF(M4=8,4,IF(M4=9,2,IF(M4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(N4=1,25,IF(N4=2,18,IF(N4=3,15,IF(N4=4,12,IF(N4=5,10,IF(N4=6,8,IF(N4=7,6,IF(N4=8,4,IF(N4=9,2,IF(N4=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(O4=1,25,IF(O4=2,18,IF(O4=3,15,IF(O4=4,12,IF(O4=5,10,IF(O4=6,8,IF(O4=7,6,IF(O4=8,4,IF(O4=9,2,IF(O4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(P4=1,25,IF(P4=2,18,IF(P4=3,15,IF(P4=4,12,IF(P4=5,10,IF(P4=6,8,IF(P4=7,6,IF(P4=8,4,IF(P4=9,2,IF(P4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="Q5" s="8">
@@ -1415,43 +1427,43 @@
         <v>7.5</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
+        <f>IF(R4=1,25,IF(R4=2,18,IF(R4=3,15,IF(R4=4,12,IF(R4=5,10,IF(R4=6,8,IF(R4=7,6,IF(R4=8,4,IF(R4=9,2,IF(R4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(S4=1,25,IF(S4=2,18,IF(S4=3,15,IF(S4=4,12,IF(S4=5,10,IF(S4=6,8,IF(S4=7,6,IF(S4=8,4,IF(S4=9,2,IF(S4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(T4=1,25,IF(T4=2,18,IF(T4=3,15,IF(T4=4,12,IF(T4=5,10,IF(T4=6,8,IF(T4=7,6,IF(T4=8,4,IF(T4=9,2,IF(T4=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(U4=1,25,IF(U4=2,18,IF(U4=3,15,IF(U4=4,12,IF(U4=5,10,IF(U4=6,8,IF(U4=7,6,IF(U4=8,4,IF(U4=9,2,IF(U4=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(V4=1,25,IF(V4=2,18,IF(V4=3,15,IF(V4=4,12,IF(V4=5,10,IF(V4=6,8,IF(V4=7,6,IF(V4=8,4,IF(V4=9,2,IF(V4=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(W4=1,25,IF(W4=2,18,IF(W4=3,15,IF(W4=4,12,IF(W4=5,10,IF(W4=6,8,IF(W4=7,6,IF(W4=8,4,IF(W4=9,2,IF(W4=10,1,0))))))))))</f>
+        <v>18</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -1526,7 +1538,9 @@
       <c r="V6" s="7">
         <v>6</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>15</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -1555,47 +1569,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:P7" si="4">IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
+        <f>IF(F6=1,25,IF(F6=2,18,IF(F6=3,15,IF(F6=4,12,IF(F6=5,10,IF(F6=6,8,IF(F6=7,6,IF(F6=8,4,IF(F6=9,2,IF(F6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(G6=1,25,IF(G6=2,18,IF(G6=3,15,IF(G6=4,12,IF(G6=5,10,IF(G6=6,8,IF(G6=7,6,IF(G6=8,4,IF(G6=9,2,IF(G6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(H6=1,25,IF(H6=2,18,IF(H6=3,15,IF(H6=4,12,IF(H6=5,10,IF(H6=6,8,IF(H6=7,6,IF(H6=8,4,IF(H6=9,2,IF(H6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(I6=1,25,IF(I6=2,18,IF(I6=3,15,IF(I6=4,12,IF(I6=5,10,IF(I6=6,8,IF(I6=7,6,IF(I6=8,4,IF(I6=9,2,IF(I6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(J6=1,25,IF(J6=2,18,IF(J6=3,15,IF(J6=4,12,IF(J6=5,10,IF(J6=6,8,IF(J6=7,6,IF(J6=8,4,IF(J6=9,2,IF(J6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(K6=1,25,IF(K6=2,18,IF(K6=3,15,IF(K6=4,12,IF(K6=5,10,IF(K6=6,8,IF(K6=7,6,IF(K6=8,4,IF(K6=9,2,IF(K6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(L6=1,25,IF(L6=2,18,IF(L6=3,15,IF(L6=4,12,IF(L6=5,10,IF(L6=6,8,IF(L6=7,6,IF(L6=8,4,IF(L6=9,2,IF(L6=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(M6=1,25,IF(M6=2,18,IF(M6=3,15,IF(M6=4,12,IF(M6=5,10,IF(M6=6,8,IF(M6=7,6,IF(M6=8,4,IF(M6=9,2,IF(M6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N6=1,25,IF(N6=2,18,IF(N6=3,15,IF(N6=4,12,IF(N6=5,10,IF(N6=6,8,IF(N6=7,6,IF(N6=8,4,IF(N6=9,2,IF(N6=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(O6=1,25,IF(O6=2,18,IF(O6=3,15,IF(O6=4,12,IF(O6=5,10,IF(O6=6,8,IF(O6=7,6,IF(O6=8,4,IF(O6=9,2,IF(O6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(P6=1,25,IF(P6=2,18,IF(P6=3,15,IF(P6=4,12,IF(P6=5,10,IF(P6=6,8,IF(P6=7,6,IF(P6=8,4,IF(P6=9,2,IF(P6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -1603,43 +1617,43 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
+        <f>IF(R6=1,25,IF(R6=2,18,IF(R6=3,15,IF(R6=4,12,IF(R6=5,10,IF(R6=6,8,IF(R6=7,6,IF(R6=8,4,IF(R6=9,2,IF(R6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(S6=1,25,IF(S6=2,18,IF(S6=3,15,IF(S6=4,12,IF(S6=5,10,IF(S6=6,8,IF(S6=7,6,IF(S6=8,4,IF(S6=9,2,IF(S6=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(T6=1,25,IF(T6=2,18,IF(T6=3,15,IF(T6=4,12,IF(T6=5,10,IF(T6=6,8,IF(T6=7,6,IF(T6=8,4,IF(T6=9,2,IF(T6=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(U6=1,25,IF(U6=2,18,IF(U6=3,15,IF(U6=4,12,IF(U6=5,10,IF(U6=6,8,IF(U6=7,6,IF(U6=8,4,IF(U6=9,2,IF(U6=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(V6=1,25,IF(V6=2,18,IF(V6=3,15,IF(V6=4,12,IF(V6=5,10,IF(V6=6,8,IF(V6=7,6,IF(V6=8,4,IF(V6=9,2,IF(V6=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(W6=1,25,IF(W6=2,18,IF(W6=3,15,IF(W6=4,12,IF(W6=5,10,IF(W6=6,8,IF(W6=7,6,IF(W6=8,4,IF(W6=9,2,IF(W6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
@@ -1714,7 +1728,9 @@
       <c r="V8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>3</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -1727,11 +1743,11 @@
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1741,47 +1757,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:P9" si="6">IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
+        <f>IF(F8=1,25,IF(F8=2,18,IF(F8=3,15,IF(F8=4,12,IF(F8=5,10,IF(F8=6,8,IF(F8=7,6,IF(F8=8,4,IF(F8=9,2,IF(F8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(G8=1,25,IF(G8=2,18,IF(G8=3,15,IF(G8=4,12,IF(G8=5,10,IF(G8=6,8,IF(G8=7,6,IF(G8=8,4,IF(G8=9,2,IF(G8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(H8=1,25,IF(H8=2,18,IF(H8=3,15,IF(H8=4,12,IF(H8=5,10,IF(H8=6,8,IF(H8=7,6,IF(H8=8,4,IF(H8=9,2,IF(H8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(I8=1,25,IF(I8=2,18,IF(I8=3,15,IF(I8=4,12,IF(I8=5,10,IF(I8=6,8,IF(I8=7,6,IF(I8=8,4,IF(I8=9,2,IF(I8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(J8=1,25,IF(J8=2,18,IF(J8=3,15,IF(J8=4,12,IF(J8=5,10,IF(J8=6,8,IF(J8=7,6,IF(J8=8,4,IF(J8=9,2,IF(J8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(K8=1,25,IF(K8=2,18,IF(K8=3,15,IF(K8=4,12,IF(K8=5,10,IF(K8=6,8,IF(K8=7,6,IF(K8=8,4,IF(K8=9,2,IF(K8=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(L8=1,25,IF(L8=2,18,IF(L8=3,15,IF(L8=4,12,IF(L8=5,10,IF(L8=6,8,IF(L8=7,6,IF(L8=8,4,IF(L8=9,2,IF(L8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(M8=1,25,IF(M8=2,18,IF(M8=3,15,IF(M8=4,12,IF(M8=5,10,IF(M8=6,8,IF(M8=7,6,IF(M8=8,4,IF(M8=9,2,IF(M8=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(N8=1,25,IF(N8=2,18,IF(N8=3,15,IF(N8=4,12,IF(N8=5,10,IF(N8=6,8,IF(N8=7,6,IF(N8=8,4,IF(N8=9,2,IF(N8=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(O8=1,25,IF(O8=2,18,IF(O8=3,15,IF(O8=4,12,IF(O8=5,10,IF(O8=6,8,IF(O8=7,6,IF(O8=8,4,IF(O8=9,2,IF(O8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(P8=1,25,IF(P8=2,18,IF(P8=3,15,IF(P8=4,12,IF(P8=5,10,IF(P8=6,8,IF(P8=7,6,IF(P8=8,4,IF(P8=9,2,IF(P8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -1789,43 +1805,43 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
+        <f>IF(R8=1,25,IF(R8=2,18,IF(R8=3,15,IF(R8=4,12,IF(R8=5,10,IF(R8=6,8,IF(R8=7,6,IF(R8=8,4,IF(R8=9,2,IF(R8=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="S9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(S8=1,25,IF(S8=2,18,IF(S8=3,15,IF(S8=4,12,IF(S8=5,10,IF(S8=6,8,IF(S8=7,6,IF(S8=8,4,IF(S8=9,2,IF(S8=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="T9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(T8=1,25,IF(T8=2,18,IF(T8=3,15,IF(T8=4,12,IF(T8=5,10,IF(T8=6,8,IF(T8=7,6,IF(T8=8,4,IF(T8=9,2,IF(T8=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(U8=1,25,IF(U8=2,18,IF(U8=3,15,IF(U8=4,12,IF(U8=5,10,IF(U8=6,8,IF(U8=7,6,IF(U8=8,4,IF(U8=9,2,IF(U8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(V8=1,25,IF(V8=2,18,IF(V8=3,15,IF(V8=4,12,IF(V8=5,10,IF(V8=6,8,IF(V8=7,6,IF(V8=8,4,IF(V8=9,2,IF(V8=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(W8=1,25,IF(W8=2,18,IF(W8=3,15,IF(W8=4,12,IF(W8=5,10,IF(W8=6,8,IF(W8=7,6,IF(W8=8,4,IF(W8=9,2,IF(W8=10,1,0))))))))))</f>
+        <v>15</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Z8=1,25,IF(Z8=2,18,IF(Z8=3,15,IF(Z8=4,12,IF(Z8=5,10,IF(Z8=6,8,IF(Z8=7,6,IF(Z8=8,4,IF(Z8=9,2,IF(Z8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AA8=1,25,IF(AA8=2,18,IF(AA8=3,15,IF(AA8=4,12,IF(AA8=5,10,IF(AA8=6,8,IF(AA8=7,6,IF(AA8=8,4,IF(AA8=9,2,IF(AA8=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
@@ -1900,7 +1916,9 @@
       <c r="V10" s="7">
         <v>8</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>10</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -1914,11 +1932,11 @@
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1928,47 +1946,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:P11" si="8">IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
+        <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -1976,43 +1994,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
+        <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
+        <v>1</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -2087,7 +2105,9 @@
       <c r="V12" s="7">
         <v>4</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>5</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -2100,11 +2120,11 @@
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2114,47 +2134,47 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:P13" si="10">IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
+        <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
@@ -2162,43 +2182,43 @@
         <v>2</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
+        <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
+        <v>10</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -2273,7 +2293,9 @@
       <c r="V14" s="7">
         <v>7</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7">
+        <v>6</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -2286,11 +2308,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>122.5</v>
+        <v>130.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>122.5</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2300,47 +2322,47 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f t="shared" ref="F15:P15" si="12">IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
+        <f>IF(F14=1,25,IF(F14=2,18,IF(F14=3,15,IF(F14=4,12,IF(F14=5,10,IF(F14=6,8,IF(F14=7,6,IF(F14=8,4,IF(F14=9,2,IF(F14=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(G14=1,25,IF(G14=2,18,IF(G14=3,15,IF(G14=4,12,IF(G14=5,10,IF(G14=6,8,IF(G14=7,6,IF(G14=8,4,IF(G14=9,2,IF(G14=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(H14=1,25,IF(H14=2,18,IF(H14=3,15,IF(H14=4,12,IF(H14=5,10,IF(H14=6,8,IF(H14=7,6,IF(H14=8,4,IF(H14=9,2,IF(H14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(I14=1,25,IF(I14=2,18,IF(I14=3,15,IF(I14=4,12,IF(I14=5,10,IF(I14=6,8,IF(I14=7,6,IF(I14=8,4,IF(I14=9,2,IF(I14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(J14=1,25,IF(J14=2,18,IF(J14=3,15,IF(J14=4,12,IF(J14=5,10,IF(J14=6,8,IF(J14=7,6,IF(J14=8,4,IF(J14=9,2,IF(J14=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(K14=1,25,IF(K14=2,18,IF(K14=3,15,IF(K14=4,12,IF(K14=5,10,IF(K14=6,8,IF(K14=7,6,IF(K14=8,4,IF(K14=9,2,IF(K14=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(L14=1,25,IF(L14=2,18,IF(L14=3,15,IF(L14=4,12,IF(L14=5,10,IF(L14=6,8,IF(L14=7,6,IF(L14=8,4,IF(L14=9,2,IF(L14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(M14=1,25,IF(M14=2,18,IF(M14=3,15,IF(M14=4,12,IF(M14=5,10,IF(M14=6,8,IF(M14=7,6,IF(M14=8,4,IF(M14=9,2,IF(M14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(N14=1,25,IF(N14=2,18,IF(N14=3,15,IF(N14=4,12,IF(N14=5,10,IF(N14=6,8,IF(N14=7,6,IF(N14=8,4,IF(N14=9,2,IF(N14=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(O14=1,25,IF(O14=2,18,IF(O14=3,15,IF(O14=4,12,IF(O14=5,10,IF(O14=6,8,IF(O14=7,6,IF(O14=8,4,IF(O14=9,2,IF(O14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(P14=1,25,IF(P14=2,18,IF(P14=3,15,IF(P14=4,12,IF(P14=5,10,IF(P14=6,8,IF(P14=7,6,IF(P14=8,4,IF(P14=9,2,IF(P14=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="Q15" s="8">
@@ -2348,43 +2370,43 @@
         <v>0.5</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
+        <f>IF(R14=1,25,IF(R14=2,18,IF(R14=3,15,IF(R14=4,12,IF(R14=5,10,IF(R14=6,8,IF(R14=7,6,IF(R14=8,4,IF(R14=9,2,IF(R14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(S14=1,25,IF(S14=2,18,IF(S14=3,15,IF(S14=4,12,IF(S14=5,10,IF(S14=6,8,IF(S14=7,6,IF(S14=8,4,IF(S14=9,2,IF(S14=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(T14=1,25,IF(T14=2,18,IF(T14=3,15,IF(T14=4,12,IF(T14=5,10,IF(T14=6,8,IF(T14=7,6,IF(T14=8,4,IF(T14=9,2,IF(T14=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(U14=1,25,IF(U14=2,18,IF(U14=3,15,IF(U14=4,12,IF(U14=5,10,IF(U14=6,8,IF(U14=7,6,IF(U14=8,4,IF(U14=9,2,IF(U14=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(V14=1,25,IF(V14=2,18,IF(V14=3,15,IF(V14=4,12,IF(V14=5,10,IF(V14=6,8,IF(V14=7,6,IF(V14=8,4,IF(V14=9,2,IF(V14=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(W14=1,25,IF(W14=2,18,IF(W14=3,15,IF(W14=4,12,IF(W14=5,10,IF(W14=6,8,IF(W14=7,6,IF(W14=8,4,IF(W14=9,2,IF(W14=10,1,0))))))))))</f>
+        <v>8</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -2459,7 +2481,9 @@
       <c r="V16" s="7">
         <v>5</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>12</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -2488,47 +2512,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:P17" si="14">IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
+        <f>IF(F16=1,25,IF(F16=2,18,IF(F16=3,15,IF(F16=4,12,IF(F16=5,10,IF(F16=6,8,IF(F16=7,6,IF(F16=8,4,IF(F16=9,2,IF(F16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(G16=1,25,IF(G16=2,18,IF(G16=3,15,IF(G16=4,12,IF(G16=5,10,IF(G16=6,8,IF(G16=7,6,IF(G16=8,4,IF(G16=9,2,IF(G16=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(H16=1,25,IF(H16=2,18,IF(H16=3,15,IF(H16=4,12,IF(H16=5,10,IF(H16=6,8,IF(H16=7,6,IF(H16=8,4,IF(H16=9,2,IF(H16=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(I16=1,25,IF(I16=2,18,IF(I16=3,15,IF(I16=4,12,IF(I16=5,10,IF(I16=6,8,IF(I16=7,6,IF(I16=8,4,IF(I16=9,2,IF(I16=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(J16=1,25,IF(J16=2,18,IF(J16=3,15,IF(J16=4,12,IF(J16=5,10,IF(J16=6,8,IF(J16=7,6,IF(J16=8,4,IF(J16=9,2,IF(J16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(K16=1,25,IF(K16=2,18,IF(K16=3,15,IF(K16=4,12,IF(K16=5,10,IF(K16=6,8,IF(K16=7,6,IF(K16=8,4,IF(K16=9,2,IF(K16=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(L16=1,25,IF(L16=2,18,IF(L16=3,15,IF(L16=4,12,IF(L16=5,10,IF(L16=6,8,IF(L16=7,6,IF(L16=8,4,IF(L16=9,2,IF(L16=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(M16=1,25,IF(M16=2,18,IF(M16=3,15,IF(M16=4,12,IF(M16=5,10,IF(M16=6,8,IF(M16=7,6,IF(M16=8,4,IF(M16=9,2,IF(M16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(N16=1,25,IF(N16=2,18,IF(N16=3,15,IF(N16=4,12,IF(N16=5,10,IF(N16=6,8,IF(N16=7,6,IF(N16=8,4,IF(N16=9,2,IF(N16=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(O16=1,25,IF(O16=2,18,IF(O16=3,15,IF(O16=4,12,IF(O16=5,10,IF(O16=6,8,IF(O16=7,6,IF(O16=8,4,IF(O16=9,2,IF(O16=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(P16=1,25,IF(P16=2,18,IF(P16=3,15,IF(P16=4,12,IF(P16=5,10,IF(P16=6,8,IF(P16=7,6,IF(P16=8,4,IF(P16=9,2,IF(P16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q17" s="8">
@@ -2536,43 +2560,43 @@
         <v>6</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
+        <f>IF(R16=1,25,IF(R16=2,18,IF(R16=3,15,IF(R16=4,12,IF(R16=5,10,IF(R16=6,8,IF(R16=7,6,IF(R16=8,4,IF(R16=9,2,IF(R16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(S16=1,25,IF(S16=2,18,IF(S16=3,15,IF(S16=4,12,IF(S16=5,10,IF(S16=6,8,IF(S16=7,6,IF(S16=8,4,IF(S16=9,2,IF(S16=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(T16=1,25,IF(T16=2,18,IF(T16=3,15,IF(T16=4,12,IF(T16=5,10,IF(T16=6,8,IF(T16=7,6,IF(T16=8,4,IF(T16=9,2,IF(T16=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(U16=1,25,IF(U16=2,18,IF(U16=3,15,IF(U16=4,12,IF(U16=5,10,IF(U16=6,8,IF(U16=7,6,IF(U16=8,4,IF(U16=9,2,IF(U16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(V16=1,25,IF(V16=2,18,IF(V16=3,15,IF(V16=4,12,IF(V16=5,10,IF(V16=6,8,IF(V16=7,6,IF(V16=8,4,IF(V16=9,2,IF(V16=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(W16=1,25,IF(W16=2,18,IF(W16=3,15,IF(W16=4,12,IF(W16=5,10,IF(W16=6,8,IF(W16=7,6,IF(W16=8,4,IF(W16=9,2,IF(W16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(X16=1,25,IF(X16=2,18,IF(X16=3,15,IF(X16=4,12,IF(X16=5,10,IF(X16=6,8,IF(X16=7,6,IF(X16=8,4,IF(X16=9,2,IF(X16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Y16=1,25,IF(Y16=2,18,IF(Y16=3,15,IF(Y16=4,12,IF(Y16=5,10,IF(Y16=6,8,IF(Y16=7,6,IF(Y16=8,4,IF(Y16=9,2,IF(Y16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Z16=1,25,IF(Z16=2,18,IF(Z16=3,15,IF(Z16=4,12,IF(Z16=5,10,IF(Z16=6,8,IF(Z16=7,6,IF(Z16=8,4,IF(Z16=9,2,IF(Z16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -2647,7 +2671,9 @@
       <c r="V18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>4</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -2661,11 +2687,11 @@
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AE18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2675,47 +2701,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:P19" si="16">IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
+        <f>IF(F18=1,25,IF(F18=2,18,IF(F18=3,15,IF(F18=4,12,IF(F18=5,10,IF(F18=6,8,IF(F18=7,6,IF(F18=8,4,IF(F18=9,2,IF(F18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(G18=1,25,IF(G18=2,18,IF(G18=3,15,IF(G18=4,12,IF(G18=5,10,IF(G18=6,8,IF(G18=7,6,IF(G18=8,4,IF(G18=9,2,IF(G18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(H18=1,25,IF(H18=2,18,IF(H18=3,15,IF(H18=4,12,IF(H18=5,10,IF(H18=6,8,IF(H18=7,6,IF(H18=8,4,IF(H18=9,2,IF(H18=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(I18=1,25,IF(I18=2,18,IF(I18=3,15,IF(I18=4,12,IF(I18=5,10,IF(I18=6,8,IF(I18=7,6,IF(I18=8,4,IF(I18=9,2,IF(I18=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(J18=1,25,IF(J18=2,18,IF(J18=3,15,IF(J18=4,12,IF(J18=5,10,IF(J18=6,8,IF(J18=7,6,IF(J18=8,4,IF(J18=9,2,IF(J18=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(K18=1,25,IF(K18=2,18,IF(K18=3,15,IF(K18=4,12,IF(K18=5,10,IF(K18=6,8,IF(K18=7,6,IF(K18=8,4,IF(K18=9,2,IF(K18=10,1,0))))))))))</f>
         <v>15</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(L18=1,25,IF(L18=2,18,IF(L18=3,15,IF(L18=4,12,IF(L18=5,10,IF(L18=6,8,IF(L18=7,6,IF(L18=8,4,IF(L18=9,2,IF(L18=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(M18=1,25,IF(M18=2,18,IF(M18=3,15,IF(M18=4,12,IF(M18=5,10,IF(M18=6,8,IF(M18=7,6,IF(M18=8,4,IF(M18=9,2,IF(M18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(N18=1,25,IF(N18=2,18,IF(N18=3,15,IF(N18=4,12,IF(N18=5,10,IF(N18=6,8,IF(N18=7,6,IF(N18=8,4,IF(N18=9,2,IF(N18=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(O18=1,25,IF(O18=2,18,IF(O18=3,15,IF(O18=4,12,IF(O18=5,10,IF(O18=6,8,IF(O18=7,6,IF(O18=8,4,IF(O18=9,2,IF(O18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(P18=1,25,IF(P18=2,18,IF(P18=3,15,IF(P18=4,12,IF(P18=5,10,IF(P18=6,8,IF(P18=7,6,IF(P18=8,4,IF(P18=9,2,IF(P18=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="Q19" s="8">
@@ -2723,43 +2749,43 @@
         <v>4</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
+        <f>IF(R18=1,25,IF(R18=2,18,IF(R18=3,15,IF(R18=4,12,IF(R18=5,10,IF(R18=6,8,IF(R18=7,6,IF(R18=8,4,IF(R18=9,2,IF(R18=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(S18=1,25,IF(S18=2,18,IF(S18=3,15,IF(S18=4,12,IF(S18=5,10,IF(S18=6,8,IF(S18=7,6,IF(S18=8,4,IF(S18=9,2,IF(S18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(T18=1,25,IF(T18=2,18,IF(T18=3,15,IF(T18=4,12,IF(T18=5,10,IF(T18=6,8,IF(T18=7,6,IF(T18=8,4,IF(T18=9,2,IF(T18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(U18=1,25,IF(U18=2,18,IF(U18=3,15,IF(U18=4,12,IF(U18=5,10,IF(U18=6,8,IF(U18=7,6,IF(U18=8,4,IF(U18=9,2,IF(U18=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(V18=1,25,IF(V18=2,18,IF(V18=3,15,IF(V18=4,12,IF(V18=5,10,IF(V18=6,8,IF(V18=7,6,IF(V18=8,4,IF(V18=9,2,IF(V18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>IF(W18=1,25,IF(W18=2,18,IF(W18=3,15,IF(W18=4,12,IF(W18=5,10,IF(W18=6,8,IF(W18=7,6,IF(W18=8,4,IF(W18=9,2,IF(W18=10,1,0))))))))))</f>
+        <v>12</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Z18=1,25,IF(Z18=2,18,IF(Z18=3,15,IF(Z18=4,12,IF(Z18=5,10,IF(Z18=6,8,IF(Z18=7,6,IF(Z18=8,4,IF(Z18=9,2,IF(Z18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -2834,7 +2860,9 @@
       <c r="V20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>9</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -2847,11 +2875,11 @@
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AA21)+AB20+AC20</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2861,47 +2889,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:P21" si="18">IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
+        <f>IF(F20=1,25,IF(F20=2,18,IF(F20=3,15,IF(F20=4,12,IF(F20=5,10,IF(F20=6,8,IF(F20=7,6,IF(F20=8,4,IF(F20=9,2,IF(F20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(G20=1,25,IF(G20=2,18,IF(G20=3,15,IF(G20=4,12,IF(G20=5,10,IF(G20=6,8,IF(G20=7,6,IF(G20=8,4,IF(G20=9,2,IF(G20=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(H20=1,25,IF(H20=2,18,IF(H20=3,15,IF(H20=4,12,IF(H20=5,10,IF(H20=6,8,IF(H20=7,6,IF(H20=8,4,IF(H20=9,2,IF(H20=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(I20=1,25,IF(I20=2,18,IF(I20=3,15,IF(I20=4,12,IF(I20=5,10,IF(I20=6,8,IF(I20=7,6,IF(I20=8,4,IF(I20=9,2,IF(I20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(J20=1,25,IF(J20=2,18,IF(J20=3,15,IF(J20=4,12,IF(J20=5,10,IF(J20=6,8,IF(J20=7,6,IF(J20=8,4,IF(J20=9,2,IF(J20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(K20=1,25,IF(K20=2,18,IF(K20=3,15,IF(K20=4,12,IF(K20=5,10,IF(K20=6,8,IF(K20=7,6,IF(K20=8,4,IF(K20=9,2,IF(K20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(L20=1,25,IF(L20=2,18,IF(L20=3,15,IF(L20=4,12,IF(L20=5,10,IF(L20=6,8,IF(L20=7,6,IF(L20=8,4,IF(L20=9,2,IF(L20=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(M20=1,25,IF(M20=2,18,IF(M20=3,15,IF(M20=4,12,IF(M20=5,10,IF(M20=6,8,IF(M20=7,6,IF(M20=8,4,IF(M20=9,2,IF(M20=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(N20=1,25,IF(N20=2,18,IF(N20=3,15,IF(N20=4,12,IF(N20=5,10,IF(N20=6,8,IF(N20=7,6,IF(N20=8,4,IF(N20=9,2,IF(N20=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(O20=1,25,IF(O20=2,18,IF(O20=3,15,IF(O20=4,12,IF(O20=5,10,IF(O20=6,8,IF(O20=7,6,IF(O20=8,4,IF(O20=9,2,IF(O20=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(P20=1,25,IF(P20=2,18,IF(P20=3,15,IF(P20=4,12,IF(P20=5,10,IF(P20=6,8,IF(P20=7,6,IF(P20=8,4,IF(P20=9,2,IF(P20=10,1,0))))))))))</f>
         <v>12</v>
       </c>
       <c r="Q21" s="8">
@@ -2909,43 +2937,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
+        <f>IF(R20=1,25,IF(R20=2,18,IF(R20=3,15,IF(R20=4,12,IF(R20=5,10,IF(R20=6,8,IF(R20=7,6,IF(R20=8,4,IF(R20=9,2,IF(R20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(S20=1,25,IF(S20=2,18,IF(S20=3,15,IF(S20=4,12,IF(S20=5,10,IF(S20=6,8,IF(S20=7,6,IF(S20=8,4,IF(S20=9,2,IF(S20=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(T20=1,25,IF(T20=2,18,IF(T20=3,15,IF(T20=4,12,IF(T20=5,10,IF(T20=6,8,IF(T20=7,6,IF(T20=8,4,IF(T20=9,2,IF(T20=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(U20=1,25,IF(U20=2,18,IF(U20=3,15,IF(U20=4,12,IF(U20=5,10,IF(U20=6,8,IF(U20=7,6,IF(U20=8,4,IF(U20=9,2,IF(U20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(V20=1,25,IF(V20=2,18,IF(V20=3,15,IF(V20=4,12,IF(V20=5,10,IF(V20=6,8,IF(V20=7,6,IF(V20=8,4,IF(V20=9,2,IF(V20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>IF(W20=1,25,IF(W20=2,18,IF(W20=3,15,IF(W20=4,12,IF(W20=5,10,IF(W20=6,8,IF(W20=7,6,IF(W20=8,4,IF(W20=9,2,IF(W20=10,1,0))))))))))</f>
+        <v>2</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Z20=1,25,IF(Z20=2,18,IF(Z20=3,15,IF(Z20=4,12,IF(Z20=5,10,IF(Z20=6,8,IF(Z20=7,6,IF(Z20=8,4,IF(Z20=9,2,IF(Z20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(AA20=1,25,IF(AA20=2,18,IF(AA20=3,15,IF(AA20=4,12,IF(AA20=5,10,IF(AA20=6,8,IF(AA20=7,6,IF(AA20=8,4,IF(AA20=9,2,IF(AA20=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -3020,7 +3048,9 @@
       <c r="V22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W22" s="7"/>
+      <c r="W22" s="7">
+        <v>13</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -3047,47 +3077,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f t="shared" ref="F23:P23" si="20">IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
+        <f>IF(F22=1,25,IF(F22=2,18,IF(F22=3,15,IF(F22=4,12,IF(F22=5,10,IF(F22=6,8,IF(F22=7,6,IF(F22=8,4,IF(F22=9,2,IF(F22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(G22=1,25,IF(G22=2,18,IF(G22=3,15,IF(G22=4,12,IF(G22=5,10,IF(G22=6,8,IF(G22=7,6,IF(G22=8,4,IF(G22=9,2,IF(G22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(H22=1,25,IF(H22=2,18,IF(H22=3,15,IF(H22=4,12,IF(H22=5,10,IF(H22=6,8,IF(H22=7,6,IF(H22=8,4,IF(H22=9,2,IF(H22=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(I22=1,25,IF(I22=2,18,IF(I22=3,15,IF(I22=4,12,IF(I22=5,10,IF(I22=6,8,IF(I22=7,6,IF(I22=8,4,IF(I22=9,2,IF(I22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(J22=1,25,IF(J22=2,18,IF(J22=3,15,IF(J22=4,12,IF(J22=5,10,IF(J22=6,8,IF(J22=7,6,IF(J22=8,4,IF(J22=9,2,IF(J22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(K22=1,25,IF(K22=2,18,IF(K22=3,15,IF(K22=4,12,IF(K22=5,10,IF(K22=6,8,IF(K22=7,6,IF(K22=8,4,IF(K22=9,2,IF(K22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(L22=1,25,IF(L22=2,18,IF(L22=3,15,IF(L22=4,12,IF(L22=5,10,IF(L22=6,8,IF(L22=7,6,IF(L22=8,4,IF(L22=9,2,IF(L22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(M22=1,25,IF(M22=2,18,IF(M22=3,15,IF(M22=4,12,IF(M22=5,10,IF(M22=6,8,IF(M22=7,6,IF(M22=8,4,IF(M22=9,2,IF(M22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(N22=1,25,IF(N22=2,18,IF(N22=3,15,IF(N22=4,12,IF(N22=5,10,IF(N22=6,8,IF(N22=7,6,IF(N22=8,4,IF(N22=9,2,IF(N22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(O22=1,25,IF(O22=2,18,IF(O22=3,15,IF(O22=4,12,IF(O22=5,10,IF(O22=6,8,IF(O22=7,6,IF(O22=8,4,IF(O22=9,2,IF(O22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(P22=1,25,IF(P22=2,18,IF(P22=3,15,IF(P22=4,12,IF(P22=5,10,IF(P22=6,8,IF(P22=7,6,IF(P22=8,4,IF(P22=9,2,IF(P22=10,1,0))))))))))</f>
         <v>25</v>
       </c>
       <c r="Q23" s="8">
@@ -3095,43 +3125,43 @@
         <v>3</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
+        <f>IF(R22=1,25,IF(R22=2,18,IF(R22=3,15,IF(R22=4,12,IF(R22=5,10,IF(R22=6,8,IF(R22=7,6,IF(R22=8,4,IF(R22=9,2,IF(R22=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(S22=1,25,IF(S22=2,18,IF(S22=3,15,IF(S22=4,12,IF(S22=5,10,IF(S22=6,8,IF(S22=7,6,IF(S22=8,4,IF(S22=9,2,IF(S22=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(T22=1,25,IF(T22=2,18,IF(T22=3,15,IF(T22=4,12,IF(T22=5,10,IF(T22=6,8,IF(T22=7,6,IF(T22=8,4,IF(T22=9,2,IF(T22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(U22=1,25,IF(U22=2,18,IF(U22=3,15,IF(U22=4,12,IF(U22=5,10,IF(U22=6,8,IF(U22=7,6,IF(U22=8,4,IF(U22=9,2,IF(U22=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(V22=1,25,IF(V22=2,18,IF(V22=3,15,IF(V22=4,12,IF(V22=5,10,IF(V22=6,8,IF(V22=7,6,IF(V22=8,4,IF(V22=9,2,IF(V22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(W22=1,25,IF(W22=2,18,IF(W22=3,15,IF(W22=4,12,IF(W22=5,10,IF(W22=6,8,IF(W22=7,6,IF(W22=8,4,IF(W22=9,2,IF(W22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -3206,7 +3236,9 @@
       <c r="V24" s="7">
         <v>10</v>
       </c>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7">
+        <v>7</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -3219,11 +3251,11 @@
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3233,47 +3265,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f t="shared" ref="F25:P25" si="22">IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
+        <f>IF(F24=1,25,IF(F24=2,18,IF(F24=3,15,IF(F24=4,12,IF(F24=5,10,IF(F24=6,8,IF(F24=7,6,IF(F24=8,4,IF(F24=9,2,IF(F24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(G24=1,25,IF(G24=2,18,IF(G24=3,15,IF(G24=4,12,IF(G24=5,10,IF(G24=6,8,IF(G24=7,6,IF(G24=8,4,IF(G24=9,2,IF(G24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(H24=1,25,IF(H24=2,18,IF(H24=3,15,IF(H24=4,12,IF(H24=5,10,IF(H24=6,8,IF(H24=7,6,IF(H24=8,4,IF(H24=9,2,IF(H24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(I24=1,25,IF(I24=2,18,IF(I24=3,15,IF(I24=4,12,IF(I24=5,10,IF(I24=6,8,IF(I24=7,6,IF(I24=8,4,IF(I24=9,2,IF(I24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(J24=1,25,IF(J24=2,18,IF(J24=3,15,IF(J24=4,12,IF(J24=5,10,IF(J24=6,8,IF(J24=7,6,IF(J24=8,4,IF(J24=9,2,IF(J24=10,1,0))))))))))</f>
         <v>10</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(K24=1,25,IF(K24=2,18,IF(K24=3,15,IF(K24=4,12,IF(K24=5,10,IF(K24=6,8,IF(K24=7,6,IF(K24=8,4,IF(K24=9,2,IF(K24=10,1,0))))))))))</f>
         <v>18</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(L24=1,25,IF(L24=2,18,IF(L24=3,15,IF(L24=4,12,IF(L24=5,10,IF(L24=6,8,IF(L24=7,6,IF(L24=8,4,IF(L24=9,2,IF(L24=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(M24=1,25,IF(M24=2,18,IF(M24=3,15,IF(M24=4,12,IF(M24=5,10,IF(M24=6,8,IF(M24=7,6,IF(M24=8,4,IF(M24=9,2,IF(M24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(N24=1,25,IF(N24=2,18,IF(N24=3,15,IF(N24=4,12,IF(N24=5,10,IF(N24=6,8,IF(N24=7,6,IF(N24=8,4,IF(N24=9,2,IF(N24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(O24=1,25,IF(O24=2,18,IF(O24=3,15,IF(O24=4,12,IF(O24=5,10,IF(O24=6,8,IF(O24=7,6,IF(O24=8,4,IF(O24=9,2,IF(O24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(P24=1,25,IF(P24=2,18,IF(P24=3,15,IF(P24=4,12,IF(P24=5,10,IF(P24=6,8,IF(P24=7,6,IF(P24=8,4,IF(P24=9,2,IF(P24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q25" s="8">
@@ -3281,43 +3313,43 @@
         <v>5</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
+        <f>IF(R24=1,25,IF(R24=2,18,IF(R24=3,15,IF(R24=4,12,IF(R24=5,10,IF(R24=6,8,IF(R24=7,6,IF(R24=8,4,IF(R24=9,2,IF(R24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(S24=1,25,IF(S24=2,18,IF(S24=3,15,IF(S24=4,12,IF(S24=5,10,IF(S24=6,8,IF(S24=7,6,IF(S24=8,4,IF(S24=9,2,IF(S24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(T24=1,25,IF(T24=2,18,IF(T24=3,15,IF(T24=4,12,IF(T24=5,10,IF(T24=6,8,IF(T24=7,6,IF(T24=8,4,IF(T24=9,2,IF(T24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(U24=1,25,IF(U24=2,18,IF(U24=3,15,IF(U24=4,12,IF(U24=5,10,IF(U24=6,8,IF(U24=7,6,IF(U24=8,4,IF(U24=9,2,IF(U24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(V24=1,25,IF(V24=2,18,IF(V24=3,15,IF(V24=4,12,IF(V24=5,10,IF(V24=6,8,IF(V24=7,6,IF(V24=8,4,IF(V24=9,2,IF(V24=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>IF(W24=1,25,IF(W24=2,18,IF(W24=3,15,IF(W24=4,12,IF(W24=5,10,IF(W24=6,8,IF(W24=7,6,IF(W24=8,4,IF(W24=9,2,IF(W24=10,1,0))))))))))</f>
+        <v>6</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(X24=1,25,IF(X24=2,18,IF(X24=3,15,IF(X24=4,12,IF(X24=5,10,IF(X24=6,8,IF(X24=7,6,IF(X24=8,4,IF(X24=9,2,IF(X24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Y24=1,25,IF(Y24=2,18,IF(Y24=3,15,IF(Y24=4,12,IF(Y24=5,10,IF(Y24=6,8,IF(Y24=7,6,IF(Y24=8,4,IF(Y24=9,2,IF(Y24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Z24=1,25,IF(Z24=2,18,IF(Z24=3,15,IF(Z24=4,12,IF(Z24=5,10,IF(Z24=6,8,IF(Z24=7,6,IF(Z24=8,4,IF(Z24=9,2,IF(Z24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(AA24=1,25,IF(AA24=2,18,IF(AA24=3,15,IF(AA24=4,12,IF(AA24=5,10,IF(AA24=6,8,IF(AA24=7,6,IF(AA24=8,4,IF(AA24=9,2,IF(AA24=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -3392,7 +3424,9 @@
       <c r="V26" s="7">
         <v>12</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="W26" s="7">
+        <v>14</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -3419,47 +3453,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f t="shared" ref="F27:P27" si="24">IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
+        <f>IF(F26=1,25,IF(F26=2,18,IF(F26=3,15,IF(F26=4,12,IF(F26=5,10,IF(F26=6,8,IF(F26=7,6,IF(F26=8,4,IF(F26=9,2,IF(F26=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(G26=1,25,IF(G26=2,18,IF(G26=3,15,IF(G26=4,12,IF(G26=5,10,IF(G26=6,8,IF(G26=7,6,IF(G26=8,4,IF(G26=9,2,IF(G26=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(H26=1,25,IF(H26=2,18,IF(H26=3,15,IF(H26=4,12,IF(H26=5,10,IF(H26=6,8,IF(H26=7,6,IF(H26=8,4,IF(H26=9,2,IF(H26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(I26=1,25,IF(I26=2,18,IF(I26=3,15,IF(I26=4,12,IF(I26=5,10,IF(I26=6,8,IF(I26=7,6,IF(I26=8,4,IF(I26=9,2,IF(I26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(J26=1,25,IF(J26=2,18,IF(J26=3,15,IF(J26=4,12,IF(J26=5,10,IF(J26=6,8,IF(J26=7,6,IF(J26=8,4,IF(J26=9,2,IF(J26=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(K26=1,25,IF(K26=2,18,IF(K26=3,15,IF(K26=4,12,IF(K26=5,10,IF(K26=6,8,IF(K26=7,6,IF(K26=8,4,IF(K26=9,2,IF(K26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(L26=1,25,IF(L26=2,18,IF(L26=3,15,IF(L26=4,12,IF(L26=5,10,IF(L26=6,8,IF(L26=7,6,IF(L26=8,4,IF(L26=9,2,IF(L26=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(M26=1,25,IF(M26=2,18,IF(M26=3,15,IF(M26=4,12,IF(M26=5,10,IF(M26=6,8,IF(M26=7,6,IF(M26=8,4,IF(M26=9,2,IF(M26=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(N26=1,25,IF(N26=2,18,IF(N26=3,15,IF(N26=4,12,IF(N26=5,10,IF(N26=6,8,IF(N26=7,6,IF(N26=8,4,IF(N26=9,2,IF(N26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(O26=1,25,IF(O26=2,18,IF(O26=3,15,IF(O26=4,12,IF(O26=5,10,IF(O26=6,8,IF(O26=7,6,IF(O26=8,4,IF(O26=9,2,IF(O26=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(P26=1,25,IF(P26=2,18,IF(P26=3,15,IF(P26=4,12,IF(P26=5,10,IF(P26=6,8,IF(P26=7,6,IF(P26=8,4,IF(P26=9,2,IF(P26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -3467,43 +3501,43 @@
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
+        <f>IF(R26=1,25,IF(R26=2,18,IF(R26=3,15,IF(R26=4,12,IF(R26=5,10,IF(R26=6,8,IF(R26=7,6,IF(R26=8,4,IF(R26=9,2,IF(R26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(S26=1,25,IF(S26=2,18,IF(S26=3,15,IF(S26=4,12,IF(S26=5,10,IF(S26=6,8,IF(S26=7,6,IF(S26=8,4,IF(S26=9,2,IF(S26=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(T26=1,25,IF(T26=2,18,IF(T26=3,15,IF(T26=4,12,IF(T26=5,10,IF(T26=6,8,IF(T26=7,6,IF(T26=8,4,IF(T26=9,2,IF(T26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(U26=1,25,IF(U26=2,18,IF(U26=3,15,IF(U26=4,12,IF(U26=5,10,IF(U26=6,8,IF(U26=7,6,IF(U26=8,4,IF(U26=9,2,IF(U26=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(V26=1,25,IF(V26=2,18,IF(V26=3,15,IF(V26=4,12,IF(V26=5,10,IF(V26=6,8,IF(V26=7,6,IF(V26=8,4,IF(V26=9,2,IF(V26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(W26=1,25,IF(W26=2,18,IF(W26=3,15,IF(W26=4,12,IF(W26=5,10,IF(W26=6,8,IF(W26=7,6,IF(W26=8,4,IF(W26=9,2,IF(W26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(X26=1,25,IF(X26=2,18,IF(X26=3,15,IF(X26=4,12,IF(X26=5,10,IF(X26=6,8,IF(X26=7,6,IF(X26=8,4,IF(X26=9,2,IF(X26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Z26=1,25,IF(Z26=2,18,IF(Z26=3,15,IF(Z26=4,12,IF(Z26=5,10,IF(Z26=6,8,IF(Z26=7,6,IF(Z26=8,4,IF(Z26=9,2,IF(Z26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(AA26=1,25,IF(AA26=2,18,IF(AA26=3,15,IF(AA26=4,12,IF(AA26=5,10,IF(AA26=6,8,IF(AA26=7,6,IF(AA26=8,4,IF(AA26=9,2,IF(AA26=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -3578,7 +3612,9 @@
       <c r="V28" s="7">
         <v>9</v>
       </c>
-      <c r="W28" s="7"/>
+      <c r="W28" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -3605,47 +3641,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f t="shared" ref="F29:P29" si="26">IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
+        <f>IF(F28=1,25,IF(F28=2,18,IF(F28=3,15,IF(F28=4,12,IF(F28=5,10,IF(F28=6,8,IF(F28=7,6,IF(F28=8,4,IF(F28=9,2,IF(F28=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(G28=1,25,IF(G28=2,18,IF(G28=3,15,IF(G28=4,12,IF(G28=5,10,IF(G28=6,8,IF(G28=7,6,IF(G28=8,4,IF(G28=9,2,IF(G28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(H28=1,25,IF(H28=2,18,IF(H28=3,15,IF(H28=4,12,IF(H28=5,10,IF(H28=6,8,IF(H28=7,6,IF(H28=8,4,IF(H28=9,2,IF(H28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(I28=1,25,IF(I28=2,18,IF(I28=3,15,IF(I28=4,12,IF(I28=5,10,IF(I28=6,8,IF(I28=7,6,IF(I28=8,4,IF(I28=9,2,IF(I28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(J28=1,25,IF(J28=2,18,IF(J28=3,15,IF(J28=4,12,IF(J28=5,10,IF(J28=6,8,IF(J28=7,6,IF(J28=8,4,IF(J28=9,2,IF(J28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(K28=1,25,IF(K28=2,18,IF(K28=3,15,IF(K28=4,12,IF(K28=5,10,IF(K28=6,8,IF(K28=7,6,IF(K28=8,4,IF(K28=9,2,IF(K28=10,1,0))))))))))</f>
         <v>6</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(L28=1,25,IF(L28=2,18,IF(L28=3,15,IF(L28=4,12,IF(L28=5,10,IF(L28=6,8,IF(L28=7,6,IF(L28=8,4,IF(L28=9,2,IF(L28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(M28=1,25,IF(M28=2,18,IF(M28=3,15,IF(M28=4,12,IF(M28=5,10,IF(M28=6,8,IF(M28=7,6,IF(M28=8,4,IF(M28=9,2,IF(M28=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(N28=1,25,IF(N28=2,18,IF(N28=3,15,IF(N28=4,12,IF(N28=5,10,IF(N28=6,8,IF(N28=7,6,IF(N28=8,4,IF(N28=9,2,IF(N28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(O28=1,25,IF(O28=2,18,IF(O28=3,15,IF(O28=4,12,IF(O28=5,10,IF(O28=6,8,IF(O28=7,6,IF(O28=8,4,IF(O28=9,2,IF(O28=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(P28=1,25,IF(P28=2,18,IF(P28=3,15,IF(P28=4,12,IF(P28=5,10,IF(P28=6,8,IF(P28=7,6,IF(P28=8,4,IF(P28=9,2,IF(P28=10,1,0))))))))))</f>
         <v>8</v>
       </c>
       <c r="Q29" s="8">
@@ -3653,43 +3689,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
+        <f>IF(R28=1,25,IF(R28=2,18,IF(R28=3,15,IF(R28=4,12,IF(R28=5,10,IF(R28=6,8,IF(R28=7,6,IF(R28=8,4,IF(R28=9,2,IF(R28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(S28=1,25,IF(S28=2,18,IF(S28=3,15,IF(S28=4,12,IF(S28=5,10,IF(S28=6,8,IF(S28=7,6,IF(S28=8,4,IF(S28=9,2,IF(S28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(T28=1,25,IF(T28=2,18,IF(T28=3,15,IF(T28=4,12,IF(T28=5,10,IF(T28=6,8,IF(T28=7,6,IF(T28=8,4,IF(T28=9,2,IF(T28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(U28=1,25,IF(U28=2,18,IF(U28=3,15,IF(U28=4,12,IF(U28=5,10,IF(U28=6,8,IF(U28=7,6,IF(U28=8,4,IF(U28=9,2,IF(U28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(V28=1,25,IF(V28=2,18,IF(V28=3,15,IF(V28=4,12,IF(V28=5,10,IF(V28=6,8,IF(V28=7,6,IF(V28=8,4,IF(V28=9,2,IF(V28=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(W28=1,25,IF(W28=2,18,IF(W28=3,15,IF(W28=4,12,IF(W28=5,10,IF(W28=6,8,IF(W28=7,6,IF(W28=8,4,IF(W28=9,2,IF(W28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(X28=1,25,IF(X28=2,18,IF(X28=3,15,IF(X28=4,12,IF(X28=5,10,IF(X28=6,8,IF(X28=7,6,IF(X28=8,4,IF(X28=9,2,IF(X28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Y28=1,25,IF(Y28=2,18,IF(Y28=3,15,IF(Y28=4,12,IF(Y28=5,10,IF(Y28=6,8,IF(Y28=7,6,IF(Y28=8,4,IF(Y28=9,2,IF(Y28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Z28=1,25,IF(Z28=2,18,IF(Z28=3,15,IF(Z28=4,12,IF(Z28=5,10,IF(Z28=6,8,IF(Z28=7,6,IF(Z28=8,4,IF(Z28=9,2,IF(Z28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(AA28=1,25,IF(AA28=2,18,IF(AA28=3,15,IF(AA28=4,12,IF(AA28=5,10,IF(AA28=6,8,IF(AA28=7,6,IF(AA28=8,4,IF(AA28=9,2,IF(AA28=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -3764,7 +3800,9 @@
       <c r="V30" s="7">
         <v>14</v>
       </c>
-      <c r="W30" s="7"/>
+      <c r="W30" s="7">
+        <v>16</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -3791,47 +3829,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f t="shared" ref="F31:P31" si="28">IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
+        <f>IF(F30=1,25,IF(F30=2,18,IF(F30=3,15,IF(F30=4,12,IF(F30=5,10,IF(F30=6,8,IF(F30=7,6,IF(F30=8,4,IF(F30=9,2,IF(F30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(G30=1,25,IF(G30=2,18,IF(G30=3,15,IF(G30=4,12,IF(G30=5,10,IF(G30=6,8,IF(G30=7,6,IF(G30=8,4,IF(G30=9,2,IF(G30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(H30=1,25,IF(H30=2,18,IF(H30=3,15,IF(H30=4,12,IF(H30=5,10,IF(H30=6,8,IF(H30=7,6,IF(H30=8,4,IF(H30=9,2,IF(H30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(I30=1,25,IF(I30=2,18,IF(I30=3,15,IF(I30=4,12,IF(I30=5,10,IF(I30=6,8,IF(I30=7,6,IF(I30=8,4,IF(I30=9,2,IF(I30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(J30=1,25,IF(J30=2,18,IF(J30=3,15,IF(J30=4,12,IF(J30=5,10,IF(J30=6,8,IF(J30=7,6,IF(J30=8,4,IF(J30=9,2,IF(J30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(K30=1,25,IF(K30=2,18,IF(K30=3,15,IF(K30=4,12,IF(K30=5,10,IF(K30=6,8,IF(K30=7,6,IF(K30=8,4,IF(K30=9,2,IF(K30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(L30=1,25,IF(L30=2,18,IF(L30=3,15,IF(L30=4,12,IF(L30=5,10,IF(L30=6,8,IF(L30=7,6,IF(L30=8,4,IF(L30=9,2,IF(L30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(M30=1,25,IF(M30=2,18,IF(M30=3,15,IF(M30=4,12,IF(M30=5,10,IF(M30=6,8,IF(M30=7,6,IF(M30=8,4,IF(M30=9,2,IF(M30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(N30=1,25,IF(N30=2,18,IF(N30=3,15,IF(N30=4,12,IF(N30=5,10,IF(N30=6,8,IF(N30=7,6,IF(N30=8,4,IF(N30=9,2,IF(N30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(O30=1,25,IF(O30=2,18,IF(O30=3,15,IF(O30=4,12,IF(O30=5,10,IF(O30=6,8,IF(O30=7,6,IF(O30=8,4,IF(O30=9,2,IF(O30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(P30=1,25,IF(P30=2,18,IF(P30=3,15,IF(P30=4,12,IF(P30=5,10,IF(P30=6,8,IF(P30=7,6,IF(P30=8,4,IF(P30=9,2,IF(P30=10,1,0))))))))))</f>
         <v>4</v>
       </c>
       <c r="Q31" s="8">
@@ -3839,43 +3877,43 @@
         <v>9</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
+        <f>IF(R30=1,25,IF(R30=2,18,IF(R30=3,15,IF(R30=4,12,IF(R30=5,10,IF(R30=6,8,IF(R30=7,6,IF(R30=8,4,IF(R30=9,2,IF(R30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(S30=1,25,IF(S30=2,18,IF(S30=3,15,IF(S30=4,12,IF(S30=5,10,IF(S30=6,8,IF(S30=7,6,IF(S30=8,4,IF(S30=9,2,IF(S30=10,1,0))))))))))</f>
         <v>2</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(T30=1,25,IF(T30=2,18,IF(T30=3,15,IF(T30=4,12,IF(T30=5,10,IF(T30=6,8,IF(T30=7,6,IF(T30=8,4,IF(T30=9,2,IF(T30=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(U30=1,25,IF(U30=2,18,IF(U30=3,15,IF(U30=4,12,IF(U30=5,10,IF(U30=6,8,IF(U30=7,6,IF(U30=8,4,IF(U30=9,2,IF(U30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(V30=1,25,IF(V30=2,18,IF(V30=3,15,IF(V30=4,12,IF(V30=5,10,IF(V30=6,8,IF(V30=7,6,IF(V30=8,4,IF(V30=9,2,IF(V30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(W30=1,25,IF(W30=2,18,IF(W30=3,15,IF(W30=4,12,IF(W30=5,10,IF(W30=6,8,IF(W30=7,6,IF(W30=8,4,IF(W30=9,2,IF(W30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(X30=1,25,IF(X30=2,18,IF(X30=3,15,IF(X30=4,12,IF(X30=5,10,IF(X30=6,8,IF(X30=7,6,IF(X30=8,4,IF(X30=9,2,IF(X30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Y30=1,25,IF(Y30=2,18,IF(Y30=3,15,IF(Y30=4,12,IF(Y30=5,10,IF(Y30=6,8,IF(Y30=7,6,IF(Y30=8,4,IF(Y30=9,2,IF(Y30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Z30=1,25,IF(Z30=2,18,IF(Z30=3,15,IF(Z30=4,12,IF(Z30=5,10,IF(Z30=6,8,IF(Z30=7,6,IF(Z30=8,4,IF(Z30=9,2,IF(Z30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(AA30=1,25,IF(AA30=2,18,IF(AA30=3,15,IF(AA30=4,12,IF(AA30=5,10,IF(AA30=6,8,IF(AA30=7,6,IF(AA30=8,4,IF(AA30=9,2,IF(AA30=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -3885,72 +3923,70 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B32" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F32" s="7">
-        <v>18</v>
-      </c>
-      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7">
+        <v>13</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="7">
-        <v>18</v>
-      </c>
       <c r="I32" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J32" s="7">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7">
+        <v>10</v>
+      </c>
+      <c r="L32" s="7">
+        <v>17</v>
+      </c>
+      <c r="M32" s="7">
+        <v>11</v>
+      </c>
+      <c r="N32" s="7">
         <v>15</v>
       </c>
-      <c r="K32" s="7">
-        <v>16</v>
-      </c>
-      <c r="L32" s="7">
-        <v>18</v>
-      </c>
-      <c r="M32" s="7">
-        <v>18</v>
-      </c>
-      <c r="N32" s="7">
-        <v>16</v>
-      </c>
       <c r="O32" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P32" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="7">
-        <v>9</v>
-      </c>
-      <c r="R32" s="7">
-        <v>16</v>
-      </c>
-      <c r="S32" s="7">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="U32" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V32" s="7">
-        <v>15</v>
-      </c>
-      <c r="W32" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="W32" s="7">
+        <v>8</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -3963,11 +3999,11 @@
       </c>
       <c r="AD32" s="7">
         <f>SUM(F33:AA33)+AB32+AC32</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE32" s="7">
         <f>SUM(F33:AA33)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -3977,91 +4013,91 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f t="shared" ref="F33:P33" si="30">IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
+        <f>IF(F32=1,25,IF(F32=2,18,IF(F32=3,15,IF(F32=4,12,IF(F32=5,10,IF(F32=6,8,IF(F32=7,6,IF(F32=8,4,IF(F32=9,2,IF(F32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(G32=1,25,IF(G32=2,18,IF(G32=3,15,IF(G32=4,12,IF(G32=5,10,IF(G32=6,8,IF(G32=7,6,IF(G32=8,4,IF(G32=9,2,IF(G32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(H32=1,25,IF(H32=2,18,IF(H32=3,15,IF(H32=4,12,IF(H32=5,10,IF(H32=6,8,IF(H32=7,6,IF(H32=8,4,IF(H32=9,2,IF(H32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(I32=1,25,IF(I32=2,18,IF(I32=3,15,IF(I32=4,12,IF(I32=5,10,IF(I32=6,8,IF(I32=7,6,IF(I32=8,4,IF(I32=9,2,IF(I32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(J32=1,25,IF(J32=2,18,IF(J32=3,15,IF(J32=4,12,IF(J32=5,10,IF(J32=6,8,IF(J32=7,6,IF(J32=8,4,IF(J32=9,2,IF(J32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f>IF(K32=1,25,IF(K32=2,18,IF(K32=3,15,IF(K32=4,12,IF(K32=5,10,IF(K32=6,8,IF(K32=7,6,IF(K32=8,4,IF(K32=9,2,IF(K32=10,1,0))))))))))</f>
+        <v>1</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(L32=1,25,IF(L32=2,18,IF(L32=3,15,IF(L32=4,12,IF(L32=5,10,IF(L32=6,8,IF(L32=7,6,IF(L32=8,4,IF(L32=9,2,IF(L32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(M32=1,25,IF(M32=2,18,IF(M32=3,15,IF(M32=4,12,IF(M32=5,10,IF(M32=6,8,IF(M32=7,6,IF(M32=8,4,IF(M32=9,2,IF(M32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(N32=1,25,IF(N32=2,18,IF(N32=3,15,IF(N32=4,12,IF(N32=5,10,IF(N32=6,8,IF(N32=7,6,IF(N32=8,4,IF(N32=9,2,IF(N32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(O32=1,25,IF(O32=2,18,IF(O32=3,15,IF(O32=4,12,IF(O32=5,10,IF(O32=6,8,IF(O32=7,6,IF(O32=8,4,IF(O32=9,2,IF(O32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <f>IF(P32=1,25,IF(P32=2,18,IF(P32=3,15,IF(P32=4,12,IF(P32=5,10,IF(P32=6,8,IF(P32=7,6,IF(P32=8,4,IF(P32=9,2,IF(P32=10,1,0))))))))))</f>
+        <v>1</v>
       </c>
       <c r="Q33" s="8">
         <f>IF(Q32=1,25,IF(Q32=2,18,IF(Q32=3,15,IF(Q32=4,12,IF(Q32=5,10,IF(Q32=6,8,IF(Q32=7,6,IF(Q32=8,4,IF(Q32=9,2,IF(Q32=10,1,0))))))))))/2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
+        <f>IF(R32=1,25,IF(R32=2,18,IF(R32=3,15,IF(R32=4,12,IF(R32=5,10,IF(R32=6,8,IF(R32=7,6,IF(R32=8,4,IF(R32=9,2,IF(R32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(S32=1,25,IF(S32=2,18,IF(S32=3,15,IF(S32=4,12,IF(S32=5,10,IF(S32=6,8,IF(S32=7,6,IF(S32=8,4,IF(S32=9,2,IF(S32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f>IF(T32=1,25,IF(T32=2,18,IF(T32=3,15,IF(T32=4,12,IF(T32=5,10,IF(T32=6,8,IF(T32=7,6,IF(T32=8,4,IF(T32=9,2,IF(T32=10,1,0))))))))))</f>
+        <v>4</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(U32=1,25,IF(U32=2,18,IF(U32=3,15,IF(U32=4,12,IF(U32=5,10,IF(U32=6,8,IF(U32=7,6,IF(U32=8,4,IF(U32=9,2,IF(U32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(V32=1,25,IF(V32=2,18,IF(V32=3,15,IF(V32=4,12,IF(V32=5,10,IF(V32=6,8,IF(V32=7,6,IF(V32=8,4,IF(V32=9,2,IF(V32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f>IF(W32=1,25,IF(W32=2,18,IF(W32=3,15,IF(W32=4,12,IF(W32=5,10,IF(W32=6,8,IF(W32=7,6,IF(W32=8,4,IF(W32=9,2,IF(W32=10,1,0))))))))))</f>
+        <v>4</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(X32=1,25,IF(X32=2,18,IF(X32=3,15,IF(X32=4,12,IF(X32=5,10,IF(X32=6,8,IF(X32=7,6,IF(X32=8,4,IF(X32=9,2,IF(X32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Y32=1,25,IF(Y32=2,18,IF(Y32=3,15,IF(Y32=4,12,IF(Y32=5,10,IF(Y32=6,8,IF(Y32=7,6,IF(Y32=8,4,IF(Y32=9,2,IF(Y32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Z32=1,25,IF(Z32=2,18,IF(Z32=3,15,IF(Z32=4,12,IF(Z32=5,10,IF(Z32=6,8,IF(Z32=7,6,IF(Z32=8,4,IF(Z32=9,2,IF(Z32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(AA32=1,25,IF(AA32=2,18,IF(AA32=3,15,IF(AA32=4,12,IF(AA32=5,10,IF(AA32=6,8,IF(AA32=7,6,IF(AA32=8,4,IF(AA32=9,2,IF(AA32=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -4071,68 +4107,74 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="7">
+        <v>18</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="7">
+        <v>18</v>
+      </c>
+      <c r="I34" s="7">
+        <v>16</v>
+      </c>
+      <c r="J34" s="7">
+        <v>15</v>
+      </c>
+      <c r="K34" s="7">
+        <v>16</v>
+      </c>
+      <c r="L34" s="7">
+        <v>18</v>
+      </c>
+      <c r="M34" s="7">
+        <v>18</v>
+      </c>
+      <c r="N34" s="7">
+        <v>16</v>
+      </c>
+      <c r="O34" s="7">
+        <v>14</v>
+      </c>
+      <c r="P34" s="7">
         <v>7</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="Q34" s="7">
+        <v>9</v>
+      </c>
+      <c r="R34" s="7">
+        <v>16</v>
+      </c>
+      <c r="S34" s="7">
         <v>11</v>
       </c>
-      <c r="G34" s="7">
-        <v>13</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="7">
-        <v>12</v>
-      </c>
-      <c r="J34" s="7">
-        <v>11</v>
-      </c>
-      <c r="K34" s="7">
-        <v>10</v>
-      </c>
-      <c r="L34" s="7">
+      <c r="T34" s="7">
+        <v>19</v>
+      </c>
+      <c r="U34" s="7">
         <v>17</v>
       </c>
-      <c r="M34" s="7">
-        <v>11</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="V34" s="7">
         <v>15</v>
       </c>
-      <c r="O34" s="7">
-        <v>15</v>
-      </c>
-      <c r="P34" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>19</v>
-      </c>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7">
-        <v>8</v>
-      </c>
-      <c r="U34" s="7">
-        <v>12</v>
-      </c>
-      <c r="V34" s="7">
-        <v>13</v>
-      </c>
-      <c r="W34" s="7"/>
+      <c r="W34" s="7">
+        <v>17</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -4145,11 +4187,11 @@
       </c>
       <c r="AD34" s="7">
         <f>SUM(F35:AA35)+AB34+AC34</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE34" s="7">
         <f>SUM(F35:AA35)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
@@ -4159,91 +4201,91 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f t="shared" ref="F35:P35" si="32">IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
+        <f>IF(F34=1,25,IF(F34=2,18,IF(F34=3,15,IF(F34=4,12,IF(F34=5,10,IF(F34=6,8,IF(F34=7,6,IF(F34=8,4,IF(F34=9,2,IF(F34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(G34=1,25,IF(G34=2,18,IF(G34=3,15,IF(G34=4,12,IF(G34=5,10,IF(G34=6,8,IF(G34=7,6,IF(G34=8,4,IF(G34=9,2,IF(G34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(H34=1,25,IF(H34=2,18,IF(H34=3,15,IF(H34=4,12,IF(H34=5,10,IF(H34=6,8,IF(H34=7,6,IF(H34=8,4,IF(H34=9,2,IF(H34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(I34=1,25,IF(I34=2,18,IF(I34=3,15,IF(I34=4,12,IF(I34=5,10,IF(I34=6,8,IF(I34=7,6,IF(I34=8,4,IF(I34=9,2,IF(I34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(J34=1,25,IF(J34=2,18,IF(J34=3,15,IF(J34=4,12,IF(J34=5,10,IF(J34=6,8,IF(J34=7,6,IF(J34=8,4,IF(J34=9,2,IF(J34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f>IF(K34=1,25,IF(K34=2,18,IF(K34=3,15,IF(K34=4,12,IF(K34=5,10,IF(K34=6,8,IF(K34=7,6,IF(K34=8,4,IF(K34=9,2,IF(K34=10,1,0))))))))))</f>
+        <v>0</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(L34=1,25,IF(L34=2,18,IF(L34=3,15,IF(L34=4,12,IF(L34=5,10,IF(L34=6,8,IF(L34=7,6,IF(L34=8,4,IF(L34=9,2,IF(L34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(M34=1,25,IF(M34=2,18,IF(M34=3,15,IF(M34=4,12,IF(M34=5,10,IF(M34=6,8,IF(M34=7,6,IF(M34=8,4,IF(M34=9,2,IF(M34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(N34=1,25,IF(N34=2,18,IF(N34=3,15,IF(N34=4,12,IF(N34=5,10,IF(N34=6,8,IF(N34=7,6,IF(N34=8,4,IF(N34=9,2,IF(N34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(O34=1,25,IF(O34=2,18,IF(O34=3,15,IF(O34=4,12,IF(O34=5,10,IF(O34=6,8,IF(O34=7,6,IF(O34=8,4,IF(O34=9,2,IF(O34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f>IF(P34=1,25,IF(P34=2,18,IF(P34=3,15,IF(P34=4,12,IF(P34=5,10,IF(P34=6,8,IF(P34=7,6,IF(P34=8,4,IF(P34=9,2,IF(P34=10,1,0))))))))))</f>
+        <v>6</v>
       </c>
       <c r="Q35" s="8">
         <f>IF(Q34=1,25,IF(Q34=2,18,IF(Q34=3,15,IF(Q34=4,12,IF(Q34=5,10,IF(Q34=6,8,IF(Q34=7,6,IF(Q34=8,4,IF(Q34=9,2,IF(Q34=10,1,0))))))))))/2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
+        <f>IF(R34=1,25,IF(R34=2,18,IF(R34=3,15,IF(R34=4,12,IF(R34=5,10,IF(R34=6,8,IF(R34=7,6,IF(R34=8,4,IF(R34=9,2,IF(R34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(S34=1,25,IF(S34=2,18,IF(S34=3,15,IF(S34=4,12,IF(S34=5,10,IF(S34=6,8,IF(S34=7,6,IF(S34=8,4,IF(S34=9,2,IF(S34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f>IF(T34=1,25,IF(T34=2,18,IF(T34=3,15,IF(T34=4,12,IF(T34=5,10,IF(T34=6,8,IF(T34=7,6,IF(T34=8,4,IF(T34=9,2,IF(T34=10,1,0))))))))))</f>
+        <v>0</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(U34=1,25,IF(U34=2,18,IF(U34=3,15,IF(U34=4,12,IF(U34=5,10,IF(U34=6,8,IF(U34=7,6,IF(U34=8,4,IF(U34=9,2,IF(U34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(V34=1,25,IF(V34=2,18,IF(V34=3,15,IF(V34=4,12,IF(V34=5,10,IF(V34=6,8,IF(V34=7,6,IF(V34=8,4,IF(V34=9,2,IF(V34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(W34=1,25,IF(W34=2,18,IF(W34=3,15,IF(W34=4,12,IF(W34=5,10,IF(W34=6,8,IF(W34=7,6,IF(W34=8,4,IF(W34=9,2,IF(W34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(X34=1,25,IF(X34=2,18,IF(X34=3,15,IF(X34=4,12,IF(X34=5,10,IF(X34=6,8,IF(X34=7,6,IF(X34=8,4,IF(X34=9,2,IF(X34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Y34=1,25,IF(Y34=2,18,IF(Y34=3,15,IF(Y34=4,12,IF(Y34=5,10,IF(Y34=6,8,IF(Y34=7,6,IF(Y34=8,4,IF(Y34=9,2,IF(Y34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Z34=1,25,IF(Z34=2,18,IF(Z34=3,15,IF(Z34=4,12,IF(Z34=5,10,IF(Z34=6,8,IF(Z34=7,6,IF(Z34=8,4,IF(Z34=9,2,IF(Z34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(AA34=1,25,IF(AA34=2,18,IF(AA34=3,15,IF(AA34=4,12,IF(AA34=5,10,IF(AA34=6,8,IF(AA34=7,6,IF(AA34=8,4,IF(AA34=9,2,IF(AA34=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -4318,7 +4360,9 @@
       <c r="V36" s="7">
         <v>11</v>
       </c>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7">
+        <v>11</v>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -4345,47 +4389,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:P37" si="34">IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
+        <f>IF(F36=1,25,IF(F36=2,18,IF(F36=3,15,IF(F36=4,12,IF(F36=5,10,IF(F36=6,8,IF(F36=7,6,IF(F36=8,4,IF(F36=9,2,IF(F36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(G36=1,25,IF(G36=2,18,IF(G36=3,15,IF(G36=4,12,IF(G36=5,10,IF(G36=6,8,IF(G36=7,6,IF(G36=8,4,IF(G36=9,2,IF(G36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(H36=1,25,IF(H36=2,18,IF(H36=3,15,IF(H36=4,12,IF(H36=5,10,IF(H36=6,8,IF(H36=7,6,IF(H36=8,4,IF(H36=9,2,IF(H36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(I36=1,25,IF(I36=2,18,IF(I36=3,15,IF(I36=4,12,IF(I36=5,10,IF(I36=6,8,IF(I36=7,6,IF(I36=8,4,IF(I36=9,2,IF(I36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(J36=1,25,IF(J36=2,18,IF(J36=3,15,IF(J36=4,12,IF(J36=5,10,IF(J36=6,8,IF(J36=7,6,IF(J36=8,4,IF(J36=9,2,IF(J36=10,1,0))))))))))</f>
         <v>1</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(K36=1,25,IF(K36=2,18,IF(K36=3,15,IF(K36=4,12,IF(K36=5,10,IF(K36=6,8,IF(K36=7,6,IF(K36=8,4,IF(K36=9,2,IF(K36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(L36=1,25,IF(L36=2,18,IF(L36=3,15,IF(L36=4,12,IF(L36=5,10,IF(L36=6,8,IF(L36=7,6,IF(L36=8,4,IF(L36=9,2,IF(L36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(M36=1,25,IF(M36=2,18,IF(M36=3,15,IF(M36=4,12,IF(M36=5,10,IF(M36=6,8,IF(M36=7,6,IF(M36=8,4,IF(M36=9,2,IF(M36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(N36=1,25,IF(N36=2,18,IF(N36=3,15,IF(N36=4,12,IF(N36=5,10,IF(N36=6,8,IF(N36=7,6,IF(N36=8,4,IF(N36=9,2,IF(N36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(O36=1,25,IF(O36=2,18,IF(O36=3,15,IF(O36=4,12,IF(O36=5,10,IF(O36=6,8,IF(O36=7,6,IF(O36=8,4,IF(O36=9,2,IF(O36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(P36=1,25,IF(P36=2,18,IF(P36=3,15,IF(P36=4,12,IF(P36=5,10,IF(P36=6,8,IF(P36=7,6,IF(P36=8,4,IF(P36=9,2,IF(P36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -4393,43 +4437,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
+        <f>IF(R36=1,25,IF(R36=2,18,IF(R36=3,15,IF(R36=4,12,IF(R36=5,10,IF(R36=6,8,IF(R36=7,6,IF(R36=8,4,IF(R36=9,2,IF(R36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(S36=1,25,IF(S36=2,18,IF(S36=3,15,IF(S36=4,12,IF(S36=5,10,IF(S36=6,8,IF(S36=7,6,IF(S36=8,4,IF(S36=9,2,IF(S36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(T36=1,25,IF(T36=2,18,IF(T36=3,15,IF(T36=4,12,IF(T36=5,10,IF(T36=6,8,IF(T36=7,6,IF(T36=8,4,IF(T36=9,2,IF(T36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(U36=1,25,IF(U36=2,18,IF(U36=3,15,IF(U36=4,12,IF(U36=5,10,IF(U36=6,8,IF(U36=7,6,IF(U36=8,4,IF(U36=9,2,IF(U36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(V36=1,25,IF(V36=2,18,IF(V36=3,15,IF(V36=4,12,IF(V36=5,10,IF(V36=6,8,IF(V36=7,6,IF(V36=8,4,IF(V36=9,2,IF(V36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(W36=1,25,IF(W36=2,18,IF(W36=3,15,IF(W36=4,12,IF(W36=5,10,IF(W36=6,8,IF(W36=7,6,IF(W36=8,4,IF(W36=9,2,IF(W36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(X36=1,25,IF(X36=2,18,IF(X36=3,15,IF(X36=4,12,IF(X36=5,10,IF(X36=6,8,IF(X36=7,6,IF(X36=8,4,IF(X36=9,2,IF(X36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Y36=1,25,IF(Y36=2,18,IF(Y36=3,15,IF(Y36=4,12,IF(Y36=5,10,IF(Y36=6,8,IF(Y36=7,6,IF(Y36=8,4,IF(Y36=9,2,IF(Y36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Z36=1,25,IF(Z36=2,18,IF(Z36=3,15,IF(Z36=4,12,IF(Z36=5,10,IF(Z36=6,8,IF(Z36=7,6,IF(Z36=8,4,IF(Z36=9,2,IF(Z36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -4504,7 +4548,9 @@
       <c r="V38" s="7">
         <v>16</v>
       </c>
-      <c r="W38" s="7"/>
+      <c r="W38" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4531,47 +4577,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f t="shared" ref="F39:P39" si="36">IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
+        <f>IF(F38=1,25,IF(F38=2,18,IF(F38=3,15,IF(F38=4,12,IF(F38=5,10,IF(F38=6,8,IF(F38=7,6,IF(F38=8,4,IF(F38=9,2,IF(F38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(G38=1,25,IF(G38=2,18,IF(G38=3,15,IF(G38=4,12,IF(G38=5,10,IF(G38=6,8,IF(G38=7,6,IF(G38=8,4,IF(G38=9,2,IF(G38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(H38=1,25,IF(H38=2,18,IF(H38=3,15,IF(H38=4,12,IF(H38=5,10,IF(H38=6,8,IF(H38=7,6,IF(H38=8,4,IF(H38=9,2,IF(H38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(I38=1,25,IF(I38=2,18,IF(I38=3,15,IF(I38=4,12,IF(I38=5,10,IF(I38=6,8,IF(I38=7,6,IF(I38=8,4,IF(I38=9,2,IF(I38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(J38=1,25,IF(J38=2,18,IF(J38=3,15,IF(J38=4,12,IF(J38=5,10,IF(J38=6,8,IF(J38=7,6,IF(J38=8,4,IF(J38=9,2,IF(J38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(K38=1,25,IF(K38=2,18,IF(K38=3,15,IF(K38=4,12,IF(K38=5,10,IF(K38=6,8,IF(K38=7,6,IF(K38=8,4,IF(K38=9,2,IF(K38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(L38=1,25,IF(L38=2,18,IF(L38=3,15,IF(L38=4,12,IF(L38=5,10,IF(L38=6,8,IF(L38=7,6,IF(L38=8,4,IF(L38=9,2,IF(L38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(M38=1,25,IF(M38=2,18,IF(M38=3,15,IF(M38=4,12,IF(M38=5,10,IF(M38=6,8,IF(M38=7,6,IF(M38=8,4,IF(M38=9,2,IF(M38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(N38=1,25,IF(N38=2,18,IF(N38=3,15,IF(N38=4,12,IF(N38=5,10,IF(N38=6,8,IF(N38=7,6,IF(N38=8,4,IF(N38=9,2,IF(N38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(O38=1,25,IF(O38=2,18,IF(O38=3,15,IF(O38=4,12,IF(O38=5,10,IF(O38=6,8,IF(O38=7,6,IF(O38=8,4,IF(O38=9,2,IF(O38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(P38=1,25,IF(P38=2,18,IF(P38=3,15,IF(P38=4,12,IF(P38=5,10,IF(P38=6,8,IF(P38=7,6,IF(P38=8,4,IF(P38=9,2,IF(P38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -4579,43 +4625,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
+        <f>IF(R38=1,25,IF(R38=2,18,IF(R38=3,15,IF(R38=4,12,IF(R38=5,10,IF(R38=6,8,IF(R38=7,6,IF(R38=8,4,IF(R38=9,2,IF(R38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(S38=1,25,IF(S38=2,18,IF(S38=3,15,IF(S38=4,12,IF(S38=5,10,IF(S38=6,8,IF(S38=7,6,IF(S38=8,4,IF(S38=9,2,IF(S38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(T38=1,25,IF(T38=2,18,IF(T38=3,15,IF(T38=4,12,IF(T38=5,10,IF(T38=6,8,IF(T38=7,6,IF(T38=8,4,IF(T38=9,2,IF(T38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(U38=1,25,IF(U38=2,18,IF(U38=3,15,IF(U38=4,12,IF(U38=5,10,IF(U38=6,8,IF(U38=7,6,IF(U38=8,4,IF(U38=9,2,IF(U38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(V38=1,25,IF(V38=2,18,IF(V38=3,15,IF(V38=4,12,IF(V38=5,10,IF(V38=6,8,IF(V38=7,6,IF(V38=8,4,IF(V38=9,2,IF(V38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(W38=1,25,IF(W38=2,18,IF(W38=3,15,IF(W38=4,12,IF(W38=5,10,IF(W38=6,8,IF(W38=7,6,IF(W38=8,4,IF(W38=9,2,IF(W38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(X38=1,25,IF(X38=2,18,IF(X38=3,15,IF(X38=4,12,IF(X38=5,10,IF(X38=6,8,IF(X38=7,6,IF(X38=8,4,IF(X38=9,2,IF(X38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Y38=1,25,IF(Y38=2,18,IF(Y38=3,15,IF(Y38=4,12,IF(Y38=5,10,IF(Y38=6,8,IF(Y38=7,6,IF(Y38=8,4,IF(Y38=9,2,IF(Y38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Z38=1,25,IF(Z38=2,18,IF(Z38=3,15,IF(Z38=4,12,IF(Z38=5,10,IF(Z38=6,8,IF(Z38=7,6,IF(Z38=8,4,IF(Z38=9,2,IF(Z38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(AA38=1,25,IF(AA38=2,18,IF(AA38=3,15,IF(AA38=4,12,IF(AA38=5,10,IF(AA38=6,8,IF(AA38=7,6,IF(AA38=8,4,IF(AA38=9,2,IF(AA38=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -4690,7 +4736,9 @@
       <c r="V40" s="7">
         <v>17</v>
       </c>
-      <c r="W40" s="7"/>
+      <c r="W40" s="7">
+        <v>18</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4717,47 +4765,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41:P41" si="38">IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
+        <f>IF(F40=1,25,IF(F40=2,18,IF(F40=3,15,IF(F40=4,12,IF(F40=5,10,IF(F40=6,8,IF(F40=7,6,IF(F40=8,4,IF(F40=9,2,IF(F40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(G40=1,25,IF(G40=2,18,IF(G40=3,15,IF(G40=4,12,IF(G40=5,10,IF(G40=6,8,IF(G40=7,6,IF(G40=8,4,IF(G40=9,2,IF(G40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(H40=1,25,IF(H40=2,18,IF(H40=3,15,IF(H40=4,12,IF(H40=5,10,IF(H40=6,8,IF(H40=7,6,IF(H40=8,4,IF(H40=9,2,IF(H40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(I40=1,25,IF(I40=2,18,IF(I40=3,15,IF(I40=4,12,IF(I40=5,10,IF(I40=6,8,IF(I40=7,6,IF(I40=8,4,IF(I40=9,2,IF(I40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(J40=1,25,IF(J40=2,18,IF(J40=3,15,IF(J40=4,12,IF(J40=5,10,IF(J40=6,8,IF(J40=7,6,IF(J40=8,4,IF(J40=9,2,IF(J40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(K40=1,25,IF(K40=2,18,IF(K40=3,15,IF(K40=4,12,IF(K40=5,10,IF(K40=6,8,IF(K40=7,6,IF(K40=8,4,IF(K40=9,2,IF(K40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(L40=1,25,IF(L40=2,18,IF(L40=3,15,IF(L40=4,12,IF(L40=5,10,IF(L40=6,8,IF(L40=7,6,IF(L40=8,4,IF(L40=9,2,IF(L40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(M40=1,25,IF(M40=2,18,IF(M40=3,15,IF(M40=4,12,IF(M40=5,10,IF(M40=6,8,IF(M40=7,6,IF(M40=8,4,IF(M40=9,2,IF(M40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(N40=1,25,IF(N40=2,18,IF(N40=3,15,IF(N40=4,12,IF(N40=5,10,IF(N40=6,8,IF(N40=7,6,IF(N40=8,4,IF(N40=9,2,IF(N40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(O40=1,25,IF(O40=2,18,IF(O40=3,15,IF(O40=4,12,IF(O40=5,10,IF(O40=6,8,IF(O40=7,6,IF(O40=8,4,IF(O40=9,2,IF(O40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(P40=1,25,IF(P40=2,18,IF(P40=3,15,IF(P40=4,12,IF(P40=5,10,IF(P40=6,8,IF(P40=7,6,IF(P40=8,4,IF(P40=9,2,IF(P40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -4765,43 +4813,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
+        <f>IF(R40=1,25,IF(R40=2,18,IF(R40=3,15,IF(R40=4,12,IF(R40=5,10,IF(R40=6,8,IF(R40=7,6,IF(R40=8,4,IF(R40=9,2,IF(R40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(S40=1,25,IF(S40=2,18,IF(S40=3,15,IF(S40=4,12,IF(S40=5,10,IF(S40=6,8,IF(S40=7,6,IF(S40=8,4,IF(S40=9,2,IF(S40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(T40=1,25,IF(T40=2,18,IF(T40=3,15,IF(T40=4,12,IF(T40=5,10,IF(T40=6,8,IF(T40=7,6,IF(T40=8,4,IF(T40=9,2,IF(T40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(U40=1,25,IF(U40=2,18,IF(U40=3,15,IF(U40=4,12,IF(U40=5,10,IF(U40=6,8,IF(U40=7,6,IF(U40=8,4,IF(U40=9,2,IF(U40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(V40=1,25,IF(V40=2,18,IF(V40=3,15,IF(V40=4,12,IF(V40=5,10,IF(V40=6,8,IF(V40=7,6,IF(V40=8,4,IF(V40=9,2,IF(V40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(W40=1,25,IF(W40=2,18,IF(W40=3,15,IF(W40=4,12,IF(W40=5,10,IF(W40=6,8,IF(W40=7,6,IF(W40=8,4,IF(W40=9,2,IF(W40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(X40=1,25,IF(X40=2,18,IF(X40=3,15,IF(X40=4,12,IF(X40=5,10,IF(X40=6,8,IF(X40=7,6,IF(X40=8,4,IF(X40=9,2,IF(X40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Y40=1,25,IF(Y40=2,18,IF(Y40=3,15,IF(Y40=4,12,IF(Y40=5,10,IF(Y40=6,8,IF(Y40=7,6,IF(Y40=8,4,IF(Y40=9,2,IF(Y40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Z40=1,25,IF(Z40=2,18,IF(Z40=3,15,IF(Z40=4,12,IF(Z40=5,10,IF(Z40=6,8,IF(Z40=7,6,IF(Z40=8,4,IF(Z40=9,2,IF(Z40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(AA40=1,25,IF(AA40=2,18,IF(AA40=3,15,IF(AA40=4,12,IF(AA40=5,10,IF(AA40=6,8,IF(AA40=7,6,IF(AA40=8,4,IF(AA40=9,2,IF(AA40=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -4874,47 +4922,47 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
-        <f t="shared" ref="G43:Q43" si="40">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
+        <f t="shared" ref="G43:Q43" si="0">IF(G42=1,25,IF(G42=2,18,IF(G42=3,15,IF(G42=4,12,IF(G42=5,10,IF(G42=6,8,IF(G42=7,6,IF(G42=8,4,IF(G42=9,2,IF(G42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="8">
@@ -4922,43 +4970,43 @@
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:AB43" si="41">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
+        <f t="shared" ref="S43:AB43" si="1">IF(S42=1,25,IF(S42=2,18,IF(S42=3,15,IF(S42=4,12,IF(S42=5,10,IF(S42=6,8,IF(S42=7,6,IF(S42=8,4,IF(S42=9,2,IF(S42=10,1,0))))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC43" s="8"/>
@@ -5000,8 +5048,8 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -5162,14 +5210,16 @@
       <c r="V2" s="7">
         <v>1</v>
       </c>
-      <c r="W2" s="7"/>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5179,47 +5229,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:P3" si="0">IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
+        <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
@@ -5227,43 +5277,43 @@
         <v>5</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
+        <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="S3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="U3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="V3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="W3" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
+        <v>10</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -5335,14 +5385,16 @@
       <c r="V4" s="7">
         <v>2</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>2</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5352,47 +5404,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:P5" si="2">IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
+        <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="Q5" s="8">
@@ -5400,43 +5452,43 @@
         <v>3</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
+        <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
+        <v>8</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -5508,7 +5560,9 @@
       <c r="V6" s="7">
         <v>6</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>15</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
@@ -5525,47 +5579,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:P7" si="4">IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
+        <f>IF(F6=1,10,IF(F6=2,8,IF(F6=3,6,IF(F6=4,5,IF(F6=5,4,IF(F6=6,3,IF(F6=7,2,IF(F6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(G6=1,10,IF(G6=2,8,IF(G6=3,6,IF(G6=4,5,IF(G6=5,4,IF(G6=6,3,IF(G6=7,2,IF(G6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(H6=1,10,IF(H6=2,8,IF(H6=3,6,IF(H6=4,5,IF(H6=5,4,IF(H6=6,3,IF(H6=7,2,IF(H6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(I6=1,10,IF(I6=2,8,IF(I6=3,6,IF(I6=4,5,IF(I6=5,4,IF(I6=6,3,IF(I6=7,2,IF(I6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(J6=1,10,IF(J6=2,8,IF(J6=3,6,IF(J6=4,5,IF(J6=5,4,IF(J6=6,3,IF(J6=7,2,IF(J6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(K6=1,10,IF(K6=2,8,IF(K6=3,6,IF(K6=4,5,IF(K6=5,4,IF(K6=6,3,IF(K6=7,2,IF(K6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(L6=1,10,IF(L6=2,8,IF(L6=3,6,IF(L6=4,5,IF(L6=5,4,IF(L6=6,3,IF(L6=7,2,IF(L6=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(M6=1,10,IF(M6=2,8,IF(M6=3,6,IF(M6=4,5,IF(M6=5,4,IF(M6=6,3,IF(M6=7,2,IF(M6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N6=1,10,IF(N6=2,8,IF(N6=3,6,IF(N6=4,5,IF(N6=5,4,IF(N6=6,3,IF(N6=7,2,IF(N6=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(O6=1,10,IF(O6=2,8,IF(O6=3,6,IF(O6=4,5,IF(O6=5,4,IF(O6=6,3,IF(O6=7,2,IF(O6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(P6=1,10,IF(P6=2,8,IF(P6=3,6,IF(P6=4,5,IF(P6=5,4,IF(P6=6,3,IF(P6=7,2,IF(P6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -5573,43 +5627,43 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
+        <f>IF(R6=1,10,IF(R6=2,8,IF(R6=3,6,IF(R6=4,5,IF(R6=5,4,IF(R6=6,3,IF(R6=7,2,IF(R6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(S6=1,10,IF(S6=2,8,IF(S6=3,6,IF(S6=4,5,IF(S6=5,4,IF(S6=6,3,IF(S6=7,2,IF(S6=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(T6=1,10,IF(T6=2,8,IF(T6=3,6,IF(T6=4,5,IF(T6=5,4,IF(T6=6,3,IF(T6=7,2,IF(T6=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(U6=1,10,IF(U6=2,8,IF(U6=3,6,IF(U6=4,5,IF(U6=5,4,IF(U6=6,3,IF(U6=7,2,IF(U6=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(V6=1,10,IF(V6=2,8,IF(V6=3,6,IF(V6=4,5,IF(V6=5,4,IF(V6=6,3,IF(V6=7,2,IF(V6=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(W6=1,10,IF(W6=2,8,IF(W6=3,6,IF(W6=4,5,IF(W6=5,4,IF(W6=6,3,IF(W6=7,2,IF(W6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
@@ -5681,14 +5735,16 @@
       <c r="V8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>3</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5698,47 +5754,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:P9" si="6">IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
+        <f>IF(F8=1,10,IF(F8=2,8,IF(F8=3,6,IF(F8=4,5,IF(F8=5,4,IF(F8=6,3,IF(F8=7,2,IF(F8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(G8=1,10,IF(G8=2,8,IF(G8=3,6,IF(G8=4,5,IF(G8=5,4,IF(G8=6,3,IF(G8=7,2,IF(G8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(H8=1,10,IF(H8=2,8,IF(H8=3,6,IF(H8=4,5,IF(H8=5,4,IF(H8=6,3,IF(H8=7,2,IF(H8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(I8=1,10,IF(I8=2,8,IF(I8=3,6,IF(I8=4,5,IF(I8=5,4,IF(I8=6,3,IF(I8=7,2,IF(I8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(J8=1,10,IF(J8=2,8,IF(J8=3,6,IF(J8=4,5,IF(J8=5,4,IF(J8=6,3,IF(J8=7,2,IF(J8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(K8=1,10,IF(K8=2,8,IF(K8=3,6,IF(K8=4,5,IF(K8=5,4,IF(K8=6,3,IF(K8=7,2,IF(K8=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(L8=1,10,IF(L8=2,8,IF(L8=3,6,IF(L8=4,5,IF(L8=5,4,IF(L8=6,3,IF(L8=7,2,IF(L8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(M8=1,10,IF(M8=2,8,IF(M8=3,6,IF(M8=4,5,IF(M8=5,4,IF(M8=6,3,IF(M8=7,2,IF(M8=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(N8=1,10,IF(N8=2,8,IF(N8=3,6,IF(N8=4,5,IF(N8=5,4,IF(N8=6,3,IF(N8=7,2,IF(N8=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(O8=1,10,IF(O8=2,8,IF(O8=3,6,IF(O8=4,5,IF(O8=5,4,IF(O8=6,3,IF(O8=7,2,IF(O8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(P8=1,10,IF(P8=2,8,IF(P8=3,6,IF(P8=4,5,IF(P8=5,4,IF(P8=6,3,IF(P8=7,2,IF(P8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -5746,43 +5802,43 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
+        <f>IF(R8=1,10,IF(R8=2,8,IF(R8=3,6,IF(R8=4,5,IF(R8=5,4,IF(R8=6,3,IF(R8=7,2,IF(R8=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="S9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(S8=1,10,IF(S8=2,8,IF(S8=3,6,IF(S8=4,5,IF(S8=5,4,IF(S8=6,3,IF(S8=7,2,IF(S8=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="T9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(T8=1,10,IF(T8=2,8,IF(T8=3,6,IF(T8=4,5,IF(T8=5,4,IF(T8=6,3,IF(T8=7,2,IF(T8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(U8=1,10,IF(U8=2,8,IF(U8=3,6,IF(U8=4,5,IF(U8=5,4,IF(U8=6,3,IF(U8=7,2,IF(U8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(V8=1,10,IF(V8=2,8,IF(V8=3,6,IF(V8=4,5,IF(V8=5,4,IF(V8=6,3,IF(V8=7,2,IF(V8=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(W8=1,10,IF(W8=2,8,IF(W8=3,6,IF(W8=4,5,IF(W8=5,4,IF(W8=6,3,IF(W8=7,2,IF(W8=8,1,0))))))))</f>
+        <v>6</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AA8=1,10,IF(AA8=2,8,IF(AA8=3,6,IF(AA8=4,5,IF(AA8=5,4,IF(AA8=6,3,IF(AA8=7,2,IF(AA8=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
@@ -5854,7 +5910,9 @@
       <c r="V10" s="7">
         <v>8</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>10</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -5871,47 +5929,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:P11" si="8">IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
+        <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -5919,43 +5977,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
+        <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -6027,14 +6085,16 @@
       <c r="V12" s="7">
         <v>4</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>5</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>51.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6044,47 +6104,47 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:P13" si="10">IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
+        <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
@@ -6092,43 +6152,43 @@
         <v>0.5</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
+        <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
+        <v>4</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Y12=1,10,IF(Y12=2,8,IF(Y12=3,6,IF(Y12=4,5,IF(Y12=5,4,IF(Y12=6,3,IF(Y12=7,2,IF(Y12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Z12=1,10,IF(Z12=2,8,IF(Z12=3,6,IF(Z12=4,5,IF(Z12=5,4,IF(Z12=6,3,IF(Z12=7,2,IF(Z12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(AA12=1,10,IF(AA12=2,8,IF(AA12=3,6,IF(AA12=4,5,IF(AA12=5,4,IF(AA12=6,3,IF(AA12=7,2,IF(AA12=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -6200,14 +6260,16 @@
       <c r="V14" s="7">
         <v>7</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7">
+        <v>6</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6217,47 +6279,47 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f t="shared" ref="F15:P15" si="12">IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
+        <f>IF(F14=1,10,IF(F14=2,8,IF(F14=3,6,IF(F14=4,5,IF(F14=5,4,IF(F14=6,3,IF(F14=7,2,IF(F14=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(G14=1,10,IF(G14=2,8,IF(G14=3,6,IF(G14=4,5,IF(G14=5,4,IF(G14=6,3,IF(G14=7,2,IF(G14=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(H14=1,10,IF(H14=2,8,IF(H14=3,6,IF(H14=4,5,IF(H14=5,4,IF(H14=6,3,IF(H14=7,2,IF(H14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(I14=1,10,IF(I14=2,8,IF(I14=3,6,IF(I14=4,5,IF(I14=5,4,IF(I14=6,3,IF(I14=7,2,IF(I14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(J14=1,10,IF(J14=2,8,IF(J14=3,6,IF(J14=4,5,IF(J14=5,4,IF(J14=6,3,IF(J14=7,2,IF(J14=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(K14=1,10,IF(K14=2,8,IF(K14=3,6,IF(K14=4,5,IF(K14=5,4,IF(K14=6,3,IF(K14=7,2,IF(K14=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(L14=1,10,IF(L14=2,8,IF(L14=3,6,IF(L14=4,5,IF(L14=5,4,IF(L14=6,3,IF(L14=7,2,IF(L14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(M14=1,10,IF(M14=2,8,IF(M14=3,6,IF(M14=4,5,IF(M14=5,4,IF(M14=6,3,IF(M14=7,2,IF(M14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(N14=1,10,IF(N14=2,8,IF(N14=3,6,IF(N14=4,5,IF(N14=5,4,IF(N14=6,3,IF(N14=7,2,IF(N14=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(O14=1,10,IF(O14=2,8,IF(O14=3,6,IF(O14=4,5,IF(O14=5,4,IF(O14=6,3,IF(O14=7,2,IF(O14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(P14=1,10,IF(P14=2,8,IF(P14=3,6,IF(P14=4,5,IF(P14=5,4,IF(P14=6,3,IF(P14=7,2,IF(P14=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="Q15" s="8">
@@ -6265,43 +6327,43 @@
         <v>0</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
+        <f>IF(R14=1,10,IF(R14=2,8,IF(R14=3,6,IF(R14=4,5,IF(R14=5,4,IF(R14=6,3,IF(R14=7,2,IF(R14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(S14=1,10,IF(S14=2,8,IF(S14=3,6,IF(S14=4,5,IF(S14=5,4,IF(S14=6,3,IF(S14=7,2,IF(S14=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(T14=1,10,IF(T14=2,8,IF(T14=3,6,IF(T14=4,5,IF(T14=5,4,IF(T14=6,3,IF(T14=7,2,IF(T14=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(U14=1,10,IF(U14=2,8,IF(U14=3,6,IF(U14=4,5,IF(U14=5,4,IF(U14=6,3,IF(U14=7,2,IF(U14=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(V14=1,10,IF(V14=2,8,IF(V14=3,6,IF(V14=4,5,IF(V14=5,4,IF(V14=6,3,IF(V14=7,2,IF(V14=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(W14=1,10,IF(W14=2,8,IF(W14=3,6,IF(W14=4,5,IF(W14=5,4,IF(W14=6,3,IF(W14=7,2,IF(W14=8,1,0))))))))</f>
+        <v>3</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -6373,7 +6435,9 @@
       <c r="V16" s="7">
         <v>5</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>12</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -6390,47 +6454,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:P17" si="14">IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
+        <f>IF(F16=1,10,IF(F16=2,8,IF(F16=3,6,IF(F16=4,5,IF(F16=5,4,IF(F16=6,3,IF(F16=7,2,IF(F16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(G16=1,10,IF(G16=2,8,IF(G16=3,6,IF(G16=4,5,IF(G16=5,4,IF(G16=6,3,IF(G16=7,2,IF(G16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(H16=1,10,IF(H16=2,8,IF(H16=3,6,IF(H16=4,5,IF(H16=5,4,IF(H16=6,3,IF(H16=7,2,IF(H16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(I16=1,10,IF(I16=2,8,IF(I16=3,6,IF(I16=4,5,IF(I16=5,4,IF(I16=6,3,IF(I16=7,2,IF(I16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(J16=1,10,IF(J16=2,8,IF(J16=3,6,IF(J16=4,5,IF(J16=5,4,IF(J16=6,3,IF(J16=7,2,IF(J16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(K16=1,10,IF(K16=2,8,IF(K16=3,6,IF(K16=4,5,IF(K16=5,4,IF(K16=6,3,IF(K16=7,2,IF(K16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(L16=1,10,IF(L16=2,8,IF(L16=3,6,IF(L16=4,5,IF(L16=5,4,IF(L16=6,3,IF(L16=7,2,IF(L16=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(M16=1,10,IF(M16=2,8,IF(M16=3,6,IF(M16=4,5,IF(M16=5,4,IF(M16=6,3,IF(M16=7,2,IF(M16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(N16=1,10,IF(N16=2,8,IF(N16=3,6,IF(N16=4,5,IF(N16=5,4,IF(N16=6,3,IF(N16=7,2,IF(N16=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(O16=1,10,IF(O16=2,8,IF(O16=3,6,IF(O16=4,5,IF(O16=5,4,IF(O16=6,3,IF(O16=7,2,IF(O16=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(P16=1,10,IF(P16=2,8,IF(P16=3,6,IF(P16=4,5,IF(P16=5,4,IF(P16=6,3,IF(P16=7,2,IF(P16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q17" s="8">
@@ -6438,43 +6502,43 @@
         <v>2.5</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
+        <f>IF(R16=1,10,IF(R16=2,8,IF(R16=3,6,IF(R16=4,5,IF(R16=5,4,IF(R16=6,3,IF(R16=7,2,IF(R16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(S16=1,10,IF(S16=2,8,IF(S16=3,6,IF(S16=4,5,IF(S16=5,4,IF(S16=6,3,IF(S16=7,2,IF(S16=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(T16=1,10,IF(T16=2,8,IF(T16=3,6,IF(T16=4,5,IF(T16=5,4,IF(T16=6,3,IF(T16=7,2,IF(T16=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(U16=1,10,IF(U16=2,8,IF(U16=3,6,IF(U16=4,5,IF(U16=5,4,IF(U16=6,3,IF(U16=7,2,IF(U16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(V16=1,10,IF(V16=2,8,IF(V16=3,6,IF(V16=4,5,IF(V16=5,4,IF(V16=6,3,IF(V16=7,2,IF(V16=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(W16=1,10,IF(W16=2,8,IF(W16=3,6,IF(W16=4,5,IF(W16=5,4,IF(W16=6,3,IF(W16=7,2,IF(W16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(X16=1,10,IF(X16=2,8,IF(X16=3,6,IF(X16=4,5,IF(X16=5,4,IF(X16=6,3,IF(X16=7,2,IF(X16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Y16=1,10,IF(Y16=2,8,IF(Y16=3,6,IF(Y16=4,5,IF(Y16=5,4,IF(Y16=6,3,IF(Y16=7,2,IF(Y16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -6546,14 +6610,16 @@
       <c r="V18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>4</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>26.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6563,47 +6629,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:P19" si="16">IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
+        <f>IF(F18=1,10,IF(F18=2,8,IF(F18=3,6,IF(F18=4,5,IF(F18=5,4,IF(F18=6,3,IF(F18=7,2,IF(F18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(G18=1,10,IF(G18=2,8,IF(G18=3,6,IF(G18=4,5,IF(G18=5,4,IF(G18=6,3,IF(G18=7,2,IF(G18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(H18=1,10,IF(H18=2,8,IF(H18=3,6,IF(H18=4,5,IF(H18=5,4,IF(H18=6,3,IF(H18=7,2,IF(H18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(I18=1,10,IF(I18=2,8,IF(I18=3,6,IF(I18=4,5,IF(I18=5,4,IF(I18=6,3,IF(I18=7,2,IF(I18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(J18=1,10,IF(J18=2,8,IF(J18=3,6,IF(J18=4,5,IF(J18=5,4,IF(J18=6,3,IF(J18=7,2,IF(J18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(K18=1,10,IF(K18=2,8,IF(K18=3,6,IF(K18=4,5,IF(K18=5,4,IF(K18=6,3,IF(K18=7,2,IF(K18=8,1,0))))))))</f>
         <v>6</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(L18=1,10,IF(L18=2,8,IF(L18=3,6,IF(L18=4,5,IF(L18=5,4,IF(L18=6,3,IF(L18=7,2,IF(L18=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(M18=1,10,IF(M18=2,8,IF(M18=3,6,IF(M18=4,5,IF(M18=5,4,IF(M18=6,3,IF(M18=7,2,IF(M18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(N18=1,10,IF(N18=2,8,IF(N18=3,6,IF(N18=4,5,IF(N18=5,4,IF(N18=6,3,IF(N18=7,2,IF(N18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(O18=1,10,IF(O18=2,8,IF(O18=3,6,IF(O18=4,5,IF(O18=5,4,IF(O18=6,3,IF(O18=7,2,IF(O18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(P18=1,10,IF(P18=2,8,IF(P18=3,6,IF(P18=4,5,IF(P18=5,4,IF(P18=6,3,IF(P18=7,2,IF(P18=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="Q19" s="8">
@@ -6611,43 +6677,43 @@
         <v>1.5</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
+        <f>IF(R18=1,10,IF(R18=2,8,IF(R18=3,6,IF(R18=4,5,IF(R18=5,4,IF(R18=6,3,IF(R18=7,2,IF(R18=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(S18=1,10,IF(S18=2,8,IF(S18=3,6,IF(S18=4,5,IF(S18=5,4,IF(S18=6,3,IF(S18=7,2,IF(S18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(T18=1,10,IF(T18=2,8,IF(T18=3,6,IF(T18=4,5,IF(T18=5,4,IF(T18=6,3,IF(T18=7,2,IF(T18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(U18=1,10,IF(U18=2,8,IF(U18=3,6,IF(U18=4,5,IF(U18=5,4,IF(U18=6,3,IF(U18=7,2,IF(U18=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(V18=1,10,IF(V18=2,8,IF(V18=3,6,IF(V18=4,5,IF(V18=5,4,IF(V18=6,3,IF(V18=7,2,IF(V18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>IF(W18=1,10,IF(W18=2,8,IF(W18=3,6,IF(W18=4,5,IF(W18=5,4,IF(W18=6,3,IF(W18=7,2,IF(W18=8,1,0))))))))</f>
+        <v>5</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -6719,7 +6785,9 @@
       <c r="V20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>9</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -6736,47 +6804,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:P21" si="18">IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
+        <f>IF(F20=1,10,IF(F20=2,8,IF(F20=3,6,IF(F20=4,5,IF(F20=5,4,IF(F20=6,3,IF(F20=7,2,IF(F20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(G20=1,10,IF(G20=2,8,IF(G20=3,6,IF(G20=4,5,IF(G20=5,4,IF(G20=6,3,IF(G20=7,2,IF(G20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(H20=1,10,IF(H20=2,8,IF(H20=3,6,IF(H20=4,5,IF(H20=5,4,IF(H20=6,3,IF(H20=7,2,IF(H20=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(I20=1,10,IF(I20=2,8,IF(I20=3,6,IF(I20=4,5,IF(I20=5,4,IF(I20=6,3,IF(I20=7,2,IF(I20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(J20=1,10,IF(J20=2,8,IF(J20=3,6,IF(J20=4,5,IF(J20=5,4,IF(J20=6,3,IF(J20=7,2,IF(J20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(K20=1,10,IF(K20=2,8,IF(K20=3,6,IF(K20=4,5,IF(K20=5,4,IF(K20=6,3,IF(K20=7,2,IF(K20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(L20=1,10,IF(L20=2,8,IF(L20=3,6,IF(L20=4,5,IF(L20=5,4,IF(L20=6,3,IF(L20=7,2,IF(L20=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(M20=1,10,IF(M20=2,8,IF(M20=3,6,IF(M20=4,5,IF(M20=5,4,IF(M20=6,3,IF(M20=7,2,IF(M20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(N20=1,10,IF(N20=2,8,IF(N20=3,6,IF(N20=4,5,IF(N20=5,4,IF(N20=6,3,IF(N20=7,2,IF(N20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(O20=1,10,IF(O20=2,8,IF(O20=3,6,IF(O20=4,5,IF(O20=5,4,IF(O20=6,3,IF(O20=7,2,IF(O20=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(P20=1,10,IF(P20=2,8,IF(P20=3,6,IF(P20=4,5,IF(P20=5,4,IF(P20=6,3,IF(P20=7,2,IF(P20=8,1,0))))))))</f>
         <v>5</v>
       </c>
       <c r="Q21" s="8">
@@ -6784,43 +6852,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
+        <f>IF(R20=1,10,IF(R20=2,8,IF(R20=3,6,IF(R20=4,5,IF(R20=5,4,IF(R20=6,3,IF(R20=7,2,IF(R20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(S20=1,10,IF(S20=2,8,IF(S20=3,6,IF(S20=4,5,IF(S20=5,4,IF(S20=6,3,IF(S20=7,2,IF(S20=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(T20=1,10,IF(T20=2,8,IF(T20=3,6,IF(T20=4,5,IF(T20=5,4,IF(T20=6,3,IF(T20=7,2,IF(T20=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(U20=1,10,IF(U20=2,8,IF(U20=3,6,IF(U20=4,5,IF(U20=5,4,IF(U20=6,3,IF(U20=7,2,IF(U20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(V20=1,10,IF(V20=2,8,IF(V20=3,6,IF(V20=4,5,IF(V20=5,4,IF(V20=6,3,IF(V20=7,2,IF(V20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(W20=1,10,IF(W20=2,8,IF(W20=3,6,IF(W20=4,5,IF(W20=5,4,IF(W20=6,3,IF(W20=7,2,IF(W20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(X20=1,10,IF(X20=2,8,IF(X20=3,6,IF(X20=4,5,IF(X20=5,4,IF(X20=6,3,IF(X20=7,2,IF(X20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(AA20=1,10,IF(AA20=2,8,IF(AA20=3,6,IF(AA20=4,5,IF(AA20=5,4,IF(AA20=6,3,IF(AA20=7,2,IF(AA20=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -6892,14 +6960,16 @@
       <c r="V22" s="7">
         <v>10</v>
       </c>
-      <c r="W22" s="7"/>
+      <c r="W22" s="7">
+        <v>7</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -6909,47 +6979,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f t="shared" ref="F23:P23" si="20">IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
+        <f>IF(F22=1,10,IF(F22=2,8,IF(F22=3,6,IF(F22=4,5,IF(F22=5,4,IF(F22=6,3,IF(F22=7,2,IF(F22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(G22=1,10,IF(G22=2,8,IF(G22=3,6,IF(G22=4,5,IF(G22=5,4,IF(G22=6,3,IF(G22=7,2,IF(G22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
         <v>4</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
         <v>8</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(M22=1,10,IF(M22=2,8,IF(M22=3,6,IF(M22=4,5,IF(M22=5,4,IF(M22=6,3,IF(M22=7,2,IF(M22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(N22=1,10,IF(N22=2,8,IF(N22=3,6,IF(N22=4,5,IF(N22=5,4,IF(N22=6,3,IF(N22=7,2,IF(N22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(O22=1,10,IF(O22=2,8,IF(O22=3,6,IF(O22=4,5,IF(O22=5,4,IF(O22=6,3,IF(O22=7,2,IF(O22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
@@ -6957,43 +7027,43 @@
         <v>2</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
+        <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(S22=1,10,IF(S22=2,8,IF(S22=3,6,IF(S22=4,5,IF(S22=5,4,IF(S22=6,3,IF(S22=7,2,IF(S22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(T22=1,10,IF(T22=2,8,IF(T22=3,6,IF(T22=4,5,IF(T22=5,4,IF(T22=6,3,IF(T22=7,2,IF(T22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(U22=1,10,IF(U22=2,8,IF(U22=3,6,IF(U22=4,5,IF(U22=5,4,IF(U22=6,3,IF(U22=7,2,IF(U22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(V22=1,10,IF(V22=2,8,IF(V22=3,6,IF(V22=4,5,IF(V22=5,4,IF(V22=6,3,IF(V22=7,2,IF(V22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
+        <v>2</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -7065,7 +7135,9 @@
       <c r="V24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7">
+        <v>13</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -7082,47 +7154,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f t="shared" ref="F25:P25" si="22">IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
+        <f>IF(F24=1,10,IF(F24=2,8,IF(F24=3,6,IF(F24=4,5,IF(F24=5,4,IF(F24=6,3,IF(F24=7,2,IF(F24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(G24=1,10,IF(G24=2,8,IF(G24=3,6,IF(G24=4,5,IF(G24=5,4,IF(G24=6,3,IF(G24=7,2,IF(G24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(M24=1,10,IF(M24=2,8,IF(M24=3,6,IF(M24=4,5,IF(M24=5,4,IF(M24=6,3,IF(M24=7,2,IF(M24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(N24=1,10,IF(N24=2,8,IF(N24=3,6,IF(N24=4,5,IF(N24=5,4,IF(N24=6,3,IF(N24=7,2,IF(N24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(O24=1,10,IF(O24=2,8,IF(O24=3,6,IF(O24=4,5,IF(O24=5,4,IF(O24=6,3,IF(O24=7,2,IF(O24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
         <v>10</v>
       </c>
       <c r="Q25" s="8">
@@ -7130,43 +7202,43 @@
         <v>1</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
+        <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(S24=1,10,IF(S24=2,8,IF(S24=3,6,IF(S24=4,5,IF(S24=5,4,IF(S24=6,3,IF(S24=7,2,IF(S24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(T24=1,10,IF(T24=2,8,IF(T24=3,6,IF(T24=4,5,IF(T24=5,4,IF(T24=6,3,IF(T24=7,2,IF(T24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(U24=1,10,IF(U24=2,8,IF(U24=3,6,IF(U24=4,5,IF(U24=5,4,IF(U24=6,3,IF(U24=7,2,IF(U24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(V24=1,10,IF(V24=2,8,IF(V24=3,6,IF(V24=4,5,IF(V24=5,4,IF(V24=6,3,IF(V24=7,2,IF(V24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Z24=1,10,IF(Z24=2,8,IF(Z24=3,6,IF(Z24=4,5,IF(Z24=5,4,IF(Z24=6,3,IF(Z24=7,2,IF(Z24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(AA24=1,10,IF(AA24=2,8,IF(AA24=3,6,IF(AA24=4,5,IF(AA24=5,4,IF(AA24=6,3,IF(AA24=7,2,IF(AA24=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -7238,7 +7310,9 @@
       <c r="V26" s="7">
         <v>12</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="W26" s="7">
+        <v>14</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -7255,47 +7329,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f t="shared" ref="F27:P27" si="24">IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
+        <f>IF(F26=1,10,IF(F26=2,8,IF(F26=3,6,IF(F26=4,5,IF(F26=5,4,IF(F26=6,3,IF(F26=7,2,IF(F26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(G26=1,10,IF(G26=2,8,IF(G26=3,6,IF(G26=4,5,IF(G26=5,4,IF(G26=6,3,IF(G26=7,2,IF(G26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(H26=1,10,IF(H26=2,8,IF(H26=3,6,IF(H26=4,5,IF(H26=5,4,IF(H26=6,3,IF(H26=7,2,IF(H26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(I26=1,10,IF(I26=2,8,IF(I26=3,6,IF(I26=4,5,IF(I26=5,4,IF(I26=6,3,IF(I26=7,2,IF(I26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(J26=1,10,IF(J26=2,8,IF(J26=3,6,IF(J26=4,5,IF(J26=5,4,IF(J26=6,3,IF(J26=7,2,IF(J26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(K26=1,10,IF(K26=2,8,IF(K26=3,6,IF(K26=4,5,IF(K26=5,4,IF(K26=6,3,IF(K26=7,2,IF(K26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(L26=1,10,IF(L26=2,8,IF(L26=3,6,IF(L26=4,5,IF(L26=5,4,IF(L26=6,3,IF(L26=7,2,IF(L26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(M26=1,10,IF(M26=2,8,IF(M26=3,6,IF(M26=4,5,IF(M26=5,4,IF(M26=6,3,IF(M26=7,2,IF(M26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(N26=1,10,IF(N26=2,8,IF(N26=3,6,IF(N26=4,5,IF(N26=5,4,IF(N26=6,3,IF(N26=7,2,IF(N26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(O26=1,10,IF(O26=2,8,IF(O26=3,6,IF(O26=4,5,IF(O26=5,4,IF(O26=6,3,IF(O26=7,2,IF(O26=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(P26=1,10,IF(P26=2,8,IF(P26=3,6,IF(P26=4,5,IF(P26=5,4,IF(P26=6,3,IF(P26=7,2,IF(P26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -7303,43 +7377,43 @@
         <v>0</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
+        <f>IF(R26=1,10,IF(R26=2,8,IF(R26=3,6,IF(R26=4,5,IF(R26=5,4,IF(R26=6,3,IF(R26=7,2,IF(R26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(S26=1,10,IF(S26=2,8,IF(S26=3,6,IF(S26=4,5,IF(S26=5,4,IF(S26=6,3,IF(S26=7,2,IF(S26=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(T26=1,10,IF(T26=2,8,IF(T26=3,6,IF(T26=4,5,IF(T26=5,4,IF(T26=6,3,IF(T26=7,2,IF(T26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(U26=1,10,IF(U26=2,8,IF(U26=3,6,IF(U26=4,5,IF(U26=5,4,IF(U26=6,3,IF(U26=7,2,IF(U26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(V26=1,10,IF(V26=2,8,IF(V26=3,6,IF(V26=4,5,IF(V26=5,4,IF(V26=6,3,IF(V26=7,2,IF(V26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(W26=1,10,IF(W26=2,8,IF(W26=3,6,IF(W26=4,5,IF(W26=5,4,IF(W26=6,3,IF(W26=7,2,IF(W26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(X26=1,10,IF(X26=2,8,IF(X26=3,6,IF(X26=4,5,IF(X26=5,4,IF(X26=6,3,IF(X26=7,2,IF(X26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(AA26=1,10,IF(AA26=2,8,IF(AA26=3,6,IF(AA26=4,5,IF(AA26=5,4,IF(AA26=6,3,IF(AA26=7,2,IF(AA26=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -7411,7 +7485,9 @@
       <c r="V28" s="7">
         <v>9</v>
       </c>
-      <c r="W28" s="7"/>
+      <c r="W28" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -7428,47 +7504,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f t="shared" ref="F29:P29" si="26">IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
+        <f>IF(F28=1,10,IF(F28=2,8,IF(F28=3,6,IF(F28=4,5,IF(F28=5,4,IF(F28=6,3,IF(F28=7,2,IF(F28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(G28=1,10,IF(G28=2,8,IF(G28=3,6,IF(G28=4,5,IF(G28=5,4,IF(G28=6,3,IF(G28=7,2,IF(G28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(H28=1,10,IF(H28=2,8,IF(H28=3,6,IF(H28=4,5,IF(H28=5,4,IF(H28=6,3,IF(H28=7,2,IF(H28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(I28=1,10,IF(I28=2,8,IF(I28=3,6,IF(I28=4,5,IF(I28=5,4,IF(I28=6,3,IF(I28=7,2,IF(I28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(J28=1,10,IF(J28=2,8,IF(J28=3,6,IF(J28=4,5,IF(J28=5,4,IF(J28=6,3,IF(J28=7,2,IF(J28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(K28=1,10,IF(K28=2,8,IF(K28=3,6,IF(K28=4,5,IF(K28=5,4,IF(K28=6,3,IF(K28=7,2,IF(K28=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(L28=1,10,IF(L28=2,8,IF(L28=3,6,IF(L28=4,5,IF(L28=5,4,IF(L28=6,3,IF(L28=7,2,IF(L28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(M28=1,10,IF(M28=2,8,IF(M28=3,6,IF(M28=4,5,IF(M28=5,4,IF(M28=6,3,IF(M28=7,2,IF(M28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(N28=1,10,IF(N28=2,8,IF(N28=3,6,IF(N28=4,5,IF(N28=5,4,IF(N28=6,3,IF(N28=7,2,IF(N28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(O28=1,10,IF(O28=2,8,IF(O28=3,6,IF(O28=4,5,IF(O28=5,4,IF(O28=6,3,IF(O28=7,2,IF(O28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(P28=1,10,IF(P28=2,8,IF(P28=3,6,IF(P28=4,5,IF(P28=5,4,IF(P28=6,3,IF(P28=7,2,IF(P28=8,1,0))))))))</f>
         <v>3</v>
       </c>
       <c r="Q29" s="8">
@@ -7476,43 +7552,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
+        <f>IF(R28=1,10,IF(R28=2,8,IF(R28=3,6,IF(R28=4,5,IF(R28=5,4,IF(R28=6,3,IF(R28=7,2,IF(R28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(S28=1,10,IF(S28=2,8,IF(S28=3,6,IF(S28=4,5,IF(S28=5,4,IF(S28=6,3,IF(S28=7,2,IF(S28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(T28=1,10,IF(T28=2,8,IF(T28=3,6,IF(T28=4,5,IF(T28=5,4,IF(T28=6,3,IF(T28=7,2,IF(T28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(U28=1,10,IF(U28=2,8,IF(U28=3,6,IF(U28=4,5,IF(U28=5,4,IF(U28=6,3,IF(U28=7,2,IF(U28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(V28=1,10,IF(V28=2,8,IF(V28=3,6,IF(V28=4,5,IF(V28=5,4,IF(V28=6,3,IF(V28=7,2,IF(V28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(W28=1,10,IF(W28=2,8,IF(W28=3,6,IF(W28=4,5,IF(W28=5,4,IF(W28=6,3,IF(W28=7,2,IF(W28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(X28=1,10,IF(X28=2,8,IF(X28=3,6,IF(X28=4,5,IF(X28=5,4,IF(X28=6,3,IF(X28=7,2,IF(X28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Y28=1,10,IF(Y28=2,8,IF(Y28=3,6,IF(Y28=4,5,IF(Y28=5,4,IF(Y28=6,3,IF(Y28=7,2,IF(Y28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Z28=1,10,IF(Z28=2,8,IF(Z28=3,6,IF(Z28=4,5,IF(Z28=5,4,IF(Z28=6,3,IF(Z28=7,2,IF(Z28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(AA28=1,10,IF(AA28=2,8,IF(AA28=3,6,IF(AA28=4,5,IF(AA28=5,4,IF(AA28=6,3,IF(AA28=7,2,IF(AA28=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -7584,7 +7660,9 @@
       <c r="V30" s="7">
         <v>14</v>
       </c>
-      <c r="W30" s="7"/>
+      <c r="W30" s="7">
+        <v>16</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -7601,47 +7679,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f t="shared" ref="F31:P31" si="28">IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
+        <f>IF(F30=1,10,IF(F30=2,8,IF(F30=3,6,IF(F30=4,5,IF(F30=5,4,IF(F30=6,3,IF(F30=7,2,IF(F30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(G30=1,10,IF(G30=2,8,IF(G30=3,6,IF(G30=4,5,IF(G30=5,4,IF(G30=6,3,IF(G30=7,2,IF(G30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(H30=1,10,IF(H30=2,8,IF(H30=3,6,IF(H30=4,5,IF(H30=5,4,IF(H30=6,3,IF(H30=7,2,IF(H30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(I30=1,10,IF(I30=2,8,IF(I30=3,6,IF(I30=4,5,IF(I30=5,4,IF(I30=6,3,IF(I30=7,2,IF(I30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(J30=1,10,IF(J30=2,8,IF(J30=3,6,IF(J30=4,5,IF(J30=5,4,IF(J30=6,3,IF(J30=7,2,IF(J30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(K30=1,10,IF(K30=2,8,IF(K30=3,6,IF(K30=4,5,IF(K30=5,4,IF(K30=6,3,IF(K30=7,2,IF(K30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(L30=1,10,IF(L30=2,8,IF(L30=3,6,IF(L30=4,5,IF(L30=5,4,IF(L30=6,3,IF(L30=7,2,IF(L30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(M30=1,10,IF(M30=2,8,IF(M30=3,6,IF(M30=4,5,IF(M30=5,4,IF(M30=6,3,IF(M30=7,2,IF(M30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(N30=1,10,IF(N30=2,8,IF(N30=3,6,IF(N30=4,5,IF(N30=5,4,IF(N30=6,3,IF(N30=7,2,IF(N30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(O30=1,10,IF(O30=2,8,IF(O30=3,6,IF(O30=4,5,IF(O30=5,4,IF(O30=6,3,IF(O30=7,2,IF(O30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(P30=1,10,IF(P30=2,8,IF(P30=3,6,IF(P30=4,5,IF(P30=5,4,IF(P30=6,3,IF(P30=7,2,IF(P30=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="Q31" s="8">
@@ -7649,43 +7727,43 @@
         <v>4</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
+        <f>IF(R30=1,10,IF(R30=2,8,IF(R30=3,6,IF(R30=4,5,IF(R30=5,4,IF(R30=6,3,IF(R30=7,2,IF(R30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(S30=1,10,IF(S30=2,8,IF(S30=3,6,IF(S30=4,5,IF(S30=5,4,IF(S30=6,3,IF(S30=7,2,IF(S30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(T30=1,10,IF(T30=2,8,IF(T30=3,6,IF(T30=4,5,IF(T30=5,4,IF(T30=6,3,IF(T30=7,2,IF(T30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(U30=1,10,IF(U30=2,8,IF(U30=3,6,IF(U30=4,5,IF(U30=5,4,IF(U30=6,3,IF(U30=7,2,IF(U30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(V30=1,10,IF(V30=2,8,IF(V30=3,6,IF(V30=4,5,IF(V30=5,4,IF(V30=6,3,IF(V30=7,2,IF(V30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(W30=1,10,IF(W30=2,8,IF(W30=3,6,IF(W30=4,5,IF(W30=5,4,IF(W30=6,3,IF(W30=7,2,IF(W30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(X30=1,10,IF(X30=2,8,IF(X30=3,6,IF(X30=4,5,IF(X30=5,4,IF(X30=6,3,IF(X30=7,2,IF(X30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Y30=1,10,IF(Y30=2,8,IF(Y30=3,6,IF(Y30=4,5,IF(Y30=5,4,IF(Y30=6,3,IF(Y30=7,2,IF(Y30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Z30=1,10,IF(Z30=2,8,IF(Z30=3,6,IF(Z30=4,5,IF(Z30=5,4,IF(Z30=6,3,IF(Z30=7,2,IF(Z30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(AA30=1,10,IF(AA30=2,8,IF(AA30=3,6,IF(AA30=4,5,IF(AA30=5,4,IF(AA30=6,3,IF(AA30=7,2,IF(AA30=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -7757,7 +7835,9 @@
       <c r="V32" s="7">
         <v>15</v>
       </c>
-      <c r="W32" s="7"/>
+      <c r="W32" s="7">
+        <v>17</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -7774,47 +7854,47 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f t="shared" ref="F33:P33" si="30">IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
+        <f>IF(F32=1,10,IF(F32=2,8,IF(F32=3,6,IF(F32=4,5,IF(F32=5,4,IF(F32=6,3,IF(F32=7,2,IF(F32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(G32=1,10,IF(G32=2,8,IF(G32=3,6,IF(G32=4,5,IF(G32=5,4,IF(G32=6,3,IF(G32=7,2,IF(G32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(H32=1,10,IF(H32=2,8,IF(H32=3,6,IF(H32=4,5,IF(H32=5,4,IF(H32=6,3,IF(H32=7,2,IF(H32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(I32=1,10,IF(I32=2,8,IF(I32=3,6,IF(I32=4,5,IF(I32=5,4,IF(I32=6,3,IF(I32=7,2,IF(I32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(J32=1,10,IF(J32=2,8,IF(J32=3,6,IF(J32=4,5,IF(J32=5,4,IF(J32=6,3,IF(J32=7,2,IF(J32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(K32=1,10,IF(K32=2,8,IF(K32=3,6,IF(K32=4,5,IF(K32=5,4,IF(K32=6,3,IF(K32=7,2,IF(K32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(L32=1,10,IF(L32=2,8,IF(L32=3,6,IF(L32=4,5,IF(L32=5,4,IF(L32=6,3,IF(L32=7,2,IF(L32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(M32=1,10,IF(M32=2,8,IF(M32=3,6,IF(M32=4,5,IF(M32=5,4,IF(M32=6,3,IF(M32=7,2,IF(M32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(N32=1,10,IF(N32=2,8,IF(N32=3,6,IF(N32=4,5,IF(N32=5,4,IF(N32=6,3,IF(N32=7,2,IF(N32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(O32=1,10,IF(O32=2,8,IF(O32=3,6,IF(O32=4,5,IF(O32=5,4,IF(O32=6,3,IF(O32=7,2,IF(O32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(P32=1,10,IF(P32=2,8,IF(P32=3,6,IF(P32=4,5,IF(P32=5,4,IF(P32=6,3,IF(P32=7,2,IF(P32=8,1,0))))))))</f>
         <v>2</v>
       </c>
       <c r="Q33" s="8">
@@ -7822,43 +7902,43 @@
         <v>0</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
+        <f>IF(R32=1,10,IF(R32=2,8,IF(R32=3,6,IF(R32=4,5,IF(R32=5,4,IF(R32=6,3,IF(R32=7,2,IF(R32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(S32=1,10,IF(S32=2,8,IF(S32=3,6,IF(S32=4,5,IF(S32=5,4,IF(S32=6,3,IF(S32=7,2,IF(S32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(T32=1,10,IF(T32=2,8,IF(T32=3,6,IF(T32=4,5,IF(T32=5,4,IF(T32=6,3,IF(T32=7,2,IF(T32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(U32=1,10,IF(U32=2,8,IF(U32=3,6,IF(U32=4,5,IF(U32=5,4,IF(U32=6,3,IF(U32=7,2,IF(U32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(V32=1,10,IF(V32=2,8,IF(V32=3,6,IF(V32=4,5,IF(V32=5,4,IF(V32=6,3,IF(V32=7,2,IF(V32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(W32=1,10,IF(W32=2,8,IF(W32=3,6,IF(W32=4,5,IF(W32=5,4,IF(W32=6,3,IF(W32=7,2,IF(W32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(X32=1,10,IF(X32=2,8,IF(X32=3,6,IF(X32=4,5,IF(X32=5,4,IF(X32=6,3,IF(X32=7,2,IF(X32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Y32=1,10,IF(Y32=2,8,IF(Y32=3,6,IF(Y32=4,5,IF(Y32=5,4,IF(Y32=6,3,IF(Y32=7,2,IF(Y32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Z32=1,10,IF(Z32=2,8,IF(Z32=3,6,IF(Z32=4,5,IF(Z32=5,4,IF(Z32=6,3,IF(Z32=7,2,IF(Z32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(AA32=1,10,IF(AA32=2,8,IF(AA32=3,6,IF(AA32=4,5,IF(AA32=5,4,IF(AA32=6,3,IF(AA32=7,2,IF(AA32=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -7926,14 +8006,16 @@
       <c r="V34" s="7">
         <v>13</v>
       </c>
-      <c r="W34" s="7"/>
+      <c r="W34" s="7">
+        <v>8</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
         <f>SUM(F35:AA35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -7943,47 +8025,47 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f t="shared" ref="F35:P35" si="32">IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
+        <f>IF(F34=1,10,IF(F34=2,8,IF(F34=3,6,IF(F34=4,5,IF(F34=5,4,IF(F34=6,3,IF(F34=7,2,IF(F34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(G34=1,10,IF(G34=2,8,IF(G34=3,6,IF(G34=4,5,IF(G34=5,4,IF(G34=6,3,IF(G34=7,2,IF(G34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(H34=1,10,IF(H34=2,8,IF(H34=3,6,IF(H34=4,5,IF(H34=5,4,IF(H34=6,3,IF(H34=7,2,IF(H34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(I34=1,10,IF(I34=2,8,IF(I34=3,6,IF(I34=4,5,IF(I34=5,4,IF(I34=6,3,IF(I34=7,2,IF(I34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(J34=1,10,IF(J34=2,8,IF(J34=3,6,IF(J34=4,5,IF(J34=5,4,IF(J34=6,3,IF(J34=7,2,IF(J34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(K34=1,10,IF(K34=2,8,IF(K34=3,6,IF(K34=4,5,IF(K34=5,4,IF(K34=6,3,IF(K34=7,2,IF(K34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(L34=1,10,IF(L34=2,8,IF(L34=3,6,IF(L34=4,5,IF(L34=5,4,IF(L34=6,3,IF(L34=7,2,IF(L34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(M34=1,10,IF(M34=2,8,IF(M34=3,6,IF(M34=4,5,IF(M34=5,4,IF(M34=6,3,IF(M34=7,2,IF(M34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(N34=1,10,IF(N34=2,8,IF(N34=3,6,IF(N34=4,5,IF(N34=5,4,IF(N34=6,3,IF(N34=7,2,IF(N34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(O34=1,10,IF(O34=2,8,IF(O34=3,6,IF(O34=4,5,IF(O34=5,4,IF(O34=6,3,IF(O34=7,2,IF(O34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(P34=1,10,IF(P34=2,8,IF(P34=3,6,IF(P34=4,5,IF(P34=5,4,IF(P34=6,3,IF(P34=7,2,IF(P34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="8">
@@ -7991,43 +8073,43 @@
         <v>0</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
+        <f>IF(R34=1,10,IF(R34=2,8,IF(R34=3,6,IF(R34=4,5,IF(R34=5,4,IF(R34=6,3,IF(R34=7,2,IF(R34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(S34=1,10,IF(S34=2,8,IF(S34=3,6,IF(S34=4,5,IF(S34=5,4,IF(S34=6,3,IF(S34=7,2,IF(S34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(T34=1,10,IF(T34=2,8,IF(T34=3,6,IF(T34=4,5,IF(T34=5,4,IF(T34=6,3,IF(T34=7,2,IF(T34=8,1,0))))))))</f>
         <v>1</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(U34=1,10,IF(U34=2,8,IF(U34=3,6,IF(U34=4,5,IF(U34=5,4,IF(U34=6,3,IF(U34=7,2,IF(U34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(V34=1,10,IF(V34=2,8,IF(V34=3,6,IF(V34=4,5,IF(V34=5,4,IF(V34=6,3,IF(V34=7,2,IF(V34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f>IF(W34=1,10,IF(W34=2,8,IF(W34=3,6,IF(W34=4,5,IF(W34=5,4,IF(W34=6,3,IF(W34=7,2,IF(W34=8,1,0))))))))</f>
+        <v>1</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(X34=1,10,IF(X34=2,8,IF(X34=3,6,IF(X34=4,5,IF(X34=5,4,IF(X34=6,3,IF(X34=7,2,IF(X34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Y34=1,10,IF(Y34=2,8,IF(Y34=3,6,IF(Y34=4,5,IF(Y34=5,4,IF(Y34=6,3,IF(Y34=7,2,IF(Y34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Z34=1,10,IF(Z34=2,8,IF(Z34=3,6,IF(Z34=4,5,IF(Z34=5,4,IF(Z34=6,3,IF(Z34=7,2,IF(Z34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(AA34=1,10,IF(AA34=2,8,IF(AA34=3,6,IF(AA34=4,5,IF(AA34=5,4,IF(AA34=6,3,IF(AA34=7,2,IF(AA34=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -8099,7 +8181,9 @@
       <c r="V36" s="7">
         <v>11</v>
       </c>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7">
+        <v>11</v>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -8116,47 +8200,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:P37" si="34">IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
+        <f>IF(F36=1,10,IF(F36=2,8,IF(F36=3,6,IF(F36=4,5,IF(F36=5,4,IF(F36=6,3,IF(F36=7,2,IF(F36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(G36=1,10,IF(G36=2,8,IF(G36=3,6,IF(G36=4,5,IF(G36=5,4,IF(G36=6,3,IF(G36=7,2,IF(G36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(H36=1,10,IF(H36=2,8,IF(H36=3,6,IF(H36=4,5,IF(H36=5,4,IF(H36=6,3,IF(H36=7,2,IF(H36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(I36=1,10,IF(I36=2,8,IF(I36=3,6,IF(I36=4,5,IF(I36=5,4,IF(I36=6,3,IF(I36=7,2,IF(I36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(J36=1,10,IF(J36=2,8,IF(J36=3,6,IF(J36=4,5,IF(J36=5,4,IF(J36=6,3,IF(J36=7,2,IF(J36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(K36=1,10,IF(K36=2,8,IF(K36=3,6,IF(K36=4,5,IF(K36=5,4,IF(K36=6,3,IF(K36=7,2,IF(K36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(L36=1,10,IF(L36=2,8,IF(L36=3,6,IF(L36=4,5,IF(L36=5,4,IF(L36=6,3,IF(L36=7,2,IF(L36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(M36=1,10,IF(M36=2,8,IF(M36=3,6,IF(M36=4,5,IF(M36=5,4,IF(M36=6,3,IF(M36=7,2,IF(M36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(N36=1,10,IF(N36=2,8,IF(N36=3,6,IF(N36=4,5,IF(N36=5,4,IF(N36=6,3,IF(N36=7,2,IF(N36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(O36=1,10,IF(O36=2,8,IF(O36=3,6,IF(O36=4,5,IF(O36=5,4,IF(O36=6,3,IF(O36=7,2,IF(O36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(P36=1,10,IF(P36=2,8,IF(P36=3,6,IF(P36=4,5,IF(P36=5,4,IF(P36=6,3,IF(P36=7,2,IF(P36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -8164,43 +8248,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
+        <f>IF(R36=1,10,IF(R36=2,8,IF(R36=3,6,IF(R36=4,5,IF(R36=5,4,IF(R36=6,3,IF(R36=7,2,IF(R36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(S36=1,10,IF(S36=2,8,IF(S36=3,6,IF(S36=4,5,IF(S36=5,4,IF(S36=6,3,IF(S36=7,2,IF(S36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(T36=1,10,IF(T36=2,8,IF(T36=3,6,IF(T36=4,5,IF(T36=5,4,IF(T36=6,3,IF(T36=7,2,IF(T36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(U36=1,10,IF(U36=2,8,IF(U36=3,6,IF(U36=4,5,IF(U36=5,4,IF(U36=6,3,IF(U36=7,2,IF(U36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(V36=1,10,IF(V36=2,8,IF(V36=3,6,IF(V36=4,5,IF(V36=5,4,IF(V36=6,3,IF(V36=7,2,IF(V36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(W36=1,10,IF(W36=2,8,IF(W36=3,6,IF(W36=4,5,IF(W36=5,4,IF(W36=6,3,IF(W36=7,2,IF(W36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(X36=1,10,IF(X36=2,8,IF(X36=3,6,IF(X36=4,5,IF(X36=5,4,IF(X36=6,3,IF(X36=7,2,IF(X36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Y36=1,10,IF(Y36=2,8,IF(Y36=3,6,IF(Y36=4,5,IF(Y36=5,4,IF(Y36=6,3,IF(Y36=7,2,IF(Y36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Z36=1,10,IF(Z36=2,8,IF(Z36=3,6,IF(Z36=4,5,IF(Z36=5,4,IF(Z36=6,3,IF(Z36=7,2,IF(Z36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(AA36=1,10,IF(AA36=2,8,IF(AA36=3,6,IF(AA36=4,5,IF(AA36=5,4,IF(AA36=6,3,IF(AA36=7,2,IF(AA36=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -8272,7 +8356,9 @@
       <c r="V38" s="7">
         <v>16</v>
       </c>
-      <c r="W38" s="7"/>
+      <c r="W38" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -8289,47 +8375,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f t="shared" ref="F39:P39" si="36">IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
+        <f>IF(F38=1,10,IF(F38=2,8,IF(F38=3,6,IF(F38=4,5,IF(F38=5,4,IF(F38=6,3,IF(F38=7,2,IF(F38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(G38=1,10,IF(G38=2,8,IF(G38=3,6,IF(G38=4,5,IF(G38=5,4,IF(G38=6,3,IF(G38=7,2,IF(G38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(H38=1,10,IF(H38=2,8,IF(H38=3,6,IF(H38=4,5,IF(H38=5,4,IF(H38=6,3,IF(H38=7,2,IF(H38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(I38=1,10,IF(I38=2,8,IF(I38=3,6,IF(I38=4,5,IF(I38=5,4,IF(I38=6,3,IF(I38=7,2,IF(I38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(J38=1,10,IF(J38=2,8,IF(J38=3,6,IF(J38=4,5,IF(J38=5,4,IF(J38=6,3,IF(J38=7,2,IF(J38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(K38=1,10,IF(K38=2,8,IF(K38=3,6,IF(K38=4,5,IF(K38=5,4,IF(K38=6,3,IF(K38=7,2,IF(K38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(L38=1,10,IF(L38=2,8,IF(L38=3,6,IF(L38=4,5,IF(L38=5,4,IF(L38=6,3,IF(L38=7,2,IF(L38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(M38=1,10,IF(M38=2,8,IF(M38=3,6,IF(M38=4,5,IF(M38=5,4,IF(M38=6,3,IF(M38=7,2,IF(M38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(N38=1,10,IF(N38=2,8,IF(N38=3,6,IF(N38=4,5,IF(N38=5,4,IF(N38=6,3,IF(N38=7,2,IF(N38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(O38=1,10,IF(O38=2,8,IF(O38=3,6,IF(O38=4,5,IF(O38=5,4,IF(O38=6,3,IF(O38=7,2,IF(O38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(P38=1,10,IF(P38=2,8,IF(P38=3,6,IF(P38=4,5,IF(P38=5,4,IF(P38=6,3,IF(P38=7,2,IF(P38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -8337,43 +8423,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
+        <f>IF(R38=1,10,IF(R38=2,8,IF(R38=3,6,IF(R38=4,5,IF(R38=5,4,IF(R38=6,3,IF(R38=7,2,IF(R38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(S38=1,10,IF(S38=2,8,IF(S38=3,6,IF(S38=4,5,IF(S38=5,4,IF(S38=6,3,IF(S38=7,2,IF(S38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(T38=1,10,IF(T38=2,8,IF(T38=3,6,IF(T38=4,5,IF(T38=5,4,IF(T38=6,3,IF(T38=7,2,IF(T38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(U38=1,10,IF(U38=2,8,IF(U38=3,6,IF(U38=4,5,IF(U38=5,4,IF(U38=6,3,IF(U38=7,2,IF(U38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(V38=1,10,IF(V38=2,8,IF(V38=3,6,IF(V38=4,5,IF(V38=5,4,IF(V38=6,3,IF(V38=7,2,IF(V38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(W38=1,10,IF(W38=2,8,IF(W38=3,6,IF(W38=4,5,IF(W38=5,4,IF(W38=6,3,IF(W38=7,2,IF(W38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(X38=1,10,IF(X38=2,8,IF(X38=3,6,IF(X38=4,5,IF(X38=5,4,IF(X38=6,3,IF(X38=7,2,IF(X38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Y38=1,10,IF(Y38=2,8,IF(Y38=3,6,IF(Y38=4,5,IF(Y38=5,4,IF(Y38=6,3,IF(Y38=7,2,IF(Y38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Z38=1,10,IF(Z38=2,8,IF(Z38=3,6,IF(Z38=4,5,IF(Z38=5,4,IF(Z38=6,3,IF(Z38=7,2,IF(Z38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(AA38=1,10,IF(AA38=2,8,IF(AA38=3,6,IF(AA38=4,5,IF(AA38=5,4,IF(AA38=6,3,IF(AA38=7,2,IF(AA38=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -8445,7 +8531,9 @@
       <c r="V40" s="7">
         <v>17</v>
       </c>
-      <c r="W40" s="7"/>
+      <c r="W40" s="7">
+        <v>18</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -8462,47 +8550,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41:P41" si="38">IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,8,IF(F40=3,6,IF(F40=4,5,IF(F40=5,4,IF(F40=6,3,IF(F40=7,2,IF(F40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(G40=1,10,IF(G40=2,8,IF(G40=3,6,IF(G40=4,5,IF(G40=5,4,IF(G40=6,3,IF(G40=7,2,IF(G40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(H40=1,10,IF(H40=2,8,IF(H40=3,6,IF(H40=4,5,IF(H40=5,4,IF(H40=6,3,IF(H40=7,2,IF(H40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(I40=1,10,IF(I40=2,8,IF(I40=3,6,IF(I40=4,5,IF(I40=5,4,IF(I40=6,3,IF(I40=7,2,IF(I40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(J40=1,10,IF(J40=2,8,IF(J40=3,6,IF(J40=4,5,IF(J40=5,4,IF(J40=6,3,IF(J40=7,2,IF(J40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(K40=1,10,IF(K40=2,8,IF(K40=3,6,IF(K40=4,5,IF(K40=5,4,IF(K40=6,3,IF(K40=7,2,IF(K40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(L40=1,10,IF(L40=2,8,IF(L40=3,6,IF(L40=4,5,IF(L40=5,4,IF(L40=6,3,IF(L40=7,2,IF(L40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(M40=1,10,IF(M40=2,8,IF(M40=3,6,IF(M40=4,5,IF(M40=5,4,IF(M40=6,3,IF(M40=7,2,IF(M40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(N40=1,10,IF(N40=2,8,IF(N40=3,6,IF(N40=4,5,IF(N40=5,4,IF(N40=6,3,IF(N40=7,2,IF(N40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(O40=1,10,IF(O40=2,8,IF(O40=3,6,IF(O40=4,5,IF(O40=5,4,IF(O40=6,3,IF(O40=7,2,IF(O40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(P40=1,10,IF(P40=2,8,IF(P40=3,6,IF(P40=4,5,IF(P40=5,4,IF(P40=6,3,IF(P40=7,2,IF(P40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -8510,43 +8598,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
+        <f>IF(R40=1,10,IF(R40=2,8,IF(R40=3,6,IF(R40=4,5,IF(R40=5,4,IF(R40=6,3,IF(R40=7,2,IF(R40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(S40=1,10,IF(S40=2,8,IF(S40=3,6,IF(S40=4,5,IF(S40=5,4,IF(S40=6,3,IF(S40=7,2,IF(S40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(T40=1,10,IF(T40=2,8,IF(T40=3,6,IF(T40=4,5,IF(T40=5,4,IF(T40=6,3,IF(T40=7,2,IF(T40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(U40=1,10,IF(U40=2,8,IF(U40=3,6,IF(U40=4,5,IF(U40=5,4,IF(U40=6,3,IF(U40=7,2,IF(U40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(V40=1,10,IF(V40=2,8,IF(V40=3,6,IF(V40=4,5,IF(V40=5,4,IF(V40=6,3,IF(V40=7,2,IF(V40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(W40=1,10,IF(W40=2,8,IF(W40=3,6,IF(W40=4,5,IF(W40=5,4,IF(W40=6,3,IF(W40=7,2,IF(W40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(X40=1,10,IF(X40=2,8,IF(X40=3,6,IF(X40=4,5,IF(X40=5,4,IF(X40=6,3,IF(X40=7,2,IF(X40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Y40=1,10,IF(Y40=2,8,IF(Y40=3,6,IF(Y40=4,5,IF(Y40=5,4,IF(Y40=6,3,IF(Y40=7,2,IF(Y40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Z40=1,10,IF(Z40=2,8,IF(Z40=3,6,IF(Z40=4,5,IF(Z40=5,4,IF(Z40=6,3,IF(Z40=7,2,IF(Z40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(AA40=1,10,IF(AA40=2,8,IF(AA40=3,6,IF(AA40=4,5,IF(AA40=5,4,IF(AA40=6,3,IF(AA40=7,2,IF(AA40=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -8609,43 +8697,43 @@
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="40">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
+        <f t="shared" ref="G43" si="0">IF(G42=1,10,IF(G42=2,8,IF(G42=3,6,IF(G42=4,5,IF(G42=5,4,IF(G42=6,3,IF(G42=7,2,IF(G42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43" si="41">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
+        <f t="shared" ref="H43" si="1">IF(H42=1,10,IF(H42=2,8,IF(H42=3,6,IF(H42=4,5,IF(H42=5,4,IF(H42=6,3,IF(H42=7,2,IF(H42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" ref="I43" si="42">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
+        <f t="shared" ref="I43" si="2">IF(I42=1,10,IF(I42=2,8,IF(I42=3,6,IF(I42=4,5,IF(I42=5,4,IF(I42=6,3,IF(I42=7,2,IF(I42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43" si="43">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
+        <f t="shared" ref="J43" si="3">IF(J42=1,10,IF(J42=2,8,IF(J42=3,6,IF(J42=4,5,IF(J42=5,4,IF(J42=6,3,IF(J42=7,2,IF(J42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" ref="K43" si="44">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
+        <f t="shared" ref="K43" si="4">IF(K42=1,10,IF(K42=2,8,IF(K42=3,6,IF(K42=4,5,IF(K42=5,4,IF(K42=6,3,IF(K42=7,2,IF(K42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" ref="L43" si="45">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
+        <f t="shared" ref="L43" si="5">IF(L42=1,10,IF(L42=2,8,IF(L42=3,6,IF(L42=4,5,IF(L42=5,4,IF(L42=6,3,IF(L42=7,2,IF(L42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" ref="M43" si="46">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
+        <f t="shared" ref="M43" si="6">IF(M42=1,10,IF(M42=2,8,IF(M42=3,6,IF(M42=4,5,IF(M42=5,4,IF(M42=6,3,IF(M42=7,2,IF(M42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N43" si="47">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
+        <f t="shared" ref="N43" si="7">IF(N42=1,10,IF(N42=2,8,IF(N42=3,6,IF(N42=4,5,IF(N42=5,4,IF(N42=6,3,IF(N42=7,2,IF(N42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" ref="O43" si="48">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
+        <f t="shared" ref="O43" si="8">IF(O42=1,10,IF(O42=2,8,IF(O42=3,6,IF(O42=4,5,IF(O42=5,4,IF(O42=6,3,IF(O42=7,2,IF(O42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P43" si="49">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
+        <f t="shared" ref="P43" si="9">IF(P42=1,10,IF(P42=2,8,IF(P42=3,6,IF(P42=4,5,IF(P42=5,4,IF(P42=6,3,IF(P42=7,2,IF(P42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
@@ -8653,43 +8741,43 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43" si="50">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
+        <f t="shared" ref="R43" si="10">IF(R42=1,10,IF(R42=2,8,IF(R42=3,6,IF(R42=4,5,IF(R42=5,4,IF(R42=6,3,IF(R42=7,2,IF(R42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43" si="51">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
+        <f t="shared" ref="S43" si="11">IF(S42=1,10,IF(S42=2,8,IF(S42=3,6,IF(S42=4,5,IF(S42=5,4,IF(S42=6,3,IF(S42=7,2,IF(S42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" ref="T43" si="52">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
+        <f t="shared" ref="T43" si="12">IF(T42=1,10,IF(T42=2,8,IF(T42=3,6,IF(T42=4,5,IF(T42=5,4,IF(T42=6,3,IF(T42=7,2,IF(T42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" ref="U43" si="53">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
+        <f t="shared" ref="U43" si="13">IF(U42=1,10,IF(U42=2,8,IF(U42=3,6,IF(U42=4,5,IF(U42=5,4,IF(U42=6,3,IF(U42=7,2,IF(U42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" ref="V43" si="54">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
+        <f t="shared" ref="V43" si="14">IF(V42=1,10,IF(V42=2,8,IF(V42=3,6,IF(V42=4,5,IF(V42=5,4,IF(V42=6,3,IF(V42=7,2,IF(V42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" ref="W43" si="55">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
+        <f t="shared" ref="W43" si="15">IF(W42=1,10,IF(W42=2,8,IF(W42=3,6,IF(W42=4,5,IF(W42=5,4,IF(W42=6,3,IF(W42=7,2,IF(W42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" ref="X43" si="56">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
+        <f t="shared" ref="X43" si="16">IF(X42=1,10,IF(X42=2,8,IF(X42=3,6,IF(X42=4,5,IF(X42=5,4,IF(X42=6,3,IF(X42=7,2,IF(X42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" ref="Y43" si="57">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
+        <f t="shared" ref="Y43" si="17">IF(Y42=1,10,IF(Y42=2,8,IF(Y42=3,6,IF(Y42=4,5,IF(Y42=5,4,IF(Y42=6,3,IF(Y42=7,2,IF(Y42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" ref="Z43" si="58">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
+        <f t="shared" ref="Z43" si="18">IF(Z42=1,10,IF(Z42=2,8,IF(Z42=3,6,IF(Z42=4,5,IF(Z42=5,4,IF(Z42=6,3,IF(Z42=7,2,IF(Z42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" ref="AA43" si="59">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
+        <f t="shared" ref="AA43" si="19">IF(AA42=1,10,IF(AA42=2,8,IF(AA42=3,6,IF(AA42=4,5,IF(AA42=5,4,IF(AA42=6,3,IF(AA42=7,2,IF(AA42=8,1,0))))))))</f>
         <v>0</v>
       </c>
       <c r="AB43" s="8"/>
@@ -8728,8 +8816,8 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -8898,7 +8986,9 @@
       <c r="V2" s="7">
         <v>1</v>
       </c>
-      <c r="W2" s="7"/>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -8909,11 +8999,11 @@
       </c>
       <c r="AC2" s="7">
         <f>SUM(F3:AA3)+AB2</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -8923,47 +9013,47 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:P3" si="0">IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
+        <f>IF(F2=1,10,IF(F2=2,6,IF(F2=3,4,IF(F2=4,3,IF(F2=5,2,IF(F2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(G2=1,10,IF(G2=2,6,IF(G2=3,4,IF(G2=4,3,IF(G2=5,2,IF(G2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(H2=1,10,IF(H2=2,6,IF(H2=3,4,IF(H2=4,3,IF(H2=5,2,IF(H2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(I2=1,10,IF(I2=2,6,IF(I2=3,4,IF(I2=4,3,IF(I2=5,2,IF(I2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(J2=1,10,IF(J2=2,6,IF(J2=3,4,IF(J2=4,3,IF(J2=5,2,IF(J2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="K3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(K2=1,10,IF(K2=2,6,IF(K2=3,4,IF(K2=4,3,IF(K2=5,2,IF(K2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(L2=1,10,IF(L2=2,6,IF(L2=3,4,IF(L2=4,3,IF(L2=5,2,IF(L2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(M2=1,10,IF(M2=2,6,IF(M2=3,4,IF(M2=4,3,IF(M2=5,2,IF(M2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(N2=1,10,IF(N2=2,6,IF(N2=3,4,IF(N2=4,3,IF(N2=5,2,IF(N2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(O2=1,10,IF(O2=2,6,IF(O2=3,4,IF(O2=4,3,IF(O2=5,2,IF(O2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" si="0"/>
+        <f>IF(P2=1,10,IF(P2=2,6,IF(P2=3,4,IF(P2=4,3,IF(P2=5,2,IF(P2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
@@ -8971,43 +9061,43 @@
         <v>5</v>
       </c>
       <c r="R3" s="8">
-        <f t="shared" ref="R3:AA3" si="1">IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
+        <f>IF(R2=1,10,IF(R2=2,6,IF(R2=3,4,IF(R2=4,3,IF(R2=5,2,IF(R2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="S3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(S2=1,10,IF(S2=2,6,IF(S2=3,4,IF(S2=4,3,IF(S2=5,2,IF(S2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(T2=1,10,IF(T2=2,6,IF(T2=3,4,IF(T2=4,3,IF(T2=5,2,IF(T2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="U3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(U2=1,10,IF(U2=2,6,IF(U2=3,4,IF(U2=4,3,IF(U2=5,2,IF(U2=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="V3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(V2=1,10,IF(V2=2,6,IF(V2=3,4,IF(V2=4,3,IF(V2=5,2,IF(V2=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="W3" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(W2=1,10,IF(W2=2,6,IF(W2=3,4,IF(W2=4,3,IF(W2=5,2,IF(W2=6,1,0))))))</f>
+        <v>10</v>
       </c>
       <c r="X3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f t="shared" si="1"/>
+        <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="8"/>
@@ -9081,7 +9171,9 @@
       <c r="V4" s="7">
         <v>2</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>2</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
@@ -9092,11 +9184,11 @@
       </c>
       <c r="AC4" s="7">
         <f>SUM(F5:AA5)+AB4</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9106,47 +9198,47 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:P5" si="2">IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
+        <f>IF(F4=1,10,IF(F4=2,6,IF(F4=3,4,IF(F4=4,3,IF(F4=5,2,IF(F4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(G4=1,10,IF(G4=2,6,IF(G4=3,4,IF(G4=4,3,IF(G4=5,2,IF(G4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(H4=1,10,IF(H4=2,6,IF(H4=3,4,IF(H4=4,3,IF(H4=5,2,IF(H4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(I4=1,10,IF(I4=2,6,IF(I4=3,4,IF(I4=4,3,IF(I4=5,2,IF(I4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(J4=1,10,IF(J4=2,6,IF(J4=3,4,IF(J4=4,3,IF(J4=5,2,IF(J4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(K4=1,10,IF(K4=2,6,IF(K4=3,4,IF(K4=4,3,IF(K4=5,2,IF(K4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(L4=1,10,IF(L4=2,6,IF(L4=3,4,IF(L4=4,3,IF(L4=5,2,IF(L4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(M4=1,10,IF(M4=2,6,IF(M4=3,4,IF(M4=4,3,IF(M4=5,2,IF(M4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(N4=1,10,IF(N4=2,6,IF(N4=3,4,IF(N4=4,3,IF(N4=5,2,IF(N4=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(O4=1,10,IF(O4=2,6,IF(O4=3,4,IF(O4=4,3,IF(O4=5,2,IF(O4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(P4=1,10,IF(P4=2,6,IF(P4=3,4,IF(P4=4,3,IF(P4=5,2,IF(P4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="Q5" s="8">
@@ -9154,43 +9246,43 @@
         <v>2</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:AA5" si="3">IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
+        <f>IF(R4=1,10,IF(R4=2,6,IF(R4=3,4,IF(R4=4,3,IF(R4=5,2,IF(R4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(S4=1,10,IF(S4=2,6,IF(S4=3,4,IF(S4=4,3,IF(S4=5,2,IF(S4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(T4=1,10,IF(T4=2,6,IF(T4=3,4,IF(T4=4,3,IF(T4=5,2,IF(T4=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(U4=1,10,IF(U4=2,6,IF(U4=3,4,IF(U4=4,3,IF(U4=5,2,IF(U4=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(V4=1,10,IF(V4=2,6,IF(V4=3,4,IF(V4=4,3,IF(V4=5,2,IF(V4=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(W4=1,10,IF(W4=2,6,IF(W4=3,4,IF(W4=4,3,IF(W4=5,2,IF(W4=6,1,0))))))</f>
+        <v>6</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="3"/>
+        <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB5" s="8"/>
@@ -9264,18 +9356,20 @@
       <c r="V6" s="7">
         <v>6</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="7">
+        <v>15</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:AA7)+AB6</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)</f>
@@ -9289,47 +9383,47 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:P7" si="4">IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
+        <f>IF(F6=1,10,IF(F6=2,6,IF(F6=3,4,IF(F6=4,3,IF(F6=5,2,IF(F6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(G6=1,10,IF(G6=2,6,IF(G6=3,4,IF(G6=4,3,IF(G6=5,2,IF(G6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(H6=1,10,IF(H6=2,6,IF(H6=3,4,IF(H6=4,3,IF(H6=5,2,IF(H6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(I6=1,10,IF(I6=2,6,IF(I6=3,4,IF(I6=4,3,IF(I6=5,2,IF(I6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(J6=1,10,IF(J6=2,6,IF(J6=3,4,IF(J6=4,3,IF(J6=5,2,IF(J6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(K6=1,10,IF(K6=2,6,IF(K6=3,4,IF(K6=4,3,IF(K6=5,2,IF(K6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(L6=1,10,IF(L6=2,6,IF(L6=3,4,IF(L6=4,3,IF(L6=5,2,IF(L6=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(M6=1,10,IF(M6=2,6,IF(M6=3,4,IF(M6=4,3,IF(M6=5,2,IF(M6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(N6=1,10,IF(N6=2,6,IF(N6=3,4,IF(N6=4,3,IF(N6=5,2,IF(N6=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(O6=1,10,IF(O6=2,6,IF(O6=3,4,IF(O6=4,3,IF(O6=5,2,IF(O6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="4"/>
+        <f>IF(P6=1,10,IF(P6=2,6,IF(P6=3,4,IF(P6=4,3,IF(P6=5,2,IF(P6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q7" s="8">
@@ -9337,43 +9431,43 @@
         <v>0</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" ref="R7:AA7" si="5">IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
+        <f>IF(R6=1,10,IF(R6=2,6,IF(R6=3,4,IF(R6=4,3,IF(R6=5,2,IF(R6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(S6=1,10,IF(S6=2,6,IF(S6=3,4,IF(S6=4,3,IF(S6=5,2,IF(S6=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(T6=1,10,IF(T6=2,6,IF(T6=3,4,IF(T6=4,3,IF(T6=5,2,IF(T6=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(U6=1,10,IF(U6=2,6,IF(U6=3,4,IF(U6=4,3,IF(U6=5,2,IF(U6=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(V6=1,10,IF(V6=2,6,IF(V6=3,4,IF(V6=4,3,IF(V6=5,2,IF(V6=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(W6=1,10,IF(W6=2,6,IF(W6=3,4,IF(W6=4,3,IF(W6=5,2,IF(W6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" si="5"/>
+        <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB7" s="8"/>
@@ -9447,7 +9541,9 @@
       <c r="V8" s="7">
         <v>3</v>
       </c>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>3</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -9458,11 +9554,11 @@
       </c>
       <c r="AC8" s="7">
         <f>SUM(F9:AA9)+AB8</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -9472,47 +9568,47 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:P9" si="6">IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
+        <f>IF(F8=1,10,IF(F8=2,6,IF(F8=3,4,IF(F8=4,3,IF(F8=5,2,IF(F8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(G8=1,10,IF(G8=2,6,IF(G8=3,4,IF(G8=4,3,IF(G8=5,2,IF(G8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(H8=1,10,IF(H8=2,6,IF(H8=3,4,IF(H8=4,3,IF(H8=5,2,IF(H8=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(I8=1,10,IF(I8=2,6,IF(I8=3,4,IF(I8=4,3,IF(I8=5,2,IF(I8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(J8=1,10,IF(J8=2,6,IF(J8=3,4,IF(J8=4,3,IF(J8=5,2,IF(J8=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(K8=1,10,IF(K8=2,6,IF(K8=3,4,IF(K8=4,3,IF(K8=5,2,IF(K8=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(L8=1,10,IF(L8=2,6,IF(L8=3,4,IF(L8=4,3,IF(L8=5,2,IF(L8=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(M8=1,10,IF(M8=2,6,IF(M8=3,4,IF(M8=4,3,IF(M8=5,2,IF(M8=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(N8=1,10,IF(N8=2,6,IF(N8=3,4,IF(N8=4,3,IF(N8=5,2,IF(N8=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(O8=1,10,IF(O8=2,6,IF(O8=3,4,IF(O8=4,3,IF(O8=5,2,IF(O8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="6"/>
+        <f>IF(P8=1,10,IF(P8=2,6,IF(P8=3,4,IF(P8=4,3,IF(P8=5,2,IF(P8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -9520,43 +9616,43 @@
         <v>0</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" ref="R9:AA9" si="7">IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
+        <f>IF(R8=1,10,IF(R8=2,6,IF(R8=3,4,IF(R8=4,3,IF(R8=5,2,IF(R8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(S8=1,10,IF(S8=2,6,IF(S8=3,4,IF(S8=4,3,IF(S8=5,2,IF(S8=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="T9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(T8=1,10,IF(T8=2,6,IF(T8=3,4,IF(T8=4,3,IF(T8=5,2,IF(T8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(U8=1,10,IF(U8=2,6,IF(U8=3,4,IF(U8=4,3,IF(U8=5,2,IF(U8=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(V8=1,10,IF(V8=2,6,IF(V8=3,4,IF(V8=4,3,IF(V8=5,2,IF(V8=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>IF(W8=1,10,IF(W8=2,6,IF(W8=3,4,IF(W8=4,3,IF(W8=5,2,IF(W8=6,1,0))))))</f>
+        <v>4</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="7"/>
+        <f>IF(AA8=1,10,IF(AA8=2,6,IF(AA8=3,4,IF(AA8=4,3,IF(AA8=5,2,IF(AA8=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB9" s="8"/>
@@ -9630,7 +9726,9 @@
       <c r="V10" s="7">
         <v>8</v>
       </c>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>10</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -9655,47 +9753,47 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:P11" si="8">IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
+        <f>IF(F10=1,10,IF(F10=2,6,IF(F10=3,4,IF(F10=4,3,IF(F10=5,2,IF(F10=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(G10=1,10,IF(G10=2,6,IF(G10=3,4,IF(G10=4,3,IF(G10=5,2,IF(G10=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(H10=1,10,IF(H10=2,6,IF(H10=3,4,IF(H10=4,3,IF(H10=5,2,IF(H10=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(I10=1,10,IF(I10=2,6,IF(I10=3,4,IF(I10=4,3,IF(I10=5,2,IF(I10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(J10=1,10,IF(J10=2,6,IF(J10=3,4,IF(J10=4,3,IF(J10=5,2,IF(J10=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(K10=1,10,IF(K10=2,6,IF(K10=3,4,IF(K10=4,3,IF(K10=5,2,IF(K10=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(L10=1,10,IF(L10=2,6,IF(L10=3,4,IF(L10=4,3,IF(L10=5,2,IF(L10=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(M10=1,10,IF(M10=2,6,IF(M10=3,4,IF(M10=4,3,IF(M10=5,2,IF(M10=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(N10=1,10,IF(N10=2,6,IF(N10=3,4,IF(N10=4,3,IF(N10=5,2,IF(N10=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(O10=1,10,IF(O10=2,6,IF(O10=3,4,IF(O10=4,3,IF(O10=5,2,IF(O10=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="8"/>
+        <f>IF(P10=1,10,IF(P10=2,6,IF(P10=3,4,IF(P10=4,3,IF(P10=5,2,IF(P10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q11" s="8">
@@ -9703,43 +9801,43 @@
         <v>0</v>
       </c>
       <c r="R11" s="8">
-        <f t="shared" ref="R11:AA11" si="9">IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
+        <f>IF(R10=1,10,IF(R10=2,6,IF(R10=3,4,IF(R10=4,3,IF(R10=5,2,IF(R10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(S10=1,10,IF(S10=2,6,IF(S10=3,4,IF(S10=4,3,IF(S10=5,2,IF(S10=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="T11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(T10=1,10,IF(T10=2,6,IF(T10=3,4,IF(T10=4,3,IF(T10=5,2,IF(T10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(U10=1,10,IF(U10=2,6,IF(U10=3,4,IF(U10=4,3,IF(U10=5,2,IF(U10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(V10=1,10,IF(V10=2,6,IF(V10=3,4,IF(V10=4,3,IF(V10=5,2,IF(V10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(W10=1,10,IF(W10=2,6,IF(W10=3,4,IF(W10=4,3,IF(W10=5,2,IF(W10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(X10=1,10,IF(X10=2,6,IF(X10=3,4,IF(X10=4,3,IF(X10=5,2,IF(X10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Y10=1,10,IF(Y10=2,6,IF(Y10=3,4,IF(Y10=4,3,IF(Y10=5,2,IF(Y10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(Z10=1,10,IF(Z10=2,6,IF(Z10=3,4,IF(Z10=4,3,IF(Z10=5,2,IF(Z10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="9"/>
+        <f>IF(AA10=1,10,IF(AA10=2,6,IF(AA10=3,4,IF(AA10=4,3,IF(AA10=5,2,IF(AA10=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB11" s="8"/>
@@ -9813,7 +9911,9 @@
       <c r="V12" s="7">
         <v>4</v>
       </c>
-      <c r="W12" s="7"/>
+      <c r="W12" s="7">
+        <v>5</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -9823,11 +9923,11 @@
       </c>
       <c r="AC12" s="7">
         <f>SUM(F13:AA13)+AB12</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -9837,47 +9937,47 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8">
-        <f t="shared" ref="F13:P13" si="10">IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
+        <f>IF(F12=1,10,IF(F12=2,6,IF(F12=3,4,IF(F12=4,3,IF(F12=5,2,IF(F12=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(G12=1,10,IF(G12=2,6,IF(G12=3,4,IF(G12=4,3,IF(G12=5,2,IF(G12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(H12=1,10,IF(H12=2,6,IF(H12=3,4,IF(H12=4,3,IF(H12=5,2,IF(H12=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(I12=1,10,IF(I12=2,6,IF(I12=3,4,IF(I12=4,3,IF(I12=5,2,IF(I12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(J12=1,10,IF(J12=2,6,IF(J12=3,4,IF(J12=4,3,IF(J12=5,2,IF(J12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(K12=1,10,IF(K12=2,6,IF(K12=3,4,IF(K12=4,3,IF(K12=5,2,IF(K12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(L12=1,10,IF(L12=2,6,IF(L12=3,4,IF(L12=4,3,IF(L12=5,2,IF(L12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(M12=1,10,IF(M12=2,6,IF(M12=3,4,IF(M12=4,3,IF(M12=5,2,IF(M12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(N12=1,10,IF(N12=2,6,IF(N12=3,4,IF(N12=4,3,IF(N12=5,2,IF(N12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(O12=1,10,IF(O12=2,6,IF(O12=3,4,IF(O12=4,3,IF(O12=5,2,IF(O12=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="10"/>
+        <f>IF(P12=1,10,IF(P12=2,6,IF(P12=3,4,IF(P12=4,3,IF(P12=5,2,IF(P12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
@@ -9885,43 +9985,43 @@
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" ref="R13:AA13" si="11">IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
+        <f>IF(R12=1,10,IF(R12=2,6,IF(R12=3,4,IF(R12=4,3,IF(R12=5,2,IF(R12=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(S12=1,10,IF(S12=2,6,IF(S12=3,4,IF(S12=4,3,IF(S12=5,2,IF(S12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(T12=1,10,IF(T12=2,6,IF(T12=3,4,IF(T12=4,3,IF(T12=5,2,IF(T12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(U12=1,10,IF(U12=2,6,IF(U12=3,4,IF(U12=4,3,IF(U12=5,2,IF(U12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(V12=1,10,IF(V12=2,6,IF(V12=3,4,IF(V12=4,3,IF(V12=5,2,IF(V12=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>IF(W12=1,10,IF(W12=2,6,IF(W12=3,4,IF(W12=4,3,IF(W12=5,2,IF(W12=6,1,0))))))</f>
+        <v>2</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(Z12=1,10,IF(Z12=2,6,IF(Z12=3,4,IF(Z12=4,3,IF(Z12=5,2,IF(Z12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="11"/>
+        <f>IF(AA12=1,10,IF(AA12=2,6,IF(AA12=3,4,IF(AA12=4,3,IF(AA12=5,2,IF(AA12=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="8"/>
@@ -9995,7 +10095,9 @@
       <c r="V14" s="7">
         <v>5</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7">
+        <v>12</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
@@ -10020,47 +10122,47 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8">
-        <f t="shared" ref="F15:P15" si="12">IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
+        <f>IF(F14=1,10,IF(F14=2,6,IF(F14=3,4,IF(F14=4,3,IF(F14=5,2,IF(F14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="12"/>
+        <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q15" s="8">
@@ -10068,43 +10170,43 @@
         <v>1.5</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:AA15" si="13">IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
+        <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="13"/>
+        <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB15" s="8"/>
@@ -10178,7 +10280,9 @@
       <c r="V16" s="7">
         <v>7</v>
       </c>
-      <c r="W16" s="7"/>
+      <c r="W16" s="7">
+        <v>6</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
@@ -10188,11 +10292,11 @@
       </c>
       <c r="AC16" s="7">
         <f>SUM(F17:AA17)+AB16</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -10202,47 +10306,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <f t="shared" ref="F17:P17" si="14">IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
+        <f>IF(F16=1,10,IF(F16=2,6,IF(F16=3,4,IF(F16=4,3,IF(F16=5,2,IF(F16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="14"/>
+        <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="Q17" s="8">
@@ -10250,43 +10354,43 @@
         <v>0</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" ref="R17:AA17" si="15">IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
+        <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
+        <v>1</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(Z16=1,10,IF(Z16=2,6,IF(Z16=3,4,IF(Z16=4,3,IF(Z16=5,2,IF(Z16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA17" s="8">
-        <f t="shared" si="15"/>
+        <f>IF(AA16=1,10,IF(AA16=2,6,IF(AA16=3,4,IF(AA16=4,3,IF(AA16=5,2,IF(AA16=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB17" s="8"/>
@@ -10360,7 +10464,9 @@
       <c r="V18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="7"/>
+      <c r="W18" s="7">
+        <v>4</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
@@ -10371,11 +10477,11 @@
       </c>
       <c r="AC18" s="7">
         <f>SUM(F19:AA19)+AB18</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -10385,47 +10491,47 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:P19" si="16">IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
+        <f>IF(F18=1,10,IF(F18=2,6,IF(F18=3,4,IF(F18=4,3,IF(F18=5,2,IF(F18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(G18=1,10,IF(G18=2,6,IF(G18=3,4,IF(G18=4,3,IF(G18=5,2,IF(G18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(H18=1,10,IF(H18=2,6,IF(H18=3,4,IF(H18=4,3,IF(H18=5,2,IF(H18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(I18=1,10,IF(I18=2,6,IF(I18=3,4,IF(I18=4,3,IF(I18=5,2,IF(I18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(J18=1,10,IF(J18=2,6,IF(J18=3,4,IF(J18=4,3,IF(J18=5,2,IF(J18=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(K18=1,10,IF(K18=2,6,IF(K18=3,4,IF(K18=4,3,IF(K18=5,2,IF(K18=6,1,0))))))</f>
         <v>4</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(L18=1,10,IF(L18=2,6,IF(L18=3,4,IF(L18=4,3,IF(L18=5,2,IF(L18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(M18=1,10,IF(M18=2,6,IF(M18=3,4,IF(M18=4,3,IF(M18=5,2,IF(M18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(N18=1,10,IF(N18=2,6,IF(N18=3,4,IF(N18=4,3,IF(N18=5,2,IF(N18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(O18=1,10,IF(O18=2,6,IF(O18=3,4,IF(O18=4,3,IF(O18=5,2,IF(O18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="16"/>
+        <f>IF(P18=1,10,IF(P18=2,6,IF(P18=3,4,IF(P18=4,3,IF(P18=5,2,IF(P18=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="Q19" s="8">
@@ -10433,43 +10539,43 @@
         <v>0.5</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" ref="R19:AA19" si="17">IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
+        <f>IF(R18=1,10,IF(R18=2,6,IF(R18=3,4,IF(R18=4,3,IF(R18=5,2,IF(R18=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(S18=1,10,IF(S18=2,6,IF(S18=3,4,IF(S18=4,3,IF(S18=5,2,IF(S18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(T18=1,10,IF(T18=2,6,IF(T18=3,4,IF(T18=4,3,IF(T18=5,2,IF(T18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(U18=1,10,IF(U18=2,6,IF(U18=3,4,IF(U18=4,3,IF(U18=5,2,IF(U18=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="V19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(V18=1,10,IF(V18=2,6,IF(V18=3,4,IF(V18=4,3,IF(V18=5,2,IF(V18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>IF(W18=1,10,IF(W18=2,6,IF(W18=3,4,IF(W18=4,3,IF(W18=5,2,IF(W18=6,1,0))))))</f>
+        <v>3</v>
       </c>
       <c r="X19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(X18=1,10,IF(X18=2,6,IF(X18=3,4,IF(X18=4,3,IF(X18=5,2,IF(X18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Y18=1,10,IF(Y18=2,6,IF(Y18=3,4,IF(Y18=4,3,IF(Y18=5,2,IF(Y18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <f t="shared" si="17"/>
+        <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB19" s="8"/>
@@ -10543,7 +10649,9 @@
       <c r="V20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W20" s="7"/>
+      <c r="W20" s="7">
+        <v>9</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
@@ -10567,47 +10675,47 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:P21" si="18">IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
+        <f>IF(F20=1,10,IF(F20=2,6,IF(F20=3,4,IF(F20=4,3,IF(F20=5,2,IF(F20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(G20=1,10,IF(G20=2,6,IF(G20=3,4,IF(G20=4,3,IF(G20=5,2,IF(G20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(H20=1,10,IF(H20=2,6,IF(H20=3,4,IF(H20=4,3,IF(H20=5,2,IF(H20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(I20=1,10,IF(I20=2,6,IF(I20=3,4,IF(I20=4,3,IF(I20=5,2,IF(I20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(J20=1,10,IF(J20=2,6,IF(J20=3,4,IF(J20=4,3,IF(J20=5,2,IF(J20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(K20=1,10,IF(K20=2,6,IF(K20=3,4,IF(K20=4,3,IF(K20=5,2,IF(K20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(L20=1,10,IF(L20=2,6,IF(L20=3,4,IF(L20=4,3,IF(L20=5,2,IF(L20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(M20=1,10,IF(M20=2,6,IF(M20=3,4,IF(M20=4,3,IF(M20=5,2,IF(M20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(N20=1,10,IF(N20=2,6,IF(N20=3,4,IF(N20=4,3,IF(N20=5,2,IF(N20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(O20=1,10,IF(O20=2,6,IF(O20=3,4,IF(O20=4,3,IF(O20=5,2,IF(O20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="18"/>
+        <f>IF(P20=1,10,IF(P20=2,6,IF(P20=3,4,IF(P20=4,3,IF(P20=5,2,IF(P20=6,1,0))))))</f>
         <v>10</v>
       </c>
       <c r="Q21" s="8">
@@ -10615,43 +10723,43 @@
         <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" ref="R21:AA21" si="19">IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
+        <f>IF(R20=1,10,IF(R20=2,6,IF(R20=3,4,IF(R20=4,3,IF(R20=5,2,IF(R20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(S20=1,10,IF(S20=2,6,IF(S20=3,4,IF(S20=4,3,IF(S20=5,2,IF(S20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(T20=1,10,IF(T20=2,6,IF(T20=3,4,IF(T20=4,3,IF(T20=5,2,IF(T20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(U20=1,10,IF(U20=2,6,IF(U20=3,4,IF(U20=4,3,IF(U20=5,2,IF(U20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(V20=1,10,IF(V20=2,6,IF(V20=3,4,IF(V20=4,3,IF(V20=5,2,IF(V20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(W20=1,10,IF(W20=2,6,IF(W20=3,4,IF(W20=4,3,IF(W20=5,2,IF(W20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(X20=1,10,IF(X20=2,6,IF(X20=3,4,IF(X20=4,3,IF(X20=5,2,IF(X20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="19"/>
+        <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB21" s="8"/>
@@ -10725,7 +10833,9 @@
       <c r="V22" s="7">
         <v>10</v>
       </c>
-      <c r="W22" s="7"/>
+      <c r="W22" s="7">
+        <v>7</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
@@ -10749,47 +10859,47 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
-        <f t="shared" ref="F23:P23" si="20">IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
+        <f>IF(F22=1,10,IF(F22=2,6,IF(F22=3,4,IF(F22=4,3,IF(F22=5,2,IF(F22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(G22=1,10,IF(G22=2,6,IF(G22=3,4,IF(G22=4,3,IF(G22=5,2,IF(G22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(H22=1,10,IF(H22=2,6,IF(H22=3,4,IF(H22=4,3,IF(H22=5,2,IF(H22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(I22=1,10,IF(I22=2,6,IF(I22=3,4,IF(I22=4,3,IF(I22=5,2,IF(I22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
         <v>2</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
         <v>6</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(M22=1,10,IF(M22=2,6,IF(M22=3,4,IF(M22=4,3,IF(M22=5,2,IF(M22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(N22=1,10,IF(N22=2,6,IF(N22=3,4,IF(N22=4,3,IF(N22=5,2,IF(N22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(O22=1,10,IF(O22=2,6,IF(O22=3,4,IF(O22=4,3,IF(O22=5,2,IF(O22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="20"/>
+        <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
@@ -10797,43 +10907,43 @@
         <v>1</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" ref="R23:AA23" si="21">IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
+        <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(V22=1,10,IF(V22=2,6,IF(V22=3,4,IF(V22=4,3,IF(V22=5,2,IF(V22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(W22=1,10,IF(W22=2,6,IF(W22=3,4,IF(W22=4,3,IF(W22=5,2,IF(W22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(X22=1,10,IF(X22=2,6,IF(X22=3,4,IF(X22=4,3,IF(X22=5,2,IF(X22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="21"/>
+        <f>IF(AA22=1,10,IF(AA22=2,6,IF(AA22=3,4,IF(AA22=4,3,IF(AA22=5,2,IF(AA22=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB23" s="8"/>
@@ -10907,7 +11017,9 @@
       <c r="V24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7">
+        <v>13</v>
+      </c>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
@@ -10931,47 +11043,47 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <f t="shared" ref="F25:P25" si="22">IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
+        <f>IF(F24=1,10,IF(F24=2,6,IF(F24=3,4,IF(F24=4,3,IF(F24=5,2,IF(F24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(G24=1,10,IF(G24=2,6,IF(G24=3,4,IF(G24=4,3,IF(G24=5,2,IF(G24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(H24=1,10,IF(H24=2,6,IF(H24=3,4,IF(H24=4,3,IF(H24=5,2,IF(H24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(I24=1,10,IF(I24=2,6,IF(I24=3,4,IF(I24=4,3,IF(I24=5,2,IF(I24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(M24=1,10,IF(M24=2,6,IF(M24=3,4,IF(M24=4,3,IF(M24=5,2,IF(M24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(N24=1,10,IF(N24=2,6,IF(N24=3,4,IF(N24=4,3,IF(N24=5,2,IF(N24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(O24=1,10,IF(O24=2,6,IF(O24=3,4,IF(O24=4,3,IF(O24=5,2,IF(O24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="22"/>
+        <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
         <v>3</v>
       </c>
       <c r="Q25" s="8">
@@ -10979,43 +11091,43 @@
         <v>0</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" ref="R25:AA25" si="23">IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
+        <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(V24=1,10,IF(V24=2,6,IF(V24=3,4,IF(V24=4,3,IF(V24=5,2,IF(V24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(W24=1,10,IF(W24=2,6,IF(W24=3,4,IF(W24=4,3,IF(W24=5,2,IF(W24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(X24=1,10,IF(X24=2,6,IF(X24=3,4,IF(X24=4,3,IF(X24=5,2,IF(X24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="23"/>
+        <f>IF(AA24=1,10,IF(AA24=2,6,IF(AA24=3,4,IF(AA24=4,3,IF(AA24=5,2,IF(AA24=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB25" s="8"/>
@@ -11089,7 +11201,9 @@
       <c r="V26" s="7">
         <v>14</v>
       </c>
-      <c r="W26" s="7"/>
+      <c r="W26" s="7">
+        <v>16</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -11113,47 +11227,47 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
-        <f t="shared" ref="F27:P27" si="24">IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
+        <f>IF(F26=1,10,IF(F26=2,6,IF(F26=3,4,IF(F26=4,3,IF(F26=5,2,IF(F26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(G26=1,10,IF(G26=2,6,IF(G26=3,4,IF(G26=4,3,IF(G26=5,2,IF(G26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(H26=1,10,IF(H26=2,6,IF(H26=3,4,IF(H26=4,3,IF(H26=5,2,IF(H26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(I26=1,10,IF(I26=2,6,IF(I26=3,4,IF(I26=4,3,IF(I26=5,2,IF(I26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(J26=1,10,IF(J26=2,6,IF(J26=3,4,IF(J26=4,3,IF(J26=5,2,IF(J26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(K26=1,10,IF(K26=2,6,IF(K26=3,4,IF(K26=4,3,IF(K26=5,2,IF(K26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(L26=1,10,IF(L26=2,6,IF(L26=3,4,IF(L26=4,3,IF(L26=5,2,IF(L26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(M26=1,10,IF(M26=2,6,IF(M26=3,4,IF(M26=4,3,IF(M26=5,2,IF(M26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(N26=1,10,IF(N26=2,6,IF(N26=3,4,IF(N26=4,3,IF(N26=5,2,IF(N26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(O26=1,10,IF(O26=2,6,IF(O26=3,4,IF(O26=4,3,IF(O26=5,2,IF(O26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="24"/>
+        <f>IF(P26=1,10,IF(P26=2,6,IF(P26=3,4,IF(P26=4,3,IF(P26=5,2,IF(P26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q27" s="8">
@@ -11161,43 +11275,43 @@
         <v>3</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" ref="R27:AA27" si="25">IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
+        <f>IF(R26=1,10,IF(R26=2,6,IF(R26=3,4,IF(R26=4,3,IF(R26=5,2,IF(R26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(S26=1,10,IF(S26=2,6,IF(S26=3,4,IF(S26=4,3,IF(S26=5,2,IF(S26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(T26=1,10,IF(T26=2,6,IF(T26=3,4,IF(T26=4,3,IF(T26=5,2,IF(T26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(U26=1,10,IF(U26=2,6,IF(U26=3,4,IF(U26=4,3,IF(U26=5,2,IF(U26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(V26=1,10,IF(V26=2,6,IF(V26=3,4,IF(V26=4,3,IF(V26=5,2,IF(V26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(W26=1,10,IF(W26=2,6,IF(W26=3,4,IF(W26=4,3,IF(W26=5,2,IF(W26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(X26=1,10,IF(X26=2,6,IF(X26=3,4,IF(X26=4,3,IF(X26=5,2,IF(X26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Y26=1,10,IF(Y26=2,6,IF(Y26=3,4,IF(Y26=4,3,IF(Y26=5,2,IF(Y26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(Z26=1,10,IF(Z26=2,6,IF(Z26=3,4,IF(Z26=4,3,IF(Z26=5,2,IF(Z26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA27" s="8">
-        <f t="shared" si="25"/>
+        <f>IF(AA26=1,10,IF(AA26=2,6,IF(AA26=3,4,IF(AA26=4,3,IF(AA26=5,2,IF(AA26=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB27" s="8"/>
@@ -11271,7 +11385,9 @@
       <c r="V28" s="7">
         <v>9</v>
       </c>
-      <c r="W28" s="7"/>
+      <c r="W28" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -11295,47 +11411,47 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
-        <f t="shared" ref="F29:P29" si="26">IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
+        <f>IF(F28=1,10,IF(F28=2,6,IF(F28=3,4,IF(F28=4,3,IF(F28=5,2,IF(F28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(G28=1,10,IF(G28=2,6,IF(G28=3,4,IF(G28=4,3,IF(G28=5,2,IF(G28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(H28=1,10,IF(H28=2,6,IF(H28=3,4,IF(H28=4,3,IF(H28=5,2,IF(H28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(I28=1,10,IF(I28=2,6,IF(I28=3,4,IF(I28=4,3,IF(I28=5,2,IF(I28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(J28=1,10,IF(J28=2,6,IF(J28=3,4,IF(J28=4,3,IF(J28=5,2,IF(J28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(K28=1,10,IF(K28=2,6,IF(K28=3,4,IF(K28=4,3,IF(K28=5,2,IF(K28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(L28=1,10,IF(L28=2,6,IF(L28=3,4,IF(L28=4,3,IF(L28=5,2,IF(L28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(M28=1,10,IF(M28=2,6,IF(M28=3,4,IF(M28=4,3,IF(M28=5,2,IF(M28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(N28=1,10,IF(N28=2,6,IF(N28=3,4,IF(N28=4,3,IF(N28=5,2,IF(N28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(O28=1,10,IF(O28=2,6,IF(O28=3,4,IF(O28=4,3,IF(O28=5,2,IF(O28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="26"/>
+        <f>IF(P28=1,10,IF(P28=2,6,IF(P28=3,4,IF(P28=4,3,IF(P28=5,2,IF(P28=6,1,0))))))</f>
         <v>1</v>
       </c>
       <c r="Q29" s="8">
@@ -11343,43 +11459,43 @@
         <v>0</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" ref="R29:AA29" si="27">IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
+        <f>IF(R28=1,10,IF(R28=2,6,IF(R28=3,4,IF(R28=4,3,IF(R28=5,2,IF(R28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(S28=1,10,IF(S28=2,6,IF(S28=3,4,IF(S28=4,3,IF(S28=5,2,IF(S28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(T28=1,10,IF(T28=2,6,IF(T28=3,4,IF(T28=4,3,IF(T28=5,2,IF(T28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(U28=1,10,IF(U28=2,6,IF(U28=3,4,IF(U28=4,3,IF(U28=5,2,IF(U28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(V28=1,10,IF(V28=2,6,IF(V28=3,4,IF(V28=4,3,IF(V28=5,2,IF(V28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(W28=1,10,IF(W28=2,6,IF(W28=3,4,IF(W28=4,3,IF(W28=5,2,IF(W28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(X28=1,10,IF(X28=2,6,IF(X28=3,4,IF(X28=4,3,IF(X28=5,2,IF(X28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Y28=1,10,IF(Y28=2,6,IF(Y28=3,4,IF(Y28=4,3,IF(Y28=5,2,IF(Y28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(Z28=1,10,IF(Z28=2,6,IF(Z28=3,4,IF(Z28=4,3,IF(Z28=5,2,IF(Z28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA29" s="8">
-        <f t="shared" si="27"/>
+        <f>IF(AA28=1,10,IF(AA28=2,6,IF(AA28=3,4,IF(AA28=4,3,IF(AA28=5,2,IF(AA28=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB29" s="8"/>
@@ -11453,7 +11569,9 @@
       <c r="V30" s="7">
         <v>17</v>
       </c>
-      <c r="W30" s="7"/>
+      <c r="W30" s="7">
+        <v>18</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -11478,47 +11596,47 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
-        <f t="shared" ref="F31:P31" si="28">IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
+        <f>IF(F30=1,10,IF(F30=2,6,IF(F30=3,4,IF(F30=4,3,IF(F30=5,2,IF(F30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(G30=1,10,IF(G30=2,6,IF(G30=3,4,IF(G30=4,3,IF(G30=5,2,IF(G30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(H30=1,10,IF(H30=2,6,IF(H30=3,4,IF(H30=4,3,IF(H30=5,2,IF(H30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(I30=1,10,IF(I30=2,6,IF(I30=3,4,IF(I30=4,3,IF(I30=5,2,IF(I30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(J30=1,10,IF(J30=2,6,IF(J30=3,4,IF(J30=4,3,IF(J30=5,2,IF(J30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(K30=1,10,IF(K30=2,6,IF(K30=3,4,IF(K30=4,3,IF(K30=5,2,IF(K30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(L30=1,10,IF(L30=2,6,IF(L30=3,4,IF(L30=4,3,IF(L30=5,2,IF(L30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(M30=1,10,IF(M30=2,6,IF(M30=3,4,IF(M30=4,3,IF(M30=5,2,IF(M30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(N30=1,10,IF(N30=2,6,IF(N30=3,4,IF(N30=4,3,IF(N30=5,2,IF(N30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(O30=1,10,IF(O30=2,6,IF(O30=3,4,IF(O30=4,3,IF(O30=5,2,IF(O30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="28"/>
+        <f>IF(P30=1,10,IF(P30=2,6,IF(P30=3,4,IF(P30=4,3,IF(P30=5,2,IF(P30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q31" s="8">
@@ -11526,43 +11644,43 @@
         <v>0</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" ref="R31:AA31" si="29">IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
+        <f>IF(R30=1,10,IF(R30=2,6,IF(R30=3,4,IF(R30=4,3,IF(R30=5,2,IF(R30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(S30=1,10,IF(S30=2,6,IF(S30=3,4,IF(S30=4,3,IF(S30=5,2,IF(S30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(T30=1,10,IF(T30=2,6,IF(T30=3,4,IF(T30=4,3,IF(T30=5,2,IF(T30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(U30=1,10,IF(U30=2,6,IF(U30=3,4,IF(U30=4,3,IF(U30=5,2,IF(U30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(V30=1,10,IF(V30=2,6,IF(V30=3,4,IF(V30=4,3,IF(V30=5,2,IF(V30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(W30=1,10,IF(W30=2,6,IF(W30=3,4,IF(W30=4,3,IF(W30=5,2,IF(W30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(X30=1,10,IF(X30=2,6,IF(X30=3,4,IF(X30=4,3,IF(X30=5,2,IF(X30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA31" s="8">
-        <f t="shared" si="29"/>
+        <f>IF(AA30=1,10,IF(AA30=2,6,IF(AA30=3,4,IF(AA30=4,3,IF(AA30=5,2,IF(AA30=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB31" s="8"/>
@@ -11636,7 +11754,9 @@
       <c r="V32" s="7">
         <v>12</v>
       </c>
-      <c r="W32" s="7"/>
+      <c r="W32" s="7">
+        <v>14</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -11660,47 +11780,47 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
-        <f t="shared" ref="F33:P33" si="30">IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
+        <f>IF(F32=1,10,IF(F32=2,6,IF(F32=3,4,IF(F32=4,3,IF(F32=5,2,IF(F32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(G32=1,10,IF(G32=2,6,IF(G32=3,4,IF(G32=4,3,IF(G32=5,2,IF(G32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(H32=1,10,IF(H32=2,6,IF(H32=3,4,IF(H32=4,3,IF(H32=5,2,IF(H32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(I32=1,10,IF(I32=2,6,IF(I32=3,4,IF(I32=4,3,IF(I32=5,2,IF(I32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(J32=1,10,IF(J32=2,6,IF(J32=3,4,IF(J32=4,3,IF(J32=5,2,IF(J32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(K32=1,10,IF(K32=2,6,IF(K32=3,4,IF(K32=4,3,IF(K32=5,2,IF(K32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(L32=1,10,IF(L32=2,6,IF(L32=3,4,IF(L32=4,3,IF(L32=5,2,IF(L32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(M32=1,10,IF(M32=2,6,IF(M32=3,4,IF(M32=4,3,IF(M32=5,2,IF(M32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(N32=1,10,IF(N32=2,6,IF(N32=3,4,IF(N32=4,3,IF(N32=5,2,IF(N32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(O32=1,10,IF(O32=2,6,IF(O32=3,4,IF(O32=4,3,IF(O32=5,2,IF(O32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="30"/>
+        <f>IF(P32=1,10,IF(P32=2,6,IF(P32=3,4,IF(P32=4,3,IF(P32=5,2,IF(P32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q33" s="8">
@@ -11708,43 +11828,43 @@
         <v>0</v>
       </c>
       <c r="R33" s="8">
-        <f t="shared" ref="R33:AA33" si="31">IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
+        <f>IF(R32=1,10,IF(R32=2,6,IF(R32=3,4,IF(R32=4,3,IF(R32=5,2,IF(R32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(S32=1,10,IF(S32=2,6,IF(S32=3,4,IF(S32=4,3,IF(S32=5,2,IF(S32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(T32=1,10,IF(T32=2,6,IF(T32=3,4,IF(T32=4,3,IF(T32=5,2,IF(T32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(U32=1,10,IF(U32=2,6,IF(U32=3,4,IF(U32=4,3,IF(U32=5,2,IF(U32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(V32=1,10,IF(V32=2,6,IF(V32=3,4,IF(V32=4,3,IF(V32=5,2,IF(V32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(W32=1,10,IF(W32=2,6,IF(W32=3,4,IF(W32=4,3,IF(W32=5,2,IF(W32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(X32=1,10,IF(X32=2,6,IF(X32=3,4,IF(X32=4,3,IF(X32=5,2,IF(X32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Y32=1,10,IF(Y32=2,6,IF(Y32=3,4,IF(Y32=4,3,IF(Y32=5,2,IF(Y32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(Z32=1,10,IF(Z32=2,6,IF(Z32=3,4,IF(Z32=4,3,IF(Z32=5,2,IF(Z32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA33" s="8">
-        <f t="shared" si="31"/>
+        <f>IF(AA32=1,10,IF(AA32=2,6,IF(AA32=3,4,IF(AA32=4,3,IF(AA32=5,2,IF(AA32=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB33" s="8"/>
@@ -11818,7 +11938,9 @@
       <c r="V34" s="7">
         <v>15</v>
       </c>
-      <c r="W34" s="7"/>
+      <c r="W34" s="7">
+        <v>17</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -11842,47 +11964,47 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
-        <f t="shared" ref="F35:P35" si="32">IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
+        <f>IF(F34=1,10,IF(F34=2,6,IF(F34=3,4,IF(F34=4,3,IF(F34=5,2,IF(F34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(G34=1,10,IF(G34=2,6,IF(G34=3,4,IF(G34=4,3,IF(G34=5,2,IF(G34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(H34=1,10,IF(H34=2,6,IF(H34=3,4,IF(H34=4,3,IF(H34=5,2,IF(H34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(I34=1,10,IF(I34=2,6,IF(I34=3,4,IF(I34=4,3,IF(I34=5,2,IF(I34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(J34=1,10,IF(J34=2,6,IF(J34=3,4,IF(J34=4,3,IF(J34=5,2,IF(J34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(K34=1,10,IF(K34=2,6,IF(K34=3,4,IF(K34=4,3,IF(K34=5,2,IF(K34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(L34=1,10,IF(L34=2,6,IF(L34=3,4,IF(L34=4,3,IF(L34=5,2,IF(L34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(M34=1,10,IF(M34=2,6,IF(M34=3,4,IF(M34=4,3,IF(M34=5,2,IF(M34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(N34=1,10,IF(N34=2,6,IF(N34=3,4,IF(N34=4,3,IF(N34=5,2,IF(N34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(O34=1,10,IF(O34=2,6,IF(O34=3,4,IF(O34=4,3,IF(O34=5,2,IF(O34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="32"/>
+        <f>IF(P34=1,10,IF(P34=2,6,IF(P34=3,4,IF(P34=4,3,IF(P34=5,2,IF(P34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q35" s="8">
@@ -11890,43 +12012,43 @@
         <v>0</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" ref="R35:AA35" si="33">IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
+        <f>IF(R34=1,10,IF(R34=2,6,IF(R34=3,4,IF(R34=4,3,IF(R34=5,2,IF(R34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(S34=1,10,IF(S34=2,6,IF(S34=3,4,IF(S34=4,3,IF(S34=5,2,IF(S34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(T34=1,10,IF(T34=2,6,IF(T34=3,4,IF(T34=4,3,IF(T34=5,2,IF(T34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(U34=1,10,IF(U34=2,6,IF(U34=3,4,IF(U34=4,3,IF(U34=5,2,IF(U34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(V34=1,10,IF(V34=2,6,IF(V34=3,4,IF(V34=4,3,IF(V34=5,2,IF(V34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(W34=1,10,IF(W34=2,6,IF(W34=3,4,IF(W34=4,3,IF(W34=5,2,IF(W34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(X34=1,10,IF(X34=2,6,IF(X34=3,4,IF(X34=4,3,IF(X34=5,2,IF(X34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Y34=1,10,IF(Y34=2,6,IF(Y34=3,4,IF(Y34=4,3,IF(Y34=5,2,IF(Y34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(Z34=1,10,IF(Z34=2,6,IF(Z34=3,4,IF(Z34=4,3,IF(Z34=5,2,IF(Z34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="33"/>
+        <f>IF(AA34=1,10,IF(AA34=2,6,IF(AA34=3,4,IF(AA34=4,3,IF(AA34=5,2,IF(AA34=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB35" s="8"/>
@@ -11996,7 +12118,9 @@
       <c r="V36" s="7">
         <v>13</v>
       </c>
-      <c r="W36" s="7"/>
+      <c r="W36" s="7">
+        <v>8</v>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -12020,47 +12144,47 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:P37" si="34">IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
+        <f>IF(F36=1,10,IF(F36=2,6,IF(F36=3,4,IF(F36=4,3,IF(F36=5,2,IF(F36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(G36=1,10,IF(G36=2,6,IF(G36=3,4,IF(G36=4,3,IF(G36=5,2,IF(G36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(H36=1,10,IF(H36=2,6,IF(H36=3,4,IF(H36=4,3,IF(H36=5,2,IF(H36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(I36=1,10,IF(I36=2,6,IF(I36=3,4,IF(I36=4,3,IF(I36=5,2,IF(I36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(J36=1,10,IF(J36=2,6,IF(J36=3,4,IF(J36=4,3,IF(J36=5,2,IF(J36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(K36=1,10,IF(K36=2,6,IF(K36=3,4,IF(K36=4,3,IF(K36=5,2,IF(K36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(L36=1,10,IF(L36=2,6,IF(L36=3,4,IF(L36=4,3,IF(L36=5,2,IF(L36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(M36=1,10,IF(M36=2,6,IF(M36=3,4,IF(M36=4,3,IF(M36=5,2,IF(M36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(N36=1,10,IF(N36=2,6,IF(N36=3,4,IF(N36=4,3,IF(N36=5,2,IF(N36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(O36=1,10,IF(O36=2,6,IF(O36=3,4,IF(O36=4,3,IF(O36=5,2,IF(O36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="34"/>
+        <f>IF(P36=1,10,IF(P36=2,6,IF(P36=3,4,IF(P36=4,3,IF(P36=5,2,IF(P36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q37" s="8">
@@ -12068,43 +12192,43 @@
         <v>0</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37:AA37" si="35">IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
+        <f>IF(R36=1,10,IF(R36=2,6,IF(R36=3,4,IF(R36=4,3,IF(R36=5,2,IF(R36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(S36=1,10,IF(S36=2,6,IF(S36=3,4,IF(S36=4,3,IF(S36=5,2,IF(S36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(T36=1,10,IF(T36=2,6,IF(T36=3,4,IF(T36=4,3,IF(T36=5,2,IF(T36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(U36=1,10,IF(U36=2,6,IF(U36=3,4,IF(U36=4,3,IF(U36=5,2,IF(U36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(V36=1,10,IF(V36=2,6,IF(V36=3,4,IF(V36=4,3,IF(V36=5,2,IF(V36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(W36=1,10,IF(W36=2,6,IF(W36=3,4,IF(W36=4,3,IF(W36=5,2,IF(W36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(X36=1,10,IF(X36=2,6,IF(X36=3,4,IF(X36=4,3,IF(X36=5,2,IF(X36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Y36=1,10,IF(Y36=2,6,IF(Y36=3,4,IF(Y36=4,3,IF(Y36=5,2,IF(Y36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(Z36=1,10,IF(Z36=2,6,IF(Z36=3,4,IF(Z36=4,3,IF(Z36=5,2,IF(Z36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA37" s="8">
-        <f t="shared" si="35"/>
+        <f>IF(AA36=1,10,IF(AA36=2,6,IF(AA36=3,4,IF(AA36=4,3,IF(AA36=5,2,IF(AA36=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB37" s="8"/>
@@ -12178,7 +12302,9 @@
       <c r="V38" s="7">
         <v>11</v>
       </c>
-      <c r="W38" s="7"/>
+      <c r="W38" s="7">
+        <v>11</v>
+      </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -12202,47 +12328,47 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <f t="shared" ref="F39:P39" si="36">IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
+        <f>IF(F38=1,10,IF(F38=2,6,IF(F38=3,4,IF(F38=4,3,IF(F38=5,2,IF(F38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(G38=1,10,IF(G38=2,6,IF(G38=3,4,IF(G38=4,3,IF(G38=5,2,IF(G38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(H38=1,10,IF(H38=2,6,IF(H38=3,4,IF(H38=4,3,IF(H38=5,2,IF(H38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(I38=1,10,IF(I38=2,6,IF(I38=3,4,IF(I38=4,3,IF(I38=5,2,IF(I38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(J38=1,10,IF(J38=2,6,IF(J38=3,4,IF(J38=4,3,IF(J38=5,2,IF(J38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(K38=1,10,IF(K38=2,6,IF(K38=3,4,IF(K38=4,3,IF(K38=5,2,IF(K38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(L38=1,10,IF(L38=2,6,IF(L38=3,4,IF(L38=4,3,IF(L38=5,2,IF(L38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(M38=1,10,IF(M38=2,6,IF(M38=3,4,IF(M38=4,3,IF(M38=5,2,IF(M38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(N38=1,10,IF(N38=2,6,IF(N38=3,4,IF(N38=4,3,IF(N38=5,2,IF(N38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(O38=1,10,IF(O38=2,6,IF(O38=3,4,IF(O38=4,3,IF(O38=5,2,IF(O38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="36"/>
+        <f>IF(P38=1,10,IF(P38=2,6,IF(P38=3,4,IF(P38=4,3,IF(P38=5,2,IF(P38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="8">
@@ -12250,43 +12376,43 @@
         <v>0</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" ref="R39:AA39" si="37">IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
+        <f>IF(R38=1,10,IF(R38=2,6,IF(R38=3,4,IF(R38=4,3,IF(R38=5,2,IF(R38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(S38=1,10,IF(S38=2,6,IF(S38=3,4,IF(S38=4,3,IF(S38=5,2,IF(S38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(T38=1,10,IF(T38=2,6,IF(T38=3,4,IF(T38=4,3,IF(T38=5,2,IF(T38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(U38=1,10,IF(U38=2,6,IF(U38=3,4,IF(U38=4,3,IF(U38=5,2,IF(U38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(V38=1,10,IF(V38=2,6,IF(V38=3,4,IF(V38=4,3,IF(V38=5,2,IF(V38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(W38=1,10,IF(W38=2,6,IF(W38=3,4,IF(W38=4,3,IF(W38=5,2,IF(W38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(X38=1,10,IF(X38=2,6,IF(X38=3,4,IF(X38=4,3,IF(X38=5,2,IF(X38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Y38=1,10,IF(Y38=2,6,IF(Y38=3,4,IF(Y38=4,3,IF(Y38=5,2,IF(Y38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(Z38=1,10,IF(Z38=2,6,IF(Z38=3,4,IF(Z38=4,3,IF(Z38=5,2,IF(Z38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA39" s="8">
-        <f t="shared" si="37"/>
+        <f>IF(AA38=1,10,IF(AA38=2,6,IF(AA38=3,4,IF(AA38=4,3,IF(AA38=5,2,IF(AA38=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB39" s="8"/>
@@ -12360,7 +12486,9 @@
       <c r="V40" s="7">
         <v>16</v>
       </c>
-      <c r="W40" s="7"/>
+      <c r="W40" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -12384,47 +12512,47 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41:P41" si="38">IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
+        <f>IF(F40=1,10,IF(F40=2,6,IF(F40=3,4,IF(F40=4,3,IF(F40=5,2,IF(F40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(G40=1,10,IF(G40=2,6,IF(G40=3,4,IF(G40=4,3,IF(G40=5,2,IF(G40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(H40=1,10,IF(H40=2,6,IF(H40=3,4,IF(H40=4,3,IF(H40=5,2,IF(H40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(I40=1,10,IF(I40=2,6,IF(I40=3,4,IF(I40=4,3,IF(I40=5,2,IF(I40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(J40=1,10,IF(J40=2,6,IF(J40=3,4,IF(J40=4,3,IF(J40=5,2,IF(J40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(K40=1,10,IF(K40=2,6,IF(K40=3,4,IF(K40=4,3,IF(K40=5,2,IF(K40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(L40=1,10,IF(L40=2,6,IF(L40=3,4,IF(L40=4,3,IF(L40=5,2,IF(L40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(M40=1,10,IF(M40=2,6,IF(M40=3,4,IF(M40=4,3,IF(M40=5,2,IF(M40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(N40=1,10,IF(N40=2,6,IF(N40=3,4,IF(N40=4,3,IF(N40=5,2,IF(N40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(O40=1,10,IF(O40=2,6,IF(O40=3,4,IF(O40=4,3,IF(O40=5,2,IF(O40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="38"/>
+        <f>IF(P40=1,10,IF(P40=2,6,IF(P40=3,4,IF(P40=4,3,IF(P40=5,2,IF(P40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Q41" s="8">
@@ -12432,43 +12560,43 @@
         <v>0</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" ref="R41:AA41" si="39">IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
+        <f>IF(R40=1,10,IF(R40=2,6,IF(R40=3,4,IF(R40=4,3,IF(R40=5,2,IF(R40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(S40=1,10,IF(S40=2,6,IF(S40=3,4,IF(S40=4,3,IF(S40=5,2,IF(S40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(T40=1,10,IF(T40=2,6,IF(T40=3,4,IF(T40=4,3,IF(T40=5,2,IF(T40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(U40=1,10,IF(U40=2,6,IF(U40=3,4,IF(U40=4,3,IF(U40=5,2,IF(U40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(V40=1,10,IF(V40=2,6,IF(V40=3,4,IF(V40=4,3,IF(V40=5,2,IF(V40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(W40=1,10,IF(W40=2,6,IF(W40=3,4,IF(W40=4,3,IF(W40=5,2,IF(W40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(X40=1,10,IF(X40=2,6,IF(X40=3,4,IF(X40=4,3,IF(X40=5,2,IF(X40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Y41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Y40=1,10,IF(Y40=2,6,IF(Y40=3,4,IF(Y40=4,3,IF(Y40=5,2,IF(Y40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="Z41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(Z40=1,10,IF(Z40=2,6,IF(Z40=3,4,IF(Z40=4,3,IF(Z40=5,2,IF(Z40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AA41" s="8">
-        <f t="shared" si="39"/>
+        <f>IF(AA40=1,10,IF(AA40=2,6,IF(AA40=3,4,IF(AA40=4,3,IF(AA40=5,2,IF(AA40=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="AB41" s="8"/>
@@ -12536,47 +12664,47 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43:P43" si="40">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
+        <f t="shared" ref="F43:P43" si="0">IF(F42=1,10,IF(F42=2,6,IF(F42=3,4,IF(F42=4,3,IF(F42=5,2,IF(F42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="8">
@@ -12584,43 +12712,43 @@
         <v>0</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43:AA43" si="41">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
+        <f t="shared" ref="R43:AA43" si="1">IF(R42=1,10,IF(R42=2,6,IF(R42=3,4,IF(R42=4,3,IF(R42=5,2,IF(R42=6,1,0))))))</f>
         <v>0</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8"/>
@@ -12684,11 +12812,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
-        <v>460.5</v>
+        <v>478.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>446.5</v>
+        <v>464.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12703,49 +12831,49 @@
       </c>
       <c r="D3" s="10">
         <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD8</f>
-        <v>437.5</v>
+        <v>477.5</v>
       </c>
       <c r="E3" s="10">
         <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE8</f>
-        <v>429.5</v>
+        <v>469.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
+        <v>268.5</v>
+      </c>
+      <c r="E4" s="12">
+        <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="11">
         <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD16</f>
-        <v>254</v>
-      </c>
-      <c r="E4" s="11">
+        <v>255</v>
+      </c>
+      <c r="E5" s="11">
         <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE16</f>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12">
-        <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
-        <v>250.5</v>
-      </c>
-      <c r="E5" s="12">
-        <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>250.5</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12760,11 +12888,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AD20+'2021 Driver Ranking'!AD22</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12779,11 +12907,11 @@
       </c>
       <c r="D7" s="15">
         <f>'2021 Driver Ranking'!AD18+'2021 Driver Ranking'!AD28</f>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E7" s="15">
         <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12798,11 +12926,11 @@
       </c>
       <c r="D8" s="13">
         <f>'2021 Driver Ranking'!AD24+'2021 Driver Ranking'!AD26</f>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" s="13">
         <f>'2021 Driver Ranking'!AE24+'2021 Driver Ranking'!AE26</f>
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12816,11 +12944,11 @@
         <v>97</v>
       </c>
       <c r="D9" s="10">
-        <f>'2021 Driver Ranking'!AD30+'2021 Driver Ranking'!AD32</f>
+        <f>'2021 Driver Ranking'!AD30+'2021 Driver Ranking'!AD34</f>
         <v>23</v>
       </c>
       <c r="E9" s="10">
-        <f>'2021 Driver Ranking'!AE30+'2021 Driver Ranking'!AE32</f>
+        <f>'2021 Driver Ranking'!AE30+'2021 Driver Ranking'!AE34</f>
         <v>23</v>
       </c>
     </row>
@@ -12835,12 +12963,12 @@
         <v>95</v>
       </c>
       <c r="D10" s="16">
-        <f>'2021 Driver Ranking'!AD34+'2021 Driver Ranking'!AD36+'2021 Driver Ranking'!AD42</f>
-        <v>7</v>
+        <f>'2021 Driver Ranking'!AD32+'2021 Driver Ranking'!AD36+'2021 Driver Ranking'!AD42</f>
+        <v>11</v>
       </c>
       <c r="E10" s="16">
-        <f>'2021 Driver Ranking'!AE34+'2021 Driver Ranking'!AE36+'2021 Driver Ranking'!AE42</f>
-        <v>7</v>
+        <f>'2021 Driver Ranking'!AE32+'2021 Driver Ranking'!AE36+'2021 Driver Ranking'!AE42</f>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12915,7 +13043,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12930,7 +13058,7 @@
       </c>
       <c r="D3" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB8</f>
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12945,7 +13073,7 @@
       </c>
       <c r="D4" s="12">
         <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>97.5</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12964,33 +13092,33 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="15">
+        <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB24</f>
         <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="15">
-        <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
-        <v>31.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,7 +13133,7 @@
       </c>
       <c r="D8" s="13">
         <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB26</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13035,7 +13163,7 @@
       </c>
       <c r="D10" s="16">
         <f>'2003-2009 Driver Ranking'!AB34+'2003-2009 Driver Ranking'!AB36+'2003-2009 Driver Ranking'!AB42</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13098,41 +13226,41 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="10">
+        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
+        <v>162</v>
+      </c>
+      <c r="E2" s="10">
+        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="8">
         <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
-        <v>151</v>
-      </c>
-      <c r="E2" s="8">
+        <v>158</v>
+      </c>
+      <c r="E3" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="10">
-        <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
-        <v>148</v>
-      </c>
-      <c r="E3" s="10">
-        <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13166,49 +13294,49 @@
       </c>
       <c r="D5" s="12">
         <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC16</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="12">
         <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="15">
+        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
+        <v>16.5</v>
+      </c>
+      <c r="E6" s="15">
+        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
         <v>16</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="15">
-        <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
-        <v>13.5</v>
-      </c>
-      <c r="E7" s="15">
-        <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
-        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="115">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did Not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did Not Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -984,8 +992,7 @@
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1161,7 +1168,9 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="7">
+        <v>2</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -1170,16 +1179,16 @@
         <v>3</v>
       </c>
       <c r="AC2" s="7">
-        <f>3+2</f>
-        <v>5</v>
+        <f>3+2+2</f>
+        <v>7</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>312.5</v>
+        <v>332.5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>304.5</v>
+        <v>322.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1262,7 +1271,7 @@
       </c>
       <c r="X3" s="8">
         <f>IF(X2=1,25,IF(X2=2,18,IF(X2=3,15,IF(X2=4,12,IF(X2=5,10,IF(X2=6,8,IF(X2=7,6,IF(X2=8,4,IF(X2=9,2,IF(X2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
@@ -1351,7 +1360,9 @@
       <c r="W4" s="7">
         <v>2</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -1365,11 +1376,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>293.5</v>
+        <v>318.5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>286.5</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1452,7 +1463,7 @@
       </c>
       <c r="X5" s="8">
         <f>IF(X4=1,25,IF(X4=2,18,IF(X4=3,15,IF(X4=4,12,IF(X4=5,10,IF(X4=6,8,IF(X4=7,6,IF(X4=8,4,IF(X4=9,2,IF(X4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
@@ -1541,7 +1552,9 @@
       <c r="W6" s="7">
         <v>15</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>3</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -1550,16 +1563,16 @@
         <v>3</v>
       </c>
       <c r="AC6" s="7">
-        <f>1+3</f>
-        <v>4</v>
+        <f>1+3+3</f>
+        <v>7</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1642,7 +1655,7 @@
       </c>
       <c r="X7" s="8">
         <f>IF(X6=1,25,IF(X6=2,18,IF(X6=3,15,IF(X6=4,12,IF(X6=5,10,IF(X6=6,8,IF(X6=7,6,IF(X6=8,4,IF(X6=9,2,IF(X6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y7" s="8">
         <f>IF(Y6=1,25,IF(Y6=2,18,IF(Y6=3,15,IF(Y6=4,12,IF(Y6=5,10,IF(Y6=6,8,IF(Y6=7,6,IF(Y6=8,4,IF(Y6=9,2,IF(Y6=10,1,0))))))))))</f>
@@ -1731,23 +1744,26 @@
       <c r="W8" s="7">
         <v>3</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>4</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC8" s="7">
         <v>0</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1830,7 +1846,7 @@
       </c>
       <c r="X9" s="8">
         <f>IF(X8=1,25,IF(X8=2,18,IF(X8=3,15,IF(X8=4,12,IF(X8=5,10,IF(X8=6,8,IF(X8=7,6,IF(X8=8,4,IF(X8=9,2,IF(X8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
@@ -1919,7 +1935,9 @@
       <c r="W10" s="7">
         <v>10</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7">
+        <v>10</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -1932,11 +1950,11 @@
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="X11" s="8">
         <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="8">
         <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
@@ -2108,7 +2126,9 @@
       <c r="W12" s="7">
         <v>5</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -2120,11 +2140,11 @@
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2207,7 +2227,7 @@
       </c>
       <c r="X13" s="8">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="8">
         <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
@@ -2296,7 +2316,9 @@
       <c r="W14" s="7">
         <v>6</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>6</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
@@ -2304,15 +2326,16 @@
         <v>0</v>
       </c>
       <c r="AC14" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>130.5</v>
+        <v>139.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>130.5</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2395,7 +2418,7 @@
       </c>
       <c r="X15" s="8">
         <f>IF(X14=1,25,IF(X14=2,18,IF(X14=3,15,IF(X14=4,12,IF(X14=5,10,IF(X14=6,8,IF(X14=7,6,IF(X14=8,4,IF(X14=9,2,IF(X14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
@@ -2484,7 +2507,9 @@
       <c r="W16" s="7">
         <v>12</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -2674,7 +2699,9 @@
       <c r="W18" s="7">
         <v>4</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>7</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -2687,11 +2714,11 @@
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2774,7 +2801,7 @@
       </c>
       <c r="X19" s="8">
         <f>IF(X18=1,25,IF(X18=2,18,IF(X18=3,15,IF(X18=4,12,IF(X18=5,10,IF(X18=6,8,IF(X18=7,6,IF(X18=8,4,IF(X18=9,2,IF(X18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y19" s="8">
         <f>IF(Y18=1,25,IF(Y18=2,18,IF(Y18=3,15,IF(Y18=4,12,IF(Y18=5,10,IF(Y18=6,8,IF(Y18=7,6,IF(Y18=8,4,IF(Y18=9,2,IF(Y18=10,1,0))))))))))</f>
@@ -2863,7 +2890,9 @@
       <c r="W20" s="7">
         <v>9</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>9</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -2875,11 +2904,11 @@
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AA21)+AB20+AC20</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2962,7 +2991,7 @@
       </c>
       <c r="X21" s="8">
         <f>IF(X20=1,25,IF(X20=2,18,IF(X20=3,15,IF(X20=4,12,IF(X20=5,10,IF(X20=6,8,IF(X20=7,6,IF(X20=8,4,IF(X20=9,2,IF(X20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="8">
         <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
@@ -3051,7 +3080,9 @@
       <c r="W22" s="7">
         <v>13</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>8</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -3063,11 +3094,11 @@
       </c>
       <c r="AD22" s="7">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AE22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3150,7 +3181,7 @@
       </c>
       <c r="X23" s="8">
         <f>IF(X22=1,25,IF(X22=2,18,IF(X22=3,15,IF(X22=4,12,IF(X22=5,10,IF(X22=6,8,IF(X22=7,6,IF(X22=8,4,IF(X22=9,2,IF(X22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y23" s="8">
         <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
@@ -3239,7 +3270,9 @@
       <c r="W24" s="7">
         <v>7</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7">
+        <v>11</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -3427,7 +3460,9 @@
       <c r="W26" s="7">
         <v>14</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -3615,7 +3650,9 @@
       <c r="W28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>15</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -3803,7 +3840,9 @@
       <c r="W30" s="7">
         <v>16</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>13</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -3987,7 +4026,9 @@
       <c r="W32" s="7">
         <v>8</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="7">
+        <v>12</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -4175,7 +4216,9 @@
       <c r="W34" s="7">
         <v>17</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7">
+        <v>16</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -4363,7 +4406,9 @@
       <c r="W36" s="7">
         <v>11</v>
       </c>
-      <c r="X36" s="7"/>
+      <c r="X36" s="7">
+        <v>14</v>
+      </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
@@ -4551,7 +4596,9 @@
       <c r="W38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="7">
+        <v>18</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -4739,7 +4786,9 @@
       <c r="W40" s="7">
         <v>18</v>
       </c>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7">
+        <v>17</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -5048,8 +5097,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -5213,13 +5261,15 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="7">
+        <v>2</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5302,7 +5352,7 @@
       </c>
       <c r="X3" s="8">
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
@@ -5388,13 +5438,15 @@
       <c r="W4" s="7">
         <v>2</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5477,7 +5529,7 @@
       </c>
       <c r="X5" s="8">
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
@@ -5563,13 +5615,15 @@
       <c r="W6" s="7">
         <v>15</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>3</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5652,7 +5706,7 @@
       </c>
       <c r="X7" s="8">
         <f>IF(X6=1,10,IF(X6=2,8,IF(X6=3,6,IF(X6=4,5,IF(X6=5,4,IF(X6=6,3,IF(X6=7,2,IF(X6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="8">
         <f>IF(Y6=1,10,IF(Y6=2,8,IF(Y6=3,6,IF(Y6=4,5,IF(Y6=5,4,IF(Y6=6,3,IF(Y6=7,2,IF(Y6=8,1,0))))))))</f>
@@ -5738,13 +5792,15 @@
       <c r="W8" s="7">
         <v>3</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>4</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5827,7 +5883,7 @@
       </c>
       <c r="X9" s="8">
         <f>IF(X8=1,10,IF(X8=2,8,IF(X8=3,6,IF(X8=4,5,IF(X8=5,4,IF(X8=6,3,IF(X8=7,2,IF(X8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
@@ -5845,81 +5901,83 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="J10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4</v>
+      </c>
+      <c r="L10" s="7">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
         <v>8</v>
       </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
       <c r="O10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q10" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W10" s="7">
-        <v>10</v>
-      </c>
-      <c r="X10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="X10" s="7">
+        <v>5</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>58</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5930,43 +5988,43 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <f>IF(F10=1,10,IF(F10=2,8,IF(F10=3,6,IF(F10=4,5,IF(F10=5,4,IF(F10=6,3,IF(F10=7,2,IF(F10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="8">
         <f>IF(G10=1,10,IF(G10=2,8,IF(G10=3,6,IF(G10=4,5,IF(G10=5,4,IF(G10=6,3,IF(G10=7,2,IF(G10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="8">
         <f>IF(H10=1,10,IF(H10=2,8,IF(H10=3,6,IF(H10=4,5,IF(H10=5,4,IF(H10=6,3,IF(H10=7,2,IF(H10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="8">
         <f>IF(I10=1,10,IF(I10=2,8,IF(I10=3,6,IF(I10=4,5,IF(I10=5,4,IF(I10=6,3,IF(I10=7,2,IF(I10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" s="8">
         <f>IF(J10=1,10,IF(J10=2,8,IF(J10=3,6,IF(J10=4,5,IF(J10=5,4,IF(J10=6,3,IF(J10=7,2,IF(J10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
         <f>IF(K10=1,10,IF(K10=2,8,IF(K10=3,6,IF(K10=4,5,IF(K10=5,4,IF(K10=6,3,IF(K10=7,2,IF(K10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="8">
         <f>IF(L10=1,10,IF(L10=2,8,IF(L10=3,6,IF(L10=4,5,IF(L10=5,4,IF(L10=6,3,IF(L10=7,2,IF(L10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
         <f>IF(M10=1,10,IF(M10=2,8,IF(M10=3,6,IF(M10=4,5,IF(M10=5,4,IF(M10=6,3,IF(M10=7,2,IF(M10=8,1,0))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="8">
         <f>IF(N10=1,10,IF(N10=2,8,IF(N10=3,6,IF(N10=4,5,IF(N10=5,4,IF(N10=6,3,IF(N10=7,2,IF(N10=8,1,0))))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O11" s="8">
         <f>IF(O10=1,10,IF(O10=2,8,IF(O10=3,6,IF(O10=4,5,IF(O10=5,4,IF(O10=6,3,IF(O10=7,2,IF(O10=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P11" s="8">
         <f>IF(P10=1,10,IF(P10=2,8,IF(P10=3,6,IF(P10=4,5,IF(P10=5,4,IF(P10=6,3,IF(P10=7,2,IF(P10=8,1,0))))))))</f>
@@ -5974,35 +6032,35 @@
       </c>
       <c r="Q11" s="8">
         <f>IF(Q10=1,10,IF(Q10=2,8,IF(Q10=3,6,IF(Q10=4,5,IF(Q10=5,4,IF(Q10=6,3,IF(Q10=7,2,IF(Q10=8,1,0))))))))/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R11" s="8">
         <f>IF(R10=1,10,IF(R10=2,8,IF(R10=3,6,IF(R10=4,5,IF(R10=5,4,IF(R10=6,3,IF(R10=7,2,IF(R10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,10,IF(S10=2,8,IF(S10=3,6,IF(S10=4,5,IF(S10=5,4,IF(S10=6,3,IF(S10=7,2,IF(S10=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,10,IF(T10=2,8,IF(T10=3,6,IF(T10=4,5,IF(T10=5,4,IF(T10=6,3,IF(T10=7,2,IF(T10=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8">
         <f>IF(U10=1,10,IF(U10=2,8,IF(U10=3,6,IF(U10=4,5,IF(U10=5,4,IF(U10=6,3,IF(U10=7,2,IF(U10=8,1,0))))))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" s="8">
         <f>IF(V10=1,10,IF(V10=2,8,IF(V10=3,6,IF(V10=4,5,IF(V10=5,4,IF(V10=6,3,IF(V10=7,2,IF(V10=8,1,0))))))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W11" s="8">
         <f>IF(W10=1,10,IF(W10=2,8,IF(W10=3,6,IF(W10=4,5,IF(W10=5,4,IF(W10=6,3,IF(W10=7,2,IF(W10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11" s="8">
         <f>IF(X10=1,10,IF(X10=2,8,IF(X10=3,6,IF(X10=4,5,IF(X10=5,4,IF(X10=6,3,IF(X10=7,2,IF(X10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="8">
         <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
@@ -6020,81 +6078,83 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3</v>
+      </c>
+      <c r="O12" s="7">
         <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q12" s="7">
+        <v>14</v>
+      </c>
+      <c r="R12" s="7">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>7</v>
+      </c>
+      <c r="U12" s="7">
+        <v>7</v>
+      </c>
+      <c r="V12" s="7">
         <v>8</v>
       </c>
-      <c r="R12" s="7">
-        <v>5</v>
-      </c>
-      <c r="S12" s="7">
-        <v>4</v>
-      </c>
-      <c r="T12" s="7">
-        <v>15</v>
-      </c>
-      <c r="U12" s="7">
-        <v>4</v>
-      </c>
-      <c r="V12" s="7">
-        <v>4</v>
-      </c>
       <c r="W12" s="7">
-        <v>5</v>
-      </c>
-      <c r="X12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="X12" s="7">
+        <v>10</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>55.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -6105,43 +6165,43 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>IF(F12=1,10,IF(F12=2,8,IF(F12=3,6,IF(F12=4,5,IF(F12=5,4,IF(F12=6,3,IF(F12=7,2,IF(F12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8">
         <f>IF(G12=1,10,IF(G12=2,8,IF(G12=3,6,IF(G12=4,5,IF(G12=5,4,IF(G12=6,3,IF(G12=7,2,IF(G12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="8">
         <f>IF(H12=1,10,IF(H12=2,8,IF(H12=3,6,IF(H12=4,5,IF(H12=5,4,IF(H12=6,3,IF(H12=7,2,IF(H12=8,1,0))))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="8">
         <f>IF(I12=1,10,IF(I12=2,8,IF(I12=3,6,IF(I12=4,5,IF(I12=5,4,IF(I12=6,3,IF(I12=7,2,IF(I12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
         <f>IF(J12=1,10,IF(J12=2,8,IF(J12=3,6,IF(J12=4,5,IF(J12=5,4,IF(J12=6,3,IF(J12=7,2,IF(J12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="8">
         <f>IF(K12=1,10,IF(K12=2,8,IF(K12=3,6,IF(K12=4,5,IF(K12=5,4,IF(K12=6,3,IF(K12=7,2,IF(K12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" s="8">
         <f>IF(L12=1,10,IF(L12=2,8,IF(L12=3,6,IF(L12=4,5,IF(L12=5,4,IF(L12=6,3,IF(L12=7,2,IF(L12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="8">
         <f>IF(M12=1,10,IF(M12=2,8,IF(M12=3,6,IF(M12=4,5,IF(M12=5,4,IF(M12=6,3,IF(M12=7,2,IF(M12=8,1,0))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="8">
         <f>IF(N12=1,10,IF(N12=2,8,IF(N12=3,6,IF(N12=4,5,IF(N12=5,4,IF(N12=6,3,IF(N12=7,2,IF(N12=8,1,0))))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O13" s="8">
         <f>IF(O12=1,10,IF(O12=2,8,IF(O12=3,6,IF(O12=4,5,IF(O12=5,4,IF(O12=6,3,IF(O12=7,2,IF(O12=8,1,0))))))))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P13" s="8">
         <f>IF(P12=1,10,IF(P12=2,8,IF(P12=3,6,IF(P12=4,5,IF(P12=5,4,IF(P12=6,3,IF(P12=7,2,IF(P12=8,1,0))))))))</f>
@@ -6149,31 +6209,31 @@
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,10,IF(Q12=2,8,IF(Q12=3,6,IF(Q12=4,5,IF(Q12=5,4,IF(Q12=6,3,IF(Q12=7,2,IF(Q12=8,1,0))))))))/2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8">
         <f>IF(R12=1,10,IF(R12=2,8,IF(R12=3,6,IF(R12=4,5,IF(R12=5,4,IF(R12=6,3,IF(R12=7,2,IF(R12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,10,IF(S12=2,8,IF(S12=3,6,IF(S12=4,5,IF(S12=5,4,IF(S12=6,3,IF(S12=7,2,IF(S12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,10,IF(T12=2,8,IF(T12=3,6,IF(T12=4,5,IF(T12=5,4,IF(T12=6,3,IF(T12=7,2,IF(T12=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,10,IF(U12=2,8,IF(U12=3,6,IF(U12=4,5,IF(U12=5,4,IF(U12=6,3,IF(U12=7,2,IF(U12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" s="8">
         <f>IF(V12=1,10,IF(V12=2,8,IF(V12=3,6,IF(V12=4,5,IF(V12=5,4,IF(V12=6,3,IF(V12=7,2,IF(V12=8,1,0))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W13" s="8">
         <f>IF(W12=1,10,IF(W12=2,8,IF(W12=3,6,IF(W12=4,5,IF(W12=5,4,IF(W12=6,3,IF(W12=7,2,IF(W12=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X13" s="8">
         <f>IF(X12=1,10,IF(X12=2,8,IF(X12=3,6,IF(X12=4,5,IF(X12=5,4,IF(X12=6,3,IF(X12=7,2,IF(X12=8,1,0))))))))</f>
@@ -6263,13 +6323,15 @@
       <c r="W14" s="7">
         <v>6</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>6</v>
+      </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6352,7 +6414,7 @@
       </c>
       <c r="X15" s="8">
         <f>IF(X14=1,10,IF(X14=2,8,IF(X14=3,6,IF(X14=4,5,IF(X14=5,4,IF(X14=6,3,IF(X14=7,2,IF(X14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
@@ -6438,7 +6500,9 @@
       <c r="W16" s="7">
         <v>12</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -6613,13 +6677,15 @@
       <c r="W18" s="7">
         <v>4</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>7</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>31.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6702,7 +6768,7 @@
       </c>
       <c r="X19" s="8">
         <f>IF(X18=1,10,IF(X18=2,8,IF(X18=3,6,IF(X18=4,5,IF(X18=5,4,IF(X18=6,3,IF(X18=7,2,IF(X18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="8">
         <f>IF(Y18=1,10,IF(Y18=2,8,IF(Y18=3,6,IF(Y18=4,5,IF(Y18=5,4,IF(Y18=6,3,IF(Y18=7,2,IF(Y18=8,1,0))))))))</f>
@@ -6788,7 +6854,9 @@
       <c r="W20" s="7">
         <v>9</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>9</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -6963,7 +7031,9 @@
       <c r="W22" s="7">
         <v>7</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>11</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -7138,13 +7208,15 @@
       <c r="W24" s="7">
         <v>13</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7">
+        <v>8</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -7227,7 +7299,7 @@
       </c>
       <c r="X25" s="8">
         <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="8">
         <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
@@ -7313,7 +7385,9 @@
       <c r="W26" s="7">
         <v>14</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -7488,7 +7562,9 @@
       <c r="W28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>15</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -7663,7 +7739,9 @@
       <c r="W30" s="7">
         <v>16</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>13</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -7838,7 +7916,9 @@
       <c r="W32" s="7">
         <v>17</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="7">
+        <v>16</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -8009,7 +8089,9 @@
       <c r="W34" s="7">
         <v>8</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7">
+        <v>12</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -8184,7 +8266,9 @@
       <c r="W36" s="7">
         <v>11</v>
       </c>
-      <c r="X36" s="7"/>
+      <c r="X36" s="7">
+        <v>14</v>
+      </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
@@ -8359,7 +8443,9 @@
       <c r="W38" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="7">
+        <v>18</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -8534,7 +8620,9 @@
       <c r="W40" s="7">
         <v>18</v>
       </c>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7">
+        <v>17</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -8797,7 +8885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8816,8 +8906,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -8989,7 +9078,9 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="X2" s="7">
+        <v>2</v>
+      </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
@@ -8999,11 +9090,11 @@
       </c>
       <c r="AC2" s="7">
         <f>SUM(F3:AA3)+AB2</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9086,7 +9177,7 @@
       </c>
       <c r="X3" s="8">
         <f>IF(X2=1,10,IF(X2=2,6,IF(X2=3,4,IF(X2=4,3,IF(X2=5,2,IF(X2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
@@ -9174,7 +9265,9 @@
       <c r="W4" s="7">
         <v>2</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
@@ -9184,11 +9277,11 @@
       </c>
       <c r="AC4" s="7">
         <f>SUM(F5:AA5)+AB4</f>
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9271,7 +9364,7 @@
       </c>
       <c r="X5" s="8">
         <f>IF(X4=1,10,IF(X4=2,6,IF(X4=3,4,IF(X4=4,3,IF(X4=5,2,IF(X4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
@@ -9359,7 +9452,9 @@
       <c r="W6" s="7">
         <v>15</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>3</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -9369,11 +9464,11 @@
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:AA7)+AB6</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9456,7 +9551,7 @@
       </c>
       <c r="X7" s="8">
         <f>IF(X6=1,10,IF(X6=2,6,IF(X6=3,4,IF(X6=4,3,IF(X6=5,2,IF(X6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="8">
         <f>IF(Y6=1,10,IF(Y6=2,6,IF(Y6=3,4,IF(Y6=4,3,IF(Y6=5,2,IF(Y6=6,1,0))))))</f>
@@ -9544,21 +9639,23 @@
       <c r="W8" s="7">
         <v>3</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>4</v>
+      </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
-        <f>1</f>
-        <v>1</v>
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="AC8" s="7">
         <f>SUM(F9:AA9)+AB8</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -9641,7 +9738,7 @@
       </c>
       <c r="X9" s="8">
         <f>IF(X8=1,10,IF(X8=2,6,IF(X8=3,4,IF(X8=4,3,IF(X8=5,2,IF(X8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
@@ -9729,7 +9826,9 @@
       <c r="W10" s="7">
         <v>10</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7">
+        <v>10</v>
+      </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
@@ -9914,7 +10013,9 @@
       <c r="W12" s="7">
         <v>5</v>
       </c>
-      <c r="X12" s="7"/>
+      <c r="X12" s="7">
+        <v>5</v>
+      </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
@@ -9923,11 +10024,11 @@
       </c>
       <c r="AC12" s="7">
         <f>SUM(F13:AA13)+AB12</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -10010,7 +10111,7 @@
       </c>
       <c r="X13" s="8">
         <f>IF(X12=1,10,IF(X12=2,6,IF(X12=3,4,IF(X12=4,3,IF(X12=5,2,IF(X12=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="8">
         <f>IF(Y12=1,10,IF(Y12=2,6,IF(Y12=3,4,IF(Y12=4,3,IF(Y12=5,2,IF(Y12=6,1,0))))))</f>
@@ -10030,89 +10131,90 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B14" s="7">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+      <c r="L14" s="7">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6</v>
+      </c>
+      <c r="P14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="Q14" s="7">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="S14" s="7">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="T14" s="7">
+        <v>3</v>
+      </c>
+      <c r="U14" s="7">
+        <v>8</v>
+      </c>
+      <c r="V14" s="7">
+        <v>7</v>
+      </c>
+      <c r="W14" s="7">
         <v>6</v>
       </c>
-      <c r="J14" s="7">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7">
-        <v>9</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="X14" s="7">
         <v>6</v>
       </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7</v>
-      </c>
-      <c r="O14" s="7">
-        <v>5</v>
-      </c>
-      <c r="P14" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>4</v>
-      </c>
-      <c r="R14" s="7">
-        <v>11</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <v>4</v>
-      </c>
-      <c r="U14" s="7">
-        <v>13</v>
-      </c>
-      <c r="V14" s="7">
-        <v>5</v>
-      </c>
-      <c r="W14" s="7">
-        <v>12</v>
-      </c>
-      <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="7">
         <f>SUM(F15:AA15)+AB14</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>21.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -10127,7 +10229,7 @@
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -10135,11 +10237,11 @@
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
@@ -10147,27 +10249,27 @@
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))/2</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -10175,11 +10277,11 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U15" s="8">
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
@@ -10187,15 +10289,15 @@
       </c>
       <c r="V15" s="8">
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W15" s="8">
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="8">
         <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
@@ -10215,88 +10317,91 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7</v>
+      </c>
+      <c r="O16" s="7">
         <v>5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="P16" s="7">
         <v>11</v>
       </c>
-      <c r="I16" s="7">
-        <v>7</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>8</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="Q16" s="7">
+        <v>4</v>
+      </c>
+      <c r="R16" s="7">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>4</v>
+      </c>
+      <c r="U16" s="7">
+        <v>13</v>
+      </c>
+      <c r="V16" s="7">
         <v>5</v>
       </c>
-      <c r="O16" s="7">
-        <v>6</v>
-      </c>
-      <c r="P16" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>10</v>
-      </c>
-      <c r="R16" s="7">
-        <v>7</v>
-      </c>
-      <c r="S16" s="7">
-        <v>6</v>
-      </c>
-      <c r="T16" s="7">
-        <v>3</v>
-      </c>
-      <c r="U16" s="7">
-        <v>8</v>
-      </c>
-      <c r="V16" s="7">
-        <v>7</v>
-      </c>
       <c r="W16" s="7">
-        <v>6</v>
-      </c>
-      <c r="X16" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC16" s="7">
         <f>SUM(F17:AA17)+AB16</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>22</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -10311,7 +10416,7 @@
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -10319,11 +10424,11 @@
       </c>
       <c r="I17" s="8">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
@@ -10331,27 +10436,27 @@
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
@@ -10359,11 +10464,11 @@
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" s="8">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
@@ -10371,11 +10476,11 @@
       </c>
       <c r="V17" s="8">
         <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" s="8">
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="8">
         <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
@@ -10467,7 +10572,9 @@
       <c r="W18" s="7">
         <v>4</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>7</v>
+      </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -10652,7 +10759,9 @@
       <c r="W20" s="7">
         <v>9</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>8</v>
+      </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -10836,7 +10945,9 @@
       <c r="W22" s="7">
         <v>7</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>11</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -11020,7 +11131,9 @@
       <c r="W24" s="7">
         <v>13</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7">
+        <v>9</v>
+      </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
@@ -11204,7 +11317,9 @@
       <c r="W26" s="7">
         <v>16</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>13</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -11388,7 +11503,9 @@
       <c r="W28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>15</v>
+      </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
@@ -11572,7 +11689,9 @@
       <c r="W30" s="7">
         <v>18</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>17</v>
+      </c>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -11757,7 +11876,9 @@
       <c r="W32" s="7">
         <v>14</v>
       </c>
-      <c r="X32" s="7"/>
+      <c r="X32" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
@@ -11941,7 +12062,9 @@
       <c r="W34" s="7">
         <v>17</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7">
+        <v>16</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -12121,7 +12244,9 @@
       <c r="W36" s="7">
         <v>8</v>
       </c>
-      <c r="X36" s="7"/>
+      <c r="X36" s="7">
+        <v>12</v>
+      </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
@@ -12305,7 +12430,9 @@
       <c r="W38" s="7">
         <v>11</v>
       </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="7">
+        <v>14</v>
+      </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -12486,10 +12613,12 @@
       <c r="V40" s="7">
         <v>16</v>
       </c>
-      <c r="W40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="X40" s="7"/>
+      <c r="W40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X40" s="7">
+        <v>18</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -12812,11 +12941,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
-        <v>478.5</v>
+        <v>521.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>464.5</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12831,11 +12960,11 @@
       </c>
       <c r="D3" s="10">
         <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD8</f>
-        <v>477.5</v>
+        <v>510.5</v>
       </c>
       <c r="E3" s="10">
         <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE8</f>
-        <v>469.5</v>
+        <v>499.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12850,11 +12979,11 @@
       </c>
       <c r="D4" s="12">
         <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
-        <v>268.5</v>
+        <v>287.5</v>
       </c>
       <c r="E4" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>268.5</v>
+        <v>286.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12869,11 +12998,11 @@
       </c>
       <c r="D5" s="11">
         <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD16</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" s="11">
         <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE16</f>
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12888,11 +13017,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AD20+'2021 Driver Ranking'!AD22</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12907,11 +13036,11 @@
       </c>
       <c r="D7" s="15">
         <f>'2021 Driver Ranking'!AD18+'2021 Driver Ranking'!AD28</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E7" s="15">
         <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13043,7 +13172,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13058,7 +13187,7 @@
       </c>
       <c r="D3" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB8</f>
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13072,8 +13201,8 @@
         <v>91</v>
       </c>
       <c r="D4" s="12">
-        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB14</f>
-        <v>104.5</v>
+        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
+        <v>111.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13087,7 +13216,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="11">
-        <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB16</f>
+        <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB16</f>
         <v>96.5</v>
       </c>
     </row>
@@ -13103,7 +13232,7 @@
       </c>
       <c r="D6" s="15">
         <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13118,7 +13247,7 @@
       </c>
       <c r="D7" s="6">
         <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB24</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13237,11 +13366,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13256,87 +13385,87 @@
       </c>
       <c r="D3" s="8">
         <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="E3" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12">
+        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC14</f>
+        <v>55</v>
+      </c>
+      <c r="E4" s="12">
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="11">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC14</f>
+      <c r="D5" s="11">
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC16</f>
         <v>55.5</v>
       </c>
-      <c r="E4" s="11">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD14</f>
+      <c r="E5" s="11">
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD16</f>
         <v>53.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12">
-        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC16</f>
-        <v>52</v>
-      </c>
-      <c r="E5" s="12">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
-        <v>52</v>
-      </c>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
         <v>16.5</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="15">
         <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
         <v>15.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="6">
-        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13418,7 +13547,7 @@
   </sheetData>
   <autoFilter ref="A1:E11">
     <sortState ref="A2:E11">
-      <sortCondition descending="1" ref="D1:D11"/>
+      <sortCondition descending="1" ref="E1:E11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="115">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -992,8 +992,7 @@
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -1171,12 +1170,14 @@
       <c r="X2" s="7">
         <v>2</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>2</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
-        <f>1+1+1</f>
-        <v>3</v>
+        <f>1+1+1+1</f>
+        <v>4</v>
       </c>
       <c r="AC2" s="7">
         <f>3+2+2</f>
@@ -1184,11 +1185,11 @@
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>332.5</v>
+        <v>351.5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>322.5</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,25,IF(Y2=2,18,IF(Y2=3,15,IF(Y2=4,12,IF(Y2=5,10,IF(Y2=6,8,IF(Y2=7,6,IF(Y2=8,4,IF(Y2=9,2,IF(Y2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
@@ -1363,7 +1364,9 @@
       <c r="X4" s="7">
         <v>1</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
@@ -1376,11 +1379,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>318.5</v>
+        <v>343.5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>311.5</v>
+        <v>336.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1467,7 +1470,7 @@
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,25,IF(Y4=2,18,IF(Y4=3,15,IF(Y4=4,12,IF(Y4=5,10,IF(Y4=6,8,IF(Y4=7,6,IF(Y4=8,4,IF(Y4=9,2,IF(Y4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
@@ -1555,7 +1558,9 @@
       <c r="X6" s="7">
         <v>3</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
@@ -1747,7 +1752,9 @@
       <c r="X8" s="7">
         <v>4</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7">
+        <v>4</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
@@ -1759,11 +1766,11 @@
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)+AB8+AC8</f>
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AE8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1850,7 +1857,7 @@
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,25,IF(Y8=2,18,IF(Y8=3,15,IF(Y8=4,12,IF(Y8=5,10,IF(Y8=6,8,IF(Y8=7,6,IF(Y8=8,4,IF(Y8=9,2,IF(Y8=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="8">
         <f>IF(Z8=1,25,IF(Z8=2,18,IF(Z8=3,15,IF(Z8=4,12,IF(Z8=5,10,IF(Z8=6,8,IF(Z8=7,6,IF(Z8=8,4,IF(Z8=9,2,IF(Z8=10,1,0))))))))))</f>
@@ -1938,7 +1945,9 @@
       <c r="X10" s="7">
         <v>10</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>9</v>
+      </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
@@ -1950,11 +1959,11 @@
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2041,7 +2050,7 @@
       </c>
       <c r="Y11" s="8">
         <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="8">
         <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
@@ -2129,7 +2138,9 @@
       <c r="X12" s="7">
         <v>5</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>8</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
@@ -2140,11 +2151,11 @@
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2231,7 +2242,7 @@
       </c>
       <c r="Y13" s="8">
         <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="8">
         <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
@@ -2319,7 +2330,9 @@
       <c r="X14" s="7">
         <v>6</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>7</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
@@ -2331,11 +2344,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>139.5</v>
+        <v>145.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>138.5</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2422,7 +2435,7 @@
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,25,IF(Y14=2,18,IF(Y14=3,15,IF(Y14=4,12,IF(Y14=5,10,IF(Y14=6,8,IF(Y14=7,6,IF(Y14=8,4,IF(Y14=9,2,IF(Y14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="8">
         <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
@@ -2510,7 +2523,9 @@
       <c r="X16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>12</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
@@ -2702,7 +2717,9 @@
       <c r="X18" s="7">
         <v>7</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7">
+        <v>11</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
@@ -2893,7 +2910,9 @@
       <c r="X20" s="7">
         <v>9</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>3</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
@@ -2904,11 +2923,11 @@
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AA21)+AB20+AC20</f>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AE20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2995,7 +3014,7 @@
       </c>
       <c r="Y21" s="8">
         <f>IF(Y20=1,25,IF(Y20=2,18,IF(Y20=3,15,IF(Y20=4,12,IF(Y20=5,10,IF(Y20=6,8,IF(Y20=7,6,IF(Y20=8,4,IF(Y20=9,2,IF(Y20=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z21" s="8">
         <f>IF(Z20=1,25,IF(Z20=2,18,IF(Z20=3,15,IF(Z20=4,12,IF(Z20=5,10,IF(Z20=6,8,IF(Z20=7,6,IF(Z20=8,4,IF(Z20=9,2,IF(Z20=10,1,0))))))))))</f>
@@ -3083,7 +3102,9 @@
       <c r="X22" s="7">
         <v>8</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="7">
+        <v>5</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
@@ -3094,11 +3115,11 @@
       </c>
       <c r="AD22" s="7">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3185,7 +3206,7 @@
       </c>
       <c r="Y23" s="8">
         <f>IF(Y22=1,25,IF(Y22=2,18,IF(Y22=3,15,IF(Y22=4,12,IF(Y22=5,10,IF(Y22=6,8,IF(Y22=7,6,IF(Y22=8,4,IF(Y22=9,2,IF(Y22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="8">
         <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
@@ -3273,7 +3294,9 @@
       <c r="X24" s="7">
         <v>11</v>
       </c>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="7">
+        <v>10</v>
+      </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
@@ -3284,11 +3307,11 @@
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AA25)+AB24+AC24</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3375,7 +3398,7 @@
       </c>
       <c r="Y25" s="8">
         <f>IF(Y24=1,25,IF(Y24=2,18,IF(Y24=3,15,IF(Y24=4,12,IF(Y24=5,10,IF(Y24=6,8,IF(Y24=7,6,IF(Y24=8,4,IF(Y24=9,2,IF(Y24=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="8">
         <f>IF(Z24=1,25,IF(Z24=2,18,IF(Z24=3,15,IF(Z24=4,12,IF(Z24=5,10,IF(Z24=6,8,IF(Z24=7,6,IF(Z24=8,4,IF(Z24=9,2,IF(Z24=10,1,0))))))))))</f>
@@ -3463,7 +3486,9 @@
       <c r="X26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7">
+        <v>6</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
@@ -3474,11 +3499,11 @@
       </c>
       <c r="AD26" s="7">
         <f>SUM(F27:AA27)+AB26+AC26</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE26" s="7">
         <f>SUM(F27:AA27)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3565,7 +3590,7 @@
       </c>
       <c r="Y27" s="8">
         <f>IF(Y26=1,25,IF(Y26=2,18,IF(Y26=3,15,IF(Y26=4,12,IF(Y26=5,10,IF(Y26=6,8,IF(Y26=7,6,IF(Y26=8,4,IF(Y26=9,2,IF(Y26=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z27" s="8">
         <f>IF(Z26=1,25,IF(Z26=2,18,IF(Z26=3,15,IF(Z26=4,12,IF(Z26=5,10,IF(Z26=6,8,IF(Z26=7,6,IF(Z26=8,4,IF(Z26=9,2,IF(Z26=10,1,0))))))))))</f>
@@ -3653,7 +3678,9 @@
       <c r="X28" s="7">
         <v>15</v>
       </c>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="7">
+        <v>13</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
@@ -3843,7 +3870,9 @@
       <c r="X30" s="7">
         <v>13</v>
       </c>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7">
+        <v>17</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
@@ -4029,7 +4058,9 @@
       <c r="X32" s="7">
         <v>12</v>
       </c>
-      <c r="Y32" s="7"/>
+      <c r="Y32" s="7">
+        <v>14</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
@@ -4219,7 +4250,9 @@
       <c r="X34" s="7">
         <v>16</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
@@ -4409,7 +4442,9 @@
       <c r="X36" s="7">
         <v>14</v>
       </c>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>15</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
@@ -4599,7 +4634,9 @@
       <c r="X38" s="7">
         <v>18</v>
       </c>
-      <c r="Y38" s="7"/>
+      <c r="Y38" s="7">
+        <v>16</v>
+      </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
@@ -4789,7 +4826,9 @@
       <c r="X40" s="7">
         <v>17</v>
       </c>
-      <c r="Y40" s="7"/>
+      <c r="Y40" s="7">
+        <v>18</v>
+      </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
@@ -5097,8 +5136,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -5264,12 +5302,14 @@
       <c r="X2" s="7">
         <v>2</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>2</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5356,7 +5396,7 @@
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
@@ -5441,12 +5481,14 @@
       <c r="X4" s="7">
         <v>1</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5533,7 +5575,7 @@
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
@@ -5618,7 +5660,9 @@
       <c r="X6" s="7">
         <v>3</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
@@ -5795,12 +5839,14 @@
       <c r="X8" s="7">
         <v>4</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7">
+        <v>4</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -5887,7 +5933,7 @@
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,10,IF(Y8=2,8,IF(Y8=3,6,IF(Y8=4,5,IF(Y8=5,4,IF(Y8=6,3,IF(Y8=7,2,IF(Y8=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="8">
         <f>IF(Z8=1,10,IF(Z8=2,8,IF(Z8=3,6,IF(Z8=4,5,IF(Z8=5,4,IF(Z8=6,3,IF(Z8=7,2,IF(Z8=8,1,0))))))))</f>
@@ -5972,12 +6018,14 @@
       <c r="X10" s="7">
         <v>5</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>8</v>
+      </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6064,7 +6112,7 @@
       </c>
       <c r="Y11" s="8">
         <f>IF(Y10=1,10,IF(Y10=2,8,IF(Y10=3,6,IF(Y10=4,5,IF(Y10=5,4,IF(Y10=6,3,IF(Y10=7,2,IF(Y10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="8">
         <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
@@ -6149,7 +6197,9 @@
       <c r="X12" s="7">
         <v>10</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>9</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
@@ -6326,12 +6376,14 @@
       <c r="X14" s="7">
         <v>6</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>7</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6418,7 +6470,7 @@
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,10,IF(Y14=2,8,IF(Y14=3,6,IF(Y14=4,5,IF(Y14=5,4,IF(Y14=6,3,IF(Y14=7,2,IF(Y14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="8">
         <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
@@ -6503,7 +6555,9 @@
       <c r="X16" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>12</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
@@ -6680,7 +6734,9 @@
       <c r="X18" s="7">
         <v>7</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7">
+        <v>11</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
@@ -6857,12 +6913,14 @@
       <c r="X20" s="7">
         <v>9</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>3</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -6949,7 +7007,7 @@
       </c>
       <c r="Y21" s="8">
         <f>IF(Y20=1,10,IF(Y20=2,8,IF(Y20=3,6,IF(Y20=4,5,IF(Y20=5,4,IF(Y20=6,3,IF(Y20=7,2,IF(Y20=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z21" s="8">
         <f>IF(Z20=1,10,IF(Z20=2,8,IF(Z20=3,6,IF(Z20=4,5,IF(Z20=5,4,IF(Z20=6,3,IF(Z20=7,2,IF(Z20=8,1,0))))))))</f>
@@ -6963,83 +7021,85 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7">
-        <v>15</v>
-      </c>
-      <c r="G22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7">
+        <v>9</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>13</v>
-      </c>
-      <c r="J22" s="7">
-        <v>5</v>
-      </c>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
       <c r="L22" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="7">
+        <v>9</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>7</v>
+      </c>
+      <c r="R22" s="7">
+        <v>9</v>
+      </c>
+      <c r="S22" s="7">
+        <v>10</v>
+      </c>
+      <c r="T22" s="7">
+        <v>14</v>
+      </c>
+      <c r="U22" s="7">
+        <v>10</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="W22" s="7">
+        <v>13</v>
+      </c>
+      <c r="X22" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="7">
         <v>5</v>
       </c>
-      <c r="R22" s="7">
-        <v>13</v>
-      </c>
-      <c r="S22" s="7">
-        <v>12</v>
-      </c>
-      <c r="T22" s="7">
-        <v>12</v>
-      </c>
-      <c r="U22" s="7">
-        <v>18</v>
-      </c>
-      <c r="V22" s="7">
-        <v>10</v>
-      </c>
-      <c r="W22" s="7">
-        <v>7</v>
-      </c>
-      <c r="X22" s="7">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -7058,7 +7118,7 @@
       </c>
       <c r="H23" s="8">
         <f>IF(H22=1,10,IF(H22=2,8,IF(H22=3,6,IF(H22=4,5,IF(H22=5,4,IF(H22=6,3,IF(H22=7,2,IF(H22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="8">
         <f>IF(I22=1,10,IF(I22=2,8,IF(I22=3,6,IF(I22=4,5,IF(I22=5,4,IF(I22=6,3,IF(I22=7,2,IF(I22=8,1,0))))))))</f>
@@ -7066,11 +7126,11 @@
       </c>
       <c r="J23" s="8">
         <f>IF(J22=1,10,IF(J22=2,8,IF(J22=3,6,IF(J22=4,5,IF(J22=5,4,IF(J22=6,3,IF(J22=7,2,IF(J22=8,1,0))))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8">
         <f>IF(K22=1,10,IF(K22=2,8,IF(K22=3,6,IF(K22=4,5,IF(K22=5,4,IF(K22=6,3,IF(K22=7,2,IF(K22=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L23" s="8">
         <f>IF(L22=1,10,IF(L22=2,8,IF(L22=3,6,IF(L22=4,5,IF(L22=5,4,IF(L22=6,3,IF(L22=7,2,IF(L22=8,1,0))))))))</f>
@@ -7090,11 +7150,11 @@
       </c>
       <c r="P23" s="8">
         <f>IF(P22=1,10,IF(P22=2,8,IF(P22=3,6,IF(P22=4,5,IF(P22=5,4,IF(P22=6,3,IF(P22=7,2,IF(P22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="8">
         <f>IF(Q22=1,10,IF(Q22=2,8,IF(Q22=3,6,IF(Q22=4,5,IF(Q22=5,4,IF(Q22=6,3,IF(Q22=7,2,IF(Q22=8,1,0))))))))/2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8">
         <f>IF(R22=1,10,IF(R22=2,8,IF(R22=3,6,IF(R22=4,5,IF(R22=5,4,IF(R22=6,3,IF(R22=7,2,IF(R22=8,1,0))))))))</f>
@@ -7118,15 +7178,15 @@
       </c>
       <c r="W23" s="8">
         <f>IF(W22=1,10,IF(W22=2,8,IF(W22=3,6,IF(W22=4,5,IF(W22=5,4,IF(W22=6,3,IF(W22=7,2,IF(W22=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X23" s="8">
         <f>IF(X22=1,10,IF(X22=2,8,IF(X22=3,6,IF(X22=4,5,IF(X22=5,4,IF(X22=6,3,IF(X22=7,2,IF(X22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="8">
         <f>IF(Y22=1,10,IF(Y22=2,8,IF(Y22=3,6,IF(Y22=4,5,IF(Y22=5,4,IF(Y22=6,3,IF(Y22=7,2,IF(Y22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="8">
         <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
@@ -7140,83 +7200,85 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F24" s="7">
+        <v>15</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="7">
         <v>13</v>
       </c>
-      <c r="G24" s="7">
+      <c r="I24" s="7">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2</v>
+      </c>
+      <c r="L24" s="7">
         <v>9</v>
       </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9</v>
-      </c>
-      <c r="J24" s="7">
-        <v>9</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="7">
-        <v>14</v>
-      </c>
       <c r="M24" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="7">
-        <v>9</v>
-      </c>
-      <c r="P24" s="7">
-        <v>1</v>
+      <c r="O24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="Q24" s="7">
+        <v>5</v>
+      </c>
+      <c r="R24" s="7">
+        <v>13</v>
+      </c>
+      <c r="S24" s="7">
+        <v>12</v>
+      </c>
+      <c r="T24" s="7">
+        <v>12</v>
+      </c>
+      <c r="U24" s="7">
+        <v>18</v>
+      </c>
+      <c r="V24" s="7">
+        <v>10</v>
+      </c>
+      <c r="W24" s="7">
         <v>7</v>
       </c>
-      <c r="R24" s="7">
-        <v>9</v>
-      </c>
-      <c r="S24" s="7">
+      <c r="X24" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="7">
         <v>10</v>
       </c>
-      <c r="T24" s="7">
-        <v>14</v>
-      </c>
-      <c r="U24" s="7">
-        <v>10</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="W24" s="7">
-        <v>13</v>
-      </c>
-      <c r="X24" s="7">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -7235,7 +7297,7 @@
       </c>
       <c r="H25" s="8">
         <f>IF(H24=1,10,IF(H24=2,8,IF(H24=3,6,IF(H24=4,5,IF(H24=5,4,IF(H24=6,3,IF(H24=7,2,IF(H24=8,1,0))))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
         <f>IF(I24=1,10,IF(I24=2,8,IF(I24=3,6,IF(I24=4,5,IF(I24=5,4,IF(I24=6,3,IF(I24=7,2,IF(I24=8,1,0))))))))</f>
@@ -7243,11 +7305,11 @@
       </c>
       <c r="J25" s="8">
         <f>IF(J24=1,10,IF(J24=2,8,IF(J24=3,6,IF(J24=4,5,IF(J24=5,4,IF(J24=6,3,IF(J24=7,2,IF(J24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="8">
         <f>IF(K24=1,10,IF(K24=2,8,IF(K24=3,6,IF(K24=4,5,IF(K24=5,4,IF(K24=6,3,IF(K24=7,2,IF(K24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L25" s="8">
         <f>IF(L24=1,10,IF(L24=2,8,IF(L24=3,6,IF(L24=4,5,IF(L24=5,4,IF(L24=6,3,IF(L24=7,2,IF(L24=8,1,0))))))))</f>
@@ -7267,11 +7329,11 @@
       </c>
       <c r="P25" s="8">
         <f>IF(P24=1,10,IF(P24=2,8,IF(P24=3,6,IF(P24=4,5,IF(P24=5,4,IF(P24=6,3,IF(P24=7,2,IF(P24=8,1,0))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="8">
         <f>IF(Q24=1,10,IF(Q24=2,8,IF(Q24=3,6,IF(Q24=4,5,IF(Q24=5,4,IF(Q24=6,3,IF(Q24=7,2,IF(Q24=8,1,0))))))))/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="8">
         <f>IF(R24=1,10,IF(R24=2,8,IF(R24=3,6,IF(R24=4,5,IF(R24=5,4,IF(R24=6,3,IF(R24=7,2,IF(R24=8,1,0))))))))</f>
@@ -7295,11 +7357,11 @@
       </c>
       <c r="W25" s="8">
         <f>IF(W24=1,10,IF(W24=2,8,IF(W24=3,6,IF(W24=4,5,IF(W24=5,4,IF(W24=6,3,IF(W24=7,2,IF(W24=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="8">
         <f>IF(X24=1,10,IF(X24=2,8,IF(X24=3,6,IF(X24=4,5,IF(X24=5,4,IF(X24=6,3,IF(X24=7,2,IF(X24=8,1,0))))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="8">
         <f>IF(Y24=1,10,IF(Y24=2,8,IF(Y24=3,6,IF(Y24=4,5,IF(Y24=5,4,IF(Y24=6,3,IF(Y24=7,2,IF(Y24=8,1,0))))))))</f>
@@ -7388,12 +7450,14 @@
       <c r="X26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7">
+        <v>6</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
         <f>SUM(F27:AA27)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -7480,7 +7544,7 @@
       </c>
       <c r="Y27" s="8">
         <f>IF(Y26=1,10,IF(Y26=2,8,IF(Y26=3,6,IF(Y26=4,5,IF(Y26=5,4,IF(Y26=6,3,IF(Y26=7,2,IF(Y26=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="8">
         <f>IF(Z26=1,10,IF(Z26=2,8,IF(Z26=3,6,IF(Z26=4,5,IF(Z26=5,4,IF(Z26=6,3,IF(Z26=7,2,IF(Z26=8,1,0))))))))</f>
@@ -7565,7 +7629,9 @@
       <c r="X28" s="7">
         <v>15</v>
       </c>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="7">
+        <v>13</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
@@ -7742,7 +7808,9 @@
       <c r="X30" s="7">
         <v>13</v>
       </c>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7">
+        <v>17</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
@@ -7919,7 +7987,9 @@
       <c r="X32" s="7">
         <v>16</v>
       </c>
-      <c r="Y32" s="7"/>
+      <c r="Y32" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
@@ -8092,7 +8162,9 @@
       <c r="X34" s="7">
         <v>12</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="7">
+        <v>14</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
@@ -8269,7 +8341,9 @@
       <c r="X36" s="7">
         <v>14</v>
       </c>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>15</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
@@ -8446,7 +8520,9 @@
       <c r="X38" s="7">
         <v>18</v>
       </c>
-      <c r="Y38" s="7"/>
+      <c r="Y38" s="7">
+        <v>16</v>
+      </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
@@ -8623,7 +8699,9 @@
       <c r="X40" s="7">
         <v>17</v>
       </c>
-      <c r="Y40" s="7"/>
+      <c r="Y40" s="7">
+        <v>18</v>
+      </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
@@ -8885,9 +8963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8906,8 +8982,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
@@ -9081,20 +9156,22 @@
       <c r="X2" s="7">
         <v>2</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>2</v>
+      </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
-        <f>1+1+1+1</f>
-        <v>4</v>
+        <f>1+1+1+1+1</f>
+        <v>5</v>
       </c>
       <c r="AC2" s="7">
         <f>SUM(F3:AA3)+AB2</f>
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9181,7 +9258,7 @@
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,10,IF(Y2=2,6,IF(Y2=3,4,IF(Y2=4,3,IF(Y2=5,2,IF(Y2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
@@ -9268,7 +9345,9 @@
       <c r="X4" s="7">
         <v>1</v>
       </c>
-      <c r="Y4" s="7"/>
+      <c r="Y4" s="7">
+        <v>1</v>
+      </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
@@ -9277,11 +9356,11 @@
       </c>
       <c r="AC4" s="7">
         <f>SUM(F5:AA5)+AB4</f>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9368,7 +9447,7 @@
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,10,IF(Y4=2,6,IF(Y4=3,4,IF(Y4=4,3,IF(Y4=5,2,IF(Y4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
@@ -9455,7 +9534,9 @@
       <c r="X6" s="7">
         <v>3</v>
       </c>
-      <c r="Y6" s="7"/>
+      <c r="Y6" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
@@ -9642,7 +9723,9 @@
       <c r="X8" s="7">
         <v>4</v>
       </c>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7">
+        <v>4</v>
+      </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
@@ -9651,11 +9734,11 @@
       </c>
       <c r="AC8" s="7">
         <f>SUM(F9:AA9)+AB8</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AD8" s="7">
         <f>SUM(F9:AA9)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -9742,7 +9825,7 @@
       </c>
       <c r="Y9" s="8">
         <f>IF(Y8=1,10,IF(Y8=2,6,IF(Y8=3,4,IF(Y8=4,3,IF(Y8=5,2,IF(Y8=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z9" s="8">
         <f>IF(Z8=1,10,IF(Z8=2,6,IF(Z8=3,4,IF(Z8=4,3,IF(Z8=5,2,IF(Z8=6,1,0))))))</f>
@@ -9829,7 +9912,9 @@
       <c r="X10" s="7">
         <v>10</v>
       </c>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>9</v>
+      </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
@@ -10016,7 +10101,9 @@
       <c r="X12" s="7">
         <v>5</v>
       </c>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>8</v>
+      </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
@@ -10202,7 +10289,9 @@
       <c r="X14" s="7">
         <v>6</v>
       </c>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>7</v>
+      </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
@@ -10388,7 +10477,9 @@
       <c r="X16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>12</v>
+      </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
@@ -10575,7 +10666,9 @@
       <c r="X18" s="7">
         <v>7</v>
       </c>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7">
+        <v>11</v>
+      </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
@@ -10762,7 +10855,9 @@
       <c r="X20" s="7">
         <v>8</v>
       </c>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>3</v>
+      </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
@@ -10770,11 +10865,11 @@
       </c>
       <c r="AC20" s="7">
         <f>SUM(F21:AA21)+AB20</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -10861,7 +10956,7 @@
       </c>
       <c r="Y21" s="8">
         <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" s="8">
         <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
@@ -10948,7 +11043,9 @@
       <c r="X22" s="7">
         <v>11</v>
       </c>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="7">
+        <v>10</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
@@ -11134,7 +11231,9 @@
       <c r="X24" s="7">
         <v>9</v>
       </c>
-      <c r="Y24" s="7"/>
+      <c r="Y24" s="7">
+        <v>5</v>
+      </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
@@ -11142,11 +11241,11 @@
       </c>
       <c r="AC24" s="7">
         <f>SUM(F25:AA25)+AB24</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -11233,7 +11332,7 @@
       </c>
       <c r="Y25" s="8">
         <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="8">
         <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
@@ -11320,7 +11419,9 @@
       <c r="X26" s="7">
         <v>13</v>
       </c>
-      <c r="Y26" s="7"/>
+      <c r="Y26" s="7">
+        <v>17</v>
+      </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
@@ -11506,7 +11607,9 @@
       <c r="X28" s="7">
         <v>15</v>
       </c>
-      <c r="Y28" s="7"/>
+      <c r="Y28" s="7">
+        <v>13</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
@@ -11621,91 +11724,92 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B30" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11</v>
+      </c>
+      <c r="J30" s="7">
+        <v>8</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="7">
-        <v>17</v>
-      </c>
-      <c r="H30" s="7">
-        <v>19</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19</v>
-      </c>
-      <c r="J30" s="7">
-        <v>17</v>
-      </c>
-      <c r="K30" s="7">
-        <v>14</v>
-      </c>
       <c r="L30" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M30" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N30" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O30" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q30" s="7">
-        <v>17</v>
-      </c>
-      <c r="R30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="7">
+        <v>12</v>
+      </c>
+      <c r="S30" s="7">
+        <v>7</v>
+      </c>
+      <c r="T30" s="7">
+        <v>11</v>
+      </c>
+      <c r="U30" s="7">
+        <v>9</v>
+      </c>
+      <c r="V30" s="7">
+        <v>12</v>
+      </c>
+      <c r="W30" s="7">
+        <v>14</v>
+      </c>
+      <c r="X30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="S30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="T30" s="7">
-        <v>18</v>
-      </c>
-      <c r="U30" s="7">
-        <v>20</v>
-      </c>
-      <c r="V30" s="7">
-        <v>17</v>
-      </c>
-      <c r="W30" s="7">
-        <v>18</v>
-      </c>
-      <c r="X30" s="7">
-        <v>17</v>
-      </c>
-      <c r="Y30" s="7"/>
+      <c r="Y30" s="7">
+        <v>6</v>
+      </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
-        <f>(1)/2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="7">
         <f>SUM(F31:AA31)+AB30</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="7">
         <f>SUM(F31:AA31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -11792,7 +11896,7 @@
       </c>
       <c r="Y31" s="8">
         <f>IF(Y30=1,10,IF(Y30=2,6,IF(Y30=3,4,IF(Y30=4,3,IF(Y30=5,2,IF(Y30=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="8">
         <f>IF(Z30=1,10,IF(Z30=2,6,IF(Z30=3,4,IF(Z30=4,3,IF(Z30=5,2,IF(Z30=6,1,0))))))</f>
@@ -11808,86 +11912,89 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="7">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="G32" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7">
+        <v>19</v>
+      </c>
+      <c r="I32" s="7">
+        <v>19</v>
+      </c>
+      <c r="J32" s="7">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7">
         <v>14</v>
       </c>
-      <c r="I32" s="7">
-        <v>11</v>
-      </c>
-      <c r="J32" s="7">
-        <v>8</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="L32" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M32" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N32" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O32" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P32" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q32" s="7">
+        <v>17</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T32" s="7">
         <v>18</v>
       </c>
-      <c r="R32" s="7">
-        <v>12</v>
-      </c>
-      <c r="S32" s="7">
-        <v>7</v>
-      </c>
-      <c r="T32" s="7">
-        <v>11</v>
-      </c>
       <c r="U32" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="V32" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W32" s="7">
-        <v>14</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y32" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="X32" s="7">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>18</v>
+      </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
-        <v>0</v>
+        <f>(1)/2</f>
+        <v>0.5</v>
       </c>
       <c r="AC32" s="7">
         <f>SUM(F33:AA33)+AB32</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD32" s="7">
         <f>SUM(F33:AA33)</f>
@@ -12065,7 +12172,9 @@
       <c r="X34" s="7">
         <v>16</v>
       </c>
-      <c r="Y34" s="7"/>
+      <c r="Y34" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
@@ -12247,7 +12356,9 @@
       <c r="X36" s="7">
         <v>12</v>
       </c>
-      <c r="Y36" s="7"/>
+      <c r="Y36" s="7">
+        <v>14</v>
+      </c>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
@@ -12433,7 +12544,9 @@
       <c r="X38" s="7">
         <v>14</v>
       </c>
-      <c r="Y38" s="7"/>
+      <c r="Y38" s="7">
+        <v>15</v>
+      </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
@@ -12619,7 +12732,9 @@
       <c r="X40" s="7">
         <v>18</v>
       </c>
-      <c r="Y40" s="7"/>
+      <c r="Y40" s="7">
+        <v>16</v>
+      </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
@@ -12941,11 +13056,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
-        <v>521.5</v>
+        <v>546.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>504.5</v>
+        <v>529.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12960,11 +13075,11 @@
       </c>
       <c r="D3" s="10">
         <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD8</f>
-        <v>510.5</v>
+        <v>541.5</v>
       </c>
       <c r="E3" s="10">
         <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE8</f>
-        <v>499.5</v>
+        <v>529.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12979,11 +13094,11 @@
       </c>
       <c r="D4" s="12">
         <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
-        <v>287.5</v>
+        <v>297.5</v>
       </c>
       <c r="E4" s="12">
         <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>286.5</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12998,11 +13113,11 @@
       </c>
       <c r="D5" s="11">
         <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD16</f>
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E5" s="11">
         <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE16</f>
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13017,11 +13132,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AD20+'2021 Driver Ranking'!AD22</f>
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13055,11 +13170,11 @@
       </c>
       <c r="D8" s="13">
         <f>'2021 Driver Ranking'!AD24+'2021 Driver Ranking'!AD26</f>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E8" s="13">
         <f>'2021 Driver Ranking'!AE24+'2021 Driver Ranking'!AE26</f>
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13172,7 +13287,7 @@
       </c>
       <c r="D2" s="8">
         <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13187,7 +13302,7 @@
       </c>
       <c r="D3" s="10">
         <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB8</f>
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13202,7 +13317,7 @@
       </c>
       <c r="D4" s="12">
         <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
-        <v>111.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13221,33 +13336,33 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB22</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
         <v>38.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="6">
-        <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB24</f>
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13261,8 +13376,8 @@
         <v>97</v>
       </c>
       <c r="D8" s="13">
-        <f>'2003-2009 Driver Ranking'!AB22+'2003-2009 Driver Ranking'!AB26</f>
-        <v>22</v>
+        <f>'2003-2009 Driver Ranking'!AB24+'2003-2009 Driver Ranking'!AB26</f>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13366,11 +13481,11 @@
       </c>
       <c r="D2" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E2" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13385,11 +13500,11 @@
       </c>
       <c r="D3" s="8">
         <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E3" s="8">
         <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13442,11 +13557,11 @@
       </c>
       <c r="D6" s="6">
         <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
         <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13479,12 +13594,12 @@
         <v>97</v>
       </c>
       <c r="D8" s="13">
-        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC32</f>
-        <v>9</v>
+        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC30</f>
+        <v>10</v>
       </c>
       <c r="E8" s="13">
-        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD32</f>
-        <v>9</v>
+        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -13517,11 +13632,11 @@
         <v>94</v>
       </c>
       <c r="D10" s="7">
-        <f>'1991-2002 Driver Ranking'!AC30+'1991-2002 Driver Ranking'!AC40</f>
+        <f>'1991-2002 Driver Ranking'!AC32+'1991-2002 Driver Ranking'!AC40</f>
         <v>0.5</v>
       </c>
       <c r="E10" s="7">
-        <f>'1991-2002 Driver Ranking'!AD30+'1991-2002 Driver Ranking'!AD40</f>
+        <f>'1991-2002 Driver Ranking'!AD32+'1991-2002 Driver Ranking'!AD40</f>
         <v>0</v>
       </c>
     </row>

--- a/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
+++ b/文档/其他文档/Others/Sports/Formula Ranking System.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="116">
   <si>
     <t>Driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,10 @@
   </si>
   <si>
     <t>Did Not Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1177,9 @@
       <c r="Y2" s="7">
         <v>2</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="7">
+        <v>2</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>1+1+1+1</f>
@@ -1185,11 +1191,11 @@
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)+AB2+AC2</f>
-        <v>351.5</v>
+        <v>369.5</v>
       </c>
       <c r="AE2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>340.5</v>
+        <v>358.5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1280,7 +1286,7 @@
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,25,IF(Z2=2,18,IF(Z2=3,15,IF(Z2=4,12,IF(Z2=5,10,IF(Z2=6,8,IF(Z2=7,6,IF(Z2=8,4,IF(Z2=9,2,IF(Z2=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA3" s="8">
         <f>IF(AA2=1,25,IF(AA2=2,18,IF(AA2=3,15,IF(AA2=4,12,IF(AA2=5,10,IF(AA2=6,8,IF(AA2=7,6,IF(AA2=8,4,IF(AA2=9,2,IF(AA2=10,1,0))))))))))</f>
@@ -1367,11 +1373,13 @@
       <c r="Y4" s="7">
         <v>1</v>
       </c>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f>1+1+1+1+1</f>
-        <v>5</v>
+        <f>1+1+1+1+1+1</f>
+        <v>6</v>
       </c>
       <c r="AC4" s="7">
         <f>2</f>
@@ -1379,11 +1387,11 @@
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)+AB4+AC4</f>
-        <v>343.5</v>
+        <v>369.5</v>
       </c>
       <c r="AE4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>336.5</v>
+        <v>361.5</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1474,7 +1482,7 @@
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,25,IF(Z4=2,18,IF(Z4=3,15,IF(Z4=4,12,IF(Z4=5,10,IF(Z4=6,8,IF(Z4=7,6,IF(Z4=8,4,IF(Z4=9,2,IF(Z4=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA5" s="8">
         <f>IF(AA4=1,25,IF(AA4=2,18,IF(AA4=3,15,IF(AA4=4,12,IF(AA4=5,10,IF(AA4=6,8,IF(AA4=7,6,IF(AA4=8,4,IF(AA4=9,2,IF(AA4=10,1,0))))))))))</f>
@@ -1561,7 +1569,9 @@
       <c r="Y6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>1+1+1</f>
@@ -1573,11 +1583,11 @@
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)+AB6+AC6</f>
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="AE6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1668,7 +1678,7 @@
       </c>
       <c r="Z7" s="8">
         <f>IF(Z6=1,25,IF(Z6=2,18,IF(Z6=3,15,IF(Z6=4,12,IF(Z6=5,10,IF(Z6=6,8,IF(Z6=7,6,IF(Z6=8,4,IF(Z6=9,2,IF(Z6=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="8">
         <f>IF(AA6=1,25,IF(AA6=2,18,IF(AA6=3,15,IF(AA6=4,12,IF(AA6=5,10,IF(AA6=6,8,IF(AA6=7,6,IF(AA6=8,4,IF(AA6=9,2,IF(AA6=10,1,0))))))))))</f>
@@ -1755,7 +1765,9 @@
       <c r="Y8" s="7">
         <v>4</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>1</f>
@@ -1874,96 +1886,97 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
         <v>4</v>
       </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="J10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4</v>
+      </c>
+      <c r="L10" s="7">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
         <v>8</v>
       </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3</v>
-      </c>
       <c r="O10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q10" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10" s="7">
+        <v>15</v>
+      </c>
+      <c r="U10" s="7">
+        <v>4</v>
+      </c>
+      <c r="V10" s="7">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>5</v>
+      </c>
+      <c r="X10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="7">
         <v>7</v>
       </c>
-      <c r="U10" s="7">
-        <v>7</v>
-      </c>
-      <c r="V10" s="7">
-        <v>8</v>
-      </c>
-      <c r="W10" s="7">
-        <v>10</v>
-      </c>
-      <c r="X10" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <v>0</v>
       </c>
       <c r="AD10" s="7">
         <f>SUM(F11:AA11)+AB10+AC10</f>
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AE10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1974,43 +1987,43 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8">
         <f>IF(F10=1,25,IF(F10=2,18,IF(F10=3,15,IF(F10=4,12,IF(F10=5,10,IF(F10=6,8,IF(F10=7,6,IF(F10=8,4,IF(F10=9,2,IF(F10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" s="8">
         <f>IF(G10=1,25,IF(G10=2,18,IF(G10=3,15,IF(G10=4,12,IF(G10=5,10,IF(G10=6,8,IF(G10=7,6,IF(G10=8,4,IF(G10=9,2,IF(G10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8">
         <f>IF(H10=1,25,IF(H10=2,18,IF(H10=3,15,IF(H10=4,12,IF(H10=5,10,IF(H10=6,8,IF(H10=7,6,IF(H10=8,4,IF(H10=9,2,IF(H10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8">
         <f>IF(I10=1,25,IF(I10=2,18,IF(I10=3,15,IF(I10=4,12,IF(I10=5,10,IF(I10=6,8,IF(I10=7,6,IF(I10=8,4,IF(I10=9,2,IF(I10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8">
         <f>IF(J10=1,25,IF(J10=2,18,IF(J10=3,15,IF(J10=4,12,IF(J10=5,10,IF(J10=6,8,IF(J10=7,6,IF(J10=8,4,IF(J10=9,2,IF(J10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11" s="8">
         <f>IF(K10=1,25,IF(K10=2,18,IF(K10=3,15,IF(K10=4,12,IF(K10=5,10,IF(K10=6,8,IF(K10=7,6,IF(K10=8,4,IF(K10=9,2,IF(K10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L11" s="8">
         <f>IF(L10=1,25,IF(L10=2,18,IF(L10=3,15,IF(L10=4,12,IF(L10=5,10,IF(L10=6,8,IF(L10=7,6,IF(L10=8,4,IF(L10=9,2,IF(L10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
         <f>IF(M10=1,25,IF(M10=2,18,IF(M10=3,15,IF(M10=4,12,IF(M10=5,10,IF(M10=6,8,IF(M10=7,6,IF(M10=8,4,IF(M10=9,2,IF(M10=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N11" s="8">
         <f>IF(N10=1,25,IF(N10=2,18,IF(N10=3,15,IF(N10=4,12,IF(N10=5,10,IF(N10=6,8,IF(N10=7,6,IF(N10=8,4,IF(N10=9,2,IF(N10=10,1,0))))))))))</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O11" s="8">
         <f>IF(O10=1,25,IF(O10=2,18,IF(O10=3,15,IF(O10=4,12,IF(O10=5,10,IF(O10=6,8,IF(O10=7,6,IF(O10=8,4,IF(O10=9,2,IF(O10=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P11" s="8">
         <f>IF(P10=1,25,IF(P10=2,18,IF(P10=3,15,IF(P10=4,12,IF(P10=5,10,IF(P10=6,8,IF(P10=7,6,IF(P10=8,4,IF(P10=9,2,IF(P10=10,1,0))))))))))</f>
@@ -2018,43 +2031,43 @@
       </c>
       <c r="Q11" s="8">
         <f>IF(Q10=1,25,IF(Q10=2,18,IF(Q10=3,15,IF(Q10=4,12,IF(Q10=5,10,IF(Q10=6,8,IF(Q10=7,6,IF(Q10=8,4,IF(Q10=9,2,IF(Q10=10,1,0))))))))))/2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="8">
         <f>IF(R10=1,25,IF(R10=2,18,IF(R10=3,15,IF(R10=4,12,IF(R10=5,10,IF(R10=6,8,IF(R10=7,6,IF(R10=8,4,IF(R10=9,2,IF(R10=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S11" s="8">
         <f>IF(S10=1,25,IF(S10=2,18,IF(S10=3,15,IF(S10=4,12,IF(S10=5,10,IF(S10=6,8,IF(S10=7,6,IF(S10=8,4,IF(S10=9,2,IF(S10=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T11" s="8">
         <f>IF(T10=1,25,IF(T10=2,18,IF(T10=3,15,IF(T10=4,12,IF(T10=5,10,IF(T10=6,8,IF(T10=7,6,IF(T10=8,4,IF(T10=9,2,IF(T10=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8">
         <f>IF(U10=1,25,IF(U10=2,18,IF(U10=3,15,IF(U10=4,12,IF(U10=5,10,IF(U10=6,8,IF(U10=7,6,IF(U10=8,4,IF(U10=9,2,IF(U10=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V11" s="8">
         <f>IF(V10=1,25,IF(V10=2,18,IF(V10=3,15,IF(V10=4,12,IF(V10=5,10,IF(V10=6,8,IF(V10=7,6,IF(V10=8,4,IF(V10=9,2,IF(V10=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W11" s="8">
         <f>IF(W10=1,25,IF(W10=2,18,IF(W10=3,15,IF(W10=4,12,IF(W10=5,10,IF(W10=6,8,IF(W10=7,6,IF(W10=8,4,IF(W10=9,2,IF(W10=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X11" s="8">
         <f>IF(X10=1,25,IF(X10=2,18,IF(X10=3,15,IF(X10=4,12,IF(X10=5,10,IF(X10=6,8,IF(X10=7,6,IF(X10=8,4,IF(X10=9,2,IF(X10=10,1,0))))))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="8">
         <f>IF(Y10=1,25,IF(Y10=2,18,IF(Y10=3,15,IF(Y10=4,12,IF(Y10=5,10,IF(Y10=6,8,IF(Y10=7,6,IF(Y10=8,4,IF(Y10=9,2,IF(Y10=10,1,0))))))))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="8">
         <f>IF(Z10=1,25,IF(Z10=2,18,IF(Z10=3,15,IF(Z10=4,12,IF(Z10=5,10,IF(Z10=6,8,IF(Z10=7,6,IF(Z10=8,4,IF(Z10=9,2,IF(Z10=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="8">
         <f>IF(AA10=1,25,IF(AA10=2,18,IF(AA10=3,15,IF(AA10=4,12,IF(AA10=5,10,IF(AA10=6,8,IF(AA10=7,6,IF(AA10=8,4,IF(AA10=9,2,IF(AA10=10,1,0))))))))))</f>
@@ -2067,95 +2080,98 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5</v>
+      </c>
+      <c r="L12" s="7">
+        <v>5</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3</v>
+      </c>
+      <c r="O12" s="7">
         <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="7">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>16</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q12" s="7">
+        <v>14</v>
+      </c>
+      <c r="R12" s="7">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="7">
+        <v>7</v>
+      </c>
+      <c r="U12" s="7">
+        <v>7</v>
+      </c>
+      <c r="V12" s="7">
         <v>8</v>
       </c>
-      <c r="R12" s="7">
-        <v>5</v>
-      </c>
-      <c r="S12" s="7">
-        <v>4</v>
-      </c>
-      <c r="T12" s="7">
-        <v>15</v>
-      </c>
-      <c r="U12" s="7">
-        <v>4</v>
-      </c>
-      <c r="V12" s="7">
-        <v>4</v>
-      </c>
       <c r="W12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X12" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="7">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>10</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC12" s="7">
         <v>0</v>
       </c>
       <c r="AD12" s="7">
         <f>SUM(F13:AA13)+AB12+AC12</f>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE12" s="7">
         <f>SUM(F13:AA13)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2166,43 +2182,43 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8">
         <f>IF(F12=1,25,IF(F12=2,18,IF(F12=3,15,IF(F12=4,12,IF(F12=5,10,IF(F12=6,8,IF(F12=7,6,IF(F12=8,4,IF(F12=9,2,IF(F12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8">
         <f>IF(G12=1,25,IF(G12=2,18,IF(G12=3,15,IF(G12=4,12,IF(G12=5,10,IF(G12=6,8,IF(G12=7,6,IF(G12=8,4,IF(G12=9,2,IF(G12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8">
         <f>IF(H12=1,25,IF(H12=2,18,IF(H12=3,15,IF(H12=4,12,IF(H12=5,10,IF(H12=6,8,IF(H12=7,6,IF(H12=8,4,IF(H12=9,2,IF(H12=10,1,0))))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8">
         <f>IF(I12=1,25,IF(I12=2,18,IF(I12=3,15,IF(I12=4,12,IF(I12=5,10,IF(I12=6,8,IF(I12=7,6,IF(I12=8,4,IF(I12=9,2,IF(I12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J13" s="8">
         <f>IF(J12=1,25,IF(J12=2,18,IF(J12=3,15,IF(J12=4,12,IF(J12=5,10,IF(J12=6,8,IF(J12=7,6,IF(J12=8,4,IF(J12=9,2,IF(J12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8">
         <f>IF(K12=1,25,IF(K12=2,18,IF(K12=3,15,IF(K12=4,12,IF(K12=5,10,IF(K12=6,8,IF(K12=7,6,IF(K12=8,4,IF(K12=9,2,IF(K12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" s="8">
         <f>IF(L12=1,25,IF(L12=2,18,IF(L12=3,15,IF(L12=4,12,IF(L12=5,10,IF(L12=6,8,IF(L12=7,6,IF(L12=8,4,IF(L12=9,2,IF(L12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M13" s="8">
         <f>IF(M12=1,25,IF(M12=2,18,IF(M12=3,15,IF(M12=4,12,IF(M12=5,10,IF(M12=6,8,IF(M12=7,6,IF(M12=8,4,IF(M12=9,2,IF(M12=10,1,0))))))))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N13" s="8">
         <f>IF(N12=1,25,IF(N12=2,18,IF(N12=3,15,IF(N12=4,12,IF(N12=5,10,IF(N12=6,8,IF(N12=7,6,IF(N12=8,4,IF(N12=9,2,IF(N12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O13" s="8">
         <f>IF(O12=1,25,IF(O12=2,18,IF(O12=3,15,IF(O12=4,12,IF(O12=5,10,IF(O12=6,8,IF(O12=7,6,IF(O12=8,4,IF(O12=9,2,IF(O12=10,1,0))))))))))</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P13" s="8">
         <f>IF(P12=1,25,IF(P12=2,18,IF(P12=3,15,IF(P12=4,12,IF(P12=5,10,IF(P12=6,8,IF(P12=7,6,IF(P12=8,4,IF(P12=9,2,IF(P12=10,1,0))))))))))</f>
@@ -2210,43 +2226,43 @@
       </c>
       <c r="Q13" s="8">
         <f>IF(Q12=1,25,IF(Q12=2,18,IF(Q12=3,15,IF(Q12=4,12,IF(Q12=5,10,IF(Q12=6,8,IF(Q12=7,6,IF(Q12=8,4,IF(Q12=9,2,IF(Q12=10,1,0))))))))))/2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8">
         <f>IF(R12=1,25,IF(R12=2,18,IF(R12=3,15,IF(R12=4,12,IF(R12=5,10,IF(R12=6,8,IF(R12=7,6,IF(R12=8,4,IF(R12=9,2,IF(R12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S13" s="8">
         <f>IF(S12=1,25,IF(S12=2,18,IF(S12=3,15,IF(S12=4,12,IF(S12=5,10,IF(S12=6,8,IF(S12=7,6,IF(S12=8,4,IF(S12=9,2,IF(S12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T13" s="8">
         <f>IF(T12=1,25,IF(T12=2,18,IF(T12=3,15,IF(T12=4,12,IF(T12=5,10,IF(T12=6,8,IF(T12=7,6,IF(T12=8,4,IF(T12=9,2,IF(T12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U13" s="8">
         <f>IF(U12=1,25,IF(U12=2,18,IF(U12=3,15,IF(U12=4,12,IF(U12=5,10,IF(U12=6,8,IF(U12=7,6,IF(U12=8,4,IF(U12=9,2,IF(U12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V13" s="8">
         <f>IF(V12=1,25,IF(V12=2,18,IF(V12=3,15,IF(V12=4,12,IF(V12=5,10,IF(V12=6,8,IF(V12=7,6,IF(V12=8,4,IF(V12=9,2,IF(V12=10,1,0))))))))))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W13" s="8">
         <f>IF(W12=1,25,IF(W12=2,18,IF(W12=3,15,IF(W12=4,12,IF(W12=5,10,IF(W12=6,8,IF(W12=7,6,IF(W12=8,4,IF(W12=9,2,IF(W12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X13" s="8">
         <f>IF(X12=1,25,IF(X12=2,18,IF(X12=3,15,IF(X12=4,12,IF(X12=5,10,IF(X12=6,8,IF(X12=7,6,IF(X12=8,4,IF(X12=9,2,IF(X12=10,1,0))))))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="8">
         <f>IF(Y12=1,25,IF(Y12=2,18,IF(Y12=3,15,IF(Y12=4,12,IF(Y12=5,10,IF(Y12=6,8,IF(Y12=7,6,IF(Y12=8,4,IF(Y12=9,2,IF(Y12=10,1,0))))))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="8">
         <f>IF(Z12=1,25,IF(Z12=2,18,IF(Z12=3,15,IF(Z12=4,12,IF(Z12=5,10,IF(Z12=6,8,IF(Z12=7,6,IF(Z12=8,4,IF(Z12=9,2,IF(Z12=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="8">
         <f>IF(AA12=1,25,IF(AA12=2,18,IF(AA12=3,15,IF(AA12=4,12,IF(AA12=5,10,IF(AA12=6,8,IF(AA12=7,6,IF(AA12=8,4,IF(AA12=9,2,IF(AA12=10,1,0))))))))))</f>
@@ -2333,7 +2349,9 @@
       <c r="Y14" s="7">
         <v>7</v>
       </c>
-      <c r="Z14" s="7"/>
+      <c r="Z14" s="7">
+        <v>8</v>
+      </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <v>0</v>
@@ -2344,11 +2362,11 @@
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)+AB14+AC14</f>
-        <v>145.5</v>
+        <v>149.5</v>
       </c>
       <c r="AE14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>144.5</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2439,7 +2457,7 @@
       </c>
       <c r="Z15" s="8">
         <f>IF(Z14=1,25,IF(Z14=2,18,IF(Z14=3,15,IF(Z14=4,12,IF(Z14=5,10,IF(Z14=6,8,IF(Z14=7,6,IF(Z14=8,4,IF(Z14=9,2,IF(Z14=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="8">
         <f>IF(AA14=1,25,IF(AA14=2,18,IF(AA14=3,15,IF(AA14=4,12,IF(AA14=5,10,IF(AA14=6,8,IF(AA14=7,6,IF(AA14=8,4,IF(AA14=9,2,IF(AA14=10,1,0))))))))))</f>
@@ -2526,7 +2544,9 @@
       <c r="Y16" s="7">
         <v>12</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>5</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
         <f>1</f>
@@ -2538,11 +2558,11 @@
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)+AB16+AC16</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -2633,7 +2653,7 @@
       </c>
       <c r="Z17" s="8">
         <f>IF(Z16=1,25,IF(Z16=2,18,IF(Z16=3,15,IF(Z16=4,12,IF(Z16=5,10,IF(Z16=6,8,IF(Z16=7,6,IF(Z16=8,4,IF(Z16=9,2,IF(Z16=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA17" s="8">
         <f>IF(AA16=1,25,IF(AA16=2,18,IF(AA16=3,15,IF(AA16=4,12,IF(AA16=5,10,IF(AA16=6,8,IF(AA16=7,6,IF(AA16=8,4,IF(AA16=9,2,IF(AA16=10,1,0))))))))))</f>
@@ -2720,7 +2740,9 @@
       <c r="Y18" s="7">
         <v>11</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>6</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
         <f>1</f>
@@ -2731,11 +2753,11 @@
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AA19)+AB18+AC18</f>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AE18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2826,7 +2848,7 @@
       </c>
       <c r="Z19" s="8">
         <f>IF(Z18=1,25,IF(Z18=2,18,IF(Z18=3,15,IF(Z18=4,12,IF(Z18=5,10,IF(Z18=6,8,IF(Z18=7,6,IF(Z18=8,4,IF(Z18=9,2,IF(Z18=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA19" s="8">
         <f>IF(AA18=1,25,IF(AA18=2,18,IF(AA18=3,15,IF(AA18=4,12,IF(AA18=5,10,IF(AA18=6,8,IF(AA18=7,6,IF(AA18=8,4,IF(AA18=9,2,IF(AA18=10,1,0))))))))))</f>
@@ -2913,7 +2935,9 @@
       <c r="Y20" s="7">
         <v>3</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7">
+        <v>13</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
         <v>0</v>
@@ -3105,7 +3129,9 @@
       <c r="Y22" s="7">
         <v>5</v>
       </c>
-      <c r="Z22" s="7"/>
+      <c r="Z22" s="7">
+        <v>4</v>
+      </c>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <v>0</v>
@@ -3115,11 +3141,11 @@
       </c>
       <c r="AD22" s="7">
         <f>SUM(F23:AA23)+AB22+AC22</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AE22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3210,7 +3236,7 @@
       </c>
       <c r="Z23" s="8">
         <f>IF(Z22=1,25,IF(Z22=2,18,IF(Z22=3,15,IF(Z22=4,12,IF(Z22=5,10,IF(Z22=6,8,IF(Z22=7,6,IF(Z22=8,4,IF(Z22=9,2,IF(Z22=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA23" s="8">
         <f>IF(AA22=1,25,IF(AA22=2,18,IF(AA22=3,15,IF(AA22=4,12,IF(AA22=5,10,IF(AA22=6,8,IF(AA22=7,6,IF(AA22=8,4,IF(AA22=9,2,IF(AA22=10,1,0))))))))))</f>
@@ -3297,7 +3323,9 @@
       <c r="Y24" s="7">
         <v>10</v>
       </c>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
         <v>0</v>
@@ -3489,7 +3517,9 @@
       <c r="Y26" s="7">
         <v>6</v>
       </c>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>11</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
         <v>0</v>
@@ -3681,7 +3711,9 @@
       <c r="Y28" s="7">
         <v>13</v>
       </c>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7">
+        <v>14</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
         <v>0</v>
@@ -3873,7 +3905,9 @@
       <c r="Y30" s="7">
         <v>17</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
         <v>0</v>
@@ -4061,7 +4095,9 @@
       <c r="Y32" s="7">
         <v>14</v>
       </c>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="7">
+        <v>15</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
         <v>0</v>
@@ -4253,7 +4289,9 @@
       <c r="Y34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z34" s="7"/>
+      <c r="Z34" s="7">
+        <v>12</v>
+      </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
         <v>0</v>
@@ -4445,7 +4483,9 @@
       <c r="Y36" s="7">
         <v>15</v>
       </c>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="7">
+        <v>9</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
         <v>0</v>
@@ -4455,11 +4495,11 @@
       </c>
       <c r="AD36" s="7">
         <f>SUM(F37:AA37)+AB36+AC36</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE36" s="7">
         <f>SUM(F37:AA37)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -4550,7 +4590,7 @@
       </c>
       <c r="Z37" s="8">
         <f>IF(Z36=1,25,IF(Z36=2,18,IF(Z36=3,15,IF(Z36=4,12,IF(Z36=5,10,IF(Z36=6,8,IF(Z36=7,6,IF(Z36=8,4,IF(Z36=9,2,IF(Z36=10,1,0))))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="8">
         <f>IF(AA36=1,25,IF(AA36=2,18,IF(AA36=3,15,IF(AA36=4,12,IF(AA36=5,10,IF(AA36=6,8,IF(AA36=7,6,IF(AA36=8,4,IF(AA36=9,2,IF(AA36=10,1,0))))))))))</f>
@@ -4637,7 +4677,9 @@
       <c r="Y38" s="7">
         <v>16</v>
       </c>
-      <c r="Z38" s="7"/>
+      <c r="Z38" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
         <v>0</v>
@@ -4829,7 +4871,9 @@
       <c r="Y40" s="7">
         <v>18</v>
       </c>
-      <c r="Z40" s="7"/>
+      <c r="Z40" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
         <v>0</v>
@@ -5154,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -5231,85 +5275,87 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
       <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="M2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
       <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>101</v>
+        <v>4</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
       </c>
       <c r="P2" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>101</v>
       </c>
       <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>5</v>
+      </c>
+      <c r="V2" s="7">
         <v>2</v>
       </c>
-      <c r="U2" s="7">
+      <c r="W2" s="7">
         <v>2</v>
       </c>
-      <c r="V2" s="7">
-        <v>1</v>
-      </c>
-      <c r="W2" s="7">
-        <v>1</v>
-      </c>
       <c r="X2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -5320,23 +5366,23 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8">
         <f>IF(F2=1,10,IF(F2=2,8,IF(F2=3,6,IF(F2=4,5,IF(F2=5,4,IF(F2=6,3,IF(F2=7,2,IF(F2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8">
         <f>IF(G2=1,10,IF(G2=2,8,IF(G2=3,6,IF(G2=4,5,IF(G2=5,4,IF(G2=6,3,IF(G2=7,2,IF(G2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="8">
         <f>IF(H2=1,10,IF(H2=2,8,IF(H2=3,6,IF(H2=4,5,IF(H2=5,4,IF(H2=6,3,IF(H2=7,2,IF(H2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" s="8">
         <f>IF(I2=1,10,IF(I2=2,8,IF(I2=3,6,IF(I2=4,5,IF(I2=5,4,IF(I2=6,3,IF(I2=7,2,IF(I2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" s="8">
         <f>IF(J2=1,10,IF(J2=2,8,IF(J2=3,6,IF(J2=4,5,IF(J2=5,4,IF(J2=6,3,IF(J2=7,2,IF(J2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K3" s="8">
         <f>IF(K2=1,10,IF(K2=2,8,IF(K2=3,6,IF(K2=4,5,IF(K2=5,4,IF(K2=6,3,IF(K2=7,2,IF(K2=8,1,0))))))))</f>
@@ -5344,31 +5390,31 @@
       </c>
       <c r="L3" s="8">
         <f>IF(L2=1,10,IF(L2=2,8,IF(L2=3,6,IF(L2=4,5,IF(L2=5,4,IF(L2=6,3,IF(L2=7,2,IF(L2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3" s="8">
         <f>IF(M2=1,10,IF(M2=2,8,IF(M2=3,6,IF(M2=4,5,IF(M2=5,4,IF(M2=6,3,IF(M2=7,2,IF(M2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3" s="8">
         <f>IF(N2=1,10,IF(N2=2,8,IF(N2=3,6,IF(N2=4,5,IF(N2=5,4,IF(N2=6,3,IF(N2=7,2,IF(N2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O3" s="8">
         <f>IF(O2=1,10,IF(O2=2,8,IF(O2=3,6,IF(O2=4,5,IF(O2=5,4,IF(O2=6,3,IF(O2=7,2,IF(O2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P3" s="8">
         <f>IF(P2=1,10,IF(P2=2,8,IF(P2=3,6,IF(P2=4,5,IF(P2=5,4,IF(P2=6,3,IF(P2=7,2,IF(P2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="8">
         <f>IF(Q2=1,10,IF(Q2=2,8,IF(Q2=3,6,IF(Q2=4,5,IF(Q2=5,4,IF(Q2=6,3,IF(Q2=7,2,IF(Q2=8,1,0))))))))/2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3" s="8">
         <f>IF(R2=1,10,IF(R2=2,8,IF(R2=3,6,IF(R2=4,5,IF(R2=5,4,IF(R2=6,3,IF(R2=7,2,IF(R2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S3" s="8">
         <f>IF(S2=1,10,IF(S2=2,8,IF(S2=3,6,IF(S2=4,5,IF(S2=5,4,IF(S2=6,3,IF(S2=7,2,IF(S2=8,1,0))))))))</f>
@@ -5376,31 +5422,31 @@
       </c>
       <c r="T3" s="8">
         <f>IF(T2=1,10,IF(T2=2,8,IF(T2=3,6,IF(T2=4,5,IF(T2=5,4,IF(T2=6,3,IF(T2=7,2,IF(T2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U3" s="8">
         <f>IF(U2=1,10,IF(U2=2,8,IF(U2=3,6,IF(U2=4,5,IF(U2=5,4,IF(U2=6,3,IF(U2=7,2,IF(U2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V3" s="8">
         <f>IF(V2=1,10,IF(V2=2,8,IF(V2=3,6,IF(V2=4,5,IF(V2=5,4,IF(V2=6,3,IF(V2=7,2,IF(V2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W3" s="8">
         <f>IF(W2=1,10,IF(W2=2,8,IF(W2=3,6,IF(W2=4,5,IF(W2=5,4,IF(W2=6,3,IF(W2=7,2,IF(W2=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X3" s="8">
         <f>IF(X2=1,10,IF(X2=2,8,IF(X2=3,6,IF(X2=4,5,IF(X2=5,4,IF(X2=6,3,IF(X2=7,2,IF(X2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="8">
         <f>IF(Y2=1,10,IF(Y2=2,8,IF(Y2=3,6,IF(Y2=4,5,IF(Y2=5,4,IF(Y2=6,3,IF(Y2=7,2,IF(Y2=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,10,IF(Z2=2,8,IF(Z2=3,6,IF(Z2=4,5,IF(Z2=5,4,IF(Z2=6,3,IF(Z2=7,2,IF(Z2=8,1,0))))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="8">
         <f>IF(AA2=1,10,IF(AA2=2,8,IF(AA2=3,6,IF(AA2=4,5,IF(AA2=5,4,IF(AA2=6,3,IF(AA2=7,2,IF(AA2=8,1,0))))))))</f>
@@ -5410,85 +5456,87 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="7">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="L4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>4</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="P4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>101</v>
       </c>
       <c r="T4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4" s="7">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
         <v>2</v>
       </c>
-      <c r="W4" s="7">
+      <c r="Y4" s="7">
         <v>2</v>
       </c>
-      <c r="X4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>2</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5499,23 +5547,23 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8">
         <f>IF(F4=1,10,IF(F4=2,8,IF(F4=3,6,IF(F4=4,5,IF(F4=5,4,IF(F4=6,3,IF(F4=7,2,IF(F4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="8">
         <f>IF(G4=1,10,IF(G4=2,8,IF(G4=3,6,IF(G4=4,5,IF(G4=5,4,IF(G4=6,3,IF(G4=7,2,IF(G4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <f>IF(H4=1,10,IF(H4=2,8,IF(H4=3,6,IF(H4=4,5,IF(H4=5,4,IF(H4=6,3,IF(H4=7,2,IF(H4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8">
         <f>IF(I4=1,10,IF(I4=2,8,IF(I4=3,6,IF(I4=4,5,IF(I4=5,4,IF(I4=6,3,IF(I4=7,2,IF(I4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="8">
         <f>IF(J4=1,10,IF(J4=2,8,IF(J4=3,6,IF(J4=4,5,IF(J4=5,4,IF(J4=6,3,IF(J4=7,2,IF(J4=8,1,0))))))))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K5" s="8">
         <f>IF(K4=1,10,IF(K4=2,8,IF(K4=3,6,IF(K4=4,5,IF(K4=5,4,IF(K4=6,3,IF(K4=7,2,IF(K4=8,1,0))))))))</f>
@@ -5523,31 +5571,31 @@
       </c>
       <c r="L5" s="8">
         <f>IF(L4=1,10,IF(L4=2,8,IF(L4=3,6,IF(L4=4,5,IF(L4=5,4,IF(L4=6,3,IF(L4=7,2,IF(L4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5" s="8">
         <f>IF(M4=1,10,IF(M4=2,8,IF(M4=3,6,IF(M4=4,5,IF(M4=5,4,IF(M4=6,3,IF(M4=7,2,IF(M4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N5" s="8">
         <f>IF(N4=1,10,IF(N4=2,8,IF(N4=3,6,IF(N4=4,5,IF(N4=5,4,IF(N4=6,3,IF(N4=7,2,IF(N4=8,1,0))))))))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" s="8">
         <f>IF(O4=1,10,IF(O4=2,8,IF(O4=3,6,IF(O4=4,5,IF(O4=5,4,IF(O4=6,3,IF(O4=7,2,IF(O4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P5" s="8">
         <f>IF(P4=1,10,IF(P4=2,8,IF(P4=3,6,IF(P4=4,5,IF(P4=5,4,IF(P4=6,3,IF(P4=7,2,IF(P4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="8">
         <f>IF(Q4=1,10,IF(Q4=2,8,IF(Q4=3,6,IF(Q4=4,5,IF(Q4=5,4,IF(Q4=6,3,IF(Q4=7,2,IF(Q4=8,1,0))))))))/2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" s="8">
         <f>IF(R4=1,10,IF(R4=2,8,IF(R4=3,6,IF(R4=4,5,IF(R4=5,4,IF(R4=6,3,IF(R4=7,2,IF(R4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5" s="8">
         <f>IF(S4=1,10,IF(S4=2,8,IF(S4=3,6,IF(S4=4,5,IF(S4=5,4,IF(S4=6,3,IF(S4=7,2,IF(S4=8,1,0))))))))</f>
@@ -5555,31 +5603,31 @@
       </c>
       <c r="T5" s="8">
         <f>IF(T4=1,10,IF(T4=2,8,IF(T4=3,6,IF(T4=4,5,IF(T4=5,4,IF(T4=6,3,IF(T4=7,2,IF(T4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="8">
         <f>IF(U4=1,10,IF(U4=2,8,IF(U4=3,6,IF(U4=4,5,IF(U4=5,4,IF(U4=6,3,IF(U4=7,2,IF(U4=8,1,0))))))))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V5" s="8">
         <f>IF(V4=1,10,IF(V4=2,8,IF(V4=3,6,IF(V4=4,5,IF(V4=5,4,IF(V4=6,3,IF(V4=7,2,IF(V4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W5" s="8">
         <f>IF(W4=1,10,IF(W4=2,8,IF(W4=3,6,IF(W4=4,5,IF(W4=5,4,IF(W4=6,3,IF(W4=7,2,IF(W4=8,1,0))))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X5" s="8">
         <f>IF(X4=1,10,IF(X4=2,8,IF(X4=3,6,IF(X4=4,5,IF(X4=5,4,IF(X4=6,3,IF(X4=7,2,IF(X4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="8">
         <f>IF(Y4=1,10,IF(Y4=2,8,IF(Y4=3,6,IF(Y4=4,5,IF(Y4=5,4,IF(Y4=6,3,IF(Y4=7,2,IF(Y4=8,1,0))))))))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,10,IF(Z4=2,8,IF(Z4=3,6,IF(Z4=4,5,IF(Z4=5,4,IF(Z4=6,3,IF(Z4=7,2,IF(Z4=8,1,0))))))))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA5" s="8">
         <f>IF(AA4=1,10,IF(AA4=2,8,IF(AA4=3,6,IF(AA4=4,5,IF(AA4=5,4,IF(AA4=6,3,IF(AA4=7,2,IF(AA4=8,1,0))))))))</f>
@@ -5663,11 +5711,13 @@
       <c r="Y6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5758,7 +5808,7 @@
       </c>
       <c r="Z7" s="8">
         <f>IF(Z6=1,10,IF(Z6=2,8,IF(Z6=3,6,IF(Z6=4,5,IF(Z6=5,4,IF(Z6=6,3,IF(Z6=7,2,IF(Z6=8,1,0))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="8">
         <f>IF(AA6=1,10,IF(AA6=2,8,IF(AA6=3,6,IF(AA6=4,5,IF(AA6=5,4,IF(AA6=6,3,IF(AA6=7,2,IF(AA6=8,1,0))))))))</f>
@@ -5842,7 +5892,9 @@
       <c r="Y8" s="7">
         <v>4</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>SUM(F9:AA9)</f>
@@ -6021,11 +6073,13 @@
       <c r="Y10" s="7">
         <v>8</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7">
+        <v>7</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>SUM(F11:AA11)</f>
-        <v>60.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -6116,7 +6170,7 @@
       </c>
       <c r="Z11" s="8">
         <f>IF(Z10=1,10,IF(Z10=2,8,IF(Z10=3,6,IF(Z10=4,5,IF(Z10=5,4,IF(Z10=6,3,IF(Z10=7,2,IF(Z10=8,1,0))))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="8">
         <f>IF(AA10=1,10,IF(AA10=2,8,IF(AA10=3,6,IF(AA10=4,5,IF(AA10=5,4,IF(AA10=6,3,IF(AA10=7,2,IF(AA10=8,1,0))))))))</f>
@@ -6200,7 +6254,9 @@
       <c r="Y12" s="7">
         <v>9</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7">
+        <v>10</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <f>SUM(F13:AA13)</f>
@@ -6379,11 +6435,13 @@
       <c r="Y14" s="7">
         <v>7</v>
       </c>
-      <c r="Z14" s="7"/>
+      <c r="Z14" s="7">
+        <v>8</v>
+      </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6474,7 +6532,7 @@
       </c>
       <c r="Z15" s="8">
         <f>IF(Z14=1,10,IF(Z14=2,8,IF(Z14=3,6,IF(Z14=4,5,IF(Z14=5,4,IF(Z14=6,3,IF(Z14=7,2,IF(Z14=8,1,0))))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="8">
         <f>IF(AA14=1,10,IF(AA14=2,8,IF(AA14=3,6,IF(AA14=4,5,IF(AA14=5,4,IF(AA14=6,3,IF(AA14=7,2,IF(AA14=8,1,0))))))))</f>
@@ -6558,11 +6616,13 @@
       <c r="Y16" s="7">
         <v>12</v>
       </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>5</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>38.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6653,7 +6713,7 @@
       </c>
       <c r="Z17" s="8">
         <f>IF(Z16=1,10,IF(Z16=2,8,IF(Z16=3,6,IF(Z16=4,5,IF(Z16=5,4,IF(Z16=6,3,IF(Z16=7,2,IF(Z16=8,1,0))))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA17" s="8">
         <f>IF(AA16=1,10,IF(AA16=2,8,IF(AA16=3,6,IF(AA16=4,5,IF(AA16=5,4,IF(AA16=6,3,IF(AA16=7,2,IF(AA16=8,1,0))))))))</f>
@@ -6737,11 +6797,13 @@
       <c r="Y18" s="7">
         <v>11</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>6</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>33.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -6832,7 +6894,7 @@
       </c>
       <c r="Z19" s="8">
         <f>IF(Z18=1,10,IF(Z18=2,8,IF(Z18=3,6,IF(Z18=4,5,IF(Z18=5,4,IF(Z18=6,3,IF(Z18=7,2,IF(Z18=8,1,0))))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="8">
         <f>IF(AA18=1,10,IF(AA18=2,8,IF(AA18=3,6,IF(AA18=4,5,IF(AA18=5,4,IF(AA18=6,3,IF(AA18=7,2,IF(AA18=8,1,0))))))))</f>
@@ -6916,7 +6978,9 @@
       <c r="Y20" s="7">
         <v>3</v>
       </c>
-      <c r="Z20" s="7"/>
+      <c r="Z20" s="7">
+        <v>13</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
         <f>SUM(F21:AA21)</f>
@@ -7095,11 +7159,13 @@
       <c r="Y22" s="7">
         <v>5</v>
       </c>
-      <c r="Z22" s="7"/>
+      <c r="Z22" s="7">
+        <v>4</v>
+      </c>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -7190,7 +7256,7 @@
       </c>
       <c r="Z23" s="8">
         <f>IF(Z22=1,10,IF(Z22=2,8,IF(Z22=3,6,IF(Z22=4,5,IF(Z22=5,4,IF(Z22=6,3,IF(Z22=7,2,IF(Z22=8,1,0))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="8">
         <f>IF(AA22=1,10,IF(AA22=2,8,IF(AA22=3,6,IF(AA22=4,5,IF(AA22=5,4,IF(AA22=6,3,IF(AA22=7,2,IF(AA22=8,1,0))))))))</f>
@@ -7274,7 +7340,9 @@
       <c r="Y24" s="7">
         <v>10</v>
       </c>
-      <c r="Z24" s="7"/>
+      <c r="Z24" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
         <f>SUM(F25:AA25)</f>
@@ -7453,7 +7521,9 @@
       <c r="Y26" s="7">
         <v>6</v>
       </c>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="7">
+        <v>11</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
         <f>SUM(F27:AA27)</f>
@@ -7632,7 +7702,9 @@
       <c r="Y28" s="7">
         <v>13</v>
       </c>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7">
+        <v>14</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
         <f>SUM(F29:AA29)</f>
@@ -7811,7 +7883,9 @@
       <c r="Y30" s="7">
         <v>17</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
         <f>SUM(F31:AA31)</f>
@@ -7990,7 +8064,9 @@
       <c r="Y32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="7">
+        <v>12</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
         <f>SUM(F33:AA33)</f>
@@ -8165,7 +8241,9 @@
       <c r="Y34" s="7">
         <v>14</v>
       </c>
-      <c r="Z34" s="7"/>
+      <c r="Z34" s="7">
+        <v>15</v>
+      </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
         <f>SUM(F35:AA35)</f>
@@ -8344,7 +8422,9 @@
       <c r="Y36" s="7">
         <v>15</v>
       </c>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="7">
+        <v>9</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
         <f>SUM(F37:AA37)</f>
@@ -8523,7 +8603,9 @@
       <c r="Y38" s="7">
         <v>16</v>
       </c>
-      <c r="Z38" s="7"/>
+      <c r="Z38" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
         <f>SUM(F39:AA39)</f>
@@ -8702,7 +8784,9 @@
       <c r="Y40" s="7">
         <v>18</v>
       </c>
-      <c r="Z40" s="7"/>
+      <c r="Z40" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
         <f>SUM(F41:AA41)</f>
@@ -8982,8 +9066,7 @@
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -9159,7 +9242,9 @@
       <c r="Y2" s="7">
         <v>2</v>
       </c>
-      <c r="Z2" s="7"/>
+      <c r="Z2" s="7">
+        <v>2</v>
+      </c>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7">
         <f>1+1+1+1+1</f>
@@ -9167,11 +9252,11 @@
       </c>
       <c r="AC2" s="7">
         <f>SUM(F3:AA3)+AB2</f>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="7">
         <f>SUM(F3:AA3)</f>
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -9262,7 +9347,7 @@
       </c>
       <c r="Z3" s="8">
         <f>IF(Z2=1,10,IF(Z2=2,6,IF(Z2=3,4,IF(Z2=4,3,IF(Z2=5,2,IF(Z2=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="8">
         <f>IF(AA2=1,10,IF(AA2=2,6,IF(AA2=3,4,IF(AA2=4,3,IF(AA2=5,2,IF(AA2=6,1,0))))))</f>
@@ -9348,19 +9433,21 @@
       <c r="Y4" s="7">
         <v>1</v>
       </c>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f>1+1+1+1+1</f>
-        <v>5</v>
+        <f>1+1+1+1+1+1</f>
+        <v>6</v>
       </c>
       <c r="AC4" s="7">
         <f>SUM(F5:AA5)+AB4</f>
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AD4" s="7">
         <f>SUM(F5:AA5)</f>
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -9451,7 +9538,7 @@
       </c>
       <c r="Z5" s="8">
         <f>IF(Z4=1,10,IF(Z4=2,6,IF(Z4=3,4,IF(Z4=4,3,IF(Z4=5,2,IF(Z4=6,1,0))))))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="8">
         <f>IF(AA4=1,10,IF(AA4=2,6,IF(AA4=3,4,IF(AA4=4,3,IF(AA4=5,2,IF(AA4=6,1,0))))))</f>
@@ -9537,7 +9624,9 @@
       <c r="Y6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f>1+1+1+1</f>
@@ -9545,11 +9634,11 @@
       </c>
       <c r="AC6" s="7">
         <f>SUM(F7:AA7)+AB6</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="7">
         <f>SUM(F7:AA7)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -9640,7 +9729,7 @@
       </c>
       <c r="Z7" s="8">
         <f>IF(Z6=1,10,IF(Z6=2,6,IF(Z6=3,4,IF(Z6=4,3,IF(Z6=5,2,IF(Z6=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="8">
         <f>IF(AA6=1,10,IF(AA6=2,6,IF(AA6=3,4,IF(AA6=4,3,IF(AA6=5,2,IF(AA6=6,1,0))))))</f>
@@ -9726,7 +9815,9 @@
       <c r="Y8" s="7">
         <v>4</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
         <f>1+1</f>
@@ -9915,7 +10006,9 @@
       <c r="Y10" s="7">
         <v>9</v>
       </c>
-      <c r="Z10" s="7"/>
+      <c r="Z10" s="7">
+        <v>10</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
         <f>1</f>
@@ -10104,7 +10197,9 @@
       <c r="Y12" s="7">
         <v>8</v>
       </c>
-      <c r="Z12" s="7"/>
+      <c r="Z12" s="7">
+        <v>7</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
         <v>0</v>
@@ -10218,92 +10313,95 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
+        <v>6</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6</v>
+      </c>
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>7</v>
+      </c>
+      <c r="O14" s="7">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="P14" s="7">
         <v>11</v>
       </c>
-      <c r="I14" s="7">
-        <v>7</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="Q14" s="7">
+        <v>4</v>
+      </c>
+      <c r="R14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>4</v>
+      </c>
+      <c r="U14" s="7">
+        <v>13</v>
+      </c>
+      <c r="V14" s="7">
         <v>5</v>
       </c>
-      <c r="O14" s="7">
-        <v>6</v>
-      </c>
-      <c r="P14" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7">
-        <v>7</v>
-      </c>
-      <c r="S14" s="7">
-        <v>6</v>
-      </c>
-      <c r="T14" s="7">
-        <v>3</v>
-      </c>
-      <c r="U14" s="7">
-        <v>8</v>
-      </c>
-      <c r="V14" s="7">
-        <v>7</v>
-      </c>
       <c r="W14" s="7">
-        <v>6</v>
-      </c>
-      <c r="X14" s="7">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="Y14" s="7">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>5</v>
+      </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
-        <v>0</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="AC14" s="7">
         <f>SUM(F15:AA15)+AB14</f>
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="AD14" s="7">
         <f>SUM(F15:AA15)</f>
-        <v>23</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -10318,7 +10416,7 @@
       </c>
       <c r="G15" s="8">
         <f>IF(G14=1,10,IF(G14=2,6,IF(G14=3,4,IF(G14=4,3,IF(G14=5,2,IF(G14=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8">
         <f>IF(H14=1,10,IF(H14=2,6,IF(H14=3,4,IF(H14=4,3,IF(H14=5,2,IF(H14=6,1,0))))))</f>
@@ -10326,11 +10424,11 @@
       </c>
       <c r="I15" s="8">
         <f>IF(I14=1,10,IF(I14=2,6,IF(I14=3,4,IF(I14=4,3,IF(I14=5,2,IF(I14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="8">
         <f>IF(J14=1,10,IF(J14=2,6,IF(J14=3,4,IF(J14=4,3,IF(J14=5,2,IF(J14=6,1,0))))))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <f>IF(K14=1,10,IF(K14=2,6,IF(K14=3,4,IF(K14=4,3,IF(K14=5,2,IF(K14=6,1,0))))))</f>
@@ -10338,27 +10436,27 @@
       </c>
       <c r="L15" s="8">
         <f>IF(L14=1,10,IF(L14=2,6,IF(L14=3,4,IF(L14=4,3,IF(L14=5,2,IF(L14=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
         <f>IF(M14=1,10,IF(M14=2,6,IF(M14=3,4,IF(M14=4,3,IF(M14=5,2,IF(M14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="8">
         <f>IF(N14=1,10,IF(N14=2,6,IF(N14=3,4,IF(N14=4,3,IF(N14=5,2,IF(N14=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8">
         <f>IF(O14=1,10,IF(O14=2,6,IF(O14=3,4,IF(O14=4,3,IF(O14=5,2,IF(O14=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="8">
         <f>IF(P14=1,10,IF(P14=2,6,IF(P14=3,4,IF(P14=4,3,IF(P14=5,2,IF(P14=6,1,0))))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="8">
         <f>IF(Q14=1,10,IF(Q14=2,6,IF(Q14=3,4,IF(Q14=4,3,IF(Q14=5,2,IF(Q14=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R15" s="8">
         <f>IF(R14=1,10,IF(R14=2,6,IF(R14=3,4,IF(R14=4,3,IF(R14=5,2,IF(R14=6,1,0))))))</f>
@@ -10366,11 +10464,11 @@
       </c>
       <c r="S15" s="8">
         <f>IF(S14=1,10,IF(S14=2,6,IF(S14=3,4,IF(S14=4,3,IF(S14=5,2,IF(S14=6,1,0))))))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8">
         <f>IF(T14=1,10,IF(T14=2,6,IF(T14=3,4,IF(T14=4,3,IF(T14=5,2,IF(T14=6,1,0))))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U15" s="8">
         <f>IF(U14=1,10,IF(U14=2,6,IF(U14=3,4,IF(U14=4,3,IF(U14=5,2,IF(U14=6,1,0))))))</f>
@@ -10378,15 +10476,15 @@
       </c>
       <c r="V15" s="8">
         <f>IF(V14=1,10,IF(V14=2,6,IF(V14=3,4,IF(V14=4,3,IF(V14=5,2,IF(V14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="8">
         <f>IF(W14=1,10,IF(W14=2,6,IF(W14=3,4,IF(W14=4,3,IF(W14=5,2,IF(W14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="8">
         <f>IF(X14=1,10,IF(X14=2,6,IF(X14=3,4,IF(X14=4,3,IF(X14=5,2,IF(X14=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="8">
         <f>IF(Y14=1,10,IF(Y14=2,6,IF(Y14=3,4,IF(Y14=4,3,IF(Y14=5,2,IF(Y14=6,1,0))))))</f>
@@ -10394,7 +10492,7 @@
       </c>
       <c r="Z15" s="8">
         <f>IF(Z14=1,10,IF(Z14=2,6,IF(Z14=3,4,IF(Z14=4,3,IF(Z14=5,2,IF(Z14=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="8">
         <f>IF(AA14=1,10,IF(AA14=2,6,IF(AA14=3,4,IF(AA14=4,3,IF(AA14=5,2,IF(AA14=6,1,0))))))</f>
@@ -10406,93 +10504,94 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
+      <c r="L16" s="7">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6</v>
+      </c>
+      <c r="P16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="Q16" s="7">
+        <v>10</v>
+      </c>
+      <c r="R16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="7">
+      <c r="S16" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="T16" s="7">
+        <v>3</v>
+      </c>
+      <c r="U16" s="7">
+        <v>8</v>
+      </c>
+      <c r="V16" s="7">
+        <v>7</v>
+      </c>
+      <c r="W16" s="7">
         <v>6</v>
       </c>
-      <c r="J16" s="7">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7">
-        <v>9</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="X16" s="7">
         <v>6</v>
       </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="Y16" s="7">
         <v>7</v>
       </c>
-      <c r="O16" s="7">
-        <v>5</v>
-      </c>
-      <c r="P16" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>4</v>
-      </c>
-      <c r="R16" s="7">
-        <v>11</v>
-      </c>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7">
-        <v>4</v>
-      </c>
-      <c r="U16" s="7">
-        <v>13</v>
-      </c>
-      <c r="V16" s="7">
-        <v>5</v>
-      </c>
-      <c r="W16" s="7">
-        <v>12</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="7">
+        <v>8</v>
+      </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
-        <f>1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="7">
         <f>SUM(F17:AA17)+AB16</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AD16" s="7">
         <f>SUM(F17:AA17)</f>
-        <v>21.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -10507,7 +10606,7 @@
       </c>
       <c r="G17" s="8">
         <f>IF(G16=1,10,IF(G16=2,6,IF(G16=3,4,IF(G16=4,3,IF(G16=5,2,IF(G16=6,1,0))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="8">
         <f>IF(H16=1,10,IF(H16=2,6,IF(H16=3,4,IF(H16=4,3,IF(H16=5,2,IF(H16=6,1,0))))))</f>
@@ -10515,11 +10614,11 @@
       </c>
       <c r="I17" s="8">
         <f>IF(I16=1,10,IF(I16=2,6,IF(I16=3,4,IF(I16=4,3,IF(I16=5,2,IF(I16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="8">
         <f>IF(J16=1,10,IF(J16=2,6,IF(J16=3,4,IF(J16=4,3,IF(J16=5,2,IF(J16=6,1,0))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="8">
         <f>IF(K16=1,10,IF(K16=2,6,IF(K16=3,4,IF(K16=4,3,IF(K16=5,2,IF(K16=6,1,0))))))</f>
@@ -10527,27 +10626,27 @@
       </c>
       <c r="L17" s="8">
         <f>IF(L16=1,10,IF(L16=2,6,IF(L16=3,4,IF(L16=4,3,IF(L16=5,2,IF(L16=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="8">
         <f>IF(M16=1,10,IF(M16=2,6,IF(M16=3,4,IF(M16=4,3,IF(M16=5,2,IF(M16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="8">
         <f>IF(N16=1,10,IF(N16=2,6,IF(N16=3,4,IF(N16=4,3,IF(N16=5,2,IF(N16=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="8">
         <f>IF(O16=1,10,IF(O16=2,6,IF(O16=3,4,IF(O16=4,3,IF(O16=5,2,IF(O16=6,1,0))))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="8">
         <f>IF(P16=1,10,IF(P16=2,6,IF(P16=3,4,IF(P16=4,3,IF(P16=5,2,IF(P16=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="8">
         <f>IF(Q16=1,10,IF(Q16=2,6,IF(Q16=3,4,IF(Q16=4,3,IF(Q16=5,2,IF(Q16=6,1,0))))))/2</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8">
         <f>IF(R16=1,10,IF(R16=2,6,IF(R16=3,4,IF(R16=4,3,IF(R16=5,2,IF(R16=6,1,0))))))</f>
@@ -10555,11 +10654,11 @@
       </c>
       <c r="S17" s="8">
         <f>IF(S16=1,10,IF(S16=2,6,IF(S16=3,4,IF(S16=4,3,IF(S16=5,2,IF(S16=6,1,0))))))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" s="8">
         <f>IF(T16=1,10,IF(T16=2,6,IF(T16=3,4,IF(T16=4,3,IF(T16=5,2,IF(T16=6,1,0))))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" s="8">
         <f>IF(U16=1,10,IF(U16=2,6,IF(U16=3,4,IF(U16=4,3,IF(U16=5,2,IF(U16=6,1,0))))))</f>
@@ -10567,15 +10666,15 @@
       </c>
       <c r="V17" s="8">
         <f>IF(V16=1,10,IF(V16=2,6,IF(V16=3,4,IF(V16=4,3,IF(V16=5,2,IF(V16=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="8">
         <f>IF(W16=1,10,IF(W16=2,6,IF(W16=3,4,IF(W16=4,3,IF(W16=5,2,IF(W16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="8">
         <f>IF(X16=1,10,IF(X16=2,6,IF(X16=3,4,IF(X16=4,3,IF(X16=5,2,IF(X16=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="8">
         <f>IF(Y16=1,10,IF(Y16=2,6,IF(Y16=3,4,IF(Y16=4,3,IF(Y16=5,2,IF(Y16=6,1,0))))))</f>
@@ -10669,7 +10768,9 @@
       <c r="Y18" s="7">
         <v>11</v>
       </c>
-      <c r="Z18" s="7"/>
+      <c r="Z18" s="7">
+        <v>6</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
         <f>1</f>
@@ -10677,11 +10778,11 @@
       </c>
       <c r="AC18" s="7">
         <f>SUM(F19:AA19)+AB18</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD18" s="7">
         <f>SUM(F19:AA19)</f>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -10772,7 +10873,7 @@
       </c>
       <c r="Z19" s="8">
         <f>IF(Z18=1,10,IF(Z18=2,6,IF(Z18=3,4,IF(Z18=4,3,IF(Z18=5,2,IF(Z18=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="8">
         <f>IF(AA18=1,10,IF(AA18=2,6,IF(AA18=3,4,IF(AA18=4,3,IF(AA18=5,2,IF(AA18=6,1,0))))))</f>
@@ -10856,20 +10957,22 @@
         <v>8</v>
       </c>
       <c r="Y20" s="7">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>4</v>
+      </c>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
         <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>SUM(F21:AA21)+AB20</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD20" s="7">
         <f>SUM(F21:AA21)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -10956,11 +11059,11 @@
       </c>
       <c r="Y21" s="8">
         <f>IF(Y20=1,10,IF(Y20=2,6,IF(Y20=3,4,IF(Y20=4,3,IF(Y20=5,2,IF(Y20=6,1,0))))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="8">
         <f>IF(Z20=1,10,IF(Z20=2,6,IF(Z20=3,4,IF(Z20=4,3,IF(Z20=5,2,IF(Z20=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA21" s="8">
         <f>IF(AA20=1,10,IF(AA20=2,6,IF(AA20=3,4,IF(AA20=4,3,IF(AA20=5,2,IF(AA20=6,1,0))))))</f>
@@ -10972,92 +11075,94 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="7">
-        <v>15</v>
-      </c>
-      <c r="G22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
       <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>17</v>
+      </c>
+      <c r="J22" s="7">
         <v>13</v>
       </c>
-      <c r="I22" s="7">
+      <c r="K22" s="7">
+        <v>6</v>
+      </c>
+      <c r="L22" s="7">
+        <v>8</v>
+      </c>
+      <c r="M22" s="7">
+        <v>9</v>
+      </c>
+      <c r="N22" s="7">
+        <v>10</v>
+      </c>
+      <c r="O22" s="7">
+        <v>7</v>
+      </c>
+      <c r="P22" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>11</v>
+      </c>
+      <c r="R22" s="7">
+        <v>6</v>
+      </c>
+      <c r="S22" s="7">
+        <v>8</v>
+      </c>
+      <c r="T22" s="7">
+        <v>6</v>
+      </c>
+      <c r="U22" s="7">
+        <v>16</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="7">
         <v>13</v>
       </c>
-      <c r="J22" s="7">
-        <v>5</v>
-      </c>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="X22" s="7">
         <v>9</v>
       </c>
-      <c r="M22" s="7">
-        <v>12</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>5</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="Y22" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="7">
         <v>13</v>
       </c>
-      <c r="S22" s="7">
-        <v>12</v>
-      </c>
-      <c r="T22" s="7">
-        <v>12</v>
-      </c>
-      <c r="U22" s="7">
-        <v>18</v>
-      </c>
-      <c r="V22" s="7">
-        <v>10</v>
-      </c>
-      <c r="W22" s="7">
-        <v>7</v>
-      </c>
-      <c r="X22" s="7">
-        <v>11</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
         <v>0</v>
       </c>
       <c r="AC22" s="7">
         <f>SUM(F23:AA23)+AB22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD22" s="7">
         <f>SUM(F23:AA23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -11084,11 +11189,11 @@
       </c>
       <c r="J23" s="8">
         <f>IF(J22=1,10,IF(J22=2,6,IF(J22=3,4,IF(J22=4,3,IF(J22=5,2,IF(J22=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8">
         <f>IF(K22=1,10,IF(K22=2,6,IF(K22=3,4,IF(K22=4,3,IF(K22=5,2,IF(K22=6,1,0))))))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8">
         <f>IF(L22=1,10,IF(L22=2,6,IF(L22=3,4,IF(L22=4,3,IF(L22=5,2,IF(L22=6,1,0))))))</f>
@@ -11108,15 +11213,15 @@
       </c>
       <c r="P23" s="8">
         <f>IF(P22=1,10,IF(P22=2,6,IF(P22=3,4,IF(P22=4,3,IF(P22=5,2,IF(P22=6,1,0))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="8">
         <f>IF(Q22=1,10,IF(Q22=2,6,IF(Q22=3,4,IF(Q22=4,3,IF(Q22=5,2,IF(Q22=6,1,0))))))/2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8">
         <f>IF(R22=1,10,IF(R22=2,6,IF(R22=3,4,IF(R22=4,3,IF(R22=5,2,IF(R22=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="8">
         <f>IF(S22=1,10,IF(S22=2,6,IF(S22=3,4,IF(S22=4,3,IF(S22=5,2,IF(S22=6,1,0))))))</f>
@@ -11124,7 +11229,7 @@
       </c>
       <c r="T23" s="8">
         <f>IF(T22=1,10,IF(T22=2,6,IF(T22=3,4,IF(T22=4,3,IF(T22=5,2,IF(T22=6,1,0))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="8">
         <f>IF(U22=1,10,IF(U22=2,6,IF(U22=3,4,IF(U22=4,3,IF(U22=5,2,IF(U22=6,1,0))))))</f>
@@ -11144,7 +11249,7 @@
       </c>
       <c r="Y23" s="8">
         <f>IF(Y22=1,10,IF(Y22=2,6,IF(Y22=3,4,IF(Y22=4,3,IF(Y22=5,2,IF(Y22=6,1,0))))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="8">
         <f>IF(Z22=1,10,IF(Z22=2,6,IF(Z22=3,4,IF(Z22=4,3,IF(Z22=5,2,IF(Z22=6,1,0))))))</f>
@@ -11160,92 +11265,94 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7">
+        <v>15</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>9</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>5</v>
+      </c>
+      <c r="R24" s="7">
+        <v>13</v>
+      </c>
+      <c r="S24" s="7">
+        <v>12</v>
+      </c>
+      <c r="T24" s="7">
+        <v>12</v>
+      </c>
+      <c r="U24" s="7">
+        <v>18</v>
+      </c>
+      <c r="V24" s="7">
         <v>10</v>
       </c>
-      <c r="H24" s="7">
-        <v>8</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17</v>
-      </c>
-      <c r="J24" s="7">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7">
-        <v>6</v>
-      </c>
-      <c r="L24" s="7">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7">
-        <v>9</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="W24" s="7">
+        <v>7</v>
+      </c>
+      <c r="X24" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="7">
         <v>10</v>
       </c>
-      <c r="O24" s="7">
-        <v>7</v>
-      </c>
-      <c r="P24" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>11</v>
-      </c>
-      <c r="R24" s="7">
-        <v>6</v>
-      </c>
-      <c r="S24" s="7">
-        <v>8</v>
-      </c>
-      <c r="T24" s="7">
-        <v>6</v>
-      </c>
-      <c r="U24" s="7">
-        <v>16</v>
-      </c>
-      <c r="V24" s="9" t="s">
+      <c r="Z24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="W24" s="7">
-        <v>13</v>
-      </c>
-      <c r="X24" s="7">
-        <v>9</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
         <v>0</v>
       </c>
       <c r="AC24" s="7">
         <f>SUM(F25:AA25)+AB24</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD24" s="7">
         <f>SUM(F25:AA25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -11272,11 +11379,11 @@
       </c>
       <c r="J25" s="8">
         <f>IF(J24=1,10,IF(J24=2,6,IF(J24=3,4,IF(J24=4,3,IF(J24=5,2,IF(J24=6,1,0))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="8">
         <f>IF(K24=1,10,IF(K24=2,6,IF(K24=3,4,IF(K24=4,3,IF(K24=5,2,IF(K24=6,1,0))))))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L25" s="8">
         <f>IF(L24=1,10,IF(L24=2,6,IF(L24=3,4,IF(L24=4,3,IF(L24=5,2,IF(L24=6,1,0))))))</f>
@@ -11296,15 +11403,15 @@
       </c>
       <c r="P25" s="8">
         <f>IF(P24=1,10,IF(P24=2,6,IF(P24=3,4,IF(P24=4,3,IF(P24=5,2,IF(P24=6,1,0))))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="8">
         <f>IF(Q24=1,10,IF(Q24=2,6,IF(Q24=3,4,IF(Q24=4,3,IF(Q24=5,2,IF(Q24=6,1,0))))))/2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="8">
         <f>IF(R24=1,10,IF(R24=2,6,IF(R24=3,4,IF(R24=4,3,IF(R24=5,2,IF(R24=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="8">
         <f>IF(S24=1,10,IF(S24=2,6,IF(S24=3,4,IF(S24=4,3,IF(S24=5,2,IF(S24=6,1,0))))))</f>
@@ -11312,7 +11419,7 @@
       </c>
       <c r="T25" s="8">
         <f>IF(T24=1,10,IF(T24=2,6,IF(T24=3,4,IF(T24=4,3,IF(T24=5,2,IF(T24=6,1,0))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="8">
         <f>IF(U24=1,10,IF(U24=2,6,IF(U24=3,4,IF(U24=4,3,IF(U24=5,2,IF(U24=6,1,0))))))</f>
@@ -11332,7 +11439,7 @@
       </c>
       <c r="Y25" s="8">
         <f>IF(Y24=1,10,IF(Y24=2,6,IF(Y24=3,4,IF(Y24=4,3,IF(Y24=5,2,IF(Y24=6,1,0))))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="8">
         <f>IF(Z24=1,10,IF(Z24=2,6,IF(Z24=3,4,IF(Z24=4,3,IF(Z24=5,2,IF(Z24=6,1,0))))))</f>
@@ -11422,7 +11529,9 @@
       <c r="Y26" s="7">
         <v>17</v>
       </c>
-      <c r="Z26" s="7"/>
+      <c r="Z26" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
         <v>0</v>
@@ -11610,7 +11719,9 @@
       <c r="Y28" s="7">
         <v>13</v>
       </c>
-      <c r="Z28" s="7"/>
+      <c r="Z28" s="7">
+        <v>14</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
         <v>0</v>
@@ -11798,7 +11909,9 @@
       <c r="Y30" s="7">
         <v>6</v>
       </c>
-      <c r="Z30" s="7"/>
+      <c r="Z30" s="7">
+        <v>11</v>
+      </c>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
         <v>0</v>
@@ -11986,7 +12099,9 @@
       <c r="Y32" s="7">
         <v>18</v>
       </c>
-      <c r="Z32" s="7"/>
+      <c r="Z32" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
         <f>(1)/2</f>
@@ -12175,7 +12290,9 @@
       <c r="Y34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Z34" s="7"/>
+      <c r="Z34" s="7">
+        <v>12</v>
+      </c>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7">
         <v>0</v>
@@ -12359,7 +12476,9 @@
       <c r="Y36" s="7">
         <v>14</v>
       </c>
-      <c r="Z36" s="7"/>
+      <c r="Z36" s="7">
+        <v>15</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7">
         <v>0</v>
@@ -12547,7 +12666,9 @@
       <c r="Y38" s="7">
         <v>15</v>
       </c>
-      <c r="Z38" s="7"/>
+      <c r="Z38" s="7">
+        <v>9</v>
+      </c>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7">
         <v>0</v>
@@ -12735,7 +12856,9 @@
       <c r="Y40" s="7">
         <v>16</v>
       </c>
-      <c r="Z40" s="7"/>
+      <c r="Z40" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7">
         <v>0</v>
@@ -13056,11 +13179,11 @@
       </c>
       <c r="D2" s="8">
         <f>'2021 Driver Ranking'!AD4+'2021 Driver Ranking'!AD6</f>
-        <v>546.5</v>
+        <v>587.5</v>
       </c>
       <c r="E2" s="8">
         <f>'2021 Driver Ranking'!AE4+'2021 Driver Ranking'!AE6</f>
-        <v>529.5</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13075,11 +13198,11 @@
       </c>
       <c r="D3" s="10">
         <f>'2021 Driver Ranking'!AD2+'2021 Driver Ranking'!AD8</f>
-        <v>541.5</v>
+        <v>559.5</v>
       </c>
       <c r="E3" s="10">
         <f>'2021 Driver Ranking'!AE2+'2021 Driver Ranking'!AE8</f>
-        <v>529.5</v>
+        <v>547.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13093,12 +13216,12 @@
         <v>91</v>
       </c>
       <c r="D4" s="12">
-        <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD14</f>
-        <v>297.5</v>
+        <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD14</f>
+        <v>307.5</v>
       </c>
       <c r="E4" s="12">
-        <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE14</f>
-        <v>296.5</v>
+        <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE14</f>
+        <v>306.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13112,12 +13235,12 @@
         <v>97</v>
       </c>
       <c r="D5" s="11">
-        <f>'2021 Driver Ranking'!AD10+'2021 Driver Ranking'!AD16</f>
-        <v>258</v>
+        <f>'2021 Driver Ranking'!AD12+'2021 Driver Ranking'!AD16</f>
+        <v>269</v>
       </c>
       <c r="E5" s="11">
-        <f>'2021 Driver Ranking'!AE10+'2021 Driver Ranking'!AE16</f>
-        <v>255</v>
+        <f>'2021 Driver Ranking'!AE12+'2021 Driver Ranking'!AE16</f>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13132,11 +13255,11 @@
       </c>
       <c r="D6" s="6">
         <f>'2021 Driver Ranking'!AD20+'2021 Driver Ranking'!AD22</f>
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E6" s="6">
         <f>'2021 Driver Ranking'!AE20+'2021 Driver Ranking'!AE22</f>
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13151,11 +13274,11 @@
       </c>
       <c r="D7" s="15">
         <f>'2021 Driver Ranking'!AD18+'2021 Driver Ranking'!AD28</f>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E7" s="15">
         <f>'2021 Driver Ranking'!AE18+'2021 Driver Ranking'!AE28</f>
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13208,11 +13331,11 @@
       </c>
       <c r="D10" s="16">
         <f>'2021 Driver Ranking'!AD32+'2021 Driver Ranking'!AD36+'2021 Driver Ranking'!AD42</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" s="16">
         <f>'2021 Driver Ranking'!AE32+'2021 Driver Ranking'!AE36+'2021 Driver Ranking'!AE42</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13286,8 +13409,8 @@
         <v>89</v>
       </c>
       <c r="D2" s="8">
-        <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB6</f>
-        <v>218</v>
+        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB6</f>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13301,8 +13424,8 @@
         <v>92</v>
       </c>
       <c r="D3" s="10">
-        <f>'2003-2009 Driver Ranking'!AB2+'2003-2009 Driver Ranking'!AB8</f>
-        <v>216</v>
+        <f>'2003-2009 Driver Ranking'!AB4+'2003-2009 Driver Ranking'!AB8</f>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13317,7 +13440,7 @@
       </c>
       <c r="D4" s="12">
         <f>'2003-2009 Driver Ranking'!AB10+'2003-2009 Driver Ranking'!AB14</f>
-        <v>114.5</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13332,7 +13455,7 @@
       </c>
       <c r="D5" s="11">
         <f>'2003-2009 Driver Ranking'!AB12+'2003-2009 Driver Ranking'!AB16</f>
-        <v>96.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13347,7 +13470,7 @@
       </c>
       <c r="D6" s="6">
         <f>'2003-2009 Driver Ranking'!AB20+'2003-2009 Driver Ranking'!AB22</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13362,7 +13485,7 @@
       </c>
       <c r="D7" s="15">
         <f>'2003-2009 Driver Ranking'!AB18+'2003-2009 Driver Ranking'!AB28</f>
-        <v>38.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13470,79 +13593,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
+        <v>197</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D3" s="10">
         <f>'1991-2002 Driver Ranking'!AC2+'1991-2002 Driver Ranking'!AC8</f>
-        <v>182</v>
-      </c>
-      <c r="E2" s="10">
+        <v>188</v>
+      </c>
+      <c r="E3" s="10">
         <f>'1991-2002 Driver Ranking'!AD2+'1991-2002 Driver Ranking'!AD8</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="8">
-        <f>'1991-2002 Driver Ranking'!AC4+'1991-2002 Driver Ranking'!AC6</f>
-        <v>182</v>
-      </c>
-      <c r="E3" s="8">
-        <f>'1991-2002 Driver Ranking'!AD4+'1991-2002 Driver Ranking'!AD6</f>
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="11">
+        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC14</f>
+        <v>57.5</v>
+      </c>
+      <c r="E4" s="11">
+        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD14</f>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="12">
-        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC14</f>
+      <c r="D5" s="12">
+        <f>'1991-2002 Driver Ranking'!AC12+'1991-2002 Driver Ranking'!AC16</f>
         <v>55</v>
       </c>
-      <c r="E4" s="12">
-        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD14</f>
+      <c r="E5" s="12">
+        <f>'1991-2002 Driver Ranking'!AD12+'1991-2002 Driver Ranking'!AD16</f>
         <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="11">
-        <f>'1991-2002 Driver Ranking'!AC10+'1991-2002 Driver Ranking'!AC16</f>
-        <v>55.5</v>
-      </c>
-      <c r="E5" s="11">
-        <f>'1991-2002 Driver Ranking'!AD10+'1991-2002 Driver Ranking'!AD16</f>
-        <v>53.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -13556,12 +13679,12 @@
         <v>93</v>
       </c>
       <c r="D6" s="6">
-        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC24</f>
-        <v>22</v>
+        <f>'1991-2002 Driver Ranking'!AC20+'1991-2002 Driver Ranking'!AC22</f>
+        <v>25</v>
       </c>
       <c r="E6" s="6">
-        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD24</f>
-        <v>22</v>
+        <f>'1991-2002 Driver Ranking'!AD20+'1991-2002 Driver Ranking'!AD22</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13576,11 +13699,11 @@
       </c>
       <c r="D7" s="15">
         <f>'1991-2002 Driver Ranking'!AC18+'1991-2002 Driver Ranking'!AC28</f>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="E7" s="15">
         <f>'1991-2002 Driver Ranking'!AD18+'1991-2002 Driver Ranking'!AD28</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13594,11 +13717,11 @@
         <v>97</v>
       </c>
       <c r="D8" s="13">
-        <f>'1991-2002 Driver Ranking'!AC22+'1991-2002 Driver Ranking'!AC30</f>
+        <f>'1991-2002 Driver Ranking'!AC24+'1991-2002 Driver Ranking'!AC30</f>
         <v>10</v>
       </c>
       <c r="E8" s="13">
-        <f>'1991-2002 Driver Ranking'!AD22+'1991-2002 Driver Ranking'!AD30</f>
+        <f>'1991-2002 Driver Ranking'!AD24+'1991-2002 Driver Ranking'!AD30</f>
         <v>10</v>
       </c>
     </row>
@@ -13662,7 +13785,7 @@
   </sheetData>
   <autoFilter ref="A1:E11">
     <sortState ref="A2:E11">
-      <sortCondition descending="1" ref="E1:E11"/>
+      <sortCondition descending="1" ref="D1:D11"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
